--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="414">
   <si>
     <t>id|行号</t>
   </si>
@@ -1717,6 +1717,59 @@
   </si>
   <si>
     <t>ty_icon_flq1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"game_FishingHall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"game_MiniGame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2193,9 +2246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L114" sqref="L114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5963,7 +6016,7 @@
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="6" t="s">
-        <v>180</v>
+        <v>412</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -6031,6 +6084,9 @@
       </c>
       <c r="J110" s="6" t="s">
         <v>406</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -2248,7 +2248,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L114" sqref="L114"/>
+      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2246,9 +2246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="422">
   <si>
     <t>id|行号</t>
   </si>
@@ -927,9 +927,6 @@
     <t>obj_fish_free_bullet</t>
   </si>
   <si>
-    <t>bygame_icon_danmf2</t>
-  </si>
-  <si>
     <t>免费时刻</t>
   </si>
   <si>
@@ -939,9 +936,6 @@
     <t>obj_fish_crit_bullet</t>
   </si>
   <si>
-    <t>bygame_icon_sbsk</t>
-  </si>
-  <si>
     <t>双倍时刻</t>
   </si>
   <si>
@@ -949,9 +943,6 @@
   </si>
   <si>
     <t>obj_fish_power_bullet</t>
-  </si>
-  <si>
-    <t>bygame_icon_cjhl</t>
   </si>
   <si>
     <t>超级火力</t>
@@ -1199,9 +1190,6 @@
     <t>obj_fish_drill_bullet</t>
   </si>
   <si>
-    <t>bytx_zt</t>
-  </si>
-  <si>
     <t>钻头弹</t>
   </si>
   <si>
@@ -1209,9 +1197,6 @@
   </si>
   <si>
     <t>obj_fish_pierce_bullet</t>
-  </si>
-  <si>
-    <t>bygame_icon_ctgd</t>
   </si>
   <si>
     <t>穿透钢弹</t>
@@ -1681,10 +1666,6 @@
   </si>
   <si>
     <t>prop_3d_fish_lock</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_summon_fish</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1770,6 +1751,62 @@
       </rPr>
       <t>",</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_summon_fish</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_ctgd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_ctgd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_zh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytx_zt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_danmf2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_danmf2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_sbsk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_sbsk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_cjhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_zt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_jg_skill</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超速子弹-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_dan_bs08</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2247,8 +2284,8 @@
   <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2298,7 +2335,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
@@ -2310,16 +2347,16 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -2409,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2442,12 +2479,12 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>22</v>
@@ -2508,12 +2545,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="6" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>27</v>
@@ -2541,12 +2578,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="6" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>29</v>
@@ -4139,8 +4176,8 @@
       <c r="E54" s="3">
         <v>1</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>199</v>
+      <c r="F54" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -4149,10 +4186,10 @@
         <v>12</v>
       </c>
       <c r="I54" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J54" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>201</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>180</v>
@@ -4169,7 +4206,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D55" s="3">
         <v>-1</v>
@@ -4177,8 +4214,8 @@
       <c r="E55" s="3">
         <v>1</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>203</v>
+      <c r="F55" s="6" t="s">
+        <v>415</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -4187,10 +4224,10 @@
         <v>14</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L55" s="6" t="s">
         <v>180</v>
@@ -4207,7 +4244,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D56" s="3">
         <v>-1</v>
@@ -4215,8 +4252,8 @@
       <c r="E56" s="3">
         <v>1</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>207</v>
+      <c r="F56" s="6" t="s">
+        <v>417</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -4225,10 +4262,10 @@
         <v>13</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>180</v>
@@ -4245,7 +4282,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D57" s="3">
         <v>-1</v>
@@ -4254,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G57" s="3">
         <v>1</v>
@@ -4263,13 +4300,13 @@
         <v>6</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4280,7 +4317,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D58" s="3">
         <v>-1</v>
@@ -4289,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G58" s="3">
         <v>1</v>
@@ -4298,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N58">
         <v>6</v>
@@ -4315,7 +4352,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D59" s="3">
         <v>-1</v>
@@ -4324,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
@@ -4333,10 +4370,10 @@
         <v>2</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="N59">
         <v>6</v>
@@ -4350,28 +4387,28 @@
         <v>58</v>
       </c>
       <c r="C60" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J60" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="D60" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="J60" s="13" t="s">
-        <v>225</v>
       </c>
       <c r="N60">
         <v>6</v>
@@ -4385,7 +4422,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D61" s="3">
         <v>-1</v>
@@ -4394,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
@@ -4403,10 +4440,10 @@
         <v>3</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N61">
         <v>6</v>
@@ -4420,7 +4457,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D62" s="3">
         <v>-1</v>
@@ -4438,7 +4475,7 @@
         <v>15</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J62" s="13" t="s">
         <v>184</v>
@@ -4455,28 +4492,28 @@
         <v>61</v>
       </c>
       <c r="C63" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>230</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J63" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="D63" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>233</v>
-      </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>180</v>
@@ -4490,7 +4527,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D64" s="3">
         <v>-1</v>
@@ -4499,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
@@ -4508,10 +4545,10 @@
         <v>21</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4522,7 +4559,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D65" s="3">
         <v>-1</v>
@@ -4531,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
@@ -4540,13 +4577,13 @@
         <v>22</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -4557,7 +4594,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D66" s="3">
         <v>-1</v>
@@ -4566,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -4575,10 +4612,10 @@
         <v>23</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -4589,7 +4626,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D67" s="3">
         <v>-1</v>
@@ -4598,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -4607,10 +4644,10 @@
         <v>24</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -4621,7 +4658,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D68" s="3">
         <v>-1</v>
@@ -4630,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
@@ -4639,10 +4676,10 @@
         <v>25</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -4653,7 +4690,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D69" s="3">
         <v>-1</v>
@@ -4662,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G69" s="3">
         <v>0</v>
@@ -4671,10 +4708,10 @@
         <v>26</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4685,7 +4722,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D70" s="3">
         <v>-1</v>
@@ -4694,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G70" s="3">
         <v>1</v>
@@ -4703,10 +4740,10 @@
         <v>1</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L70" s="6" t="s">
         <v>180</v>
@@ -4720,28 +4757,28 @@
         <v>69</v>
       </c>
       <c r="C71" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D71" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J71" s="13" t="s">
         <v>263</v>
-      </c>
-      <c r="D71" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="3">
-        <v>1</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4752,28 +4789,28 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
+        <v>264</v>
+      </c>
+      <c r="D72" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J72" s="13" t="s">
         <v>267</v>
-      </c>
-      <c r="D72" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="3">
-        <v>1</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4784,7 +4821,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D73" s="3">
         <v>-1</v>
@@ -4793,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -4802,10 +4839,10 @@
         <v>1</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L73" s="6" t="s">
         <v>180</v>
@@ -4822,7 +4859,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D74" s="3">
         <v>-1</v>
@@ -4831,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>276</v>
+        <v>409</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -4840,10 +4877,10 @@
         <v>1</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L74" s="6" t="s">
         <v>180</v>
@@ -4860,7 +4897,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D75" s="3">
         <v>-1</v>
@@ -4869,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G75" s="3">
         <v>1</v>
@@ -4878,10 +4915,10 @@
         <v>1</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L75" s="6" t="s">
         <v>180</v>
@@ -4898,7 +4935,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D76" s="3">
         <v>-1</v>
@@ -4907,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -4916,10 +4953,10 @@
         <v>1</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L76" s="6"/>
       <c r="N76">
@@ -4934,7 +4971,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D77" s="3">
         <v>-1</v>
@@ -4943,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -4952,13 +4989,13 @@
         <v>-100</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -4969,7 +5006,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D78" s="3">
         <v>-1</v>
@@ -4978,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G78" s="3">
         <v>1</v>
@@ -4987,10 +5024,10 @@
         <v>1</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="J78" s="16" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -5002,7 +5039,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D79" s="3">
         <v>-1</v>
@@ -5011,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G79" s="3">
         <v>0</v>
@@ -5020,10 +5057,10 @@
         <v>23</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -5034,7 +5071,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D80" s="3">
         <v>-1</v>
@@ -5043,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -5052,13 +5089,13 @@
         <v>23</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="27" x14ac:dyDescent="0.2">
@@ -5069,7 +5106,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D81" s="3">
         <v>-1</v>
@@ -5078,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
@@ -5087,13 +5124,13 @@
         <v>24</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="O81">
         <v>4</v>
@@ -5107,7 +5144,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D82" s="3">
         <v>-1</v>
@@ -5116,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
@@ -5125,13 +5162,13 @@
         <v>25</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="O82">
         <v>5</v>
@@ -5145,7 +5182,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D83" s="15">
         <v>-1</v>
@@ -5154,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G83" s="15">
         <v>1</v>
@@ -5163,10 +5200,10 @@
         <v>22</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5177,7 +5214,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D84" s="19">
         <v>-1</v>
@@ -5186,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G84" s="19">
         <v>0</v>
@@ -5195,10 +5232,10 @@
         <v>23</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5209,7 +5246,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D85" s="3">
         <v>-1</v>
@@ -5218,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G85" s="3">
         <v>1</v>
@@ -5227,10 +5264,10 @@
         <v>24</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5241,7 +5278,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D86" s="3">
         <v>-1</v>
@@ -5250,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
@@ -5259,10 +5296,10 @@
         <v>25</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5273,7 +5310,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D87" s="3">
         <v>-1</v>
@@ -5282,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
@@ -5291,10 +5328,10 @@
         <v>26</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5305,7 +5342,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D88" s="3">
         <v>-1</v>
@@ -5314,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G88" s="3">
         <v>1</v>
@@ -5323,10 +5360,10 @@
         <v>27</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5337,7 +5374,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D89" s="3">
         <v>-1</v>
@@ -5346,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
@@ -5355,10 +5392,10 @@
         <v>28</v>
       </c>
       <c r="I89" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="J89" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="J89" s="10" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5369,7 +5406,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D90" s="3">
         <v>-1</v>
@@ -5378,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G90" s="3">
         <v>1</v>
@@ -5387,10 +5424,10 @@
         <v>29</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5401,7 +5438,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D91" s="3">
         <v>-1</v>
@@ -5410,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
@@ -5419,10 +5456,10 @@
         <v>30</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5433,7 +5470,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D92" s="3">
         <v>-1</v>
@@ -5442,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -5451,10 +5488,10 @@
         <v>31</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5465,7 +5502,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D93" s="3">
         <v>-1</v>
@@ -5474,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -5483,10 +5520,10 @@
         <v>32</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5497,7 +5534,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D94" s="3">
         <v>-1</v>
@@ -5506,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
@@ -5515,13 +5552,13 @@
         <v>-100</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="O94">
         <v>12</v>
@@ -5541,7 +5578,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D95" s="3">
         <v>-1</v>
@@ -5550,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G95" s="3">
         <v>0</v>
@@ -5559,10 +5596,10 @@
         <v>33</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5573,7 +5610,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D96" s="3">
         <v>-1</v>
@@ -5582,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5591,10 +5628,10 @@
         <v>34</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -5605,7 +5642,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D97" s="3">
         <v>-1</v>
@@ -5614,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G97" s="3">
         <v>1</v>
@@ -5623,10 +5660,10 @@
         <v>35</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -5637,7 +5674,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D98" s="3">
         <v>-1</v>
@@ -5646,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>316</v>
+        <v>414</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -5655,10 +5692,10 @@
         <v>36</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N98">
         <v>8</v>
@@ -5672,7 +5709,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D99" s="3">
         <v>-1</v>
@@ -5681,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>317</v>
+        <v>417</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
@@ -5690,10 +5727,10 @@
         <v>37</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="N99">
         <v>8</v>
@@ -5707,7 +5744,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D100" s="3">
         <v>-1</v>
@@ -5716,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>318</v>
+        <v>416</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -5725,10 +5762,10 @@
         <v>38</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="N100">
         <v>8</v>
@@ -5742,7 +5779,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D101" s="3">
         <v>-1</v>
@@ -5751,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>319</v>
+        <v>421</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
@@ -5760,10 +5797,10 @@
         <v>39</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="N101">
         <v>8</v>
@@ -5777,7 +5814,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D102" s="3">
         <v>-1</v>
@@ -5786,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>320</v>
+        <v>418</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -5795,10 +5832,10 @@
         <v>40</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="N102">
         <v>8</v>
@@ -5812,7 +5849,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D103" s="3">
         <v>-1</v>
@@ -5821,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -5830,10 +5867,10 @@
         <v>41</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="N103">
         <v>8</v>
@@ -5847,7 +5884,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D104" s="3">
         <v>-1</v>
@@ -5856,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>322</v>
+        <v>411</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
@@ -5865,10 +5902,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="N104">
         <v>8</v>
@@ -5882,7 +5919,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D105" s="3">
         <v>-1</v>
@@ -5891,7 +5928,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>323</v>
+        <v>417</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -5900,10 +5937,10 @@
         <v>43</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="N105">
         <v>8</v>
@@ -5917,7 +5954,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D106" s="3">
         <v>-1</v>
@@ -5926,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>324</v>
+        <v>419</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -5935,10 +5972,10 @@
         <v>44</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="N106">
         <v>8</v>
@@ -5952,7 +5989,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D107" s="3">
         <v>-1</v>
@@ -5961,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G107" s="3">
         <v>1</v>
@@ -5970,10 +6007,10 @@
         <v>32</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="6" t="s">
@@ -5991,7 +6028,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D108" s="3">
         <v>-1</v>
@@ -6000,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G108" s="3">
         <v>1</v>
@@ -6009,14 +6046,14 @@
         <v>33</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="6" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -6030,7 +6067,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D109" s="3">
         <v>-1</v>
@@ -6039,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
@@ -6048,10 +6085,10 @@
         <v>33</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6062,7 +6099,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D110" s="3">
         <v>-1</v>
@@ -6071,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
@@ -6080,13 +6117,13 @@
         <v>34</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="434">
   <si>
     <t>id|行号</t>
   </si>
@@ -174,9 +174,6 @@
     <t>jing_bi</t>
   </si>
   <si>
-    <t>鲸币</t>
-  </si>
-  <si>
     <t>vip</t>
   </si>
   <si>
@@ -189,13 +186,7 @@
     <t>shop_gold_sum</t>
   </si>
   <si>
-    <t>红包券</t>
-  </si>
-  <si>
     <t>shop_gold_sum_limit</t>
-  </si>
-  <si>
-    <t>每日红包券额度</t>
   </si>
   <si>
     <t>room_card</t>
@@ -1283,9 +1274,6 @@
     <t>免费激励宝箱</t>
   </si>
   <si>
-    <t>师傅给与徒弟的免费激励宝箱可随机开出1000-15万鲸币。</t>
-  </si>
-  <si>
     <t>prop_box_stxt_small</t>
   </si>
   <si>
@@ -1293,9 +1281,6 @@
   </si>
   <si>
     <t>激励宝箱</t>
-  </si>
-  <si>
-    <t>师傅给与徒弟的激励宝箱可随机开出1000-15万鲸币。</t>
   </si>
   <si>
     <t>鹌鹑蛋面条</t>
@@ -1449,14 +1434,6 @@
   </si>
   <si>
     <t>"open_box","prop_box_click_like"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱可随机开出1000-15万鲸币。使用时间：2019年11月5日7:30至2019年11月11日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年1月24日-2月8日可开启宝箱，最多可获得10万鲸币。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1807,6 +1784,80 @@
   </si>
   <si>
     <t>bygame_icon_dan_bs08</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日福利券额度</t>
+  </si>
+  <si>
+    <t>宝箱可随机开出1000-15万金币。使用时间：2019年11月5日7:30至2019年11月11日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_secondary_bomb_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bymatch_game_btn_xbz</t>
+  </si>
+  <si>
+    <t>原子弹-浅水湾</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_super_bomb_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bymatch_game_btn_dbz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级原子弹-浅水湾</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_secondary_bomb_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子弹-深海寻宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_super_bomb_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级原子弹-深海寻宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_secondary_bomb_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子弹-地底遗迹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_super_bomb_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级原子弹-地底遗迹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅给与徒弟的免费激励宝箱可随机开出1000-15万金币。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅给与徒弟的激励宝箱可随机开出1000-15万金币。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年1月24日-2月8日可开启宝箱，最多可获得10万金币。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2281,11 +2332,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2335,7 +2386,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
@@ -2347,16 +2398,16 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -2446,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2479,15 +2530,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>22</v>
+        <v>383</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -2503,24 +2554,24 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -2536,7 +2587,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3">
         <v>-1</v>
@@ -2545,15 +2596,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>27</v>
+        <v>384</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2569,7 +2620,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3">
         <v>-1</v>
@@ -2578,15 +2629,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="6" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>29</v>
+        <v>415</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -2602,7 +2653,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3">
         <v>-1</v>
@@ -2611,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -2620,14 +2671,14 @@
         <v>21</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -2641,7 +2692,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3">
         <v>-1</v>
@@ -2650,15 +2701,15 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="3"/>
@@ -2674,7 +2725,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3">
         <v>-1</v>
@@ -2683,15 +2734,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="3"/>
@@ -2707,7 +2758,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3">
         <v>-1</v>
@@ -2716,15 +2767,15 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="3"/>
@@ -2740,7 +2791,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3">
         <v>-1</v>
@@ -2749,15 +2800,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="3"/>
@@ -2773,7 +2824,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3">
         <v>-1</v>
@@ -2782,15 +2833,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="3"/>
@@ -2806,7 +2857,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3">
         <v>-1</v>
@@ -2815,15 +2866,15 @@
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="3"/>
@@ -2839,7 +2890,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3">
         <v>-1</v>
@@ -2848,15 +2899,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="3"/>
@@ -2872,7 +2923,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3">
         <v>-1</v>
@@ -2881,15 +2932,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="3"/>
@@ -2905,7 +2956,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3">
         <v>-1</v>
@@ -2914,15 +2965,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="3"/>
@@ -2938,7 +2989,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="3">
         <v>-1</v>
@@ -2947,15 +2998,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2971,7 +3022,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D20" s="3">
         <v>-1</v>
@@ -2980,15 +3031,15 @@
         <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -3004,7 +3055,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D21" s="3">
         <v>-1</v>
@@ -3013,15 +3064,15 @@
         <v>1</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -3037,7 +3088,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D22" s="3">
         <v>-1</v>
@@ -3046,15 +3097,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -3070,7 +3121,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D23" s="3">
         <v>-1</v>
@@ -3079,15 +3130,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3103,7 +3154,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D24" s="3">
         <v>-1</v>
@@ -3112,15 +3163,15 @@
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -3136,7 +3187,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D25" s="3">
         <v>-1</v>
@@ -3150,10 +3201,10 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -3169,7 +3220,7 @@
         <v>101</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D26" s="3">
         <v>-1</v>
@@ -3178,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -3187,10 +3238,10 @@
         <v>-1</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="3"/>
@@ -3206,7 +3257,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27" s="3">
         <v>-1</v>
@@ -3215,15 +3266,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="3"/>
@@ -3239,7 +3290,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3">
         <v>-1</v>
@@ -3248,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
@@ -3257,14 +3308,14 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -3278,7 +3329,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D29" s="7">
         <v>-1</v>
@@ -3287,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
@@ -3296,14 +3347,14 @@
         <v>4</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -3317,7 +3368,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D30" s="3">
         <v>-1</v>
@@ -3326,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
@@ -3335,10 +3386,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="3"/>
@@ -3356,7 +3407,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D31" s="3">
         <v>-1</v>
@@ -3365,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -3374,14 +3425,14 @@
         <v>17</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -3395,7 +3446,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D32" s="3">
         <v>-1</v>
@@ -3404,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -3413,14 +3464,14 @@
         <v>18</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -3434,7 +3485,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D33" s="3">
         <v>-1</v>
@@ -3443,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -3452,14 +3503,14 @@
         <v>19</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -3473,7 +3524,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D34" s="3">
         <v>-1</v>
@@ -3482,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -3491,14 +3542,14 @@
         <v>20</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -3512,7 +3563,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D35" s="3">
         <v>-1</v>
@@ -3521,15 +3572,15 @@
         <v>1</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3545,7 +3596,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D36" s="3">
         <v>-1</v>
@@ -3554,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -3563,14 +3614,14 @@
         <v>3</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -3584,7 +3635,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D37" s="3">
         <v>-1</v>
@@ -3593,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G37" s="3">
         <v>1</v>
@@ -3602,14 +3653,14 @@
         <v>5</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -3620,7 +3671,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D38" s="3">
         <v>-1</v>
@@ -3629,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
@@ -3638,14 +3689,14 @@
         <v>10</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -3656,7 +3707,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D39" s="3">
         <v>-1</v>
@@ -3665,16 +3716,16 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K39" s="6"/>
     </row>
@@ -3686,7 +3737,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D40" s="3">
         <v>-1</v>
@@ -3695,16 +3746,16 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K40" s="6"/>
     </row>
@@ -3716,7 +3767,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D41" s="3">
         <v>-1</v>
@@ -3725,16 +3776,16 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K41" s="6"/>
     </row>
@@ -3746,7 +3797,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D42" s="3">
         <v>-1</v>
@@ -3755,25 +3806,25 @@
         <v>1</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -3784,7 +3835,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D43" s="3">
         <v>-1</v>
@@ -3793,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
@@ -3802,14 +3853,14 @@
         <v>9</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -3820,7 +3871,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D44" s="3">
         <v>-1</v>
@@ -3829,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -3838,14 +3889,14 @@
         <v>8</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -3856,7 +3907,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D45" s="3">
         <v>-1</v>
@@ -3865,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -3874,14 +3925,14 @@
         <v>6</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -3892,7 +3943,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D46" s="3">
         <v>-1</v>
@@ -3901,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
@@ -3910,14 +3961,14 @@
         <v>7</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -3928,28 +3979,28 @@
         <v>45</v>
       </c>
       <c r="C47" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J47" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="D47" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="K47" s="6"/>
     </row>
@@ -3961,7 +4012,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D48" s="3">
         <v>-1</v>
@@ -3970,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G48" s="3">
         <v>1</v>
@@ -3979,14 +4030,14 @@
         <v>16</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -4000,7 +4051,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D49" s="3">
         <v>-1</v>
@@ -4009,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -4018,14 +4069,14 @@
         <v>15</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N49">
         <v>2</v>
@@ -4039,7 +4090,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D50" s="3">
         <v>-1</v>
@@ -4048,13 +4099,13 @@
         <v>1</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K50" s="6"/>
     </row>
@@ -4066,7 +4117,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D51" s="3">
         <v>-1</v>
@@ -4075,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
@@ -4084,13 +4135,13 @@
         <v>11</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -4101,7 +4152,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D52" s="3">
         <v>-1</v>
@@ -4110,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
@@ -4119,13 +4170,13 @@
         <v>10</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4136,7 +4187,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D53" s="3">
         <v>-1</v>
@@ -4145,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
@@ -4154,10 +4205,10 @@
         <v>1</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4168,7 +4219,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D54" s="3">
         <v>-1</v>
@@ -4177,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -4186,13 +4237,13 @@
         <v>12</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N54">
         <v>7</v>
@@ -4206,7 +4257,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D55" s="3">
         <v>-1</v>
@@ -4215,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -4224,13 +4275,13 @@
         <v>14</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N55">
         <v>7</v>
@@ -4244,7 +4295,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D56" s="3">
         <v>-1</v>
@@ -4253,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -4262,13 +4313,13 @@
         <v>13</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N56">
         <v>7</v>
@@ -4282,7 +4333,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D57" s="3">
         <v>-1</v>
@@ -4291,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G57" s="3">
         <v>1</v>
@@ -4300,13 +4351,13 @@
         <v>6</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4317,7 +4368,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D58" s="3">
         <v>-1</v>
@@ -4326,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G58" s="3">
         <v>1</v>
@@ -4335,10 +4386,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N58">
         <v>6</v>
@@ -4352,7 +4403,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D59" s="3">
         <v>-1</v>
@@ -4361,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
@@ -4370,10 +4421,10 @@
         <v>2</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N59">
         <v>6</v>
@@ -4387,28 +4438,28 @@
         <v>58</v>
       </c>
       <c r="C60" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J60" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="D60" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J60" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="N60">
         <v>6</v>
@@ -4422,7 +4473,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D61" s="3">
         <v>-1</v>
@@ -4431,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
@@ -4440,10 +4491,10 @@
         <v>3</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N61">
         <v>6</v>
@@ -4457,7 +4508,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D62" s="3">
         <v>-1</v>
@@ -4466,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
@@ -4475,10 +4526,10 @@
         <v>15</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N62">
         <v>6</v>
@@ -4492,31 +4543,31 @@
         <v>61</v>
       </c>
       <c r="C63" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D63" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>227</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J63" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D63" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>230</v>
-      </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>232</v>
-      </c>
       <c r="L63" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4527,7 +4578,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D64" s="3">
         <v>-1</v>
@@ -4536,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
@@ -4545,10 +4596,10 @@
         <v>21</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4559,7 +4610,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D65" s="3">
         <v>-1</v>
@@ -4568,7 +4619,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
@@ -4577,13 +4628,13 @@
         <v>22</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -4594,7 +4645,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D66" s="3">
         <v>-1</v>
@@ -4603,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -4612,10 +4663,10 @@
         <v>23</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -4626,7 +4677,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D67" s="3">
         <v>-1</v>
@@ -4635,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -4644,10 +4695,10 @@
         <v>24</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -4658,7 +4709,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D68" s="3">
         <v>-1</v>
@@ -4667,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
@@ -4676,10 +4727,10 @@
         <v>25</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -4690,7 +4741,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D69" s="3">
         <v>-1</v>
@@ -4699,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G69" s="3">
         <v>0</v>
@@ -4708,10 +4759,10 @@
         <v>26</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4722,7 +4773,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D70" s="3">
         <v>-1</v>
@@ -4731,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G70" s="3">
         <v>1</v>
@@ -4740,13 +4791,13 @@
         <v>1</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4757,28 +4808,28 @@
         <v>69</v>
       </c>
       <c r="C71" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D71" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J71" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="D71" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="3">
-        <v>1</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4789,28 +4840,28 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J72" s="13" t="s">
         <v>264</v>
-      </c>
-      <c r="D72" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="3">
-        <v>1</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4821,7 +4872,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D73" s="3">
         <v>-1</v>
@@ -4830,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -4839,13 +4890,13 @@
         <v>1</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N73">
         <v>3</v>
@@ -4859,7 +4910,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D74" s="3">
         <v>-1</v>
@@ -4868,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -4877,13 +4928,13 @@
         <v>1</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N74">
         <v>3</v>
@@ -4897,31 +4948,31 @@
         <v>73</v>
       </c>
       <c r="C75" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D75" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J75" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D75" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E75" s="3">
-        <v>1</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-      <c r="H75" s="3">
-        <v>1</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="J75" s="13" t="s">
-        <v>277</v>
-      </c>
       <c r="L75" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N75">
         <v>3</v>
@@ -4935,7 +4986,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D76" s="3">
         <v>-1</v>
@@ -4944,7 +4995,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -4953,10 +5004,10 @@
         <v>1</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L76" s="6"/>
       <c r="N76">
@@ -4971,7 +5022,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D77" s="3">
         <v>-1</v>
@@ -4980,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -4989,13 +5040,13 @@
         <v>-100</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>345</v>
+        <v>416</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -5006,28 +5057,28 @@
         <v>76</v>
       </c>
       <c r="C78" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D78" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="J78" s="16" t="s">
         <v>285</v>
-      </c>
-      <c r="D78" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E78" s="3">
-        <v>1</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
-      <c r="H78" s="3">
-        <v>1</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="J78" s="16" t="s">
-        <v>288</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -5039,7 +5090,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D79" s="3">
         <v>-1</v>
@@ -5048,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G79" s="3">
         <v>0</v>
@@ -5057,10 +5108,10 @@
         <v>23</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -5071,7 +5122,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D80" s="3">
         <v>-1</v>
@@ -5080,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -5089,13 +5140,13 @@
         <v>23</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="27" x14ac:dyDescent="0.2">
@@ -5106,7 +5157,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D81" s="3">
         <v>-1</v>
@@ -5115,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
@@ -5124,13 +5175,13 @@
         <v>24</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>300</v>
+        <v>431</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="O81">
         <v>4</v>
@@ -5144,7 +5195,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D82" s="3">
         <v>-1</v>
@@ -5153,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
@@ -5162,13 +5213,13 @@
         <v>25</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>304</v>
+        <v>432</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="O82">
         <v>5</v>
@@ -5182,7 +5233,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D83" s="15">
         <v>-1</v>
@@ -5191,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G83" s="15">
         <v>1</v>
@@ -5200,10 +5251,10 @@
         <v>22</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5214,7 +5265,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D84" s="19">
         <v>-1</v>
@@ -5223,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G84" s="19">
         <v>0</v>
@@ -5232,10 +5283,10 @@
         <v>23</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5246,7 +5297,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D85" s="3">
         <v>-1</v>
@@ -5255,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G85" s="3">
         <v>1</v>
@@ -5264,10 +5315,10 @@
         <v>24</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5278,7 +5329,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D86" s="3">
         <v>-1</v>
@@ -5287,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
@@ -5296,10 +5347,10 @@
         <v>25</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5310,7 +5361,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D87" s="3">
         <v>-1</v>
@@ -5319,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
@@ -5328,10 +5379,10 @@
         <v>26</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5342,7 +5393,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D88" s="3">
         <v>-1</v>
@@ -5351,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G88" s="3">
         <v>1</v>
@@ -5360,10 +5411,10 @@
         <v>27</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5374,7 +5425,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D89" s="3">
         <v>-1</v>
@@ -5383,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
@@ -5392,10 +5443,10 @@
         <v>28</v>
       </c>
       <c r="I89" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="J89" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="J89" s="10" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5406,7 +5457,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D90" s="3">
         <v>-1</v>
@@ -5415,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G90" s="3">
         <v>1</v>
@@ -5424,10 +5475,10 @@
         <v>29</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5438,7 +5489,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D91" s="3">
         <v>-1</v>
@@ -5447,7 +5498,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
@@ -5456,10 +5507,10 @@
         <v>30</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5470,7 +5521,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D92" s="3">
         <v>-1</v>
@@ -5479,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -5488,10 +5539,10 @@
         <v>31</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5502,7 +5553,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D93" s="3">
         <v>-1</v>
@@ -5511,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -5520,10 +5571,10 @@
         <v>32</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5534,7 +5585,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D94" s="3">
         <v>-1</v>
@@ -5543,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
@@ -5552,13 +5603,13 @@
         <v>-100</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>346</v>
+        <v>433</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="O94">
         <v>12</v>
@@ -5578,7 +5629,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D95" s="3">
         <v>-1</v>
@@ -5587,7 +5638,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G95" s="3">
         <v>0</v>
@@ -5596,10 +5647,10 @@
         <v>33</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5610,7 +5661,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D96" s="3">
         <v>-1</v>
@@ -5619,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5628,13 +5679,13 @@
         <v>34</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -5642,7 +5693,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D97" s="3">
         <v>-1</v>
@@ -5651,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G97" s="3">
         <v>1</v>
@@ -5660,13 +5711,13 @@
         <v>35</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -5674,7 +5725,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D98" s="3">
         <v>-1</v>
@@ -5683,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -5692,16 +5743,16 @@
         <v>36</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N98">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -5709,7 +5760,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D99" s="3">
         <v>-1</v>
@@ -5718,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
@@ -5727,16 +5778,16 @@
         <v>37</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="N99">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -5744,7 +5795,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D100" s="3">
         <v>-1</v>
@@ -5753,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -5762,16 +5813,16 @@
         <v>38</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="N100">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -5779,7 +5830,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D101" s="3">
         <v>-1</v>
@@ -5788,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
@@ -5797,16 +5848,16 @@
         <v>39</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="N101">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -5814,7 +5865,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D102" s="3">
         <v>-1</v>
@@ -5823,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -5832,16 +5883,16 @@
         <v>40</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="N102">
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -5849,7 +5900,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D103" s="3">
         <v>-1</v>
@@ -5858,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -5867,16 +5918,16 @@
         <v>41</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="N103">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -5884,7 +5935,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D104" s="3">
         <v>-1</v>
@@ -5893,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
@@ -5902,16 +5953,16 @@
         <v>42</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="N104">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -5919,7 +5970,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D105" s="3">
         <v>-1</v>
@@ -5928,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -5937,16 +5988,16 @@
         <v>43</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="N105">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -5954,7 +6005,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D106" s="3">
         <v>-1</v>
@@ -5963,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -5972,16 +6023,16 @@
         <v>44</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="N106">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -5989,7 +6040,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D107" s="3">
         <v>-1</v>
@@ -5998,7 +6049,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G107" s="3">
         <v>1</v>
@@ -6007,20 +6058,20 @@
         <v>32</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -6028,7 +6079,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D108" s="3">
         <v>-1</v>
@@ -6037,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G108" s="3">
         <v>1</v>
@@ -6046,20 +6097,20 @@
         <v>33</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="6" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="N108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -6067,7 +6118,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D109" s="3">
         <v>-1</v>
@@ -6076,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
@@ -6085,13 +6136,13 @@
         <v>33</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -6099,7 +6150,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D110" s="3">
         <v>-1</v>
@@ -6108,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
@@ -6117,13 +6168,259 @@
         <v>34</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="J110" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="L110" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="L110" s="6" t="s">
-        <v>407</v>
+    </row>
+    <row r="111" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3">
+        <v>110</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="D111" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="R111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3">
+        <v>111</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="D112" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3">
+        <v>112</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="D113" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3">
+        <v>113</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="D114" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="3">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3">
+        <v>114</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D115" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3">
+        <v>1</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="R115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3">
+        <v>115</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="D116" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3">
+        <v>1</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="R116">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="442">
   <si>
     <t>id|行号</t>
   </si>
@@ -1582,10 +1582,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>召唤-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_3d_fish_frozen</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1594,19 +1590,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>冰冻-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>冰冻全场鱼-3D捕鱼</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3dby_btn_sd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁定-3D捕鱼</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1779,10 +1767,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>超速子弹-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>bygame_icon_dan_bs08</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1858,6 +1842,54 @@
   </si>
   <si>
     <t>2020年1月24日-2月8日可开启宝箱，最多可获得10万金币。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费子弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级火力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍时刻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超速子弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻头弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费超级火力</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2335,8 +2367,8 @@
   <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2497,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2530,15 +2562,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -2596,15 +2628,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2629,15 +2661,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -4228,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -4266,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -4304,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -4881,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -4919,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -5043,7 +5075,7 @@
         <v>281</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L77" s="6" t="s">
         <v>338</v>
@@ -5178,7 +5210,7 @@
         <v>296</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L81" s="6" t="s">
         <v>304</v>
@@ -5216,7 +5248,7 @@
         <v>299</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L82" s="6" t="s">
         <v>305</v>
@@ -5606,7 +5638,7 @@
         <v>335</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L94" s="6" t="s">
         <v>339</v>
@@ -5734,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -5743,7 +5775,7 @@
         <v>36</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>367</v>
@@ -5769,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
@@ -5778,7 +5810,7 @@
         <v>37</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>368</v>
+        <v>432</v>
       </c>
       <c r="J99" s="6" t="s">
         <v>368</v>
@@ -5804,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -5813,7 +5845,7 @@
         <v>38</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>369</v>
+        <v>433</v>
       </c>
       <c r="J100" s="6" t="s">
         <v>369</v>
@@ -5839,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
@@ -5848,7 +5880,7 @@
         <v>39</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>370</v>
@@ -5874,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -5883,7 +5915,7 @@
         <v>40</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>371</v>
@@ -5909,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -5918,7 +5950,7 @@
         <v>41</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>372</v>
@@ -5935,16 +5967,16 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D104" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E104" s="3">
+        <v>1</v>
+      </c>
+      <c r="F104" s="11" t="s">
         <v>401</v>
-      </c>
-      <c r="D104" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E104" s="3">
-        <v>1</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>404</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
@@ -5953,10 +5985,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="N104">
         <v>8</v>
@@ -5979,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -5988,7 +6020,7 @@
         <v>43</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>374</v>
@@ -6014,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -6023,7 +6055,7 @@
         <v>44</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="J106" s="6" t="s">
         <v>373</v>
@@ -6040,16 +6072,16 @@
         <v>106</v>
       </c>
       <c r="C107" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D107" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E107" s="3">
+        <v>1</v>
+      </c>
+      <c r="F107" s="10" t="s">
         <v>376</v>
-      </c>
-      <c r="D107" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E107" s="3">
-        <v>1</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>377</v>
       </c>
       <c r="G107" s="3">
         <v>1</v>
@@ -6058,10 +6090,10 @@
         <v>32</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>378</v>
+        <v>439</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="6" t="s">
@@ -6079,7 +6111,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D108" s="3">
         <v>-1</v>
@@ -6088,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G108" s="3">
         <v>1</v>
@@ -6097,14 +6129,14 @@
         <v>33</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -6118,7 +6150,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D109" s="3">
         <v>-1</v>
@@ -6127,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
@@ -6136,10 +6168,10 @@
         <v>33</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6150,16 +6182,16 @@
         <v>109</v>
       </c>
       <c r="C110" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D110" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E110" s="3">
+        <v>1</v>
+      </c>
+      <c r="F110" s="11" t="s">
         <v>391</v>
-      </c>
-      <c r="D110" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E110" s="3">
-        <v>1</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>394</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
@@ -6168,13 +6200,13 @@
         <v>34</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6185,7 +6217,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D111" s="3">
         <v>-1</v>
@@ -6194,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G111" s="3">
         <v>1</v>
@@ -6203,10 +6235,10 @@
         <v>1</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>177</v>
@@ -6226,7 +6258,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D112" s="3">
         <v>-1</v>
@@ -6235,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G112" s="3">
         <v>1</v>
@@ -6244,10 +6276,10 @@
         <v>1</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L112" s="6" t="s">
         <v>177</v>
@@ -6267,7 +6299,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D113" s="3">
         <v>-1</v>
@@ -6276,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G113" s="3">
         <v>1</v>
@@ -6285,10 +6317,10 @@
         <v>1</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L113" s="6" t="s">
         <v>177</v>
@@ -6308,7 +6340,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D114" s="3">
         <v>-1</v>
@@ -6317,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G114" s="3">
         <v>1</v>
@@ -6326,10 +6358,10 @@
         <v>1</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L114" s="6" t="s">
         <v>177</v>
@@ -6349,7 +6381,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D115" s="3">
         <v>-1</v>
@@ -6358,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G115" s="3">
         <v>1</v>
@@ -6367,10 +6399,10 @@
         <v>1</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L115" s="6" t="s">
         <v>177</v>
@@ -6390,7 +6422,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D116" s="3">
         <v>-1</v>
@@ -6399,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
@@ -6408,10 +6440,10 @@
         <v>1</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L116" s="6" t="s">
         <v>177</v>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="443">
   <si>
     <t>id|行号</t>
   </si>
@@ -1667,34 +1667,6 @@
   </si>
   <si>
     <r>
-      <t>"game_FishingHall</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -1890,6 +1862,14 @@
   </si>
   <si>
     <t>免费超级火力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2366,9 +2346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I107" sqref="I107"/>
+      <selection pane="bottomLeft" activeCell="L107" sqref="L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2669,7 +2649,7 @@
         <v>382</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -4260,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -4298,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -4336,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -4913,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -4951,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -5075,7 +5055,7 @@
         <v>281</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L77" s="6" t="s">
         <v>338</v>
@@ -5210,7 +5190,7 @@
         <v>296</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L81" s="6" t="s">
         <v>304</v>
@@ -5248,7 +5228,7 @@
         <v>299</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L82" s="6" t="s">
         <v>305</v>
@@ -5638,7 +5618,7 @@
         <v>335</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L94" s="6" t="s">
         <v>339</v>
@@ -5766,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -5775,7 +5755,7 @@
         <v>36</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>367</v>
@@ -5801,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
@@ -5810,7 +5790,7 @@
         <v>37</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J99" s="6" t="s">
         <v>368</v>
@@ -5836,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -5845,7 +5825,7 @@
         <v>38</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J100" s="6" t="s">
         <v>369</v>
@@ -5871,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
@@ -5880,7 +5860,7 @@
         <v>39</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>370</v>
@@ -5906,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -5915,7 +5895,7 @@
         <v>40</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>371</v>
@@ -5941,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -5950,7 +5930,7 @@
         <v>41</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>372</v>
@@ -5967,7 +5947,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D104" s="3">
         <v>-1</v>
@@ -5976,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
@@ -5985,10 +5965,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N104">
         <v>8</v>
@@ -6011,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -6020,7 +6000,7 @@
         <v>43</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>374</v>
@@ -6046,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -6055,7 +6035,7 @@
         <v>44</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J106" s="6" t="s">
         <v>373</v>
@@ -6090,14 +6070,14 @@
         <v>32</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J107" s="6" t="s">
         <v>377</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="6" t="s">
-        <v>177</v>
+        <v>441</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -6129,14 +6109,14 @@
         <v>33</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J108" s="6" t="s">
         <v>379</v>
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="6" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -6206,7 +6186,7 @@
         <v>390</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6217,28 +6197,28 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D111" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D111" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="3">
-        <v>1</v>
-      </c>
-      <c r="F111" s="3" t="s">
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="G111" s="3">
-        <v>1</v>
-      </c>
-      <c r="H111" s="3">
-        <v>1</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="J111" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>177</v>
@@ -6258,28 +6238,28 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="D112" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D112" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="3">
-        <v>1</v>
-      </c>
-      <c r="F112" s="6" t="s">
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="G112" s="3">
-        <v>1</v>
-      </c>
-      <c r="H112" s="3">
-        <v>1</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>418</v>
-      </c>
       <c r="J112" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L112" s="6" t="s">
         <v>177</v>
@@ -6299,28 +6279,28 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D113" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="D113" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E113" s="3">
-        <v>1</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="G113" s="3">
-        <v>1</v>
-      </c>
-      <c r="H113" s="3">
-        <v>1</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>420</v>
-      </c>
       <c r="J113" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L113" s="6" t="s">
         <v>177</v>
@@ -6340,28 +6320,28 @@
         <v>113</v>
       </c>
       <c r="C114" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="D114" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="3">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="D114" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E114" s="3">
-        <v>1</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="G114" s="3">
-        <v>1</v>
-      </c>
-      <c r="H114" s="3">
-        <v>1</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>422</v>
-      </c>
       <c r="J114" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L114" s="6" t="s">
         <v>177</v>
@@ -6381,28 +6361,28 @@
         <v>114</v>
       </c>
       <c r="C115" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="D115" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3">
+        <v>1</v>
+      </c>
+      <c r="I115" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="D115" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E115" s="3">
-        <v>1</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
-      <c r="H115" s="3">
-        <v>1</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>424</v>
-      </c>
       <c r="J115" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L115" s="6" t="s">
         <v>177</v>
@@ -6422,28 +6402,28 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="D116" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3">
+        <v>1</v>
+      </c>
+      <c r="I116" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="D116" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E116" s="3">
-        <v>1</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="G116" s="3">
-        <v>1</v>
-      </c>
-      <c r="H116" s="3">
-        <v>1</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>426</v>
-      </c>
       <c r="J116" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L116" s="6" t="s">
         <v>177</v>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -1546,10 +1546,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>obj_fish_3d_pierce_bullet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>免费子弹-3D捕鱼</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1691,10 +1687,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>obj_fish_3d_summon_fish</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>bygame_icon_ctgd</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1870,6 +1862,14 @@
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_pierce_bullet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_summon_fish</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2346,9 +2346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L107" sqref="L107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2509,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2542,15 +2542,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -2608,15 +2608,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2641,15 +2641,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -4240,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -4278,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -4316,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -4931,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -5055,7 +5055,7 @@
         <v>281</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L77" s="6" t="s">
         <v>338</v>
@@ -5190,7 +5190,7 @@
         <v>296</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L81" s="6" t="s">
         <v>304</v>
@@ -5228,7 +5228,7 @@
         <v>299</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L82" s="6" t="s">
         <v>305</v>
@@ -5618,7 +5618,7 @@
         <v>335</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L94" s="6" t="s">
         <v>339</v>
@@ -5746,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -5755,10 +5755,10 @@
         <v>36</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N98">
         <v>8</v>
@@ -5781,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
@@ -5790,10 +5790,10 @@
         <v>37</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N99">
         <v>8</v>
@@ -5816,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -5825,10 +5825,10 @@
         <v>38</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N100">
         <v>8</v>
@@ -5851,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
@@ -5860,10 +5860,10 @@
         <v>39</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N101">
         <v>8</v>
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -5895,10 +5895,10 @@
         <v>40</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N102">
         <v>8</v>
@@ -5912,7 +5912,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>366</v>
+        <v>441</v>
       </c>
       <c r="D103" s="3">
         <v>-1</v>
@@ -5921,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -5930,10 +5930,10 @@
         <v>41</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N103">
         <v>8</v>
@@ -5947,7 +5947,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="D104" s="3">
         <v>-1</v>
@@ -5956,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
@@ -5965,10 +5965,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N104">
         <v>8</v>
@@ -5991,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -6000,10 +6000,10 @@
         <v>43</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N105">
         <v>8</v>
@@ -6026,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -6035,10 +6035,10 @@
         <v>44</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N106">
         <v>8</v>
@@ -6052,16 +6052,16 @@
         <v>106</v>
       </c>
       <c r="C107" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D107" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E107" s="3">
+        <v>1</v>
+      </c>
+      <c r="F107" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="D107" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E107" s="3">
-        <v>1</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>376</v>
       </c>
       <c r="G107" s="3">
         <v>1</v>
@@ -6070,14 +6070,14 @@
         <v>32</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -6091,7 +6091,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D108" s="3">
         <v>-1</v>
@@ -6100,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G108" s="3">
         <v>1</v>
@@ -6109,14 +6109,14 @@
         <v>33</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -6130,7 +6130,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D109" s="3">
         <v>-1</v>
@@ -6139,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
@@ -6148,10 +6148,10 @@
         <v>33</v>
       </c>
       <c r="I109" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="J109" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="J109" s="6" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6162,7 +6162,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D110" s="3">
         <v>-1</v>
@@ -6171,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
@@ -6180,13 +6180,13 @@
         <v>34</v>
       </c>
       <c r="I110" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="J110" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="J110" s="6" t="s">
-        <v>390</v>
-      </c>
       <c r="L110" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6197,28 +6197,28 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D111" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D111" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="3">
-        <v>1</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="G111" s="3">
-        <v>1</v>
-      </c>
-      <c r="H111" s="3">
-        <v>1</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>414</v>
-      </c>
       <c r="J111" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>177</v>
@@ -6238,28 +6238,28 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="D112" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D112" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="3">
-        <v>1</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="G112" s="3">
-        <v>1</v>
-      </c>
-      <c r="H112" s="3">
-        <v>1</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>417</v>
-      </c>
       <c r="J112" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L112" s="6" t="s">
         <v>177</v>
@@ -6279,7 +6279,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D113" s="3">
         <v>-1</v>
@@ -6288,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G113" s="3">
         <v>1</v>
@@ -6297,10 +6297,10 @@
         <v>1</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L113" s="6" t="s">
         <v>177</v>
@@ -6320,7 +6320,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D114" s="3">
         <v>-1</v>
@@ -6329,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G114" s="3">
         <v>1</v>
@@ -6338,10 +6338,10 @@
         <v>1</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L114" s="6" t="s">
         <v>177</v>
@@ -6361,7 +6361,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D115" s="3">
         <v>-1</v>
@@ -6370,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G115" s="3">
         <v>1</v>
@@ -6379,10 +6379,10 @@
         <v>1</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L115" s="6" t="s">
         <v>177</v>
@@ -6402,7 +6402,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D116" s="3">
         <v>-1</v>
@@ -6411,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
@@ -6420,10 +6420,10 @@
         <v>1</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L116" s="6" t="s">
         <v>177</v>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -2346,9 +2346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+      <selection pane="bottomLeft" activeCell="N98" sqref="N98:N108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5761,7 +5761,7 @@
         <v>366</v>
       </c>
       <c r="N98">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -5796,7 +5796,7 @@
         <v>367</v>
       </c>
       <c r="N99">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -5831,7 +5831,7 @@
         <v>368</v>
       </c>
       <c r="N100">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -5866,7 +5866,7 @@
         <v>369</v>
       </c>
       <c r="N101">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -5901,7 +5901,7 @@
         <v>370</v>
       </c>
       <c r="N102">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -5936,7 +5936,7 @@
         <v>371</v>
       </c>
       <c r="N103">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -5971,7 +5971,7 @@
         <v>427</v>
       </c>
       <c r="N104">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6006,7 +6006,7 @@
         <v>373</v>
       </c>
       <c r="N105">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6041,7 +6041,7 @@
         <v>372</v>
       </c>
       <c r="N106">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6080,7 +6080,7 @@
         <v>439</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6119,7 +6119,7 @@
         <v>440</v>
       </c>
       <c r="N108">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="441">
   <si>
     <t>id|行号</t>
   </si>
@@ -1854,14 +1854,6 @@
   </si>
   <si>
     <t>免费超级火力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2347,8 +2339,8 @@
   <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N98" sqref="N98:N108"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N107" sqref="N107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4048,12 +4040,7 @@
         <v>176</v>
       </c>
       <c r="K48" s="6"/>
-      <c r="L48" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N48">
-        <v>2</v>
-      </c>
+      <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
@@ -4087,12 +4074,7 @@
         <v>181</v>
       </c>
       <c r="K49" s="6"/>
-      <c r="L49" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N49">
-        <v>2</v>
-      </c>
+      <c r="L49" s="6"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
@@ -5912,7 +5894,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D103" s="3">
         <v>-1</v>
@@ -5947,7 +5929,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D104" s="3">
         <v>-1</v>
@@ -6076,11 +6058,9 @@
         <v>376</v>
       </c>
       <c r="K107" s="6"/>
-      <c r="L107" s="6" t="s">
-        <v>439</v>
-      </c>
+      <c r="L107" s="6"/>
       <c r="N107">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6115,11 +6095,9 @@
         <v>378</v>
       </c>
       <c r="K108" s="6"/>
-      <c r="L108" s="6" t="s">
-        <v>440</v>
-      </c>
+      <c r="L108" s="6"/>
       <c r="N108">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -796,9 +796,6 @@
     <t>用于捕鱼消耗</t>
   </si>
   <si>
-    <t>prop_fish_frozen</t>
-  </si>
-  <si>
     <t>by_btn_bd</t>
   </si>
   <si>
@@ -843,9 +840,6 @@
     </r>
   </si>
   <si>
-    <t>prop_fish_lock</t>
-  </si>
-  <si>
     <t>by_btn_sd</t>
   </si>
   <si>
@@ -1256,9 +1250,6 @@
     <t>com_award_icon_dhq3</t>
   </si>
   <si>
-    <t>福利券</t>
-  </si>
-  <si>
     <t>用于红包大转盘的抽奖</t>
   </si>
   <si>
@@ -1578,10 +1569,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_3d_fish_frozen</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_btn_bd</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1623,10 +1610,6 @@
   </si>
   <si>
     <t>task_13000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_lock</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1862,6 +1845,26 @@
   </si>
   <si>
     <t>prop_3d_fish_summon_fish</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_lock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_frozen</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_frozen</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2339,7 +2342,7 @@
   <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N107" sqref="N107"/>
     </sheetView>
   </sheetViews>
@@ -2390,7 +2393,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
@@ -2402,16 +2405,16 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -2501,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2534,15 +2537,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -2600,15 +2603,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2633,15 +2636,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -4016,28 +4019,28 @@
         <v>46</v>
       </c>
       <c r="C48" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
         <v>173</v>
       </c>
-      <c r="D48" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>174</v>
-      </c>
       <c r="G48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>16</v>
       </c>
       <c r="I48" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J48" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -4050,7 +4053,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>178</v>
+        <v>437</v>
       </c>
       <c r="D49" s="3">
         <v>-1</v>
@@ -4059,19 +4062,19 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>15</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -4084,22 +4087,22 @@
         <v>48</v>
       </c>
       <c r="C50" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I50" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D50" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="J50" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K50" s="6"/>
     </row>
@@ -4111,7 +4114,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D51" s="3">
         <v>-1</v>
@@ -4129,13 +4132,13 @@
         <v>11</v>
       </c>
       <c r="I51" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -4146,7 +4149,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D52" s="3">
         <v>-1</v>
@@ -4164,13 +4167,13 @@
         <v>10</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4181,7 +4184,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D53" s="3">
         <v>-1</v>
@@ -4199,10 +4202,10 @@
         <v>1</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4213,7 +4216,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D54" s="3">
         <v>-1</v>
@@ -4222,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -4231,13 +4234,13 @@
         <v>12</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N54">
         <v>7</v>
@@ -4251,7 +4254,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D55" s="3">
         <v>-1</v>
@@ -4260,7 +4263,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -4269,13 +4272,13 @@
         <v>14</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N55">
         <v>7</v>
@@ -4289,7 +4292,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D56" s="3">
         <v>-1</v>
@@ -4298,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -4307,13 +4310,13 @@
         <v>13</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N56">
         <v>7</v>
@@ -4327,7 +4330,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D57" s="3">
         <v>-1</v>
@@ -4336,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G57" s="3">
         <v>1</v>
@@ -4345,13 +4348,13 @@
         <v>6</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4362,7 +4365,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D58" s="3">
         <v>-1</v>
@@ -4371,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G58" s="3">
         <v>1</v>
@@ -4380,10 +4383,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N58">
         <v>6</v>
@@ -4397,7 +4400,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D59" s="3">
         <v>-1</v>
@@ -4406,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
@@ -4415,10 +4418,10 @@
         <v>2</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N59">
         <v>6</v>
@@ -4432,28 +4435,28 @@
         <v>58</v>
       </c>
       <c r="C60" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D60" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="10" t="s">
+      <c r="J60" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="J60" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="N60">
         <v>6</v>
@@ -4467,7 +4470,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D61" s="3">
         <v>-1</v>
@@ -4476,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
@@ -4485,10 +4488,10 @@
         <v>3</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N61">
         <v>6</v>
@@ -4502,7 +4505,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D62" s="3">
         <v>-1</v>
@@ -4511,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
@@ -4520,10 +4523,10 @@
         <v>15</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N62">
         <v>6</v>
@@ -4537,31 +4540,31 @@
         <v>61</v>
       </c>
       <c r="C63" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D63" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>225</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+      <c r="I63" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D63" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="J63" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>229</v>
-      </c>
       <c r="L63" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4572,7 +4575,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D64" s="3">
         <v>-1</v>
@@ -4581,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
@@ -4590,10 +4593,10 @@
         <v>21</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4604,7 +4607,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D65" s="3">
         <v>-1</v>
@@ -4613,7 +4616,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
@@ -4622,13 +4625,13 @@
         <v>22</v>
       </c>
       <c r="I65" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="L65" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="J65" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -4639,7 +4642,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D66" s="3">
         <v>-1</v>
@@ -4648,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -4657,10 +4660,10 @@
         <v>23</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -4671,7 +4674,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D67" s="3">
         <v>-1</v>
@@ -4680,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -4689,10 +4692,10 @@
         <v>24</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -4703,7 +4706,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D68" s="3">
         <v>-1</v>
@@ -4712,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
@@ -4721,10 +4724,10 @@
         <v>25</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -4735,7 +4738,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D69" s="3">
         <v>-1</v>
@@ -4744,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G69" s="3">
         <v>0</v>
@@ -4753,10 +4756,10 @@
         <v>26</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4767,7 +4770,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D70" s="3">
         <v>-1</v>
@@ -4776,22 +4779,22 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
+        <v>225</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="J70" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="J70" s="13" t="s">
-        <v>229</v>
-      </c>
       <c r="L70" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4802,28 +4805,28 @@
         <v>69</v>
       </c>
       <c r="C71" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D71" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D71" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1</v>
-      </c>
-      <c r="F71" s="11" t="s">
+      <c r="J71" s="13" t="s">
         <v>258</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="3">
-        <v>1</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4834,28 +4837,28 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
+        <v>259</v>
+      </c>
+      <c r="D72" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D72" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="11" t="s">
+      <c r="J72" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="3">
-        <v>1</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4866,31 +4869,31 @@
         <v>71</v>
       </c>
       <c r="C73" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D73" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="J73" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D73" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E73" s="3">
-        <v>1</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="3">
-        <v>1</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>267</v>
-      </c>
       <c r="L73" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N73">
         <v>3</v>
@@ -4904,31 +4907,31 @@
         <v>72</v>
       </c>
       <c r="C74" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D74" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="J74" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="D74" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-      <c r="H74" s="3">
-        <v>1</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="J74" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="L74" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N74">
         <v>3</v>
@@ -4942,31 +4945,31 @@
         <v>73</v>
       </c>
       <c r="C75" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D75" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
+      <c r="I75" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D75" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E75" s="3">
-        <v>1</v>
-      </c>
-      <c r="F75" s="11" t="s">
+      <c r="J75" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-      <c r="H75" s="3">
-        <v>1</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J75" s="13" t="s">
-        <v>274</v>
-      </c>
       <c r="L75" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N75">
         <v>3</v>
@@ -4980,7 +4983,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D76" s="3">
         <v>-1</v>
@@ -4989,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -4998,10 +5001,10 @@
         <v>1</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L76" s="6"/>
       <c r="N76">
@@ -5016,7 +5019,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D77" s="3">
         <v>-1</v>
@@ -5025,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -5034,13 +5037,13 @@
         <v>-100</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -5051,28 +5054,28 @@
         <v>76</v>
       </c>
       <c r="C78" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D78" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+      <c r="I78" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D78" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E78" s="3">
-        <v>1</v>
-      </c>
-      <c r="F78" s="10" t="s">
+      <c r="J78" s="16" t="s">
         <v>283</v>
-      </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
-      <c r="H78" s="3">
-        <v>1</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="J78" s="16" t="s">
-        <v>285</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -5084,7 +5087,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D79" s="3">
         <v>-1</v>
@@ -5093,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G79" s="3">
         <v>0</v>
@@ -5102,10 +5105,10 @@
         <v>23</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -5116,7 +5119,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D80" s="3">
         <v>-1</v>
@@ -5125,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -5134,13 +5137,13 @@
         <v>23</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>291</v>
+        <v>436</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="27" x14ac:dyDescent="0.2">
@@ -5151,7 +5154,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D81" s="3">
         <v>-1</v>
@@ -5160,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
@@ -5169,13 +5172,13 @@
         <v>24</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O81">
         <v>4</v>
@@ -5189,7 +5192,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D82" s="3">
         <v>-1</v>
@@ -5198,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
@@ -5207,13 +5210,13 @@
         <v>25</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O82">
         <v>5</v>
@@ -5227,7 +5230,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D83" s="15">
         <v>-1</v>
@@ -5236,7 +5239,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G83" s="15">
         <v>1</v>
@@ -5245,10 +5248,10 @@
         <v>22</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5259,7 +5262,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D84" s="19">
         <v>-1</v>
@@ -5268,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G84" s="19">
         <v>0</v>
@@ -5277,10 +5280,10 @@
         <v>23</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5291,7 +5294,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D85" s="3">
         <v>-1</v>
@@ -5300,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G85" s="3">
         <v>1</v>
@@ -5309,10 +5312,10 @@
         <v>24</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5323,7 +5326,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D86" s="3">
         <v>-1</v>
@@ -5332,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
@@ -5341,10 +5344,10 @@
         <v>25</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5355,7 +5358,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D87" s="3">
         <v>-1</v>
@@ -5364,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
@@ -5373,10 +5376,10 @@
         <v>26</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5387,7 +5390,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D88" s="3">
         <v>-1</v>
@@ -5396,7 +5399,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G88" s="3">
         <v>1</v>
@@ -5405,10 +5408,10 @@
         <v>27</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5419,7 +5422,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D89" s="3">
         <v>-1</v>
@@ -5428,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
@@ -5437,10 +5440,10 @@
         <v>28</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5451,7 +5454,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D90" s="3">
         <v>-1</v>
@@ -5460,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G90" s="3">
         <v>1</v>
@@ -5469,10 +5472,10 @@
         <v>29</v>
       </c>
       <c r="I90" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="J90" s="10" t="s">
         <v>321</v>
-      </c>
-      <c r="J90" s="10" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5483,7 +5486,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D91" s="3">
         <v>-1</v>
@@ -5492,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
@@ -5501,10 +5504,10 @@
         <v>30</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5515,7 +5518,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D92" s="3">
         <v>-1</v>
@@ -5524,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -5533,10 +5536,10 @@
         <v>31</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5547,7 +5550,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D93" s="3">
         <v>-1</v>
@@ -5556,7 +5559,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -5565,10 +5568,10 @@
         <v>32</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5579,7 +5582,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D94" s="3">
         <v>-1</v>
@@ -5588,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
@@ -5597,13 +5600,13 @@
         <v>-100</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="O94">
         <v>12</v>
@@ -5623,7 +5626,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D95" s="3">
         <v>-1</v>
@@ -5632,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G95" s="3">
         <v>0</v>
@@ -5641,10 +5644,10 @@
         <v>33</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5655,7 +5658,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D96" s="3">
         <v>-1</v>
@@ -5664,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5673,10 +5676,10 @@
         <v>34</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -5687,7 +5690,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D97" s="3">
         <v>-1</v>
@@ -5696,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G97" s="3">
         <v>1</v>
@@ -5705,10 +5708,10 @@
         <v>35</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -5719,7 +5722,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D98" s="3">
         <v>-1</v>
@@ -5728,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -5737,10 +5740,10 @@
         <v>36</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N98">
         <v>9</v>
@@ -5754,7 +5757,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D99" s="3">
         <v>-1</v>
@@ -5763,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
@@ -5772,10 +5775,10 @@
         <v>37</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N99">
         <v>9</v>
@@ -5789,7 +5792,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D100" s="3">
         <v>-1</v>
@@ -5798,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -5807,10 +5810,10 @@
         <v>38</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N100">
         <v>9</v>
@@ -5824,7 +5827,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D101" s="3">
         <v>-1</v>
@@ -5833,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
@@ -5842,10 +5845,10 @@
         <v>39</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N101">
         <v>9</v>
@@ -5859,7 +5862,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D102" s="3">
         <v>-1</v>
@@ -5868,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -5877,10 +5880,10 @@
         <v>40</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N102">
         <v>9</v>
@@ -5894,7 +5897,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D103" s="3">
         <v>-1</v>
@@ -5903,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -5912,10 +5915,10 @@
         <v>41</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N103">
         <v>9</v>
@@ -5929,7 +5932,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D104" s="3">
         <v>-1</v>
@@ -5938,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
@@ -5947,10 +5950,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N104">
         <v>9</v>
@@ -5964,7 +5967,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D105" s="3">
         <v>-1</v>
@@ -5973,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -5982,10 +5985,10 @@
         <v>43</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N105">
         <v>9</v>
@@ -5999,7 +6002,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D106" s="3">
         <v>-1</v>
@@ -6008,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -6017,10 +6020,10 @@
         <v>44</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N106">
         <v>9</v>
@@ -6034,7 +6037,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="D107" s="3">
         <v>-1</v>
@@ -6043,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G107" s="3">
         <v>1</v>
@@ -6052,15 +6055,15 @@
         <v>32</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="N107">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6071,7 +6074,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="D108" s="3">
         <v>-1</v>
@@ -6080,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G108" s="3">
         <v>1</v>
@@ -6089,15 +6092,15 @@
         <v>33</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="N108">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6108,7 +6111,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D109" s="3">
         <v>-1</v>
@@ -6117,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
@@ -6126,10 +6129,10 @@
         <v>33</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6140,7 +6143,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D110" s="3">
         <v>-1</v>
@@ -6149,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
@@ -6158,13 +6161,13 @@
         <v>34</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6175,7 +6178,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D111" s="3">
         <v>-1</v>
@@ -6184,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G111" s="3">
         <v>1</v>
@@ -6193,13 +6196,13 @@
         <v>1</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N111">
         <v>3</v>
@@ -6216,7 +6219,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D112" s="3">
         <v>-1</v>
@@ -6225,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G112" s="3">
         <v>1</v>
@@ -6234,13 +6237,13 @@
         <v>1</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N112">
         <v>3</v>
@@ -6257,7 +6260,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D113" s="3">
         <v>-1</v>
@@ -6266,7 +6269,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G113" s="3">
         <v>1</v>
@@ -6275,13 +6278,13 @@
         <v>1</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N113">
         <v>3</v>
@@ -6298,7 +6301,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D114" s="3">
         <v>-1</v>
@@ -6307,22 +6310,22 @@
         <v>1</v>
       </c>
       <c r="F114" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="3">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="G114" s="3">
-        <v>1</v>
-      </c>
-      <c r="H114" s="3">
-        <v>1</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>419</v>
-      </c>
       <c r="J114" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N114">
         <v>3</v>
@@ -6339,7 +6342,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D115" s="3">
         <v>-1</v>
@@ -6348,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G115" s="3">
         <v>1</v>
@@ -6357,13 +6360,13 @@
         <v>1</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N115">
         <v>3</v>
@@ -6380,7 +6383,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D116" s="3">
         <v>-1</v>
@@ -6389,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
@@ -6398,13 +6401,13 @@
         <v>1</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N116">
         <v>3</v>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="439">
   <si>
     <t>id|行号</t>
   </si>
@@ -1573,15 +1573,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>冰冻全场鱼-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_btn_sd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁定攻击鱼-3D捕鱼</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2341,9 +2333,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N107" sqref="N107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2504,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2537,15 +2529,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -2603,15 +2595,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2636,15 +2628,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -4019,7 +4011,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D48" s="3">
         <v>-1</v>
@@ -4053,7 +4045,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D49" s="3">
         <v>-1</v>
@@ -4225,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -4263,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -4301,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -4878,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -4916,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -5040,7 +5032,7 @@
         <v>279</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L77" s="6" t="s">
         <v>335</v>
@@ -5137,7 +5129,7 @@
         <v>23</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J80" s="13" t="s">
         <v>289</v>
@@ -5175,7 +5167,7 @@
         <v>293</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L81" s="6" t="s">
         <v>301</v>
@@ -5213,7 +5205,7 @@
         <v>296</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L82" s="6" t="s">
         <v>302</v>
@@ -5603,7 +5595,7 @@
         <v>332</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L94" s="6" t="s">
         <v>336</v>
@@ -5731,7 +5723,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -5740,7 +5732,7 @@
         <v>36</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>363</v>
@@ -5766,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
@@ -5775,7 +5767,7 @@
         <v>37</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J99" s="6" t="s">
         <v>364</v>
@@ -5801,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -5810,7 +5802,7 @@
         <v>38</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J100" s="6" t="s">
         <v>365</v>
@@ -5836,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
@@ -5845,7 +5837,7 @@
         <v>39</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>366</v>
@@ -5871,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -5880,7 +5872,7 @@
         <v>40</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>367</v>
@@ -5897,7 +5889,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D103" s="3">
         <v>-1</v>
@@ -5906,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -5915,7 +5907,7 @@
         <v>41</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>368</v>
@@ -5932,7 +5924,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D104" s="3">
         <v>-1</v>
@@ -5941,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
@@ -5950,10 +5942,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="N104">
         <v>9</v>
@@ -5976,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -5985,7 +5977,7 @@
         <v>43</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>370</v>
@@ -6011,7 +6003,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -6020,7 +6012,7 @@
         <v>44</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J106" s="6" t="s">
         <v>369</v>
@@ -6037,7 +6029,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D107" s="3">
         <v>-1</v>
@@ -6055,10 +6047,10 @@
         <v>32</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>372</v>
+        <v>175</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
@@ -6074,7 +6066,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D108" s="3">
         <v>-1</v>
@@ -6083,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G108" s="3">
         <v>1</v>
@@ -6092,10 +6084,10 @@
         <v>33</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>374</v>
+        <v>179</v>
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
@@ -6111,7 +6103,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D109" s="3">
         <v>-1</v>
@@ -6120,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
@@ -6129,10 +6121,10 @@
         <v>33</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6143,7 +6135,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D110" s="3">
         <v>-1</v>
@@ -6152,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
@@ -6161,13 +6153,13 @@
         <v>34</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6178,28 +6170,28 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D111" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="D111" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="3">
-        <v>1</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="G111" s="3">
-        <v>1</v>
-      </c>
-      <c r="H111" s="3">
-        <v>1</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>407</v>
-      </c>
       <c r="J111" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>176</v>
@@ -6219,28 +6211,28 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D112" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="D112" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="3">
-        <v>1</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="G112" s="3">
-        <v>1</v>
-      </c>
-      <c r="H112" s="3">
-        <v>1</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="J112" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L112" s="6" t="s">
         <v>176</v>
@@ -6260,7 +6252,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D113" s="3">
         <v>-1</v>
@@ -6269,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G113" s="3">
         <v>1</v>
@@ -6278,10 +6270,10 @@
         <v>1</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L113" s="6" t="s">
         <v>176</v>
@@ -6301,7 +6293,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D114" s="3">
         <v>-1</v>
@@ -6310,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G114" s="3">
         <v>1</v>
@@ -6319,10 +6311,10 @@
         <v>1</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L114" s="6" t="s">
         <v>176</v>
@@ -6342,7 +6334,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D115" s="3">
         <v>-1</v>
@@ -6351,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G115" s="3">
         <v>1</v>
@@ -6360,10 +6352,10 @@
         <v>1</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L115" s="6" t="s">
         <v>176</v>
@@ -6383,7 +6375,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D116" s="3">
         <v>-1</v>
@@ -6392,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
@@ -6401,10 +6393,10 @@
         <v>1</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L116" s="6" t="s">
         <v>176</v>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -1253,9 +1253,6 @@
     <t>用于红包大转盘的抽奖</t>
   </si>
   <si>
-    <t>"xycj","panel",1</t>
-  </si>
-  <si>
     <t>prop_box_stxt_free</t>
   </si>
   <si>
@@ -1857,6 +1854,10 @@
   </si>
   <si>
     <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_flqcj","panel",1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2333,9 +2334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J108" sqref="J108"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2385,7 +2386,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
@@ -2397,16 +2398,16 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P1" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q1" s="18" t="s">
         <v>337</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -2496,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2529,15 +2530,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -2595,15 +2596,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2628,15 +2629,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -4011,7 +4012,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D48" s="3">
         <v>-1</v>
@@ -4045,7 +4046,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D49" s="3">
         <v>-1</v>
@@ -4217,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -4255,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -4293,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -4870,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -4908,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -5032,10 +5033,10 @@
         <v>279</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -5129,13 +5130,13 @@
         <v>23</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J80" s="13" t="s">
         <v>289</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>290</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="27" x14ac:dyDescent="0.2">
@@ -5146,16 +5147,16 @@
         <v>80</v>
       </c>
       <c r="C81" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D81" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="D81" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>292</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
@@ -5164,13 +5165,13 @@
         <v>24</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O81">
         <v>4</v>
@@ -5184,16 +5185,16 @@
         <v>81</v>
       </c>
       <c r="C82" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D82" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+      <c r="F82" s="11" t="s">
         <v>294</v>
-      </c>
-      <c r="D82" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E82" s="3">
-        <v>1</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>295</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
@@ -5202,13 +5203,13 @@
         <v>25</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O82">
         <v>5</v>
@@ -5222,16 +5223,16 @@
         <v>82</v>
       </c>
       <c r="C83" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D83" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="15">
+        <v>1</v>
+      </c>
+      <c r="F83" s="14" t="s">
         <v>339</v>
-      </c>
-      <c r="D83" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E83" s="15">
-        <v>1</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>340</v>
       </c>
       <c r="G83" s="15">
         <v>1</v>
@@ -5240,10 +5241,10 @@
         <v>22</v>
       </c>
       <c r="I83" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="J83" s="17" t="s">
         <v>349</v>
-      </c>
-      <c r="J83" s="17" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5254,7 +5255,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D84" s="19">
         <v>-1</v>
@@ -5263,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G84" s="19">
         <v>0</v>
@@ -5272,10 +5273,10 @@
         <v>23</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5286,7 +5287,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D85" s="3">
         <v>-1</v>
@@ -5295,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G85" s="3">
         <v>1</v>
@@ -5304,10 +5305,10 @@
         <v>24</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5318,7 +5319,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D86" s="3">
         <v>-1</v>
@@ -5327,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
@@ -5336,10 +5337,10 @@
         <v>25</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5350,7 +5351,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D87" s="3">
         <v>-1</v>
@@ -5359,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
@@ -5368,10 +5369,10 @@
         <v>26</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5382,7 +5383,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D88" s="3">
         <v>-1</v>
@@ -5391,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G88" s="3">
         <v>1</v>
@@ -5400,10 +5401,10 @@
         <v>27</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5414,7 +5415,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D89" s="3">
         <v>-1</v>
@@ -5423,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
@@ -5432,10 +5433,10 @@
         <v>28</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5446,7 +5447,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D90" s="3">
         <v>-1</v>
@@ -5455,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G90" s="3">
         <v>1</v>
@@ -5464,10 +5465,10 @@
         <v>29</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5478,7 +5479,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D91" s="3">
         <v>-1</v>
@@ -5487,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
@@ -5496,10 +5497,10 @@
         <v>30</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5510,7 +5511,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D92" s="3">
         <v>-1</v>
@@ -5519,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -5528,10 +5529,10 @@
         <v>31</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5542,7 +5543,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D93" s="3">
         <v>-1</v>
@@ -5551,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -5560,10 +5561,10 @@
         <v>32</v>
       </c>
       <c r="I93" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="J93" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="J93" s="10" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5574,7 +5575,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D94" s="3">
         <v>-1</v>
@@ -5583,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
@@ -5592,13 +5593,13 @@
         <v>-100</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O94">
         <v>12</v>
@@ -5618,7 +5619,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D95" s="3">
         <v>-1</v>
@@ -5627,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G95" s="3">
         <v>0</v>
@@ -5636,10 +5637,10 @@
         <v>33</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5650,7 +5651,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D96" s="3">
         <v>-1</v>
@@ -5659,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5668,10 +5669,10 @@
         <v>34</v>
       </c>
       <c r="I96" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="J96" s="10" t="s">
         <v>342</v>
-      </c>
-      <c r="J96" s="10" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -5682,16 +5683,16 @@
         <v>96</v>
       </c>
       <c r="C97" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D97" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1</v>
+      </c>
+      <c r="F97" s="11" t="s">
         <v>353</v>
-      </c>
-      <c r="D97" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E97" s="3">
-        <v>1</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>354</v>
       </c>
       <c r="G97" s="3">
         <v>1</v>
@@ -5700,10 +5701,10 @@
         <v>35</v>
       </c>
       <c r="I97" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="J97" s="10" t="s">
         <v>351</v>
-      </c>
-      <c r="J97" s="10" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -5714,7 +5715,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D98" s="3">
         <v>-1</v>
@@ -5723,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -5732,10 +5733,10 @@
         <v>36</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N98">
         <v>9</v>
@@ -5749,7 +5750,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D99" s="3">
         <v>-1</v>
@@ -5758,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
@@ -5767,10 +5768,10 @@
         <v>37</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N99">
         <v>9</v>
@@ -5784,7 +5785,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D100" s="3">
         <v>-1</v>
@@ -5793,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -5802,10 +5803,10 @@
         <v>38</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N100">
         <v>9</v>
@@ -5819,7 +5820,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D101" s="3">
         <v>-1</v>
@@ -5828,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
@@ -5837,10 +5838,10 @@
         <v>39</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N101">
         <v>9</v>
@@ -5854,7 +5855,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D102" s="3">
         <v>-1</v>
@@ -5863,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -5872,10 +5873,10 @@
         <v>40</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N102">
         <v>9</v>
@@ -5889,7 +5890,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D103" s="3">
         <v>-1</v>
@@ -5898,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -5907,10 +5908,10 @@
         <v>41</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N103">
         <v>9</v>
@@ -5924,7 +5925,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D104" s="3">
         <v>-1</v>
@@ -5933,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
@@ -5942,10 +5943,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N104">
         <v>9</v>
@@ -5959,7 +5960,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D105" s="3">
         <v>-1</v>
@@ -5968,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -5977,10 +5978,10 @@
         <v>43</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N105">
         <v>9</v>
@@ -5994,7 +5995,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D106" s="3">
         <v>-1</v>
@@ -6003,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -6012,10 +6013,10 @@
         <v>44</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N106">
         <v>9</v>
@@ -6029,7 +6030,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D107" s="3">
         <v>-1</v>
@@ -6038,7 +6039,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G107" s="3">
         <v>1</v>
@@ -6047,7 +6048,7 @@
         <v>32</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J107" s="6" t="s">
         <v>175</v>
@@ -6066,7 +6067,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D108" s="3">
         <v>-1</v>
@@ -6075,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G108" s="3">
         <v>1</v>
@@ -6084,7 +6085,7 @@
         <v>33</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J108" s="6" t="s">
         <v>179</v>
@@ -6103,7 +6104,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D109" s="3">
         <v>-1</v>
@@ -6112,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
@@ -6121,10 +6122,10 @@
         <v>33</v>
       </c>
       <c r="I109" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="J109" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="J109" s="6" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6135,7 +6136,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D110" s="3">
         <v>-1</v>
@@ -6144,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
@@ -6153,13 +6154,13 @@
         <v>34</v>
       </c>
       <c r="I110" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="J110" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="J110" s="6" t="s">
-        <v>382</v>
-      </c>
       <c r="L110" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -6170,28 +6171,28 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D111" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D111" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="3">
-        <v>1</v>
-      </c>
-      <c r="F111" s="3" t="s">
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="G111" s="3">
-        <v>1</v>
-      </c>
-      <c r="H111" s="3">
-        <v>1</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>405</v>
-      </c>
       <c r="J111" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>176</v>
@@ -6211,28 +6212,28 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D112" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D112" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="3">
-        <v>1</v>
-      </c>
-      <c r="F112" s="6" t="s">
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="G112" s="3">
-        <v>1</v>
-      </c>
-      <c r="H112" s="3">
-        <v>1</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>408</v>
-      </c>
       <c r="J112" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L112" s="6" t="s">
         <v>176</v>
@@ -6252,28 +6253,28 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="D113" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="D113" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E113" s="3">
-        <v>1</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="G113" s="3">
-        <v>1</v>
-      </c>
-      <c r="H113" s="3">
-        <v>1</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="J113" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L113" s="6" t="s">
         <v>176</v>
@@ -6293,28 +6294,28 @@
         <v>113</v>
       </c>
       <c r="C114" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D114" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="3">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="D114" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E114" s="3">
-        <v>1</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="G114" s="3">
-        <v>1</v>
-      </c>
-      <c r="H114" s="3">
-        <v>1</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>412</v>
-      </c>
       <c r="J114" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L114" s="6" t="s">
         <v>176</v>
@@ -6334,28 +6335,28 @@
         <v>114</v>
       </c>
       <c r="C115" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D115" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3">
+        <v>1</v>
+      </c>
+      <c r="I115" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="D115" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E115" s="3">
-        <v>1</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
-      <c r="H115" s="3">
-        <v>1</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>414</v>
-      </c>
       <c r="J115" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L115" s="6" t="s">
         <v>176</v>
@@ -6375,28 +6376,28 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="D116" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3">
+        <v>1</v>
+      </c>
+      <c r="I116" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D116" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E116" s="3">
-        <v>1</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="G116" s="3">
-        <v>1</v>
-      </c>
-      <c r="H116" s="3">
-        <v>1</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>416</v>
-      </c>
       <c r="J116" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L116" s="6" t="s">
         <v>176</v>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="460">
   <si>
     <t>id|行号</t>
   </si>
@@ -1858,6 +1858,84 @@
   </si>
   <si>
     <t>"sys_flqcj","panel",1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpg_icon_shui</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于苹果大战种植</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于苹果大战种植</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpg_icon_yg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_3</t>
+  </si>
+  <si>
+    <t>zpg_icon_cc</t>
+  </si>
+  <si>
+    <t>铲子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_4</t>
+  </si>
+  <si>
+    <t>zpg_icon_sc</t>
+  </si>
+  <si>
+    <t>除虫剂</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_5</t>
+  </si>
+  <si>
+    <t>zpg_icon_fl</t>
+  </si>
+  <si>
+    <t>肥料</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_mfcjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费抽奖券</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2332,11 +2410,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R116"/>
+  <dimension ref="A1:R122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6409,6 +6487,200 @@
         <v>3</v>
       </c>
     </row>
+    <row r="117" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3">
+        <v>116</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D117" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3">
+        <v>33</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3">
+        <v>117</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D118" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="3">
+        <v>36</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3">
+        <v>118</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D119" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119" s="3">
+        <v>37</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3">
+        <v>119</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D120" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>448</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0</v>
+      </c>
+      <c r="H120" s="3">
+        <v>38</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3">
+        <v>120</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D121" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
+        <v>451</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+      <c r="H121" s="3">
+        <v>39</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3">
+        <v>121</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D122" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>454</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="3">
+        <v>40</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="480">
   <si>
     <t>id|行号</t>
   </si>
@@ -672,9 +672,6 @@
     <t>&lt;size=40&gt;&lt;color=#FF0000FF&gt;限时&lt;/color&gt;&lt;color=#FFF06E&gt;门票，有效时间&lt;/color&gt;&lt;color=#FF0000FF&gt;7天&lt;/color&gt;&lt;/size&gt;</t>
   </si>
   <si>
-    <t>prop_5y</t>
-  </si>
-  <si>
     <t>com_award_icon_5ys</t>
   </si>
   <si>
@@ -1938,6 +1935,87 @@
   <si>
     <t>com_award_icon_dhq</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_5y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_50flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_200flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_500flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_1000flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>50福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>500福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加50福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加200福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加500福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加1000福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_50flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_200flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_500flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_1000flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_2</t>
+  </si>
+  <si>
+    <t>ty_icon_pms_3</t>
+  </si>
+  <si>
+    <t>ty_icon_pms_4</t>
   </si>
 </sst>
 </file>
@@ -2411,11 +2489,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R122"/>
+  <dimension ref="A1:Q130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F127" sqref="F127:F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2465,7 +2543,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
@@ -2477,16 +2555,16 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P1" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1" s="18" t="s">
         <v>335</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -2576,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2609,15 +2687,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -2675,15 +2753,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2708,15 +2786,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -3914,16 +3992,16 @@
         <v>41</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
         <v>153</v>
-      </c>
-      <c r="D43" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>154</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
@@ -3932,10 +4010,10 @@
         <v>9</v>
       </c>
       <c r="I43" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="3" t="s">
@@ -3950,16 +4028,16 @@
         <v>42</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="D44" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -3968,10 +4046,10 @@
         <v>8</v>
       </c>
       <c r="I44" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="3" t="s">
@@ -3986,16 +4064,16 @@
         <v>43</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="D45" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -4004,10 +4082,10 @@
         <v>6</v>
       </c>
       <c r="I45" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="3" t="s">
@@ -4022,16 +4100,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D46" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
@@ -4040,10 +4118,10 @@
         <v>7</v>
       </c>
       <c r="I46" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J46" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="3" t="s">
@@ -4058,28 +4136,28 @@
         <v>45</v>
       </c>
       <c r="C47" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D47" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="10" t="s">
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1</v>
-      </c>
-      <c r="I47" s="6" t="s">
+      <c r="J47" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="K47" s="6"/>
     </row>
@@ -4091,7 +4169,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D48" s="3">
         <v>-1</v>
@@ -4100,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -4109,10 +4187,10 @@
         <v>16</v>
       </c>
       <c r="I48" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J48" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -4125,7 +4203,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D49" s="3">
         <v>-1</v>
@@ -4134,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -4143,10 +4221,10 @@
         <v>15</v>
       </c>
       <c r="I49" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -4159,22 +4237,22 @@
         <v>48</v>
       </c>
       <c r="C50" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D50" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="10" t="s">
+      <c r="I50" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="I50" s="6" t="s">
-        <v>182</v>
-      </c>
       <c r="J50" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K50" s="6"/>
     </row>
@@ -4186,7 +4264,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D51" s="3">
         <v>-1</v>
@@ -4195,7 +4273,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
@@ -4204,13 +4282,13 @@
         <v>11</v>
       </c>
       <c r="I51" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="J51" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="L51" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -4221,7 +4299,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D52" s="3">
         <v>-1</v>
@@ -4230,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
@@ -4239,13 +4317,13 @@
         <v>10</v>
       </c>
       <c r="I52" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J52" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="J52" s="6" t="s">
-        <v>189</v>
-      </c>
       <c r="L52" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4256,7 +4334,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D53" s="3">
         <v>-1</v>
@@ -4274,10 +4352,10 @@
         <v>1</v>
       </c>
       <c r="I53" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J53" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4288,7 +4366,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D54" s="3">
         <v>-1</v>
@@ -4297,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -4306,13 +4384,13 @@
         <v>12</v>
       </c>
       <c r="I54" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J54" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="J54" s="13" t="s">
-        <v>195</v>
-      </c>
       <c r="L54" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N54">
         <v>7</v>
@@ -4326,7 +4404,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D55" s="3">
         <v>-1</v>
@@ -4335,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -4344,13 +4422,13 @@
         <v>14</v>
       </c>
       <c r="I55" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J55" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="J55" s="13" t="s">
-        <v>198</v>
-      </c>
       <c r="L55" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N55">
         <v>7</v>
@@ -4364,7 +4442,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D56" s="3">
         <v>-1</v>
@@ -4373,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -4382,13 +4460,13 @@
         <v>13</v>
       </c>
       <c r="I56" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J56" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="J56" s="13" t="s">
-        <v>201</v>
-      </c>
       <c r="L56" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N56">
         <v>7</v>
@@ -4402,16 +4480,16 @@
         <v>55</v>
       </c>
       <c r="C57" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="D57" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="G57" s="3">
         <v>1</v>
@@ -4420,13 +4498,13 @@
         <v>6</v>
       </c>
       <c r="I57" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L57" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4437,16 +4515,16 @@
         <v>56</v>
       </c>
       <c r="C58" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
         <v>206</v>
-      </c>
-      <c r="D58" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>207</v>
       </c>
       <c r="G58" s="3">
         <v>1</v>
@@ -4455,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J58" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="J58" s="13" t="s">
-        <v>209</v>
       </c>
       <c r="N58">
         <v>6</v>
@@ -4472,16 +4550,16 @@
         <v>57</v>
       </c>
       <c r="C59" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="D59" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
@@ -4490,10 +4568,10 @@
         <v>2</v>
       </c>
       <c r="I59" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="J59" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="N59">
         <v>6</v>
@@ -4507,28 +4585,28 @@
         <v>58</v>
       </c>
       <c r="C60" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="10" t="s">
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1</v>
-      </c>
-      <c r="I60" s="6" t="s">
+      <c r="J60" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="J60" s="13" t="s">
-        <v>217</v>
       </c>
       <c r="N60">
         <v>6</v>
@@ -4542,16 +4620,16 @@
         <v>59</v>
       </c>
       <c r="C61" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="D61" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>219</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
@@ -4560,10 +4638,10 @@
         <v>3</v>
       </c>
       <c r="I61" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="J61" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="N61">
         <v>6</v>
@@ -4577,7 +4655,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D62" s="3">
         <v>-1</v>
@@ -4586,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
@@ -4595,10 +4673,10 @@
         <v>15</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N62">
         <v>6</v>
@@ -4612,31 +4690,31 @@
         <v>61</v>
       </c>
       <c r="C63" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
         <v>224</v>
       </c>
-      <c r="D63" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+      <c r="I63" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1</v>
-      </c>
-      <c r="I63" s="6" t="s">
+      <c r="J63" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="J63" s="13" t="s">
-        <v>227</v>
-      </c>
       <c r="L63" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4647,16 +4725,16 @@
         <v>62</v>
       </c>
       <c r="C64" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D64" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="D64" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
@@ -4665,10 +4743,10 @@
         <v>21</v>
       </c>
       <c r="I64" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J64" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="J64" s="13" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4679,16 +4757,16 @@
         <v>63</v>
       </c>
       <c r="C65" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D65" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="D65" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>233</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
@@ -4697,13 +4775,13 @@
         <v>22</v>
       </c>
       <c r="I65" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J65" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J65" s="13" t="s">
+      <c r="L65" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -4714,16 +4792,16 @@
         <v>64</v>
       </c>
       <c r="C66" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="D66" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>238</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -4732,10 +4810,10 @@
         <v>23</v>
       </c>
       <c r="I66" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="J66" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -4746,16 +4824,16 @@
         <v>65</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="D67" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -4764,10 +4842,10 @@
         <v>24</v>
       </c>
       <c r="I67" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J67" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -4778,16 +4856,16 @@
         <v>66</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D68" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="D68" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>246</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
@@ -4796,10 +4874,10 @@
         <v>25</v>
       </c>
       <c r="I68" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="J68" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="J68" s="13" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -4810,16 +4888,16 @@
         <v>67</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D69" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="D69" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>250</v>
       </c>
       <c r="G69" s="3">
         <v>0</v>
@@ -4828,10 +4906,10 @@
         <v>26</v>
       </c>
       <c r="I69" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="J69" s="13" t="s">
         <v>251</v>
-      </c>
-      <c r="J69" s="13" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4842,31 +4920,31 @@
         <v>68</v>
       </c>
       <c r="C70" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>224</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+      <c r="I70" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D70" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>225</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="J70" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4877,28 +4955,28 @@
         <v>69</v>
       </c>
       <c r="C71" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D71" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1</v>
-      </c>
-      <c r="F71" s="11" t="s">
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="3">
-        <v>1</v>
-      </c>
-      <c r="I71" s="6" t="s">
+      <c r="J71" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4909,28 +4987,28 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
+        <v>258</v>
+      </c>
+      <c r="D72" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D72" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="11" t="s">
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="3">
-        <v>1</v>
-      </c>
-      <c r="I72" s="6" t="s">
+      <c r="J72" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4941,31 +5019,31 @@
         <v>71</v>
       </c>
       <c r="C73" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
+      <c r="I73" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="D73" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E73" s="3">
-        <v>1</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="3">
-        <v>1</v>
-      </c>
-      <c r="I73" s="11" t="s">
+      <c r="J73" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="J73" s="13" t="s">
-        <v>265</v>
-      </c>
       <c r="L73" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N73">
         <v>3</v>
@@ -4979,31 +5057,31 @@
         <v>72</v>
       </c>
       <c r="C74" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D74" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1</v>
+      </c>
+      <c r="I74" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D74" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-      <c r="H74" s="3">
-        <v>1</v>
-      </c>
-      <c r="I74" s="6" t="s">
+      <c r="J74" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J74" s="13" t="s">
-        <v>268</v>
-      </c>
       <c r="L74" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N74">
         <v>3</v>
@@ -5017,31 +5095,31 @@
         <v>73</v>
       </c>
       <c r="C75" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D75" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D75" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E75" s="3">
-        <v>1</v>
-      </c>
-      <c r="F75" s="11" t="s">
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
+      <c r="I75" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-      <c r="H75" s="3">
-        <v>1</v>
-      </c>
-      <c r="I75" s="6" t="s">
+      <c r="J75" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="J75" s="13" t="s">
-        <v>272</v>
-      </c>
       <c r="L75" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N75">
         <v>3</v>
@@ -5055,16 +5133,16 @@
         <v>74</v>
       </c>
       <c r="C76" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D76" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="D76" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -5073,10 +5151,10 @@
         <v>1</v>
       </c>
       <c r="I76" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="J76" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="J76" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="L76" s="6"/>
       <c r="N76">
@@ -5091,16 +5169,16 @@
         <v>75</v>
       </c>
       <c r="C77" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D77" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>277</v>
-      </c>
-      <c r="D77" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E77" s="3">
-        <v>1</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>278</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -5109,13 +5187,13 @@
         <v>-100</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -5126,28 +5204,28 @@
         <v>76</v>
       </c>
       <c r="C78" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D78" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="D78" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E78" s="3">
-        <v>1</v>
-      </c>
-      <c r="F78" s="10" t="s">
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+      <c r="I78" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
-      <c r="H78" s="3">
-        <v>1</v>
-      </c>
-      <c r="I78" s="6" t="s">
+      <c r="J78" s="16" t="s">
         <v>282</v>
-      </c>
-      <c r="J78" s="16" t="s">
-        <v>283</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -5159,16 +5237,16 @@
         <v>78</v>
       </c>
       <c r="C79" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D79" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="D79" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E79" s="3">
-        <v>1</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="G79" s="3">
         <v>0</v>
@@ -5177,10 +5255,10 @@
         <v>23</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -5191,7 +5269,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D80" s="3">
         <v>-1</v>
@@ -5200,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -5209,13 +5287,13 @@
         <v>23</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="27" x14ac:dyDescent="0.2">
@@ -5226,16 +5304,16 @@
         <v>80</v>
       </c>
       <c r="C81" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D81" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="D81" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>290</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
@@ -5244,13 +5322,13 @@
         <v>24</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O81">
         <v>4</v>
@@ -5264,16 +5342,16 @@
         <v>81</v>
       </c>
       <c r="C82" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D82" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+      <c r="F82" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="D82" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E82" s="3">
-        <v>1</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>293</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
@@ -5282,13 +5360,13 @@
         <v>25</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O82">
         <v>5</v>
@@ -5302,16 +5380,16 @@
         <v>82</v>
       </c>
       <c r="C83" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D83" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="15">
+        <v>1</v>
+      </c>
+      <c r="F83" s="14" t="s">
         <v>337</v>
-      </c>
-      <c r="D83" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E83" s="15">
-        <v>1</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>338</v>
       </c>
       <c r="G83" s="15">
         <v>1</v>
@@ -5320,10 +5398,10 @@
         <v>22</v>
       </c>
       <c r="I83" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J83" s="17" t="s">
         <v>347</v>
-      </c>
-      <c r="J83" s="17" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5334,7 +5412,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D84" s="19">
         <v>-1</v>
@@ -5343,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G84" s="19">
         <v>0</v>
@@ -5352,10 +5430,10 @@
         <v>23</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5366,7 +5444,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D85" s="3">
         <v>-1</v>
@@ -5375,7 +5453,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G85" s="3">
         <v>1</v>
@@ -5384,10 +5462,10 @@
         <v>24</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5398,7 +5476,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D86" s="3">
         <v>-1</v>
@@ -5407,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
@@ -5416,10 +5494,10 @@
         <v>25</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5430,7 +5508,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D87" s="3">
         <v>-1</v>
@@ -5439,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
@@ -5448,10 +5526,10 @@
         <v>26</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5462,7 +5540,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D88" s="3">
         <v>-1</v>
@@ -5471,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G88" s="3">
         <v>1</v>
@@ -5480,10 +5558,10 @@
         <v>27</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5494,7 +5572,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D89" s="3">
         <v>-1</v>
@@ -5503,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
@@ -5512,10 +5590,10 @@
         <v>28</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5526,7 +5604,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D90" s="3">
         <v>-1</v>
@@ -5535,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G90" s="3">
         <v>1</v>
@@ -5544,10 +5622,10 @@
         <v>29</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5558,7 +5636,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D91" s="3">
         <v>-1</v>
@@ -5567,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
@@ -5576,10 +5654,10 @@
         <v>30</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5590,7 +5668,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D92" s="3">
         <v>-1</v>
@@ -5599,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -5608,10 +5686,10 @@
         <v>31</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5622,7 +5700,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D93" s="3">
         <v>-1</v>
@@ -5631,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -5640,10 +5718,10 @@
         <v>32</v>
       </c>
       <c r="I93" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="J93" s="10" t="s">
         <v>318</v>
-      </c>
-      <c r="J93" s="10" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5654,7 +5732,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D94" s="3">
         <v>-1</v>
@@ -5663,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
@@ -5672,13 +5750,13 @@
         <v>-100</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O94">
         <v>12</v>
@@ -5698,7 +5776,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D95" s="3">
         <v>-1</v>
@@ -5707,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G95" s="3">
         <v>0</v>
@@ -5716,10 +5794,10 @@
         <v>33</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5730,7 +5808,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D96" s="3">
         <v>-1</v>
@@ -5739,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5748,13 +5826,13 @@
         <v>34</v>
       </c>
       <c r="I96" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="J96" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="J96" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -5762,16 +5840,16 @@
         <v>96</v>
       </c>
       <c r="C97" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D97" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1</v>
+      </c>
+      <c r="F97" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="D97" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E97" s="3">
-        <v>1</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>352</v>
       </c>
       <c r="G97" s="3">
         <v>1</v>
@@ -5780,13 +5858,13 @@
         <v>35</v>
       </c>
       <c r="I97" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="J97" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="J97" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -5794,7 +5872,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D98" s="3">
         <v>-1</v>
@@ -5803,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -5812,16 +5890,16 @@
         <v>36</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N98">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -5829,7 +5907,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D99" s="3">
         <v>-1</v>
@@ -5838,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
@@ -5847,16 +5925,16 @@
         <v>37</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N99">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -5864,7 +5942,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D100" s="3">
         <v>-1</v>
@@ -5873,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -5882,16 +5960,16 @@
         <v>38</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N100">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -5899,7 +5977,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D101" s="3">
         <v>-1</v>
@@ -5908,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
@@ -5917,16 +5995,16 @@
         <v>39</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N101">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -5934,7 +6012,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D102" s="3">
         <v>-1</v>
@@ -5943,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -5952,16 +6030,16 @@
         <v>40</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N102">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -5969,7 +6047,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D103" s="3">
         <v>-1</v>
@@ -5978,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -5987,16 +6065,16 @@
         <v>41</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N103">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -6004,7 +6082,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D104" s="3">
         <v>-1</v>
@@ -6013,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
@@ -6022,16 +6100,16 @@
         <v>42</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N104">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -6039,7 +6117,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D105" s="3">
         <v>-1</v>
@@ -6048,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -6057,16 +6135,16 @@
         <v>43</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N105">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -6074,7 +6152,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D106" s="3">
         <v>-1</v>
@@ -6083,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -6092,16 +6170,16 @@
         <v>44</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N106">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -6109,7 +6187,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D107" s="3">
         <v>-1</v>
@@ -6118,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G107" s="3">
         <v>1</v>
@@ -6127,10 +6205,10 @@
         <v>32</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
@@ -6138,7 +6216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -6146,7 +6224,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D108" s="3">
         <v>-1</v>
@@ -6155,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G108" s="3">
         <v>1</v>
@@ -6164,10 +6242,10 @@
         <v>33</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
@@ -6175,7 +6253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -6183,7 +6261,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D109" s="3">
         <v>-1</v>
@@ -6192,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
@@ -6201,13 +6279,13 @@
         <v>33</v>
       </c>
       <c r="I109" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="J109" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="J109" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -6215,7 +6293,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D110" s="3">
         <v>-1</v>
@@ -6224,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
@@ -6233,16 +6311,16 @@
         <v>34</v>
       </c>
       <c r="I110" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="J110" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="J110" s="6" t="s">
-        <v>380</v>
-      </c>
       <c r="L110" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -6250,40 +6328,37 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="D111" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="D111" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="3">
-        <v>1</v>
-      </c>
-      <c r="F111" s="3" t="s">
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="G111" s="3">
-        <v>1</v>
-      </c>
-      <c r="H111" s="3">
-        <v>1</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>403</v>
-      </c>
       <c r="J111" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N111">
         <v>3</v>
       </c>
-      <c r="R111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -6291,40 +6366,37 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D112" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D112" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="3">
-        <v>1</v>
-      </c>
-      <c r="F112" s="6" t="s">
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="G112" s="3">
-        <v>1</v>
-      </c>
-      <c r="H112" s="3">
-        <v>1</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>406</v>
-      </c>
       <c r="J112" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N112">
         <v>3</v>
       </c>
-      <c r="R112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -6332,40 +6404,37 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D113" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D113" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E113" s="3">
-        <v>1</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="G113" s="3">
-        <v>1</v>
-      </c>
-      <c r="H113" s="3">
-        <v>1</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>408</v>
-      </c>
       <c r="J113" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N113">
         <v>3</v>
       </c>
-      <c r="R113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -6373,40 +6442,37 @@
         <v>113</v>
       </c>
       <c r="C114" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="D114" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="3">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="D114" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E114" s="3">
-        <v>1</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="G114" s="3">
-        <v>1</v>
-      </c>
-      <c r="H114" s="3">
-        <v>1</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="J114" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N114">
         <v>3</v>
       </c>
-      <c r="R114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -6414,40 +6480,37 @@
         <v>114</v>
       </c>
       <c r="C115" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D115" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3">
+        <v>1</v>
+      </c>
+      <c r="I115" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="D115" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E115" s="3">
-        <v>1</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
-      <c r="H115" s="3">
-        <v>1</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>412</v>
-      </c>
       <c r="J115" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N115">
         <v>3</v>
       </c>
-      <c r="R115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -6455,40 +6518,37 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D116" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3">
+        <v>1</v>
+      </c>
+      <c r="I116" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="D116" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E116" s="3">
-        <v>1</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="G116" s="3">
-        <v>1</v>
-      </c>
-      <c r="H116" s="3">
-        <v>1</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>414</v>
-      </c>
       <c r="J116" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N116">
         <v>3</v>
       </c>
-      <c r="R116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -6496,16 +6556,16 @@
         <v>116</v>
       </c>
       <c r="C117" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D117" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1</v>
+      </c>
+      <c r="F117" s="10" t="s">
         <v>455</v>
-      </c>
-      <c r="D117" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E117" s="3">
-        <v>1</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>456</v>
       </c>
       <c r="G117" s="3">
         <v>0</v>
@@ -6514,15 +6574,15 @@
         <v>33</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
     </row>
-    <row r="118" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -6530,16 +6590,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="D118" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="D118" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E118" s="3">
-        <v>1</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>439</v>
       </c>
       <c r="G118" s="3">
         <v>0</v>
@@ -6548,13 +6608,13 @@
         <v>36</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -6562,16 +6622,16 @@
         <v>118</v>
       </c>
       <c r="C119" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D119" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" s="10" t="s">
         <v>443</v>
-      </c>
-      <c r="D119" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E119" s="3">
-        <v>1</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>444</v>
       </c>
       <c r="G119" s="3">
         <v>0</v>
@@ -6580,13 +6640,13 @@
         <v>37</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -6594,16 +6654,16 @@
         <v>119</v>
       </c>
       <c r="C120" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D120" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
         <v>446</v>
-      </c>
-      <c r="D120" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E120" s="3">
-        <v>1</v>
-      </c>
-      <c r="F120" t="s">
-        <v>447</v>
       </c>
       <c r="G120" s="3">
         <v>0</v>
@@ -6612,13 +6672,13 @@
         <v>38</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -6626,16 +6686,16 @@
         <v>120</v>
       </c>
       <c r="C121" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D121" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
         <v>449</v>
-      </c>
-      <c r="D121" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E121" s="3">
-        <v>1</v>
-      </c>
-      <c r="F121" t="s">
-        <v>450</v>
       </c>
       <c r="G121" s="3">
         <v>0</v>
@@ -6644,13 +6704,13 @@
         <v>39</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -6658,16 +6718,16 @@
         <v>121</v>
       </c>
       <c r="C122" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D122" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
         <v>452</v>
-      </c>
-      <c r="D122" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E122" s="3">
-        <v>1</v>
-      </c>
-      <c r="F122" t="s">
-        <v>453</v>
       </c>
       <c r="G122" s="3">
         <v>0</v>
@@ -6676,10 +6736,290 @@
         <v>40</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J122" s="6" t="s">
         <v>441</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3">
+        <v>122</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="D123" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="G123" s="3">
+        <v>1</v>
+      </c>
+      <c r="H123" s="3">
+        <v>41</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3">
+        <v>123</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="D124" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E124" s="3">
+        <v>1</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="G124" s="3">
+        <v>1</v>
+      </c>
+      <c r="H124" s="3">
+        <v>42</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3">
+        <v>124</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="D125" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="G125" s="3">
+        <v>1</v>
+      </c>
+      <c r="H125" s="3">
+        <v>43</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3">
+        <v>125</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D126" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="G126" s="3">
+        <v>1</v>
+      </c>
+      <c r="H126" s="3">
+        <v>44</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3">
+        <v>126</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D127" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="G127" s="3">
+        <v>1</v>
+      </c>
+      <c r="H127" s="3">
+        <v>45</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3">
+        <v>127</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="D128" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="G128" s="3">
+        <v>1</v>
+      </c>
+      <c r="H128" s="3">
+        <v>46</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3">
+        <v>128</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D129" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="G129" s="3">
+        <v>1</v>
+      </c>
+      <c r="H129" s="3">
+        <v>47</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3">
+        <v>129</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="D130" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="G130" s="3">
+        <v>1</v>
+      </c>
+      <c r="H130" s="3">
+        <v>48</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_0817\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="484">
   <si>
     <t>id|行号</t>
   </si>
@@ -2016,6 +2016,22 @@
   </si>
   <si>
     <t>ty_icon_pms_4</t>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxdh_icon_4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙虾券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获龙虾活动鱼获得</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2489,11 +2505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q130"/>
+  <dimension ref="A1:Q131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F127" sqref="F127:F130"/>
+      <selection pane="bottomLeft" activeCell="J137" sqref="J137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7022,6 +7038,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3">
+        <v>130</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="D131" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="3">
+        <v>1</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_0817\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="507">
   <si>
     <t>id|行号</t>
   </si>
@@ -2031,6 +2031,91 @@
   </si>
   <si>
     <t>捕获龙虾活动鱼获得</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_jrth_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_jrth_3</t>
+  </si>
+  <si>
+    <t>prop_jrth_4</t>
+  </si>
+  <si>
+    <t>prop_jrth_5</t>
+  </si>
+  <si>
+    <t>prop_jrth_6</t>
+  </si>
+  <si>
+    <t>prop_jrth_7</t>
+  </si>
+  <si>
+    <t>prop_jrth_8</t>
+  </si>
+  <si>
+    <t>prop_jrth_9</t>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠白银宝箱（免费小额用户，V1-V3用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠黄金宝箱（免费小额用户，V1-V3用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠钻石宝箱（免费小额用户，V1-V3用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠白银宝箱（V4-V7用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠黄金宝箱（V4-V7用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠钻石宝箱（V4-V7用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠白银宝箱（V8-V10用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠黄金宝箱（V8-V10用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠钻石宝箱（V8-V10用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_jrth_1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2505,11 +2590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q131"/>
+  <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J137" sqref="J137"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2518,7 +2603,7 @@
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="28.25" customWidth="1"/>
     <col min="7" max="7" width="14.125" customWidth="1"/>
     <col min="9" max="9" width="23.75" customWidth="1"/>
@@ -3507,7 +3592,7 @@
       <c r="D29" s="7">
         <v>-1</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="15">
         <v>1</v>
       </c>
       <c r="F29" s="7" t="s">
@@ -7068,6 +7153,294 @@
       </c>
       <c r="J131" s="6" t="s">
         <v>483</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3">
+        <v>131</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D132" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="3">
+        <v>33</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3">
+        <v>132</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="D133" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="3">
+        <v>33</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3">
+        <v>133</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D134" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="3">
+        <v>33</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3">
+        <v>134</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="D135" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="3">
+        <v>33</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3">
+        <v>135</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D136" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="3">
+        <v>33</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3">
+        <v>136</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="D137" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0</v>
+      </c>
+      <c r="H137" s="3">
+        <v>33</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3">
+        <v>137</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D138" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138" s="3">
+        <v>33</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3">
+        <v>138</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="D139" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="3">
+        <v>33</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3">
+        <v>139</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="D140" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E140" s="3">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>259</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="3">
+        <v>33</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -2034,31 +2034,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_jrth_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_jrth_3</t>
-  </si>
-  <si>
-    <t>prop_jrth_4</t>
-  </si>
-  <si>
-    <t>prop_jrth_5</t>
-  </si>
-  <si>
-    <t>prop_jrth_6</t>
-  </si>
-  <si>
-    <t>prop_jrth_7</t>
-  </si>
-  <si>
-    <t>prop_jrth_8</t>
-  </si>
-  <si>
-    <t>prop_jrth_9</t>
-  </si>
-  <si>
     <t>com_award_icon_dhq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2115,8 +2090,33 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_jrth_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>prop_cjlb_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_3</t>
+  </si>
+  <si>
+    <t>prop_cjlb_4</t>
+  </si>
+  <si>
+    <t>prop_cjlb_5</t>
+  </si>
+  <si>
+    <t>prop_cjlb_6</t>
+  </si>
+  <si>
+    <t>prop_cjlb_7</t>
+  </si>
+  <si>
+    <t>prop_cjlb_8</t>
+  </si>
+  <si>
+    <t>prop_cjlb_9</t>
   </si>
 </sst>
 </file>
@@ -2593,8 +2593,8 @@
   <dimension ref="A1:Q140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F149" sqref="F149"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7163,7 +7163,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D132" s="3">
         <v>-1</v>
@@ -7172,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G132" s="3">
         <v>0</v>
@@ -7181,10 +7181,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -7195,7 +7195,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="D133" s="3">
         <v>-1</v>
@@ -7204,7 +7204,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G133" s="3">
         <v>0</v>
@@ -7213,10 +7213,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -7227,16 +7227,16 @@
         <v>133</v>
       </c>
       <c r="C134" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="D134" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
+      <c r="F134" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="D134" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E134" s="3">
-        <v>1</v>
-      </c>
-      <c r="F134" s="10" t="s">
-        <v>493</v>
       </c>
       <c r="G134" s="3">
         <v>0</v>
@@ -7245,10 +7245,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -7259,16 +7259,16 @@
         <v>134</v>
       </c>
       <c r="C135" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="D135" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="F135" s="10" t="s">
         <v>486</v>
-      </c>
-      <c r="D135" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E135" s="3">
-        <v>1</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>494</v>
       </c>
       <c r="G135" s="3">
         <v>0</v>
@@ -7277,10 +7277,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -7291,7 +7291,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="D136" s="3">
         <v>-1</v>
@@ -7300,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G136" s="3">
         <v>0</v>
@@ -7309,10 +7309,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -7323,7 +7323,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="D137" s="3">
         <v>-1</v>
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
@@ -7341,10 +7341,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -7355,7 +7355,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="D138" s="3">
         <v>-1</v>
@@ -7364,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G138" s="3">
         <v>0</v>
@@ -7373,10 +7373,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -7387,7 +7387,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="D139" s="3">
         <v>-1</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G139" s="3">
         <v>0</v>
@@ -7405,10 +7405,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J139" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="J139" s="6" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -7419,7 +7419,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="D140" s="3">
         <v>-1</v>
@@ -7437,10 +7437,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_0818\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="516">
   <si>
     <t>id|行号</t>
   </si>
@@ -2117,6 +2117,40 @@
   </si>
   <si>
     <t>prop_cjlb_9</t>
+  </si>
+  <si>
+    <t>prop_xrcdj_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrcdj_2</t>
+  </si>
+  <si>
+    <t>prop_xrcdj_3</t>
+  </si>
+  <si>
+    <t>青铜抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的青铜抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的白银抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的黄金抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2590,11 +2624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q140"/>
+  <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7443,6 +7477,102 @@
         <v>497</v>
       </c>
     </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3">
+        <v>140</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="D141" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="3">
+        <v>33</v>
+      </c>
+      <c r="I141" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3">
+        <v>141</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="D142" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="3">
+        <v>33</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3">
+        <v>142</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="D143" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0</v>
+      </c>
+      <c r="H143" s="3">
+        <v>33</v>
+      </c>
+      <c r="I143" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_0818\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="520">
   <si>
     <t>id|行号</t>
   </si>
@@ -2150,6 +2150,22 @@
   </si>
   <si>
     <t>用于新人抽大奖中的黄金抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_love_heart</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫七夕活动道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bblb_icon_xin</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2624,11 +2640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q143"/>
+  <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
+      <selection pane="bottomLeft" activeCell="H147" sqref="H147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7573,6 +7589,38 @@
         <v>515</v>
       </c>
     </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3">
+        <v>143</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="D144" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E144" s="3">
+        <v>1</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+      <c r="H144" s="3">
+        <v>33</v>
+      </c>
+      <c r="I144" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="516">
   <si>
     <t>id|行号</t>
   </si>
@@ -2022,18 +2022,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>lxdh_icon_4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龙虾券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获龙虾活动鱼获得</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>com_award_icon_dhq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2150,10 +2138,6 @@
   </si>
   <si>
     <t>用于新人抽大奖中的黄金抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_love_heart</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2640,11 +2624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q144"/>
+  <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H147" sqref="H147"/>
+      <selection pane="bottomLeft" activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7190,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="G131" s="3">
         <v>0</v>
@@ -7199,10 +7183,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -7213,7 +7197,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D132" s="3">
         <v>-1</v>
@@ -7222,7 +7206,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G132" s="3">
         <v>0</v>
@@ -7231,10 +7215,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -7245,7 +7229,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D133" s="3">
         <v>-1</v>
@@ -7254,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G133" s="3">
         <v>0</v>
@@ -7263,10 +7247,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -7277,7 +7261,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D134" s="3">
         <v>-1</v>
@@ -7286,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G134" s="3">
         <v>0</v>
@@ -7295,10 +7279,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="J134" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="J134" s="6" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -7309,7 +7293,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D135" s="3">
         <v>-1</v>
@@ -7318,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G135" s="3">
         <v>0</v>
@@ -7327,10 +7311,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -7341,7 +7325,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D136" s="3">
         <v>-1</v>
@@ -7350,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G136" s="3">
         <v>0</v>
@@ -7359,10 +7343,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -7373,7 +7357,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D137" s="3">
         <v>-1</v>
@@ -7382,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
@@ -7391,10 +7375,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -7405,7 +7389,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D138" s="3">
         <v>-1</v>
@@ -7414,7 +7398,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G138" s="3">
         <v>0</v>
@@ -7423,10 +7407,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -7437,7 +7421,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D139" s="3">
         <v>-1</v>
@@ -7446,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G139" s="3">
         <v>0</v>
@@ -7455,10 +7439,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -7469,7 +7453,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D140" s="3">
         <v>-1</v>
@@ -7487,10 +7471,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -7501,7 +7485,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D141" s="3">
         <v>-1</v>
@@ -7510,7 +7494,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G141" s="3">
         <v>0</v>
@@ -7519,10 +7503,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="J141" s="6" t="s">
         <v>510</v>
-      </c>
-      <c r="J141" s="6" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -7533,7 +7517,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D142" s="3">
         <v>-1</v>
@@ -7542,7 +7526,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G142" s="3">
         <v>0</v>
@@ -7551,10 +7535,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="J142" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="J142" s="6" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -7565,7 +7549,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D143" s="3">
         <v>-1</v>
@@ -7574,7 +7558,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G143" s="3">
         <v>0</v>
@@ -7583,42 +7567,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="J143" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="J143" s="6" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A144" s="3">
-        <v>143</v>
-      </c>
-      <c r="B144" s="3">
-        <v>143</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="D144" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E144" s="3">
-        <v>1</v>
-      </c>
-      <c r="F144" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="G144" s="3">
-        <v>0</v>
-      </c>
-      <c r="H144" s="3">
-        <v>33</v>
-      </c>
-      <c r="I144" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="J144" s="6" t="s">
-        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="520">
   <si>
     <t>id|行号</t>
   </si>
@@ -2149,7 +2149,22 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>_common_rank_true_love_026_rank</t>
+  </si>
+  <si>
     <t>bblb_icon_xin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bblb_icon_xin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱排行榜积分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱排行榜积分道具</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2624,11 +2639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q143"/>
+  <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F146" sqref="F146"/>
+      <selection pane="bottomLeft" activeCell="J148" sqref="J148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7174,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G131" s="3">
         <v>0</v>
@@ -7571,6 +7586,38 @@
       </c>
       <c r="J143" s="6" t="s">
         <v>512</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>515</v>
+      </c>
+      <c r="D144" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E144" s="3">
+        <v>1</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+      <c r="H144" s="3">
+        <v>33</v>
+      </c>
+      <c r="I144" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -2174,15 +2174,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_xycd_ sunshine</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>阳光</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>幸运彩蛋活动道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xycd_sunshine</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2661,7 +2661,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K145" sqref="K145"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7646,7 +7646,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D145" s="3">
         <v>-1</v>
@@ -7664,10 +7664,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="J145" s="6" t="s">
         <v>522</v>
-      </c>
-      <c r="J145" s="6" t="s">
-        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1957,38 +1957,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>50福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>200福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>500福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加50福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加200福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加500福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加1000福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>obj_3d_50flq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2183,6 +2151,38 @@
   </si>
   <si>
     <t>prop_xycd_sunshine</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>250福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加250福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加2500福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加25000福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加250000福利券赛的门票</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2660,8 +2660,8 @@
   <dimension ref="A1:Q145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I127" sqref="I127:J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6927,7 +6927,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
@@ -6936,10 +6936,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -6962,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
@@ -6971,10 +6971,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -6997,7 +6997,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
@@ -7006,10 +7006,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -7032,7 +7032,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
@@ -7041,10 +7041,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -7058,7 +7058,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D127" s="3">
         <v>-1</v>
@@ -7067,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
@@ -7076,10 +7076,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -7093,7 +7093,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D128" s="3">
         <v>-1</v>
@@ -7102,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
@@ -7111,10 +7111,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -7128,7 +7128,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D129" s="3">
         <v>-1</v>
@@ -7137,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>
@@ -7146,10 +7146,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -7163,7 +7163,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D130" s="3">
         <v>-1</v>
@@ -7172,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G130" s="3">
         <v>1</v>
@@ -7181,10 +7181,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -7198,7 +7198,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D131" s="3">
         <v>-1</v>
@@ -7207,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G131" s="3">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -7230,7 +7230,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="D132" s="3">
         <v>-1</v>
@@ -7239,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G132" s="3">
         <v>0</v>
@@ -7248,10 +7248,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -7262,7 +7262,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D133" s="3">
         <v>-1</v>
@@ -7271,7 +7271,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G133" s="3">
         <v>0</v>
@@ -7280,10 +7280,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -7294,7 +7294,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D134" s="3">
         <v>-1</v>
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G134" s="3">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -7326,7 +7326,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D135" s="3">
         <v>-1</v>
@@ -7335,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G135" s="3">
         <v>0</v>
@@ -7344,10 +7344,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -7358,7 +7358,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D136" s="3">
         <v>-1</v>
@@ -7367,7 +7367,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G136" s="3">
         <v>0</v>
@@ -7376,10 +7376,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -7390,7 +7390,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D137" s="3">
         <v>-1</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
@@ -7408,10 +7408,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -7422,7 +7422,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D138" s="3">
         <v>-1</v>
@@ -7431,7 +7431,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G138" s="3">
         <v>0</v>
@@ -7440,10 +7440,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -7454,7 +7454,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D139" s="3">
         <v>-1</v>
@@ -7463,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G139" s="3">
         <v>0</v>
@@ -7472,10 +7472,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="J139" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="J139" s="6" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -7486,7 +7486,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D140" s="3">
         <v>-1</v>
@@ -7504,10 +7504,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -7518,7 +7518,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D141" s="3">
         <v>-1</v>
@@ -7527,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G141" s="3">
         <v>0</v>
@@ -7536,10 +7536,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -7550,7 +7550,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D142" s="3">
         <v>-1</v>
@@ -7559,7 +7559,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G142" s="3">
         <v>0</v>
@@ -7568,10 +7568,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -7582,7 +7582,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D143" s="3">
         <v>-1</v>
@@ -7591,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G143" s="3">
         <v>0</v>
@@ -7600,10 +7600,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -7614,7 +7614,7 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D144" s="3">
         <v>-1</v>
@@ -7623,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G144" s="3">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -7646,7 +7646,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D145" s="3">
         <v>-1</v>
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G145" s="3">
         <v>0</v>
@@ -7664,10 +7664,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="553">
   <si>
     <t>id|行号</t>
   </si>
@@ -2185,12 +2185,128 @@
     <t>用于参加250000福利券赛的门票</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>com_award_icon_cz2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2247,8 +2363,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2265,6 +2388,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2310,7 +2439,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2379,6 +2508,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2657,11 +2801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I127" sqref="I127:J130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7670,6 +7814,294 @@
         <v>514</v>
       </c>
     </row>
+    <row r="146" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="23">
+        <v>145</v>
+      </c>
+      <c r="B146" s="23">
+        <v>145</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="D146" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E146" s="23">
+        <v>1</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="G146" s="23">
+        <v>0</v>
+      </c>
+      <c r="H146" s="23">
+        <v>33</v>
+      </c>
+      <c r="I146" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="J146" s="27" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="23">
+        <v>146</v>
+      </c>
+      <c r="B147" s="23">
+        <v>146</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="D147" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E147" s="23">
+        <v>1</v>
+      </c>
+      <c r="F147" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="G147" s="23">
+        <v>0</v>
+      </c>
+      <c r="H147" s="23">
+        <v>33</v>
+      </c>
+      <c r="I147" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="J147" s="27" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="23">
+        <v>147</v>
+      </c>
+      <c r="B148" s="23">
+        <v>147</v>
+      </c>
+      <c r="C148" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="D148" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E148" s="23">
+        <v>1</v>
+      </c>
+      <c r="F148" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="G148" s="23">
+        <v>0</v>
+      </c>
+      <c r="H148" s="23">
+        <v>33</v>
+      </c>
+      <c r="I148" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="J148" s="27" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="23">
+        <v>148</v>
+      </c>
+      <c r="B149" s="23">
+        <v>148</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="D149" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E149" s="23">
+        <v>1</v>
+      </c>
+      <c r="F149" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="G149" s="23">
+        <v>0</v>
+      </c>
+      <c r="H149" s="23">
+        <v>33</v>
+      </c>
+      <c r="I149" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="J149" s="27" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="23">
+        <v>149</v>
+      </c>
+      <c r="B150" s="23">
+        <v>149</v>
+      </c>
+      <c r="C150" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="D150" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E150" s="23">
+        <v>1</v>
+      </c>
+      <c r="F150" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="G150" s="23">
+        <v>0</v>
+      </c>
+      <c r="H150" s="23">
+        <v>33</v>
+      </c>
+      <c r="I150" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="J150" s="27" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A151" s="23">
+        <v>150</v>
+      </c>
+      <c r="B151" s="23">
+        <v>150</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="D151" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="23">
+        <v>1</v>
+      </c>
+      <c r="F151" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G151" s="23">
+        <v>0</v>
+      </c>
+      <c r="H151" s="23">
+        <v>33</v>
+      </c>
+      <c r="I151" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="J151" s="27" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="23">
+        <v>151</v>
+      </c>
+      <c r="B152" s="23">
+        <v>151</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="D152" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E152" s="23">
+        <v>1</v>
+      </c>
+      <c r="F152" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="G152" s="23">
+        <v>0</v>
+      </c>
+      <c r="H152" s="23">
+        <v>33</v>
+      </c>
+      <c r="I152" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="J152" s="27" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="23">
+        <v>152</v>
+      </c>
+      <c r="B153" s="23">
+        <v>152</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="D153" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E153" s="23">
+        <v>1</v>
+      </c>
+      <c r="F153" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="G153" s="23">
+        <v>0</v>
+      </c>
+      <c r="H153" s="23">
+        <v>33</v>
+      </c>
+      <c r="I153" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="J153" s="27" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A154" s="23">
+        <v>153</v>
+      </c>
+      <c r="B154" s="23">
+        <v>153</v>
+      </c>
+      <c r="C154" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="D154" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E154" s="23">
+        <v>1</v>
+      </c>
+      <c r="F154" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G154" s="23">
+        <v>0</v>
+      </c>
+      <c r="H154" s="23">
+        <v>33</v>
+      </c>
+      <c r="I154" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="J154" s="27" t="s">
+        <v>547</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_9.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="556">
   <si>
     <t>id|行号</t>
   </si>
@@ -2299,6 +2299,18 @@
   </si>
   <si>
     <t>prop_brass_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩礼包抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cwlb_cjq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2801,11 +2813,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q154"/>
+  <dimension ref="A1:Q155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E166" sqref="E166"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5308,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>259</v>
+        <v>553</v>
       </c>
       <c r="G72" s="3">
         <v>1</v>
@@ -8100,6 +8112,38 @@
       </c>
       <c r="J154" s="27" t="s">
         <v>547</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3">
+        <v>154</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="D155" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="3">
+        <v>1</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="G155" s="3">
+        <v>0</v>
+      </c>
+      <c r="H155" s="3">
+        <v>33</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_9.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="557">
   <si>
     <t>id|行号</t>
   </si>
@@ -2311,6 +2311,10 @@
   </si>
   <si>
     <t>prop_cwlb_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_cjq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2817,7 +2821,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
+      <selection pane="bottomLeft" activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8131,7 +8135,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>455</v>
+        <v>556</v>
       </c>
       <c r="G155" s="3">
         <v>0</v>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="556">
   <si>
     <t>id|行号</t>
   </si>
@@ -1625,31 +1625,6 @@
   </si>
   <si>
     <t>ty_icon_flq1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"game_MiniGame</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2819,9 +2794,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F155" sqref="F155"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L110" sqref="L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3122,7 +3097,7 @@
         <v>372</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -4320,7 +4295,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D43" s="3">
         <v>-1</v>
@@ -4497,7 +4472,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D48" s="3">
         <v>-1</v>
@@ -4531,7 +4506,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D49" s="3">
         <v>-1</v>
@@ -4703,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -4741,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -4779,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -5324,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G72" s="3">
         <v>1</v>
@@ -5356,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -5394,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -5518,7 +5493,7 @@
         <v>278</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L77" s="6" t="s">
         <v>332</v>
@@ -5606,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -5615,13 +5590,13 @@
         <v>23</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J80" s="13" t="s">
         <v>287</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="27" x14ac:dyDescent="0.2">
@@ -5653,7 +5628,7 @@
         <v>290</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L81" s="6" t="s">
         <v>298</v>
@@ -5691,7 +5666,7 @@
         <v>293</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L82" s="6" t="s">
         <v>299</v>
@@ -6081,7 +6056,7 @@
         <v>329</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L94" s="6" t="s">
         <v>333</v>
@@ -6209,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -6218,7 +6193,7 @@
         <v>36</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>360</v>
@@ -6244,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
@@ -6253,7 +6228,7 @@
         <v>37</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J99" s="6" t="s">
         <v>361</v>
@@ -6279,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -6288,7 +6263,7 @@
         <v>38</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J100" s="6" t="s">
         <v>362</v>
@@ -6314,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
@@ -6323,7 +6298,7 @@
         <v>39</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>363</v>
@@ -6349,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -6358,7 +6333,7 @@
         <v>40</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>364</v>
@@ -6375,7 +6350,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D103" s="3">
         <v>-1</v>
@@ -6384,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -6393,7 +6368,7 @@
         <v>41</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>365</v>
@@ -6410,7 +6385,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D104" s="3">
         <v>-1</v>
@@ -6419,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
@@ -6428,10 +6403,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N104">
         <v>9</v>
@@ -6454,7 +6429,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -6463,7 +6438,7 @@
         <v>43</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>367</v>
@@ -6489,7 +6464,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -6498,7 +6473,7 @@
         <v>44</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J106" s="6" t="s">
         <v>366</v>
@@ -6515,7 +6490,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D107" s="3">
         <v>-1</v>
@@ -6533,7 +6508,7 @@
         <v>32</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J107" s="6" t="s">
         <v>174</v>
@@ -6552,7 +6527,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D108" s="3">
         <v>-1</v>
@@ -6570,7 +6545,7 @@
         <v>33</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J108" s="6" t="s">
         <v>178</v>
@@ -6644,9 +6619,7 @@
       <c r="J110" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="L110" s="6" t="s">
-        <v>385</v>
-      </c>
+      <c r="L110" s="6"/>
     </row>
     <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
@@ -6656,28 +6629,28 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D111" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D111" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="3">
-        <v>1</v>
-      </c>
-      <c r="F111" s="3" t="s">
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="G111" s="3">
-        <v>1</v>
-      </c>
-      <c r="H111" s="3">
-        <v>1</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>402</v>
-      </c>
       <c r="J111" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>175</v>
@@ -6694,28 +6667,28 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D112" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D112" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="3">
-        <v>1</v>
-      </c>
-      <c r="F112" s="6" t="s">
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="G112" s="3">
-        <v>1</v>
-      </c>
-      <c r="H112" s="3">
-        <v>1</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>405</v>
-      </c>
       <c r="J112" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L112" s="6" t="s">
         <v>175</v>
@@ -6732,28 +6705,28 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D113" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D113" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E113" s="3">
-        <v>1</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="G113" s="3">
-        <v>1</v>
-      </c>
-      <c r="H113" s="3">
-        <v>1</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>407</v>
-      </c>
       <c r="J113" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L113" s="6" t="s">
         <v>175</v>
@@ -6770,28 +6743,28 @@
         <v>113</v>
       </c>
       <c r="C114" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="D114" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="3">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="D114" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E114" s="3">
-        <v>1</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="G114" s="3">
-        <v>1</v>
-      </c>
-      <c r="H114" s="3">
-        <v>1</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>409</v>
-      </c>
       <c r="J114" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L114" s="6" t="s">
         <v>175</v>
@@ -6808,28 +6781,28 @@
         <v>114</v>
       </c>
       <c r="C115" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="D115" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3">
+        <v>1</v>
+      </c>
+      <c r="I115" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D115" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E115" s="3">
-        <v>1</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
-      <c r="H115" s="3">
-        <v>1</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>411</v>
-      </c>
       <c r="J115" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L115" s="6" t="s">
         <v>175</v>
@@ -6846,28 +6819,28 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D116" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3">
+        <v>1</v>
+      </c>
+      <c r="I116" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D116" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E116" s="3">
-        <v>1</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="G116" s="3">
-        <v>1</v>
-      </c>
-      <c r="H116" s="3">
-        <v>1</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>413</v>
-      </c>
       <c r="J116" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L116" s="6" t="s">
         <v>175</v>
@@ -6884,16 +6857,16 @@
         <v>116</v>
       </c>
       <c r="C117" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D117" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1</v>
+      </c>
+      <c r="F117" s="10" t="s">
         <v>454</v>
-      </c>
-      <c r="D117" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E117" s="3">
-        <v>1</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>455</v>
       </c>
       <c r="G117" s="3">
         <v>0</v>
@@ -6902,10 +6875,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
@@ -6918,16 +6891,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D118" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" s="10" t="s">
         <v>437</v>
-      </c>
-      <c r="D118" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E118" s="3">
-        <v>1</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>438</v>
       </c>
       <c r="G118" s="3">
         <v>0</v>
@@ -6936,10 +6909,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6950,16 +6923,16 @@
         <v>118</v>
       </c>
       <c r="C119" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D119" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" s="10" t="s">
         <v>442</v>
-      </c>
-      <c r="D119" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E119" s="3">
-        <v>1</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>443</v>
       </c>
       <c r="G119" s="3">
         <v>0</v>
@@ -6968,10 +6941,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6982,16 +6955,16 @@
         <v>119</v>
       </c>
       <c r="C120" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D120" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
         <v>445</v>
-      </c>
-      <c r="D120" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E120" s="3">
-        <v>1</v>
-      </c>
-      <c r="F120" t="s">
-        <v>446</v>
       </c>
       <c r="G120" s="3">
         <v>0</v>
@@ -7000,10 +6973,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7014,16 +6987,16 @@
         <v>120</v>
       </c>
       <c r="C121" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D121" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
         <v>448</v>
-      </c>
-      <c r="D121" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E121" s="3">
-        <v>1</v>
-      </c>
-      <c r="F121" t="s">
-        <v>449</v>
       </c>
       <c r="G121" s="3">
         <v>0</v>
@@ -7032,10 +7005,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7046,16 +7019,16 @@
         <v>121</v>
       </c>
       <c r="C122" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D122" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
         <v>451</v>
-      </c>
-      <c r="D122" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E122" s="3">
-        <v>1</v>
-      </c>
-      <c r="F122" t="s">
-        <v>452</v>
       </c>
       <c r="G122" s="3">
         <v>0</v>
@@ -7064,10 +7037,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7078,7 +7051,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D123" s="3">
         <v>-1</v>
@@ -7087,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
@@ -7096,10 +7069,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -7113,7 +7086,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D124" s="3">
         <v>-1</v>
@@ -7122,7 +7095,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
@@ -7131,10 +7104,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -7148,7 +7121,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D125" s="3">
         <v>-1</v>
@@ -7157,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
@@ -7166,10 +7139,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -7183,7 +7156,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D126" s="3">
         <v>-1</v>
@@ -7192,7 +7165,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
@@ -7201,10 +7174,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -7218,7 +7191,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D127" s="3">
         <v>-1</v>
@@ -7227,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
@@ -7236,10 +7209,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -7253,7 +7226,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D128" s="3">
         <v>-1</v>
@@ -7262,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
@@ -7271,10 +7244,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -7288,7 +7261,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D129" s="3">
         <v>-1</v>
@@ -7297,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>
@@ -7306,10 +7279,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -7323,7 +7296,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D130" s="3">
         <v>-1</v>
@@ -7332,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G130" s="3">
         <v>1</v>
@@ -7341,10 +7314,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -7358,7 +7331,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D131" s="3">
         <v>-1</v>
@@ -7367,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G131" s="3">
         <v>0</v>
@@ -7376,10 +7349,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="J131" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="J131" s="6" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -7390,7 +7363,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D132" s="3">
         <v>-1</v>
@@ -7399,7 +7372,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G132" s="3">
         <v>0</v>
@@ -7408,10 +7381,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="J132" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="J132" s="6" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -7422,7 +7395,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D133" s="3">
         <v>-1</v>
@@ -7431,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G133" s="3">
         <v>0</v>
@@ -7440,10 +7413,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -7454,7 +7427,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D134" s="3">
         <v>-1</v>
@@ -7463,7 +7436,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G134" s="3">
         <v>0</v>
@@ -7472,10 +7445,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -7486,7 +7459,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D135" s="3">
         <v>-1</v>
@@ -7495,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G135" s="3">
         <v>0</v>
@@ -7504,10 +7477,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -7518,7 +7491,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D136" s="3">
         <v>-1</v>
@@ -7527,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G136" s="3">
         <v>0</v>
@@ -7536,10 +7509,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -7550,7 +7523,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D137" s="3">
         <v>-1</v>
@@ -7559,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
@@ -7568,10 +7541,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -7582,7 +7555,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D138" s="3">
         <v>-1</v>
@@ -7591,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G138" s="3">
         <v>0</v>
@@ -7600,10 +7573,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -7614,7 +7587,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D139" s="3">
         <v>-1</v>
@@ -7623,7 +7596,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G139" s="3">
         <v>0</v>
@@ -7632,10 +7605,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -7646,7 +7619,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D140" s="3">
         <v>-1</v>
@@ -7664,10 +7637,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -7678,7 +7651,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D141" s="3">
         <v>-1</v>
@@ -7687,7 +7660,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G141" s="3">
         <v>0</v>
@@ -7696,10 +7669,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -7710,7 +7683,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D142" s="3">
         <v>-1</v>
@@ -7719,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G142" s="3">
         <v>0</v>
@@ -7728,10 +7701,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -7742,7 +7715,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D143" s="3">
         <v>-1</v>
@@ -7751,7 +7724,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G143" s="3">
         <v>0</v>
@@ -7760,10 +7733,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -7774,7 +7747,7 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D144" s="3">
         <v>-1</v>
@@ -7783,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G144" s="3">
         <v>0</v>
@@ -7792,10 +7765,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="J144" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="J144" s="6" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -7806,7 +7779,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D145" s="3">
         <v>-1</v>
@@ -7815,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G145" s="3">
         <v>0</v>
@@ -7824,10 +7797,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="J145" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="J145" s="6" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7838,7 +7811,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D146" s="23">
         <v>-1</v>
@@ -7847,7 +7820,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G146" s="23">
         <v>0</v>
@@ -7856,10 +7829,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="J146" s="27" t="s">
         <v>525</v>
-      </c>
-      <c r="J146" s="27" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7870,16 +7843,16 @@
         <v>146</v>
       </c>
       <c r="C147" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="D147" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E147" s="23">
+        <v>1</v>
+      </c>
+      <c r="F147" s="25" t="s">
         <v>527</v>
-      </c>
-      <c r="D147" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E147" s="23">
-        <v>1</v>
-      </c>
-      <c r="F147" s="25" t="s">
-        <v>528</v>
       </c>
       <c r="G147" s="23">
         <v>0</v>
@@ -7888,10 +7861,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="J147" s="27" t="s">
         <v>529</v>
-      </c>
-      <c r="J147" s="27" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7902,7 +7875,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D148" s="23">
         <v>-1</v>
@@ -7911,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G148" s="23">
         <v>0</v>
@@ -7920,10 +7893,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="J148" s="27" t="s">
         <v>532</v>
-      </c>
-      <c r="J148" s="27" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7934,7 +7907,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D149" s="23">
         <v>-1</v>
@@ -7943,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G149" s="23">
         <v>0</v>
@@ -7952,10 +7925,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="J149" s="27" t="s">
         <v>535</v>
-      </c>
-      <c r="J149" s="27" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7966,7 +7939,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D150" s="23">
         <v>-1</v>
@@ -7975,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G150" s="23">
         <v>0</v>
@@ -7984,10 +7957,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="J150" s="27" t="s">
         <v>538</v>
-      </c>
-      <c r="J150" s="27" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7998,16 +7971,16 @@
         <v>150</v>
       </c>
       <c r="C151" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="D151" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="23">
+        <v>1</v>
+      </c>
+      <c r="F151" s="25" t="s">
         <v>540</v>
-      </c>
-      <c r="D151" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E151" s="23">
-        <v>1</v>
-      </c>
-      <c r="F151" s="25" t="s">
-        <v>541</v>
       </c>
       <c r="G151" s="23">
         <v>0</v>
@@ -8016,10 +7989,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="J151" s="27" t="s">
         <v>542</v>
-      </c>
-      <c r="J151" s="27" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8030,7 +8003,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D152" s="23">
         <v>-1</v>
@@ -8039,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G152" s="23">
         <v>0</v>
@@ -8048,10 +8021,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J152" s="27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8062,7 +8035,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D153" s="23">
         <v>-1</v>
@@ -8071,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G153" s="23">
         <v>0</v>
@@ -8080,10 +8053,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J153" s="27" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8094,7 +8067,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D154" s="23">
         <v>-1</v>
@@ -8103,7 +8076,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="25" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G154" s="23">
         <v>0</v>
@@ -8112,10 +8085,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J154" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
@@ -8126,16 +8099,16 @@
         <v>154</v>
       </c>
       <c r="C155" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="D155" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="3">
+        <v>1</v>
+      </c>
+      <c r="F155" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="D155" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E155" s="3">
-        <v>1</v>
-      </c>
-      <c r="F155" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="G155" s="3">
         <v>0</v>
@@ -8144,10 +8117,10 @@
         <v>33</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="561">
   <si>
     <t>id|行号</t>
   </si>
@@ -1628,6 +1628,31 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"game_MiniGame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>bygame_icon_ctgd</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2290,6 +2315,22 @@
   </si>
   <si>
     <t>ty_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_031_aster</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆快乐活动掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_icon_xx2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2362,7 +2403,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2384,6 +2425,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2430,7 +2477,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2513,6 +2560,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2792,18 +2854,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q155"/>
+  <dimension ref="A1:Q156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L110" sqref="L110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="28.25" customWidth="1"/>
@@ -3097,7 +3159,7 @@
         <v>372</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -4295,7 +4357,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D43" s="3">
         <v>-1</v>
@@ -4472,7 +4534,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D48" s="3">
         <v>-1</v>
@@ -4506,7 +4568,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D49" s="3">
         <v>-1</v>
@@ -4678,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -4716,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -4754,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -5299,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G72" s="3">
         <v>1</v>
@@ -5331,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -5369,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -5493,7 +5555,7 @@
         <v>278</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L77" s="6" t="s">
         <v>332</v>
@@ -5581,7 +5643,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -5590,13 +5652,13 @@
         <v>23</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J80" s="13" t="s">
         <v>287</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="27" x14ac:dyDescent="0.2">
@@ -5628,7 +5690,7 @@
         <v>290</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L81" s="6" t="s">
         <v>298</v>
@@ -5666,7 +5728,7 @@
         <v>293</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L82" s="6" t="s">
         <v>299</v>
@@ -6056,7 +6118,7 @@
         <v>329</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L94" s="6" t="s">
         <v>333</v>
@@ -6184,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -6193,7 +6255,7 @@
         <v>36</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>360</v>
@@ -6219,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
@@ -6228,7 +6290,7 @@
         <v>37</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J99" s="6" t="s">
         <v>361</v>
@@ -6254,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -6263,7 +6325,7 @@
         <v>38</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J100" s="6" t="s">
         <v>362</v>
@@ -6289,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
@@ -6298,7 +6360,7 @@
         <v>39</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>363</v>
@@ -6324,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -6333,7 +6395,7 @@
         <v>40</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>364</v>
@@ -6350,7 +6412,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D103" s="3">
         <v>-1</v>
@@ -6359,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -6368,7 +6430,7 @@
         <v>41</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>365</v>
@@ -6385,7 +6447,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D104" s="3">
         <v>-1</v>
@@ -6394,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
@@ -6403,10 +6465,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N104">
         <v>9</v>
@@ -6429,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -6438,7 +6500,7 @@
         <v>43</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>367</v>
@@ -6464,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -6473,7 +6535,7 @@
         <v>44</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J106" s="6" t="s">
         <v>366</v>
@@ -6490,7 +6552,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D107" s="3">
         <v>-1</v>
@@ -6508,7 +6570,7 @@
         <v>32</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J107" s="6" t="s">
         <v>174</v>
@@ -6527,7 +6589,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D108" s="3">
         <v>-1</v>
@@ -6545,7 +6607,7 @@
         <v>33</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J108" s="6" t="s">
         <v>178</v>
@@ -6619,7 +6681,9 @@
       <c r="J110" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="L110" s="6"/>
+      <c r="L110" s="6" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
@@ -6629,7 +6693,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D111" s="3">
         <v>-1</v>
@@ -6638,7 +6702,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G111" s="3">
         <v>1</v>
@@ -6647,10 +6711,10 @@
         <v>1</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>175</v>
@@ -6667,7 +6731,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D112" s="3">
         <v>-1</v>
@@ -6676,7 +6740,7 @@
         <v>1</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G112" s="3">
         <v>1</v>
@@ -6685,10 +6749,10 @@
         <v>1</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L112" s="6" t="s">
         <v>175</v>
@@ -6705,7 +6769,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D113" s="3">
         <v>-1</v>
@@ -6714,7 +6778,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G113" s="3">
         <v>1</v>
@@ -6723,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L113" s="6" t="s">
         <v>175</v>
@@ -6743,7 +6807,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D114" s="3">
         <v>-1</v>
@@ -6752,7 +6816,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G114" s="3">
         <v>1</v>
@@ -6761,10 +6825,10 @@
         <v>1</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L114" s="6" t="s">
         <v>175</v>
@@ -6781,7 +6845,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D115" s="3">
         <v>-1</v>
@@ -6790,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G115" s="3">
         <v>1</v>
@@ -6799,10 +6863,10 @@
         <v>1</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L115" s="6" t="s">
         <v>175</v>
@@ -6819,7 +6883,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D116" s="3">
         <v>-1</v>
@@ -6828,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
@@ -6837,10 +6901,10 @@
         <v>1</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L116" s="6" t="s">
         <v>175</v>
@@ -6857,7 +6921,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D117" s="3">
         <v>-1</v>
@@ -6866,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G117" s="3">
         <v>0</v>
@@ -6875,10 +6939,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="J117" s="6" t="s">
         <v>456</v>
-      </c>
-      <c r="J117" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
@@ -6891,7 +6955,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D118" s="3">
         <v>-1</v>
@@ -6900,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G118" s="3">
         <v>0</v>
@@ -6909,10 +6973,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6923,7 +6987,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D119" s="3">
         <v>-1</v>
@@ -6932,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G119" s="3">
         <v>0</v>
@@ -6941,10 +7005,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6955,7 +7019,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D120" s="3">
         <v>-1</v>
@@ -6964,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G120" s="3">
         <v>0</v>
@@ -6973,10 +7037,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6987,7 +7051,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D121" s="3">
         <v>-1</v>
@@ -6996,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G121" s="3">
         <v>0</v>
@@ -7005,10 +7069,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7019,7 +7083,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D122" s="3">
         <v>-1</v>
@@ -7028,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G122" s="3">
         <v>0</v>
@@ -7037,10 +7101,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7051,7 +7115,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D123" s="3">
         <v>-1</v>
@@ -7060,7 +7124,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
@@ -7069,10 +7133,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -7086,7 +7150,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D124" s="3">
         <v>-1</v>
@@ -7095,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
@@ -7104,10 +7168,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -7121,7 +7185,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D125" s="3">
         <v>-1</v>
@@ -7130,7 +7194,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
@@ -7139,10 +7203,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -7156,7 +7220,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D126" s="3">
         <v>-1</v>
@@ -7165,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
@@ -7174,10 +7238,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -7191,7 +7255,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D127" s="3">
         <v>-1</v>
@@ -7200,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
@@ -7209,10 +7273,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -7226,7 +7290,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D128" s="3">
         <v>-1</v>
@@ -7235,7 +7299,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
@@ -7244,10 +7308,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -7261,7 +7325,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D129" s="3">
         <v>-1</v>
@@ -7270,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>
@@ -7279,10 +7343,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -7296,7 +7360,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D130" s="3">
         <v>-1</v>
@@ -7305,7 +7369,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G130" s="3">
         <v>1</v>
@@ -7314,10 +7378,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -7331,7 +7395,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D131" s="3">
         <v>-1</v>
@@ -7340,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G131" s="3">
         <v>0</v>
@@ -7349,10 +7413,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -7363,7 +7427,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D132" s="3">
         <v>-1</v>
@@ -7372,7 +7436,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G132" s="3">
         <v>0</v>
@@ -7381,10 +7445,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -7395,7 +7459,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D133" s="3">
         <v>-1</v>
@@ -7404,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G133" s="3">
         <v>0</v>
@@ -7413,10 +7477,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -7427,7 +7491,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D134" s="3">
         <v>-1</v>
@@ -7436,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G134" s="3">
         <v>0</v>
@@ -7445,10 +7509,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -7459,7 +7523,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D135" s="3">
         <v>-1</v>
@@ -7468,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G135" s="3">
         <v>0</v>
@@ -7477,10 +7541,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -7491,7 +7555,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D136" s="3">
         <v>-1</v>
@@ -7500,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G136" s="3">
         <v>0</v>
@@ -7509,10 +7573,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -7523,7 +7587,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D137" s="3">
         <v>-1</v>
@@ -7532,7 +7596,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
@@ -7541,10 +7605,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -7555,7 +7619,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D138" s="3">
         <v>-1</v>
@@ -7564,7 +7628,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G138" s="3">
         <v>0</v>
@@ -7573,10 +7637,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -7587,7 +7651,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D139" s="3">
         <v>-1</v>
@@ -7596,7 +7660,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G139" s="3">
         <v>0</v>
@@ -7605,10 +7669,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -7619,7 +7683,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D140" s="3">
         <v>-1</v>
@@ -7637,10 +7701,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -7651,7 +7715,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D141" s="3">
         <v>-1</v>
@@ -7660,7 +7724,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G141" s="3">
         <v>0</v>
@@ -7669,10 +7733,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -7683,7 +7747,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D142" s="3">
         <v>-1</v>
@@ -7692,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G142" s="3">
         <v>0</v>
@@ -7701,10 +7765,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -7715,7 +7779,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D143" s="3">
         <v>-1</v>
@@ -7724,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G143" s="3">
         <v>0</v>
@@ -7733,10 +7797,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -7747,7 +7811,7 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D144" s="3">
         <v>-1</v>
@@ -7756,7 +7820,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G144" s="3">
         <v>0</v>
@@ -7765,10 +7829,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -7779,7 +7843,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D145" s="3">
         <v>-1</v>
@@ -7788,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G145" s="3">
         <v>0</v>
@@ -7797,10 +7861,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7811,7 +7875,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D146" s="23">
         <v>-1</v>
@@ -7820,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="25" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G146" s="23">
         <v>0</v>
@@ -7829,10 +7893,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="26" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J146" s="27" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7843,7 +7907,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D147" s="23">
         <v>-1</v>
@@ -7852,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G147" s="23">
         <v>0</v>
@@ -7861,10 +7925,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="26" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J147" s="27" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7875,7 +7939,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D148" s="23">
         <v>-1</v>
@@ -7884,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="25" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G148" s="23">
         <v>0</v>
@@ -7893,10 +7957,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="26" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J148" s="27" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7907,7 +7971,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D149" s="23">
         <v>-1</v>
@@ -7916,7 +7980,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G149" s="23">
         <v>0</v>
@@ -7925,10 +7989,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="26" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J149" s="27" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7939,7 +8003,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D150" s="23">
         <v>-1</v>
@@ -7948,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G150" s="23">
         <v>0</v>
@@ -7957,10 +8021,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="26" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J150" s="27" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7971,7 +8035,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D151" s="23">
         <v>-1</v>
@@ -7980,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G151" s="23">
         <v>0</v>
@@ -7989,10 +8053,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="26" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J151" s="27" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8003,7 +8067,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D152" s="23">
         <v>-1</v>
@@ -8012,7 +8076,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="25" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G152" s="23">
         <v>0</v>
@@ -8021,10 +8085,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="26" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J152" s="27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8035,7 +8099,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D153" s="23">
         <v>-1</v>
@@ -8044,7 +8108,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G153" s="23">
         <v>0</v>
@@ -8053,10 +8117,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="26" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J153" s="27" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8067,7 +8131,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D154" s="23">
         <v>-1</v>
@@ -8076,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="25" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G154" s="23">
         <v>0</v>
@@ -8085,10 +8149,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="26" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J154" s="27" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
@@ -8099,7 +8163,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D155" s="3">
         <v>-1</v>
@@ -8108,7 +8172,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G155" s="3">
         <v>0</v>
@@ -8117,10 +8181,42 @@
         <v>33</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A156" s="28">
+        <v>155</v>
+      </c>
+      <c r="B156" s="28">
+        <v>155</v>
+      </c>
+      <c r="C156" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="D156" s="28">
+        <v>-1</v>
+      </c>
+      <c r="E156" s="28">
+        <v>1</v>
+      </c>
+      <c r="F156" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="G156" s="28">
+        <v>0</v>
+      </c>
+      <c r="H156" s="28">
+        <v>33</v>
+      </c>
+      <c r="I156" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="J156" s="32" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="585">
   <si>
     <t>id|行号</t>
   </si>
@@ -2333,12 +2333,98 @@
     <t>by_icon_xx2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_1</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_1</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_3</t>
+  </si>
+  <si>
+    <t>初级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_2</t>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_3</t>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2401,6 +2487,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2477,7 +2569,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2576,6 +2668,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2854,11 +2949,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q156"/>
+  <dimension ref="A1:Q165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D162" sqref="D162"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C160" sqref="C160:C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2876,7 +2971,7 @@
     <col min="12" max="12" width="33.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.25" customWidth="1"/>
     <col min="14" max="14" width="21.125" customWidth="1"/>
-    <col min="15" max="18" width="12.75" customWidth="1"/>
+    <col min="15" max="17" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8217,6 +8312,294 @@
       </c>
       <c r="J156" s="32" t="s">
         <v>559</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A157" s="23">
+        <v>156</v>
+      </c>
+      <c r="B157" s="23">
+        <v>156</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="D157" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E157" s="3">
+        <v>1</v>
+      </c>
+      <c r="F157" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="G157" s="23">
+        <v>1</v>
+      </c>
+      <c r="H157" s="23">
+        <v>34</v>
+      </c>
+      <c r="I157" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="J157" s="26" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A158" s="23">
+        <v>157</v>
+      </c>
+      <c r="B158" s="23">
+        <v>157</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="D158" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E158" s="3">
+        <v>1</v>
+      </c>
+      <c r="F158" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="G158" s="23">
+        <v>1</v>
+      </c>
+      <c r="H158" s="23">
+        <v>34</v>
+      </c>
+      <c r="I158" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="J158" s="26" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A159" s="23">
+        <v>158</v>
+      </c>
+      <c r="B159" s="23">
+        <v>158</v>
+      </c>
+      <c r="C159" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="D159" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E159" s="3">
+        <v>1</v>
+      </c>
+      <c r="F159" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="G159" s="23">
+        <v>1</v>
+      </c>
+      <c r="H159" s="23">
+        <v>34</v>
+      </c>
+      <c r="I159" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="J159" s="26" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A160" s="23">
+        <v>159</v>
+      </c>
+      <c r="B160" s="23">
+        <v>159</v>
+      </c>
+      <c r="C160" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="D160" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E160" s="3">
+        <v>1</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="G160" s="23">
+        <v>1</v>
+      </c>
+      <c r="H160" s="23">
+        <v>34</v>
+      </c>
+      <c r="I160" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="J160" s="26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="23">
+        <v>160</v>
+      </c>
+      <c r="B161" s="23">
+        <v>160</v>
+      </c>
+      <c r="C161" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="D161" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E161" s="3">
+        <v>1</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="G161" s="23">
+        <v>1</v>
+      </c>
+      <c r="H161" s="23">
+        <v>34</v>
+      </c>
+      <c r="I161" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="J161" s="26" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="23">
+        <v>161</v>
+      </c>
+      <c r="B162" s="23">
+        <v>161</v>
+      </c>
+      <c r="C162" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="D162" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E162" s="3">
+        <v>1</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="G162" s="23">
+        <v>1</v>
+      </c>
+      <c r="H162" s="23">
+        <v>34</v>
+      </c>
+      <c r="I162" s="26" t="s">
+        <v>574</v>
+      </c>
+      <c r="J162" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="23">
+        <v>162</v>
+      </c>
+      <c r="B163" s="23">
+        <v>162</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="D163" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E163" s="3">
+        <v>1</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="G163" s="23">
+        <v>1</v>
+      </c>
+      <c r="H163" s="23">
+        <v>34</v>
+      </c>
+      <c r="I163" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="J163" s="26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="23">
+        <v>163</v>
+      </c>
+      <c r="B164" s="23">
+        <v>163</v>
+      </c>
+      <c r="C164" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="D164" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E164" s="3">
+        <v>1</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="G164" s="23">
+        <v>1</v>
+      </c>
+      <c r="H164" s="23">
+        <v>34</v>
+      </c>
+      <c r="I164" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="J164" s="26" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="23">
+        <v>164</v>
+      </c>
+      <c r="B165" s="23">
+        <v>164</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="D165" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E165" s="3">
+        <v>1</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="G165" s="23">
+        <v>1</v>
+      </c>
+      <c r="H165" s="23">
+        <v>34</v>
+      </c>
+      <c r="I165" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="J165" s="26" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="588">
   <si>
     <t>id|行号</t>
   </si>
@@ -2417,6 +2417,18 @@
   </si>
   <si>
     <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2951,9 +2963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C160" sqref="C160:C162"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L160" sqref="L160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7930,7 +7942,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -7962,7 +7974,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="23">
         <v>145</v>
       </c>
@@ -7994,7 +8006,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="23">
         <v>146</v>
       </c>
@@ -8026,7 +8038,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="23">
         <v>147</v>
       </c>
@@ -8058,7 +8070,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="23">
         <v>148</v>
       </c>
@@ -8090,7 +8102,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="23">
         <v>149</v>
       </c>
@@ -8122,7 +8134,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="23">
         <v>150</v>
       </c>
@@ -8154,7 +8166,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="23">
         <v>151</v>
       </c>
@@ -8186,7 +8198,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="23">
         <v>152</v>
       </c>
@@ -8218,7 +8230,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="23">
         <v>153</v>
       </c>
@@ -8250,7 +8262,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -8282,7 +8294,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="28">
         <v>155</v>
       </c>
@@ -8314,7 +8326,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="23">
         <v>156</v>
       </c>
@@ -8345,8 +8357,11 @@
       <c r="J157" s="26" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L157" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="23">
         <v>157</v>
       </c>
@@ -8377,8 +8392,11 @@
       <c r="J158" s="26" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L158" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="23">
         <v>158</v>
       </c>
@@ -8409,8 +8427,11 @@
       <c r="J159" s="26" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L159" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="23">
         <v>159</v>
       </c>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
@@ -2394,28 +2394,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_hedan_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_2</t>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_3</t>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2429,6 +2407,30 @@
   </si>
   <si>
     <t>"by3d_hd","hecheng",3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_3_1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2961,11 +2963,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L160" sqref="L160"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F163" sqref="F163:F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8334,7 +8337,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D157" s="23">
         <v>-1</v>
@@ -8343,7 +8346,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="25" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G157" s="23">
         <v>1</v>
@@ -8358,7 +8361,7 @@
         <v>570</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8378,7 +8381,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="25" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G158" s="23">
         <v>1</v>
@@ -8393,7 +8396,7 @@
         <v>571</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8413,7 +8416,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="25" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="G159" s="23">
         <v>1</v>
@@ -8428,7 +8431,7 @@
         <v>572</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8448,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="G160" s="23">
         <v>1</v>
@@ -8480,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="G161" s="23">
         <v>1</v>
@@ -8512,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="G162" s="23">
         <v>1</v>
@@ -8544,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="G163" s="23">
         <v>1</v>
@@ -8576,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="G164" s="23">
         <v>1</v>
@@ -8608,7 +8611,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="G165" s="23">
         <v>1</v>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="593">
   <si>
     <t>id|行号</t>
   </si>
@@ -1622,31 +1622,6 @@
   </si>
   <si>
     <t>ty_icon_flq1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"game_MiniGame</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3012,9 +2987,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N110" sqref="N110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3315,7 +3290,7 @@
         <v>371</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -4172,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -4513,7 +4488,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D43" s="3">
         <v>-1</v>
@@ -4690,7 +4665,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D48" s="3">
         <v>-1</v>
@@ -4724,7 +4699,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D49" s="3">
         <v>-1</v>
@@ -4896,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -4934,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -4972,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -5517,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G72" s="3">
         <v>1</v>
@@ -5549,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -5587,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -5711,7 +5686,7 @@
         <v>277</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L77" s="6" t="s">
         <v>331</v>
@@ -5799,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -5808,13 +5783,13 @@
         <v>23</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J80" s="13" t="s">
         <v>286</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="27" x14ac:dyDescent="0.2">
@@ -5846,7 +5821,7 @@
         <v>289</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L81" s="6" t="s">
         <v>297</v>
@@ -5884,7 +5859,7 @@
         <v>292</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L82" s="6" t="s">
         <v>298</v>
@@ -6274,7 +6249,7 @@
         <v>328</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L94" s="6" t="s">
         <v>332</v>
@@ -6402,7 +6377,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -6411,7 +6386,7 @@
         <v>36</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>359</v>
@@ -6437,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
@@ -6446,7 +6421,7 @@
         <v>37</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J99" s="6" t="s">
         <v>360</v>
@@ -6472,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -6481,7 +6456,7 @@
         <v>38</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J100" s="6" t="s">
         <v>361</v>
@@ -6507,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
@@ -6516,7 +6491,7 @@
         <v>39</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>362</v>
@@ -6542,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -6551,7 +6526,7 @@
         <v>40</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>363</v>
@@ -6568,7 +6543,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D103" s="3">
         <v>-1</v>
@@ -6577,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -6586,7 +6561,7 @@
         <v>41</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>364</v>
@@ -6603,7 +6578,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D104" s="3">
         <v>-1</v>
@@ -6612,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
@@ -6621,10 +6596,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N104">
         <v>9</v>
@@ -6647,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -6656,7 +6631,7 @@
         <v>43</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>366</v>
@@ -6682,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -6691,7 +6666,7 @@
         <v>44</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J106" s="6" t="s">
         <v>365</v>
@@ -6708,7 +6683,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D107" s="3">
         <v>-1</v>
@@ -6726,7 +6701,7 @@
         <v>32</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J107" s="6" t="s">
         <v>173</v>
@@ -6745,7 +6720,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D108" s="3">
         <v>-1</v>
@@ -6763,7 +6738,7 @@
         <v>33</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J108" s="6" t="s">
         <v>177</v>
@@ -6837,9 +6812,7 @@
       <c r="J110" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="L110" s="6" t="s">
-        <v>384</v>
-      </c>
+      <c r="L110" s="6"/>
     </row>
     <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
@@ -6849,28 +6822,28 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D111" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D111" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="3">
-        <v>1</v>
-      </c>
-      <c r="F111" s="3" t="s">
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="G111" s="3">
-        <v>1</v>
-      </c>
-      <c r="H111" s="3">
-        <v>1</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>401</v>
-      </c>
       <c r="J111" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>174</v>
@@ -6887,28 +6860,28 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D112" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D112" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="3">
-        <v>1</v>
-      </c>
-      <c r="F112" s="6" t="s">
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="G112" s="3">
-        <v>1</v>
-      </c>
-      <c r="H112" s="3">
-        <v>1</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>404</v>
-      </c>
       <c r="J112" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L112" s="6" t="s">
         <v>174</v>
@@ -6925,28 +6898,28 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D113" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="D113" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E113" s="3">
-        <v>1</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="G113" s="3">
-        <v>1</v>
-      </c>
-      <c r="H113" s="3">
-        <v>1</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>406</v>
-      </c>
       <c r="J113" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L113" s="6" t="s">
         <v>174</v>
@@ -6963,28 +6936,28 @@
         <v>113</v>
       </c>
       <c r="C114" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D114" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="3">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D114" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E114" s="3">
-        <v>1</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="G114" s="3">
-        <v>1</v>
-      </c>
-      <c r="H114" s="3">
-        <v>1</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>408</v>
-      </c>
       <c r="J114" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L114" s="6" t="s">
         <v>174</v>
@@ -7001,28 +6974,28 @@
         <v>114</v>
       </c>
       <c r="C115" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="D115" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3">
+        <v>1</v>
+      </c>
+      <c r="I115" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="D115" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E115" s="3">
-        <v>1</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
-      <c r="H115" s="3">
-        <v>1</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="J115" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L115" s="6" t="s">
         <v>174</v>
@@ -7039,28 +7012,28 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D116" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3">
+        <v>1</v>
+      </c>
+      <c r="I116" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="D116" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E116" s="3">
-        <v>1</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="G116" s="3">
-        <v>1</v>
-      </c>
-      <c r="H116" s="3">
-        <v>1</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>412</v>
-      </c>
       <c r="J116" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L116" s="6" t="s">
         <v>174</v>
@@ -7077,16 +7050,16 @@
         <v>116</v>
       </c>
       <c r="C117" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D117" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1</v>
+      </c>
+      <c r="F117" s="10" t="s">
         <v>453</v>
-      </c>
-      <c r="D117" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E117" s="3">
-        <v>1</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>454</v>
       </c>
       <c r="G117" s="3">
         <v>0</v>
@@ -7095,10 +7068,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
@@ -7111,16 +7084,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="D118" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" s="10" t="s">
         <v>436</v>
-      </c>
-      <c r="D118" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E118" s="3">
-        <v>1</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>437</v>
       </c>
       <c r="G118" s="3">
         <v>0</v>
@@ -7129,10 +7102,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7143,16 +7116,16 @@
         <v>118</v>
       </c>
       <c r="C119" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D119" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" s="10" t="s">
         <v>441</v>
-      </c>
-      <c r="D119" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E119" s="3">
-        <v>1</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>442</v>
       </c>
       <c r="G119" s="3">
         <v>0</v>
@@ -7161,10 +7134,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7175,16 +7148,16 @@
         <v>119</v>
       </c>
       <c r="C120" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D120" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
         <v>444</v>
-      </c>
-      <c r="D120" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E120" s="3">
-        <v>1</v>
-      </c>
-      <c r="F120" t="s">
-        <v>445</v>
       </c>
       <c r="G120" s="3">
         <v>0</v>
@@ -7193,10 +7166,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7207,16 +7180,16 @@
         <v>120</v>
       </c>
       <c r="C121" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D121" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
         <v>447</v>
-      </c>
-      <c r="D121" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E121" s="3">
-        <v>1</v>
-      </c>
-      <c r="F121" t="s">
-        <v>448</v>
       </c>
       <c r="G121" s="3">
         <v>0</v>
@@ -7225,10 +7198,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7239,16 +7212,16 @@
         <v>121</v>
       </c>
       <c r="C122" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="D122" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
         <v>450</v>
-      </c>
-      <c r="D122" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E122" s="3">
-        <v>1</v>
-      </c>
-      <c r="F122" t="s">
-        <v>451</v>
       </c>
       <c r="G122" s="3">
         <v>0</v>
@@ -7257,10 +7230,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7271,7 +7244,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D123" s="3">
         <v>-1</v>
@@ -7280,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
@@ -7289,10 +7262,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -7306,7 +7279,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D124" s="3">
         <v>-1</v>
@@ -7315,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
@@ -7324,10 +7297,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -7341,7 +7314,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D125" s="3">
         <v>-1</v>
@@ -7350,7 +7323,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
@@ -7359,10 +7332,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -7376,7 +7349,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D126" s="3">
         <v>-1</v>
@@ -7385,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
@@ -7394,10 +7367,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -7411,7 +7384,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D127" s="3">
         <v>-1</v>
@@ -7420,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
@@ -7429,10 +7402,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -7446,7 +7419,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D128" s="3">
         <v>-1</v>
@@ -7455,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
@@ -7464,10 +7437,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -7481,7 +7454,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D129" s="3">
         <v>-1</v>
@@ -7490,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>
@@ -7499,10 +7472,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -7516,7 +7489,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D130" s="3">
         <v>-1</v>
@@ -7525,7 +7498,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G130" s="3">
         <v>1</v>
@@ -7534,10 +7507,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -7551,7 +7524,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D131" s="3">
         <v>-1</v>
@@ -7560,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G131" s="3">
         <v>0</v>
@@ -7569,10 +7542,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="J131" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="J131" s="6" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -7583,7 +7556,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D132" s="3">
         <v>-1</v>
@@ -7592,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G132" s="3">
         <v>0</v>
@@ -7601,10 +7574,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="J132" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="J132" s="6" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -7615,7 +7588,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D133" s="3">
         <v>-1</v>
@@ -7624,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G133" s="3">
         <v>0</v>
@@ -7633,10 +7606,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -7647,7 +7620,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D134" s="3">
         <v>-1</v>
@@ -7656,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G134" s="3">
         <v>0</v>
@@ -7665,10 +7638,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -7679,7 +7652,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D135" s="3">
         <v>-1</v>
@@ -7688,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G135" s="3">
         <v>0</v>
@@ -7697,10 +7670,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -7711,7 +7684,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D136" s="3">
         <v>-1</v>
@@ -7720,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G136" s="3">
         <v>0</v>
@@ -7729,10 +7702,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -7743,7 +7716,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D137" s="3">
         <v>-1</v>
@@ -7752,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
@@ -7761,10 +7734,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -7775,7 +7748,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D138" s="3">
         <v>-1</v>
@@ -7784,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G138" s="3">
         <v>0</v>
@@ -7793,10 +7766,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -7807,7 +7780,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D139" s="3">
         <v>-1</v>
@@ -7816,7 +7789,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G139" s="3">
         <v>0</v>
@@ -7825,10 +7798,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -7839,7 +7812,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D140" s="3">
         <v>-1</v>
@@ -7857,10 +7830,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -7871,7 +7844,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D141" s="3">
         <v>-1</v>
@@ -7880,7 +7853,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G141" s="3">
         <v>0</v>
@@ -7889,10 +7862,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -7903,7 +7876,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D142" s="3">
         <v>-1</v>
@@ -7912,7 +7885,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G142" s="3">
         <v>0</v>
@@ -7921,10 +7894,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -7935,7 +7908,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D143" s="3">
         <v>-1</v>
@@ -7944,7 +7917,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G143" s="3">
         <v>0</v>
@@ -7953,10 +7926,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -7967,7 +7940,7 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D144" s="3">
         <v>-1</v>
@@ -7976,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G144" s="3">
         <v>0</v>
@@ -7985,10 +7958,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="J144" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="J144" s="6" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -7999,7 +7972,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D145" s="3">
         <v>-1</v>
@@ -8008,7 +7981,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G145" s="3">
         <v>0</v>
@@ -8017,10 +7990,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="J145" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="J145" s="6" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8031,7 +8004,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D146" s="23">
         <v>-1</v>
@@ -8040,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G146" s="23">
         <v>0</v>
@@ -8049,10 +8022,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="J146" s="27" t="s">
         <v>524</v>
-      </c>
-      <c r="J146" s="27" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8063,7 +8036,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D147" s="23">
         <v>-1</v>
@@ -8072,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G147" s="23">
         <v>0</v>
@@ -8081,10 +8054,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="J147" s="27" t="s">
         <v>527</v>
-      </c>
-      <c r="J147" s="27" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8095,7 +8068,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D148" s="23">
         <v>-1</v>
@@ -8104,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="25" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G148" s="23">
         <v>0</v>
@@ -8113,10 +8086,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="J148" s="27" t="s">
         <v>530</v>
-      </c>
-      <c r="J148" s="27" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8127,7 +8100,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D149" s="23">
         <v>-1</v>
@@ -8136,7 +8109,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G149" s="23">
         <v>0</v>
@@ -8145,10 +8118,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="J149" s="27" t="s">
         <v>533</v>
-      </c>
-      <c r="J149" s="27" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8159,7 +8132,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D150" s="23">
         <v>-1</v>
@@ -8168,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G150" s="23">
         <v>0</v>
@@ -8177,10 +8150,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="J150" s="27" t="s">
         <v>536</v>
-      </c>
-      <c r="J150" s="27" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8191,16 +8164,16 @@
         <v>150</v>
       </c>
       <c r="C151" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="D151" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="23">
+        <v>1</v>
+      </c>
+      <c r="F151" s="25" t="s">
         <v>538</v>
-      </c>
-      <c r="D151" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E151" s="23">
-        <v>1</v>
-      </c>
-      <c r="F151" s="25" t="s">
-        <v>539</v>
       </c>
       <c r="G151" s="23">
         <v>0</v>
@@ -8209,10 +8182,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="J151" s="27" t="s">
         <v>540</v>
-      </c>
-      <c r="J151" s="27" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8223,7 +8196,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D152" s="23">
         <v>-1</v>
@@ -8232,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="25" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G152" s="23">
         <v>0</v>
@@ -8241,10 +8214,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J152" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8255,7 +8228,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D153" s="23">
         <v>-1</v>
@@ -8264,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G153" s="23">
         <v>0</v>
@@ -8273,10 +8246,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J153" s="27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8287,7 +8260,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D154" s="23">
         <v>-1</v>
@@ -8296,7 +8269,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G154" s="23">
         <v>0</v>
@@ -8305,10 +8278,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="26" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J154" s="27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -8319,16 +8292,16 @@
         <v>154</v>
       </c>
       <c r="C155" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="D155" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="3">
+        <v>1</v>
+      </c>
+      <c r="F155" s="10" t="s">
         <v>553</v>
-      </c>
-      <c r="D155" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E155" s="3">
-        <v>1</v>
-      </c>
-      <c r="F155" s="10" t="s">
-        <v>554</v>
       </c>
       <c r="G155" s="3">
         <v>0</v>
@@ -8337,10 +8310,10 @@
         <v>33</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8351,7 +8324,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D156" s="28">
         <v>-1</v>
@@ -8360,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G156" s="28">
         <v>0</v>
@@ -8369,10 +8342,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="J156" s="32" t="s">
         <v>556</v>
-      </c>
-      <c r="J156" s="32" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8383,7 +8356,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D157" s="23">
         <v>-1</v>
@@ -8392,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G157" s="23">
         <v>1</v>
@@ -8401,13 +8374,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J157" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8418,7 +8391,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D158" s="23">
         <v>-1</v>
@@ -8427,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="25" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G158" s="23">
         <v>1</v>
@@ -8436,13 +8409,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J158" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8453,7 +8426,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D159" s="23">
         <v>-1</v>
@@ -8462,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="25" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G159" s="23">
         <v>1</v>
@@ -8471,13 +8444,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J159" s="26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8488,7 +8461,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D160" s="23">
         <v>-1</v>
@@ -8497,7 +8470,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G160" s="23">
         <v>1</v>
@@ -8506,10 +8479,10 @@
         <v>34</v>
       </c>
       <c r="I160" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J160" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8520,7 +8493,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D161" s="23">
         <v>-1</v>
@@ -8529,7 +8502,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G161" s="23">
         <v>1</v>
@@ -8538,10 +8511,10 @@
         <v>34</v>
       </c>
       <c r="I161" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J161" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8552,7 +8525,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D162" s="23">
         <v>-1</v>
@@ -8561,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G162" s="23">
         <v>1</v>
@@ -8570,10 +8543,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J162" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8584,7 +8557,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D163" s="23">
         <v>-1</v>
@@ -8593,7 +8566,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G163" s="23">
         <v>1</v>
@@ -8602,10 +8575,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J163" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8616,7 +8589,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D164" s="23">
         <v>-1</v>
@@ -8625,7 +8598,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G164" s="23">
         <v>1</v>
@@ -8634,10 +8607,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J164" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8648,7 +8621,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="33" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D165" s="23">
         <v>-1</v>
@@ -8657,7 +8630,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G165" s="23">
         <v>1</v>
@@ -8666,10 +8639,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J165" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="166" spans="1:10" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8680,7 +8653,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D166" s="34">
         <v>-1</v>
@@ -8689,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="38" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G166" s="34">
         <v>0</v>
@@ -8698,10 +8671,10 @@
         <v>33</v>
       </c>
       <c r="I166" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="J166" s="37" t="s">
         <v>586</v>
-      </c>
-      <c r="J166" s="37" t="s">
-        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -2987,9 +2987,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N110" sqref="N110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7288,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
@@ -7323,7 +7323,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
@@ -7428,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
@@ -7463,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2410,6 +2410,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>ty_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>prop_cyj_cjq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2427,10 +2431,6 @@
   </si>
   <si>
     <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwzp_icon_cjq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2987,9 +2987,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F166" sqref="F166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4147,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -8045,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G147" s="23">
         <v>0</v>
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G150" s="23">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G153" s="23">
         <v>0</v>
@@ -8653,16 +8653,16 @@
         <v>165</v>
       </c>
       <c r="C166" s="35" t="s">
+        <v>588</v>
+      </c>
+      <c r="D166" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="34">
+        <v>1</v>
+      </c>
+      <c r="F166" s="38" t="s">
         <v>587</v>
-      </c>
-      <c r="D166" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E166" s="34">
-        <v>1</v>
-      </c>
-      <c r="F166" s="38" t="s">
-        <v>592</v>
       </c>
       <c r="G166" s="34">
         <v>0</v>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2410,10 +2410,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_cyj_cjq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2431,6 +2427,10 @@
   </si>
   <si>
     <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwzp_icon_cjq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2988,8 +2988,8 @@
   <dimension ref="A1:Q166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4147,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -8045,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G147" s="23">
         <v>0</v>
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G150" s="23">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G153" s="23">
         <v>0</v>
@@ -8653,7 +8653,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D166" s="34">
         <v>-1</v>
@@ -8662,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="38" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="G166" s="34">
         <v>0</v>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="605">
   <si>
     <t>id|行号</t>
   </si>
@@ -2431,6 +2431,48 @@
   </si>
   <si>
     <t>cwzp_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>porp_033_gjbx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享新手宝箱</t>
+  </si>
+  <si>
+    <t>新人专享高级宝箱</t>
+  </si>
+  <si>
+    <t>新人专享豪华宝箱</t>
+  </si>
+  <si>
+    <t>新手宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_gjbx</t>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_hhbx</t>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_xrbx</t>
+  </si>
+  <si>
+    <t>porp_033_xsbx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>porp_033_hhbx</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2509,7 +2551,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2526,18 +2568,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -2589,7 +2619,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2629,20 +2659,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2656,56 +2677,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2985,11 +2994,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q166"/>
+  <dimension ref="A1:Q169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F175" sqref="F175"/>
+      <selection pane="bottomLeft" activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3002,7 +3011,7 @@
     <col min="6" max="6" width="28.25" customWidth="1"/>
     <col min="7" max="7" width="14.125" customWidth="1"/>
     <col min="9" max="9" width="23.75" customWidth="1"/>
-    <col min="10" max="10" width="46.375" customWidth="1"/>
+    <col min="10" max="10" width="46.375" style="3" customWidth="1"/>
     <col min="11" max="11" width="21.75" customWidth="1"/>
     <col min="12" max="12" width="33.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.25" customWidth="1"/>
@@ -3053,13 +3062,13 @@
       <c r="N1" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="15" t="s">
         <v>334</v>
       </c>
     </row>
@@ -3987,7 +3996,7 @@
       <c r="D29" s="7">
         <v>-1</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="14">
         <v>1</v>
       </c>
       <c r="F29" s="7" t="s">
@@ -4882,7 +4891,7 @@
       <c r="I54" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J54" s="13" t="s">
+      <c r="J54" s="28" t="s">
         <v>193</v>
       </c>
       <c r="L54" s="6" t="s">
@@ -4920,7 +4929,7 @@
       <c r="I55" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J55" s="13" t="s">
+      <c r="J55" s="28" t="s">
         <v>196</v>
       </c>
       <c r="L55" s="6" t="s">
@@ -4958,7 +4967,7 @@
       <c r="I56" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="J56" s="13" t="s">
+      <c r="J56" s="28" t="s">
         <v>199</v>
       </c>
       <c r="L56" s="6" t="s">
@@ -4996,7 +5005,7 @@
       <c r="I57" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J57" s="13" t="s">
+      <c r="J57" s="28" t="s">
         <v>202</v>
       </c>
       <c r="L57" s="6" t="s">
@@ -5031,7 +5040,7 @@
       <c r="I58" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="J58" s="13" t="s">
+      <c r="J58" s="28" t="s">
         <v>207</v>
       </c>
       <c r="N58">
@@ -5066,7 +5075,7 @@
       <c r="I59" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="J59" s="13" t="s">
+      <c r="J59" s="28" t="s">
         <v>211</v>
       </c>
       <c r="N59">
@@ -5101,7 +5110,7 @@
       <c r="I60" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="J60" s="13" t="s">
+      <c r="J60" s="28" t="s">
         <v>215</v>
       </c>
       <c r="N60">
@@ -5136,7 +5145,7 @@
       <c r="I61" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="J61" s="13" t="s">
+      <c r="J61" s="28" t="s">
         <v>219</v>
       </c>
       <c r="N61">
@@ -5171,7 +5180,7 @@
       <c r="I62" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="J62" s="13" t="s">
+      <c r="J62" s="28" t="s">
         <v>177</v>
       </c>
       <c r="N62">
@@ -5206,7 +5215,7 @@
       <c r="I63" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="J63" s="13" t="s">
+      <c r="J63" s="28" t="s">
         <v>225</v>
       </c>
       <c r="L63" s="6" t="s">
@@ -5241,7 +5250,7 @@
       <c r="I64" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="J64" s="13" t="s">
+      <c r="J64" s="28" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5273,7 +5282,7 @@
       <c r="I65" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="J65" s="13" t="s">
+      <c r="J65" s="28" t="s">
         <v>233</v>
       </c>
       <c r="L65" s="6" t="s">
@@ -5308,7 +5317,7 @@
       <c r="I66" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="J66" s="13" t="s">
+      <c r="J66" s="28" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5340,7 +5349,7 @@
       <c r="I67" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="J67" s="13" t="s">
+      <c r="J67" s="28" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5372,7 +5381,7 @@
       <c r="I68" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="J68" s="13" t="s">
+      <c r="J68" s="28" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5404,7 +5413,7 @@
       <c r="I69" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="J69" s="13" t="s">
+      <c r="J69" s="28" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5436,7 +5445,7 @@
       <c r="I70" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="J70" s="13" t="s">
+      <c r="J70" s="28" t="s">
         <v>225</v>
       </c>
       <c r="L70" s="6" t="s">
@@ -5471,7 +5480,7 @@
       <c r="I71" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="J71" s="13" t="s">
+      <c r="J71" s="28" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5503,7 +5512,7 @@
       <c r="I72" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="J72" s="13" t="s">
+      <c r="J72" s="28" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5535,7 +5544,7 @@
       <c r="I73" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="J73" s="28" t="s">
         <v>263</v>
       </c>
       <c r="L73" s="6" t="s">
@@ -5573,7 +5582,7 @@
       <c r="I74" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="28" t="s">
         <v>266</v>
       </c>
       <c r="L74" s="6" t="s">
@@ -5611,7 +5620,7 @@
       <c r="I75" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="28" t="s">
         <v>270</v>
       </c>
       <c r="L75" s="6" t="s">
@@ -5649,7 +5658,7 @@
       <c r="I76" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="J76" s="13" t="s">
+      <c r="J76" s="28" t="s">
         <v>274</v>
       </c>
       <c r="L76" s="6"/>
@@ -5685,7 +5694,7 @@
       <c r="I77" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="J77" s="16" t="s">
+      <c r="J77" s="29" t="s">
         <v>397</v>
       </c>
       <c r="L77" s="6" t="s">
@@ -5720,7 +5729,7 @@
       <c r="I78" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="J78" s="16" t="s">
+      <c r="J78" s="29" t="s">
         <v>281</v>
       </c>
       <c r="L78" s="6"/>
@@ -5753,7 +5762,7 @@
       <c r="I79" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="J79" s="13" t="s">
+      <c r="J79" s="28" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5785,7 +5794,7 @@
       <c r="I80" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="J80" s="13" t="s">
+      <c r="J80" s="28" t="s">
         <v>286</v>
       </c>
       <c r="L80" s="6" t="s">
@@ -5820,7 +5829,7 @@
       <c r="I81" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="J81" s="16" t="s">
+      <c r="J81" s="29" t="s">
         <v>412</v>
       </c>
       <c r="L81" s="6" t="s">
@@ -5858,7 +5867,7 @@
       <c r="I82" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="J82" s="16" t="s">
+      <c r="J82" s="29" t="s">
         <v>413</v>
       </c>
       <c r="L82" s="6" t="s">
@@ -5869,66 +5878,66 @@
       </c>
     </row>
     <row r="83" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="15">
+      <c r="A83" s="14">
         <v>82</v>
       </c>
-      <c r="B83" s="15">
+      <c r="B83" s="14">
         <v>82</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="D83" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E83" s="15">
-        <v>1</v>
-      </c>
-      <c r="F83" s="14" t="s">
+      <c r="D83" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="14">
+        <v>1</v>
+      </c>
+      <c r="F83" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="G83" s="15">
-        <v>1</v>
-      </c>
-      <c r="H83" s="15">
+      <c r="G83" s="14">
+        <v>1</v>
+      </c>
+      <c r="H83" s="14">
         <v>22</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="J83" s="17" t="s">
+      <c r="J83" s="30" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="19">
+      <c r="A84" s="16">
         <v>83</v>
       </c>
-      <c r="B84" s="19">
+      <c r="B84" s="16">
         <v>83</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="D84" s="19">
-        <v>-1</v>
-      </c>
-      <c r="E84" s="19">
-        <v>1</v>
-      </c>
-      <c r="F84" s="20" t="s">
+      <c r="D84" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E84" s="16">
+        <v>1</v>
+      </c>
+      <c r="F84" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="G84" s="19">
+      <c r="G84" s="16">
         <v>0</v>
       </c>
-      <c r="H84" s="19">
+      <c r="H84" s="16">
         <v>23</v>
       </c>
-      <c r="I84" s="21" t="s">
+      <c r="I84" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="J84" s="22" t="s">
+      <c r="J84" s="31" t="s">
         <v>330</v>
       </c>
     </row>
@@ -5960,7 +5969,7 @@
       <c r="I85" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="J85" s="10" t="s">
+      <c r="J85" s="6" t="s">
         <v>317</v>
       </c>
     </row>
@@ -5992,7 +6001,7 @@
       <c r="I86" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="J86" s="6" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6024,7 +6033,7 @@
       <c r="I87" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="J87" s="10" t="s">
+      <c r="J87" s="6" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6056,7 +6065,7 @@
       <c r="I88" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="J88" s="10" t="s">
+      <c r="J88" s="6" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6088,7 +6097,7 @@
       <c r="I89" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="J89" s="10" t="s">
+      <c r="J89" s="6" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6120,7 +6129,7 @@
       <c r="I90" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="J90" s="10" t="s">
+      <c r="J90" s="6" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6152,7 +6161,7 @@
       <c r="I91" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="J91" s="10" t="s">
+      <c r="J91" s="6" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6184,7 +6193,7 @@
       <c r="I92" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="J92" s="10" t="s">
+      <c r="J92" s="6" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6216,7 +6225,7 @@
       <c r="I93" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="J93" s="10" t="s">
+      <c r="J93" s="6" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6248,7 +6257,7 @@
       <c r="I94" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="J94" s="10" t="s">
+      <c r="J94" s="6" t="s">
         <v>414</v>
       </c>
       <c r="L94" s="6" t="s">
@@ -6292,7 +6301,7 @@
       <c r="I95" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="J95" s="10" t="s">
+      <c r="J95" s="6" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6324,7 +6333,7 @@
       <c r="I96" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="J96" s="10" t="s">
+      <c r="J96" s="6" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6356,7 +6365,7 @@
       <c r="I97" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="J97" s="10" t="s">
+      <c r="J97" s="6" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7996,685 +8005,781 @@
         <v>512</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="23">
+    <row r="146" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="16">
         <v>145</v>
       </c>
-      <c r="B146" s="23">
+      <c r="B146" s="16">
         <v>145</v>
       </c>
-      <c r="C146" s="24" t="s">
+      <c r="C146" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="D146" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E146" s="23">
-        <v>1</v>
-      </c>
-      <c r="F146" s="25" t="s">
+      <c r="D146" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E146" s="16">
+        <v>1</v>
+      </c>
+      <c r="F146" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="G146" s="23">
+      <c r="G146" s="16">
         <v>0</v>
       </c>
-      <c r="H146" s="23">
+      <c r="H146" s="16">
         <v>33</v>
       </c>
-      <c r="I146" s="26" t="s">
+      <c r="I146" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="J146" s="27" t="s">
+      <c r="J146" s="25" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="23">
+    <row r="147" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="16">
         <v>146</v>
       </c>
-      <c r="B147" s="23">
+      <c r="B147" s="16">
         <v>146</v>
       </c>
-      <c r="C147" s="24" t="s">
+      <c r="C147" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="D147" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E147" s="23">
-        <v>1</v>
-      </c>
-      <c r="F147" s="25" t="s">
+      <c r="D147" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E147" s="16">
+        <v>1</v>
+      </c>
+      <c r="F147" s="24" t="s">
         <v>589</v>
       </c>
-      <c r="G147" s="23">
+      <c r="G147" s="16">
         <v>0</v>
       </c>
-      <c r="H147" s="23">
+      <c r="H147" s="16">
         <v>33</v>
       </c>
-      <c r="I147" s="26" t="s">
+      <c r="I147" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="J147" s="27" t="s">
+      <c r="J147" s="25" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="23">
+    <row r="148" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="16">
         <v>147</v>
       </c>
-      <c r="B148" s="23">
+      <c r="B148" s="16">
         <v>147</v>
       </c>
-      <c r="C148" s="24" t="s">
+      <c r="C148" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="D148" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E148" s="23">
-        <v>1</v>
-      </c>
-      <c r="F148" s="25" t="s">
+      <c r="D148" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E148" s="16">
+        <v>1</v>
+      </c>
+      <c r="F148" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="G148" s="23">
+      <c r="G148" s="16">
         <v>0</v>
       </c>
-      <c r="H148" s="23">
+      <c r="H148" s="16">
         <v>33</v>
       </c>
-      <c r="I148" s="26" t="s">
+      <c r="I148" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="J148" s="27" t="s">
+      <c r="J148" s="25" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="23">
+    <row r="149" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="16">
         <v>148</v>
       </c>
-      <c r="B149" s="23">
+      <c r="B149" s="16">
         <v>148</v>
       </c>
-      <c r="C149" s="24" t="s">
+      <c r="C149" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="D149" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E149" s="23">
-        <v>1</v>
-      </c>
-      <c r="F149" s="25" t="s">
+      <c r="D149" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E149" s="16">
+        <v>1</v>
+      </c>
+      <c r="F149" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="G149" s="23">
+      <c r="G149" s="16">
         <v>0</v>
       </c>
-      <c r="H149" s="23">
+      <c r="H149" s="16">
         <v>33</v>
       </c>
-      <c r="I149" s="26" t="s">
+      <c r="I149" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="J149" s="27" t="s">
+      <c r="J149" s="25" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="23">
+    <row r="150" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="16">
         <v>149</v>
       </c>
-      <c r="B150" s="23">
+      <c r="B150" s="16">
         <v>149</v>
       </c>
-      <c r="C150" s="24" t="s">
+      <c r="C150" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="D150" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E150" s="23">
-        <v>1</v>
-      </c>
-      <c r="F150" s="25" t="s">
+      <c r="D150" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E150" s="16">
+        <v>1</v>
+      </c>
+      <c r="F150" s="24" t="s">
         <v>590</v>
       </c>
-      <c r="G150" s="23">
+      <c r="G150" s="16">
         <v>0</v>
       </c>
-      <c r="H150" s="23">
+      <c r="H150" s="16">
         <v>33</v>
       </c>
-      <c r="I150" s="26" t="s">
+      <c r="I150" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="J150" s="27" t="s">
+      <c r="J150" s="25" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="23">
+    <row r="151" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A151" s="16">
         <v>150</v>
       </c>
-      <c r="B151" s="23">
+      <c r="B151" s="16">
         <v>150</v>
       </c>
-      <c r="C151" s="24" t="s">
+      <c r="C151" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="D151" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E151" s="23">
-        <v>1</v>
-      </c>
-      <c r="F151" s="25" t="s">
+      <c r="D151" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="16">
+        <v>1</v>
+      </c>
+      <c r="F151" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="G151" s="23">
+      <c r="G151" s="16">
         <v>0</v>
       </c>
-      <c r="H151" s="23">
+      <c r="H151" s="16">
         <v>33</v>
       </c>
-      <c r="I151" s="26" t="s">
+      <c r="I151" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="J151" s="27" t="s">
+      <c r="J151" s="25" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="23">
+    <row r="152" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="16">
         <v>151</v>
       </c>
-      <c r="B152" s="23">
+      <c r="B152" s="16">
         <v>151</v>
       </c>
-      <c r="C152" s="24" t="s">
+      <c r="C152" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="D152" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E152" s="23">
-        <v>1</v>
-      </c>
-      <c r="F152" s="25" t="s">
+      <c r="D152" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E152" s="16">
+        <v>1</v>
+      </c>
+      <c r="F152" s="24" t="s">
         <v>541</v>
       </c>
-      <c r="G152" s="23">
+      <c r="G152" s="16">
         <v>0</v>
       </c>
-      <c r="H152" s="23">
+      <c r="H152" s="16">
         <v>33</v>
       </c>
-      <c r="I152" s="26" t="s">
+      <c r="I152" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="J152" s="27" t="s">
+      <c r="J152" s="25" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="23">
+    <row r="153" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="16">
         <v>152</v>
       </c>
-      <c r="B153" s="23">
+      <c r="B153" s="16">
         <v>152</v>
       </c>
-      <c r="C153" s="24" t="s">
+      <c r="C153" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="D153" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E153" s="23">
-        <v>1</v>
-      </c>
-      <c r="F153" s="25" t="s">
+      <c r="D153" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E153" s="16">
+        <v>1</v>
+      </c>
+      <c r="F153" s="24" t="s">
         <v>591</v>
       </c>
-      <c r="G153" s="23">
+      <c r="G153" s="16">
         <v>0</v>
       </c>
-      <c r="H153" s="23">
+      <c r="H153" s="16">
         <v>33</v>
       </c>
-      <c r="I153" s="26" t="s">
+      <c r="I153" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="J153" s="27" t="s">
+      <c r="J153" s="25" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="23">
+    <row r="154" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A154" s="16">
         <v>153</v>
       </c>
-      <c r="B154" s="23">
+      <c r="B154" s="16">
         <v>153</v>
       </c>
-      <c r="C154" s="24" t="s">
+      <c r="C154" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="D154" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E154" s="23">
-        <v>1</v>
-      </c>
-      <c r="F154" s="25" t="s">
+      <c r="D154" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E154" s="16">
+        <v>1</v>
+      </c>
+      <c r="F154" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="G154" s="23">
+      <c r="G154" s="16">
         <v>0</v>
       </c>
-      <c r="H154" s="23">
+      <c r="H154" s="16">
         <v>33</v>
       </c>
-      <c r="I154" s="26" t="s">
+      <c r="I154" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="J154" s="27" t="s">
+      <c r="J154" s="25" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A155" s="3">
+    <row r="155" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="16">
         <v>154</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="16">
         <v>154</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C155" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="D155" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E155" s="3">
-        <v>1</v>
-      </c>
-      <c r="F155" s="10" t="s">
+      <c r="D155" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="16">
+        <v>1</v>
+      </c>
+      <c r="F155" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="G155" s="3">
+      <c r="G155" s="16">
         <v>0</v>
       </c>
-      <c r="H155" s="3">
+      <c r="H155" s="16">
         <v>33</v>
       </c>
-      <c r="I155" s="6" t="s">
+      <c r="I155" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="J155" s="6" t="s">
+      <c r="J155" s="18" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="28">
+    <row r="156" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A156" s="16">
         <v>155</v>
       </c>
-      <c r="B156" s="28">
+      <c r="B156" s="16">
         <v>155</v>
       </c>
-      <c r="C156" s="29" t="s">
+      <c r="C156" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="D156" s="28">
-        <v>-1</v>
-      </c>
-      <c r="E156" s="28">
-        <v>1</v>
-      </c>
-      <c r="F156" s="30" t="s">
+      <c r="D156" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E156" s="16">
+        <v>1</v>
+      </c>
+      <c r="F156" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="G156" s="28">
+      <c r="G156" s="16">
         <v>0</v>
       </c>
-      <c r="H156" s="28">
+      <c r="H156" s="16">
         <v>33</v>
       </c>
-      <c r="I156" s="31" t="s">
+      <c r="I156" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="J156" s="32" t="s">
+      <c r="J156" s="25" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="23">
+    <row r="157" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A157" s="16">
         <v>156</v>
       </c>
-      <c r="B157" s="23">
+      <c r="B157" s="16">
         <v>156</v>
       </c>
-      <c r="C157" s="33" t="s">
+      <c r="C157" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="D157" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E157" s="3">
-        <v>1</v>
-      </c>
-      <c r="F157" s="25" t="s">
+      <c r="D157" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E157" s="16">
+        <v>1</v>
+      </c>
+      <c r="F157" s="24" t="s">
         <v>582</v>
       </c>
-      <c r="G157" s="23">
-        <v>1</v>
-      </c>
-      <c r="H157" s="23">
+      <c r="G157" s="16">
+        <v>1</v>
+      </c>
+      <c r="H157" s="16">
         <v>34</v>
       </c>
-      <c r="I157" s="26" t="s">
+      <c r="I157" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="J157" s="26" t="s">
+      <c r="J157" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="L157" s="6" t="s">
+      <c r="L157" s="18" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="23">
+    <row r="158" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A158" s="16">
         <v>157</v>
       </c>
-      <c r="B158" s="23">
+      <c r="B158" s="16">
         <v>157</v>
       </c>
-      <c r="C158" s="33" t="s">
+      <c r="C158" s="27" t="s">
         <v>561</v>
       </c>
-      <c r="D158" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E158" s="3">
-        <v>1</v>
-      </c>
-      <c r="F158" s="25" t="s">
+      <c r="D158" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E158" s="16">
+        <v>1</v>
+      </c>
+      <c r="F158" s="24" t="s">
         <v>583</v>
       </c>
-      <c r="G158" s="23">
-        <v>1</v>
-      </c>
-      <c r="H158" s="23">
+      <c r="G158" s="16">
+        <v>1</v>
+      </c>
+      <c r="H158" s="16">
         <v>34</v>
       </c>
-      <c r="I158" s="26" t="s">
+      <c r="I158" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="J158" s="26" t="s">
+      <c r="J158" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="L158" s="6" t="s">
+      <c r="L158" s="18" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="23">
+    <row r="159" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A159" s="16">
         <v>158</v>
       </c>
-      <c r="B159" s="23">
+      <c r="B159" s="16">
         <v>158</v>
       </c>
-      <c r="C159" s="33" t="s">
+      <c r="C159" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="D159" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E159" s="3">
-        <v>1</v>
-      </c>
-      <c r="F159" s="25" t="s">
+      <c r="D159" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E159" s="16">
+        <v>1</v>
+      </c>
+      <c r="F159" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="G159" s="23">
-        <v>1</v>
-      </c>
-      <c r="H159" s="23">
+      <c r="G159" s="16">
+        <v>1</v>
+      </c>
+      <c r="H159" s="16">
         <v>34</v>
       </c>
-      <c r="I159" s="26" t="s">
+      <c r="I159" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="J159" s="26" t="s">
+      <c r="J159" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="L159" s="6" t="s">
+      <c r="L159" s="18" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="23">
+    <row r="160" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A160" s="16">
         <v>159</v>
       </c>
-      <c r="B160" s="23">
+      <c r="B160" s="16">
         <v>159</v>
       </c>
-      <c r="C160" s="33" t="s">
+      <c r="C160" s="27" t="s">
         <v>558</v>
       </c>
-      <c r="D160" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E160" s="3">
-        <v>1</v>
-      </c>
-      <c r="F160" s="10" t="s">
+      <c r="D160" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E160" s="16">
+        <v>1</v>
+      </c>
+      <c r="F160" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="G160" s="23">
-        <v>1</v>
-      </c>
-      <c r="H160" s="23">
+      <c r="G160" s="16">
+        <v>1</v>
+      </c>
+      <c r="H160" s="16">
         <v>34</v>
       </c>
-      <c r="I160" s="26" t="s">
+      <c r="I160" s="18" t="s">
         <v>566</v>
       </c>
-      <c r="J160" s="26" t="s">
+      <c r="J160" s="18" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="23">
+    <row r="161" spans="1:10" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="16">
         <v>160</v>
       </c>
-      <c r="B161" s="23">
+      <c r="B161" s="16">
         <v>160</v>
       </c>
-      <c r="C161" s="33" t="s">
+      <c r="C161" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="D161" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E161" s="3">
-        <v>1</v>
-      </c>
-      <c r="F161" s="10" t="s">
+      <c r="D161" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E161" s="16">
+        <v>1</v>
+      </c>
+      <c r="F161" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="G161" s="23">
-        <v>1</v>
-      </c>
-      <c r="H161" s="23">
+      <c r="G161" s="16">
+        <v>1</v>
+      </c>
+      <c r="H161" s="16">
         <v>34</v>
       </c>
-      <c r="I161" s="26" t="s">
+      <c r="I161" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="J161" s="26" t="s">
+      <c r="J161" s="18" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="23">
+    <row r="162" spans="1:10" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="16">
         <v>161</v>
       </c>
-      <c r="B162" s="23">
+      <c r="B162" s="16">
         <v>161</v>
       </c>
-      <c r="C162" s="33" t="s">
+      <c r="C162" s="27" t="s">
         <v>560</v>
       </c>
-      <c r="D162" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E162" s="3">
-        <v>1</v>
-      </c>
-      <c r="F162" s="10" t="s">
+      <c r="D162" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E162" s="16">
+        <v>1</v>
+      </c>
+      <c r="F162" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="G162" s="23">
-        <v>1</v>
-      </c>
-      <c r="H162" s="23">
+      <c r="G162" s="16">
+        <v>1</v>
+      </c>
+      <c r="H162" s="16">
         <v>34</v>
       </c>
-      <c r="I162" s="26" t="s">
+      <c r="I162" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="J162" s="26" t="s">
+      <c r="J162" s="18" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="23">
+    <row r="163" spans="1:10" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="16">
         <v>162</v>
       </c>
-      <c r="B163" s="23">
+      <c r="B163" s="16">
         <v>162</v>
       </c>
-      <c r="C163" s="33" t="s">
+      <c r="C163" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="D163" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E163" s="3">
-        <v>1</v>
-      </c>
-      <c r="F163" s="10" t="s">
+      <c r="D163" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E163" s="16">
+        <v>1</v>
+      </c>
+      <c r="F163" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="G163" s="23">
-        <v>1</v>
-      </c>
-      <c r="H163" s="23">
+      <c r="G163" s="16">
+        <v>1</v>
+      </c>
+      <c r="H163" s="16">
         <v>34</v>
       </c>
-      <c r="I163" s="26" t="s">
+      <c r="I163" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="J163" s="26" t="s">
+      <c r="J163" s="18" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="23">
+    <row r="164" spans="1:10" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="16">
         <v>163</v>
       </c>
-      <c r="B164" s="23">
+      <c r="B164" s="16">
         <v>163</v>
       </c>
-      <c r="C164" s="33" t="s">
+      <c r="C164" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="D164" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E164" s="3">
-        <v>1</v>
-      </c>
-      <c r="F164" s="10" t="s">
+      <c r="D164" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E164" s="16">
+        <v>1</v>
+      </c>
+      <c r="F164" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="G164" s="23">
-        <v>1</v>
-      </c>
-      <c r="H164" s="23">
+      <c r="G164" s="16">
+        <v>1</v>
+      </c>
+      <c r="H164" s="16">
         <v>34</v>
       </c>
-      <c r="I164" s="26" t="s">
+      <c r="I164" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="J164" s="26" t="s">
+      <c r="J164" s="18" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="23">
+    <row r="165" spans="1:10" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="16">
         <v>164</v>
       </c>
-      <c r="B165" s="23">
+      <c r="B165" s="16">
         <v>164</v>
       </c>
-      <c r="C165" s="33" t="s">
+      <c r="C165" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="D165" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E165" s="3">
-        <v>1</v>
-      </c>
-      <c r="F165" s="10" t="s">
+      <c r="D165" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E165" s="16">
+        <v>1</v>
+      </c>
+      <c r="F165" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="G165" s="23">
-        <v>1</v>
-      </c>
-      <c r="H165" s="23">
+      <c r="G165" s="16">
+        <v>1</v>
+      </c>
+      <c r="H165" s="16">
         <v>34</v>
       </c>
-      <c r="I165" s="26" t="s">
+      <c r="I165" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="J165" s="26" t="s">
+      <c r="J165" s="18" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="166" spans="1:10" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="34">
+    <row r="166" spans="1:10" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="19">
         <v>165</v>
       </c>
-      <c r="B166" s="34">
+      <c r="B166" s="19">
         <v>165</v>
       </c>
-      <c r="C166" s="35" t="s">
+      <c r="C166" s="20" t="s">
         <v>587</v>
       </c>
-      <c r="D166" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E166" s="34">
-        <v>1</v>
-      </c>
-      <c r="F166" s="38" t="s">
+      <c r="D166" s="19">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="19">
+        <v>1</v>
+      </c>
+      <c r="F166" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="G166" s="34">
+      <c r="G166" s="19">
         <v>0</v>
       </c>
-      <c r="H166" s="34">
+      <c r="H166" s="19">
         <v>33</v>
       </c>
-      <c r="I166" s="37" t="s">
+      <c r="I166" s="22" t="s">
         <v>585</v>
       </c>
-      <c r="J166" s="37" t="s">
+      <c r="J166" s="22" t="s">
         <v>586</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A167" s="16">
+        <v>166</v>
+      </c>
+      <c r="B167" s="16">
+        <v>166</v>
+      </c>
+      <c r="C167" s="27" t="s">
+        <v>603</v>
+      </c>
+      <c r="D167" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>602</v>
+      </c>
+      <c r="G167" s="16">
+        <v>0</v>
+      </c>
+      <c r="H167" s="16">
+        <v>33</v>
+      </c>
+      <c r="I167" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A168" s="16">
+        <v>167</v>
+      </c>
+      <c r="B168" s="16">
+        <v>167</v>
+      </c>
+      <c r="C168" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="D168" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1</v>
+      </c>
+      <c r="F168" t="s">
+        <v>600</v>
+      </c>
+      <c r="G168" s="16">
+        <v>0</v>
+      </c>
+      <c r="H168" s="16">
+        <v>33</v>
+      </c>
+      <c r="I168" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A169" s="16">
+        <v>168</v>
+      </c>
+      <c r="B169" s="16">
+        <v>168</v>
+      </c>
+      <c r="C169" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="D169" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E169" s="3">
+        <v>1</v>
+      </c>
+      <c r="F169" t="s">
+        <v>601</v>
+      </c>
+      <c r="G169" s="16">
+        <v>0</v>
+      </c>
+      <c r="H169" s="16">
+        <v>33</v>
+      </c>
+      <c r="I169" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2410,10 +2410,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_cyj_cjq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2431,6 +2427,10 @@
   </si>
   <si>
     <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwzp_icon_cjq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2987,9 +2987,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4147,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -8045,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G147" s="23">
         <v>0</v>
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G150" s="23">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G153" s="23">
         <v>0</v>
@@ -8653,7 +8653,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D166" s="34">
         <v>-1</v>
@@ -8662,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="38" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="G166" s="34">
         <v>0</v>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -2459,20 +2459,23 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>xrzxlb_iocn_gjbx</t>
-  </si>
-  <si>
-    <t>xrzxlb_iocn_hhbx</t>
-  </si>
-  <si>
-    <t>xrzxlb_iocn_xrbx</t>
-  </si>
-  <si>
     <t>porp_033_xsbx</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>xrzxlb_iocn_xrbx_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_hhbx_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>porp_033_hhbx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_xrzxlb_gjbx</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2997,8 +3000,8 @@
   <dimension ref="A1:Q169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C169" sqref="C169"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8686,99 +8689,99 @@
         <v>586</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="16">
+    <row r="167" spans="1:10" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A167" s="19">
         <v>166</v>
       </c>
-      <c r="B167" s="16">
+      <c r="B167" s="19">
         <v>166</v>
       </c>
-      <c r="C167" s="27" t="s">
+      <c r="C167" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D167" s="19">
+        <v>-1</v>
+      </c>
+      <c r="E167" s="19">
+        <v>1</v>
+      </c>
+      <c r="F167" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="G167" s="19">
+        <v>0</v>
+      </c>
+      <c r="H167" s="19">
+        <v>33</v>
+      </c>
+      <c r="I167" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="J167" s="19" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A168" s="19">
+        <v>167</v>
+      </c>
+      <c r="B168" s="19">
+        <v>167</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="D168" s="19">
+        <v>-1</v>
+      </c>
+      <c r="E168" s="19">
+        <v>1</v>
+      </c>
+      <c r="F168" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="G168" s="19">
+        <v>0</v>
+      </c>
+      <c r="H168" s="19">
+        <v>33</v>
+      </c>
+      <c r="I168" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="J168" s="19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A169" s="19">
+        <v>168</v>
+      </c>
+      <c r="B169" s="19">
+        <v>168</v>
+      </c>
+      <c r="C169" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="D167" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E167" s="3">
-        <v>1</v>
-      </c>
-      <c r="F167" t="s">
+      <c r="D169" s="19">
+        <v>-1</v>
+      </c>
+      <c r="E169" s="19">
+        <v>1</v>
+      </c>
+      <c r="F169" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="G167" s="16">
+      <c r="G169" s="19">
         <v>0</v>
       </c>
-      <c r="H167" s="16">
+      <c r="H169" s="19">
         <v>33</v>
       </c>
-      <c r="I167" s="18" t="s">
-        <v>597</v>
-      </c>
-      <c r="J167" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="16">
-        <v>167</v>
-      </c>
-      <c r="B168" s="16">
-        <v>167</v>
-      </c>
-      <c r="C168" s="27" t="s">
-        <v>593</v>
-      </c>
-      <c r="D168" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E168" s="3">
-        <v>1</v>
-      </c>
-      <c r="F168" t="s">
-        <v>600</v>
-      </c>
-      <c r="G168" s="16">
-        <v>0</v>
-      </c>
-      <c r="H168" s="16">
-        <v>33</v>
-      </c>
-      <c r="I168" s="18" t="s">
-        <v>598</v>
-      </c>
-      <c r="J168" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="16">
-        <v>168</v>
-      </c>
-      <c r="B169" s="16">
-        <v>168</v>
-      </c>
-      <c r="C169" s="27" t="s">
-        <v>604</v>
-      </c>
-      <c r="D169" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E169" s="3">
-        <v>1</v>
-      </c>
-      <c r="F169" t="s">
-        <v>601</v>
-      </c>
-      <c r="G169" s="16">
-        <v>0</v>
-      </c>
-      <c r="H169" s="16">
-        <v>33</v>
-      </c>
-      <c r="I169" s="18" t="s">
+      <c r="I169" s="22" t="s">
         <v>599</v>
       </c>
-      <c r="J169" s="3" t="s">
+      <c r="J169" s="19" t="s">
         <v>596</v>
       </c>
     </row>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -2038,444 +2038,445 @@
     <t>prop_cjlb_8</t>
   </si>
   <si>
+    <t>prop_xrcdj_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrcdj_2</t>
+  </si>
+  <si>
+    <t>prop_xrcdj_3</t>
+  </si>
+  <si>
+    <t>青铜抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的青铜抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的白银抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的黄金抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫七夕活动道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>_common_rank_true_love_026_rank</t>
+  </si>
+  <si>
+    <t>bblb_icon_xin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bblb_icon_xin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱排行榜积分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱排行榜积分道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xycd_icon_ty2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋活动道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xycd_sunshine</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>250福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加250福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加2500福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加25000福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加250000福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩礼包抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cwlb_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_031_aster</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆快乐活动掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_icon_xx2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_1</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_1</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_3</t>
+  </si>
+  <si>
+    <t>初级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cyj_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwzp_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享新手宝箱</t>
+  </si>
+  <si>
+    <t>新人专享高级宝箱</t>
+  </si>
+  <si>
+    <t>新人专享豪华宝箱</t>
+  </si>
+  <si>
+    <t>新手宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_xrbx_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_hhbx_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_xrzxlb_gjbx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>prop_cjlb_9</t>
-  </si>
-  <si>
-    <t>prop_xrcdj_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xrcdj_2</t>
-  </si>
-  <si>
-    <t>prop_xrcdj_3</t>
-  </si>
-  <si>
-    <t>青铜抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于新人抽大奖中的青铜抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于新人抽大奖中的白银抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于新人抽大奖中的黄金抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱心</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪漫七夕活动道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>_common_rank_true_love_026_rank</t>
-  </si>
-  <si>
-    <t>bblb_icon_xin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bblb_icon_xin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>真爱排行榜积分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>真爱排行榜积分道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xycd_icon_ty2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩蛋活动道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xycd_sunshine</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>250福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>25000福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加250福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加2500福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加25000福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加250000福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>银锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>银锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>畅玩礼包抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cwlb_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_031_aster</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆快乐活动掉落</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_icon_xx2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_1</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_3</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_1</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_3</t>
-  </si>
-  <si>
-    <t>初级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_3_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_3_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳节抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳节抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cyj_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwzp_icon_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>porp_033_gjbx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人专享新手宝箱</t>
-  </si>
-  <si>
-    <t>新人专享高级宝箱</t>
-  </si>
-  <si>
-    <t>新人专享豪华宝箱</t>
-  </si>
-  <si>
-    <t>新手宝箱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级宝箱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪华宝箱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>porp_033_xsbx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xrzxlb_iocn_xrbx_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xrzxlb_iocn_hhbx_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>porp_033_hhbx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_033_xrzxlb_gjbx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_11</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_10</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3000,8 +3001,8 @@
   <dimension ref="A1:Q169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F168" sqref="F168"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4159,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -5504,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G72" s="3">
         <v>1</v>
@@ -7274,10 +7275,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -7300,7 +7301,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
@@ -7309,10 +7310,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -7335,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
@@ -7344,10 +7345,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -7379,10 +7380,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -7414,10 +7415,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -7440,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
@@ -7449,10 +7450,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -7475,7 +7476,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>
@@ -7484,10 +7485,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -7519,10 +7520,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -7545,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G131" s="3">
         <v>0</v>
@@ -7554,10 +7555,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="J131" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="J131" s="6" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -7824,7 +7825,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>491</v>
+        <v>601</v>
       </c>
       <c r="D140" s="3">
         <v>-1</v>
@@ -7856,7 +7857,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D141" s="3">
         <v>-1</v>
@@ -7874,10 +7875,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -7888,7 +7889,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D142" s="3">
         <v>-1</v>
@@ -7906,10 +7907,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -7920,7 +7921,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D143" s="3">
         <v>-1</v>
@@ -7938,10 +7939,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -7952,7 +7953,7 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D144" s="3">
         <v>-1</v>
@@ -7961,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G144" s="3">
         <v>0</v>
@@ -7970,10 +7971,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="J144" s="6" t="s">
         <v>506</v>
-      </c>
-      <c r="J144" s="6" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -7984,7 +7985,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D145" s="3">
         <v>-1</v>
@@ -7993,7 +7994,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G145" s="3">
         <v>0</v>
@@ -8002,10 +8003,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="J145" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="J145" s="6" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="146" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8016,7 +8017,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D146" s="16">
         <v>-1</v>
@@ -8025,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G146" s="16">
         <v>0</v>
@@ -8034,10 +8035,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="J146" s="25" t="s">
         <v>523</v>
-      </c>
-      <c r="J146" s="25" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="147" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8048,7 +8049,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D147" s="16">
         <v>-1</v>
@@ -8057,7 +8058,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G147" s="16">
         <v>0</v>
@@ -8066,10 +8067,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="J147" s="25" t="s">
         <v>526</v>
-      </c>
-      <c r="J147" s="25" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="148" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8080,7 +8081,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D148" s="16">
         <v>-1</v>
@@ -8089,7 +8090,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="24" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G148" s="16">
         <v>0</v>
@@ -8098,10 +8099,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="J148" s="25" t="s">
         <v>529</v>
-      </c>
-      <c r="J148" s="25" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="149" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8112,7 +8113,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D149" s="16">
         <v>-1</v>
@@ -8121,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G149" s="16">
         <v>0</v>
@@ -8130,10 +8131,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="J149" s="25" t="s">
         <v>532</v>
-      </c>
-      <c r="J149" s="25" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="150" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8144,7 +8145,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D150" s="16">
         <v>-1</v>
@@ -8153,7 +8154,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="24" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G150" s="16">
         <v>0</v>
@@ -8162,10 +8163,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="J150" s="25" t="s">
         <v>535</v>
-      </c>
-      <c r="J150" s="25" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="151" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8176,16 +8177,16 @@
         <v>150</v>
       </c>
       <c r="C151" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="D151" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="16">
+        <v>1</v>
+      </c>
+      <c r="F151" s="24" t="s">
         <v>537</v>
-      </c>
-      <c r="D151" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E151" s="16">
-        <v>1</v>
-      </c>
-      <c r="F151" s="24" t="s">
-        <v>538</v>
       </c>
       <c r="G151" s="16">
         <v>0</v>
@@ -8194,10 +8195,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="J151" s="25" t="s">
         <v>539</v>
-      </c>
-      <c r="J151" s="25" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="152" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8208,7 +8209,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D152" s="16">
         <v>-1</v>
@@ -8217,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G152" s="16">
         <v>0</v>
@@ -8226,10 +8227,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J152" s="25" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="153" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8240,7 +8241,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D153" s="16">
         <v>-1</v>
@@ -8249,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G153" s="16">
         <v>0</v>
@@ -8258,10 +8259,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J153" s="25" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="154" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8272,7 +8273,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D154" s="16">
         <v>-1</v>
@@ -8281,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G154" s="16">
         <v>0</v>
@@ -8290,10 +8291,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J154" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="155" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -8304,16 +8305,16 @@
         <v>154</v>
       </c>
       <c r="C155" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="D155" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="16">
+        <v>1</v>
+      </c>
+      <c r="F155" s="24" t="s">
         <v>552</v>
-      </c>
-      <c r="D155" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E155" s="16">
-        <v>1</v>
-      </c>
-      <c r="F155" s="24" t="s">
-        <v>553</v>
       </c>
       <c r="G155" s="16">
         <v>0</v>
@@ -8325,7 +8326,7 @@
         <v>429</v>
       </c>
       <c r="J155" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="156" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8336,7 +8337,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D156" s="16">
         <v>-1</v>
@@ -8345,7 +8346,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G156" s="16">
         <v>0</v>
@@ -8354,10 +8355,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="J156" s="25" t="s">
         <v>555</v>
-      </c>
-      <c r="J156" s="25" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="157" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8368,7 +8369,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D157" s="16">
         <v>-1</v>
@@ -8377,7 +8378,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="24" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G157" s="16">
         <v>1</v>
@@ -8386,13 +8387,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J157" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L157" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="158" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8403,7 +8404,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D158" s="16">
         <v>-1</v>
@@ -8412,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="24" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G158" s="16">
         <v>1</v>
@@ -8421,13 +8422,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J158" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L158" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="159" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8438,7 +8439,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D159" s="16">
         <v>-1</v>
@@ -8447,7 +8448,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="24" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G159" s="16">
         <v>1</v>
@@ -8456,13 +8457,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J159" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L159" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="160" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8473,7 +8474,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D160" s="16">
         <v>-1</v>
@@ -8482,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G160" s="16">
         <v>1</v>
@@ -8491,10 +8492,10 @@
         <v>34</v>
       </c>
       <c r="I160" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J160" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="161" spans="1:10" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8505,7 +8506,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D161" s="16">
         <v>-1</v>
@@ -8514,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="24" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G161" s="16">
         <v>1</v>
@@ -8523,10 +8524,10 @@
         <v>34</v>
       </c>
       <c r="I161" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J161" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="162" spans="1:10" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8537,7 +8538,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D162" s="16">
         <v>-1</v>
@@ -8546,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G162" s="16">
         <v>1</v>
@@ -8555,10 +8556,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J162" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="163" spans="1:10" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8569,7 +8570,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D163" s="16">
         <v>-1</v>
@@ -8578,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G163" s="16">
         <v>1</v>
@@ -8587,10 +8588,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J163" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="164" spans="1:10" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8601,7 +8602,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D164" s="16">
         <v>-1</v>
@@ -8610,7 +8611,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="24" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G164" s="16">
         <v>1</v>
@@ -8619,10 +8620,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J164" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="165" spans="1:10" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8633,7 +8634,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D165" s="16">
         <v>-1</v>
@@ -8642,7 +8643,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G165" s="16">
         <v>1</v>
@@ -8651,10 +8652,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J165" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:10" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8665,7 +8666,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D166" s="19">
         <v>-1</v>
@@ -8674,19 +8675,19 @@
         <v>1</v>
       </c>
       <c r="F166" s="23" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G166" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166" s="19">
         <v>33</v>
       </c>
       <c r="I166" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="J166" s="22" t="s">
         <v>585</v>
-      </c>
-      <c r="J166" s="22" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="167" spans="1:10" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8697,7 +8698,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D167" s="19">
         <v>-1</v>
@@ -8706,19 +8707,19 @@
         <v>1</v>
       </c>
       <c r="F167" s="21" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G167" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" s="19">
         <v>33</v>
       </c>
       <c r="I167" s="22" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J167" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="168" spans="1:10" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8729,7 +8730,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="D168" s="19">
         <v>-1</v>
@@ -8738,19 +8739,19 @@
         <v>1</v>
       </c>
       <c r="F168" s="21" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G168" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168" s="19">
         <v>33</v>
       </c>
       <c r="I168" s="22" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J168" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="169" spans="1:10" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8770,19 +8771,19 @@
         <v>1</v>
       </c>
       <c r="F169" s="21" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G169" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" s="19">
         <v>33</v>
       </c>
       <c r="I169" s="22" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J169" s="19" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -2430,7 +2430,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>cwzp_icon_cjq</t>
+    <t>prop_cyj_cjq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2987,9 +2987,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F166" sqref="F166"/>
+      <selection pane="bottomLeft" activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -2430,7 +2430,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_cyj_cjq</t>
+    <t>cwzp_icon_cjq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2989,7 +2989,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F170" sqref="F170"/>
+      <selection pane="bottomLeft" activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="608">
   <si>
     <t>id|行号</t>
   </si>
@@ -1589,884 +1589,896 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于小游戏消耗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_zs_30y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_ctgd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_ctgd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_zh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytx_zt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_danmf2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_danmf2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_sbsk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_sbsk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_cjhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_zt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_jg_skill</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_dan_bs08</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日福利券额度</t>
+  </si>
+  <si>
+    <t>宝箱可随机开出1000-15万金币。使用时间：2019年11月5日7:30至2019年11月11日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_secondary_bomb_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bymatch_game_btn_xbz</t>
+  </si>
+  <si>
+    <t>原子弹-浅水湾</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_super_bomb_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bymatch_game_btn_dbz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级原子弹-浅水湾</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_secondary_bomb_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子弹-深海寻宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_super_bomb_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级原子弹-深海寻宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_secondary_bomb_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子弹-地底遗迹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_super_bomb_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级原子弹-地底遗迹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅给与徒弟的免费激励宝箱可随机开出1000-15万金币。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅给与徒弟的激励宝箱可随机开出1000-15万金币。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年1月24日-2月8日可开启宝箱，最多可获得10万金币。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费子弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级火力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍时刻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超速子弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻头弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费超级火力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_pierce_bullet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_summon_fish</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_lock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_frozen</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_frozen</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_flqcj","panel",1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpg_icon_shui</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于苹果大战种植</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于苹果大战种植</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpg_icon_yg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_3</t>
+  </si>
+  <si>
+    <t>zpg_icon_cc</t>
+  </si>
+  <si>
+    <t>铲子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_4</t>
+  </si>
+  <si>
+    <t>zpg_icon_sc</t>
+  </si>
+  <si>
+    <t>除虫剂</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_5</t>
+  </si>
+  <si>
+    <t>zpg_icon_fl</t>
+  </si>
+  <si>
+    <t>肥料</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_mfcjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_5y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_50flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_200flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_500flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_1000flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_50flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_200flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_500flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_1000flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_4</t>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠白银宝箱（免费小额用户，V1-V3用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠黄金宝箱（免费小额用户，V1-V3用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠钻石宝箱（免费小额用户，V1-V3用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠白银宝箱（V4-V7用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠黄金宝箱（V4-V7用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠钻石宝箱（V4-V7用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠白银宝箱（V8-V10用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠黄金宝箱（V8-V10用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠钻石宝箱（V8-V10用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_3</t>
+  </si>
+  <si>
+    <t>prop_cjlb_4</t>
+  </si>
+  <si>
+    <t>prop_cjlb_5</t>
+  </si>
+  <si>
+    <t>prop_cjlb_6</t>
+  </si>
+  <si>
+    <t>prop_cjlb_7</t>
+  </si>
+  <si>
+    <t>prop_cjlb_8</t>
+  </si>
+  <si>
+    <t>prop_cjlb_9</t>
+  </si>
+  <si>
+    <t>prop_xrcdj_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrcdj_2</t>
+  </si>
+  <si>
+    <t>prop_xrcdj_3</t>
+  </si>
+  <si>
+    <t>青铜抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的青铜抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的白银抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的黄金抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫七夕活动道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>_common_rank_true_love_026_rank</t>
+  </si>
+  <si>
+    <t>bblb_icon_xin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bblb_icon_xin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱排行榜积分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱排行榜积分道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xycd_icon_ty2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋活动道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xycd_sunshine</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>250福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加250福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加2500福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加25000福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加250000福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩礼包抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cwlb_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_031_aster</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆快乐活动掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_icon_xx2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_1</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_1</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_3</t>
+  </si>
+  <si>
+    <t>初级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cyj_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwzp_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_10</t>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_xrbx_1</t>
+  </si>
+  <si>
+    <t>新手宝箱</t>
+  </si>
+  <si>
+    <t>新人专享新手宝箱</t>
+  </si>
+  <si>
+    <t>prop_cjlb_11</t>
+  </si>
+  <si>
+    <t>act_033_xrzxlb_gjbx</t>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+  </si>
+  <si>
+    <t>新人专享高级宝箱</t>
+  </si>
+  <si>
+    <t>prop_cjlb_12</t>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_hhbx_1</t>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+  </si>
+  <si>
+    <t>新人专享豪华宝箱</t>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>task_13000</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏币</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于小游戏消耗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_yxb_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_zs_30y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_15y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_ctgd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_ctgd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_zh</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bytx_zt</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_danmf2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_danmf2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_sbsk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_sbsk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_cjhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_zt</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_jg_skill</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_dan_bs08</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日福利券额度</t>
-  </si>
-  <si>
-    <t>宝箱可随机开出1000-15万金币。使用时间：2019年11月5日7:30至2019年11月11日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_secondary_bomb_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bymatch_game_btn_xbz</t>
-  </si>
-  <si>
-    <t>原子弹-浅水湾</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_super_bomb_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bymatch_game_btn_dbz</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级原子弹-浅水湾</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_secondary_bomb_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>原子弹-深海寻宝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_super_bomb_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级原子弹-深海寻宝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_secondary_bomb_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>原子弹-地底遗迹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_super_bomb_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级原子弹-地底遗迹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>师傅给与徒弟的免费激励宝箱可随机开出1000-15万金币。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>师傅给与徒弟的激励宝箱可随机开出1000-15万金币。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年1月24日-2月8日可开启宝箱，最多可获得10万金币。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费子弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级火力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍时刻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超速子弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻头弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透子弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁定</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰冻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费超级火力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_pierce_bullet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_summon_fish</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_lock</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_frozen</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_frozen</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_lock</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_flqcj","panel",1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>zpg_icon_shui</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>水滴</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于苹果大战种植</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于苹果大战种植</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>zpg_icon_yg</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_3</t>
-  </si>
-  <si>
-    <t>zpg_icon_cc</t>
-  </si>
-  <si>
-    <t>铲子</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_4</t>
-  </si>
-  <si>
-    <t>zpg_icon_sc</t>
-  </si>
-  <si>
-    <t>除虫剂</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_5</t>
-  </si>
-  <si>
-    <t>zpg_icon_fl</t>
-  </si>
-  <si>
-    <t>肥料</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_mfcjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_5y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_50flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_200flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_500flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_1000flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_50flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_200flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_500flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_1000flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_4</t>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠白银宝箱（免费小额用户，V1-V3用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠黄金宝箱（免费小额用户，V1-V3用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠钻石宝箱（免费小额用户，V1-V3用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠白银宝箱（V4-V7用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠黄金宝箱（V4-V7用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠钻石宝箱（V4-V7用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠白银宝箱（V8-V10用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠黄金宝箱（V8-V10用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠钻石宝箱（V8-V10用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_3</t>
-  </si>
-  <si>
-    <t>prop_cjlb_4</t>
-  </si>
-  <si>
-    <t>prop_cjlb_5</t>
-  </si>
-  <si>
-    <t>prop_cjlb_6</t>
-  </si>
-  <si>
-    <t>prop_cjlb_7</t>
-  </si>
-  <si>
-    <t>prop_cjlb_8</t>
-  </si>
-  <si>
-    <t>prop_cjlb_9</t>
-  </si>
-  <si>
-    <t>prop_xrcdj_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xrcdj_2</t>
-  </si>
-  <si>
-    <t>prop_xrcdj_3</t>
-  </si>
-  <si>
-    <t>青铜抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于新人抽大奖中的青铜抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于新人抽大奖中的白银抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于新人抽大奖中的黄金抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱心</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪漫七夕活动道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>_common_rank_true_love_026_rank</t>
-  </si>
-  <si>
-    <t>bblb_icon_xin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bblb_icon_xin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>真爱排行榜积分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>真爱排行榜积分道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xycd_icon_ty2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩蛋活动道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xycd_sunshine</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>250福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>25000福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加250福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加2500福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加25000福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加250000福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>银锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>银锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>畅玩礼包抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cwlb_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_031_aster</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆快乐活动掉落</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_icon_xx2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_1</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_3</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_1</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_3</t>
-  </si>
-  <si>
-    <t>初级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_3_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_3_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳节抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳节抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cyj_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwzp_icon_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_10</t>
-  </si>
-  <si>
-    <t>xrzxlb_iocn_xrbx_1</t>
-  </si>
-  <si>
-    <t>新手宝箱</t>
-  </si>
-  <si>
-    <t>新人专享新手宝箱</t>
-  </si>
-  <si>
-    <t>prop_cjlb_11</t>
-  </si>
-  <si>
-    <t>act_033_xrzxlb_gjbx</t>
-  </si>
-  <si>
-    <t>高级宝箱</t>
-  </si>
-  <si>
-    <t>新人专享高级宝箱</t>
-  </si>
-  <si>
-    <t>prop_cjlb_12</t>
-  </si>
-  <si>
-    <t>xrzxlb_iocn_hhbx_1</t>
-  </si>
-  <si>
-    <t>豪华宝箱</t>
-  </si>
-  <si>
-    <t>新人专享豪华宝箱</t>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_1</t>
+    <t>task_1000114</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐积分</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2474,7 +2486,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2558,8 +2570,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2581,6 +2599,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2627,7 +2651,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2707,6 +2731,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2990,8 +3020,8 @@
   <dimension ref="A1:Q171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D182" sqref="D182"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F173" sqref="F173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3143,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>20</v>
@@ -3169,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>369</v>
@@ -3221,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>370</v>
@@ -3247,13 +3277,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>371</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -3971,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4294,7 +4324,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D43" s="2">
         <v>-1</v>
@@ -4471,7 +4501,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D48" s="2">
         <v>-1</v>
@@ -4505,7 +4535,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D49" s="2">
         <v>-1</v>
@@ -4677,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -4715,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -4753,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -5298,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -5330,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -5368,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -5492,7 +5522,7 @@
         <v>277</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>331</v>
@@ -5580,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -5589,13 +5619,13 @@
         <v>23</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J80" s="16" t="s">
         <v>286</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="27" x14ac:dyDescent="0.2">
@@ -5627,7 +5657,7 @@
         <v>289</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>297</v>
@@ -5665,7 +5695,7 @@
         <v>292</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>298</v>
@@ -6055,7 +6085,7 @@
         <v>328</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>332</v>
@@ -6183,7 +6213,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
@@ -6192,7 +6222,7 @@
         <v>36</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>359</v>
@@ -6218,7 +6248,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
@@ -6227,7 +6257,7 @@
         <v>37</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J99" s="5" t="s">
         <v>360</v>
@@ -6253,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G100" s="2">
         <v>1</v>
@@ -6262,7 +6292,7 @@
         <v>38</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>361</v>
@@ -6288,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G101" s="2">
         <v>1</v>
@@ -6297,7 +6327,7 @@
         <v>39</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>362</v>
@@ -6323,7 +6353,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
@@ -6332,7 +6362,7 @@
         <v>40</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>363</v>
@@ -6349,7 +6379,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D103" s="2">
         <v>-1</v>
@@ -6358,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G103" s="2">
         <v>1</v>
@@ -6367,7 +6397,7 @@
         <v>41</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>364</v>
@@ -6384,7 +6414,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D104" s="2">
         <v>-1</v>
@@ -6393,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
@@ -6402,10 +6432,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N104" s="2">
         <v>9</v>
@@ -6428,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
@@ -6437,7 +6467,7 @@
         <v>43</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J105" s="5" t="s">
         <v>366</v>
@@ -6463,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G106" s="2">
         <v>1</v>
@@ -6472,7 +6502,7 @@
         <v>44</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J106" s="5" t="s">
         <v>365</v>
@@ -6489,7 +6519,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D107" s="2">
         <v>-1</v>
@@ -6507,7 +6537,7 @@
         <v>32</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>173</v>
@@ -6526,7 +6556,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D108" s="2">
         <v>-1</v>
@@ -6544,7 +6574,7 @@
         <v>33</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>177</v>
@@ -6563,7 +6593,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>375</v>
+        <v>604</v>
       </c>
       <c r="D109" s="2">
         <v>-1</v>
@@ -6595,7 +6625,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D110" s="2">
         <v>-1</v>
@@ -6604,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
@@ -6613,10 +6643,10 @@
         <v>34</v>
       </c>
       <c r="I110" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="J110" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="L110" s="5"/>
     </row>
@@ -6628,28 +6658,28 @@
         <v>110</v>
       </c>
       <c r="C111" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D111" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D111" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="G111" s="2">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2">
-        <v>1</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>400</v>
-      </c>
       <c r="J111" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>174</v>
@@ -6666,28 +6696,28 @@
         <v>111</v>
       </c>
       <c r="C112" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="D112" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D112" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112" s="5" t="s">
+      <c r="G112" s="2">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1</v>
+      </c>
+      <c r="I112" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="G112" s="2">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2">
-        <v>1</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="J112" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>174</v>
@@ -6704,28 +6734,28 @@
         <v>112</v>
       </c>
       <c r="C113" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="D113" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1</v>
+      </c>
+      <c r="I113" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D113" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G113" s="2">
-        <v>1</v>
-      </c>
-      <c r="H113" s="2">
-        <v>1</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="J113" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>174</v>
@@ -6742,28 +6772,28 @@
         <v>113</v>
       </c>
       <c r="C114" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="D114" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1</v>
+      </c>
+      <c r="I114" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D114" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="G114" s="2">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2">
-        <v>1</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="J114" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>174</v>
@@ -6780,28 +6810,28 @@
         <v>114</v>
       </c>
       <c r="C115" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="D115" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="I115" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D115" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G115" s="2">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2">
-        <v>1</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>409</v>
-      </c>
       <c r="J115" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>174</v>
@@ -6818,28 +6848,28 @@
         <v>115</v>
       </c>
       <c r="C116" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="D116" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G116" s="2">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="I116" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D116" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E116" s="2">
-        <v>1</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="G116" s="2">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2">
-        <v>1</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>411</v>
-      </c>
       <c r="J116" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L116" s="5" t="s">
         <v>174</v>
@@ -6856,16 +6886,16 @@
         <v>116</v>
       </c>
       <c r="C117" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="D117" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="D117" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="G117" s="2">
         <v>0</v>
@@ -6874,10 +6904,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -6890,7 +6920,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D118" s="2">
         <v>-1</v>
@@ -6899,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G118" s="2">
         <v>0</v>
@@ -6908,10 +6938,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6922,16 +6952,16 @@
         <v>118</v>
       </c>
       <c r="C119" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="D119" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="D119" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
@@ -6940,10 +6970,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6954,16 +6984,16 @@
         <v>119</v>
       </c>
       <c r="C120" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D120" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="D120" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
@@ -6972,10 +7002,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6986,16 +7016,16 @@
         <v>120</v>
       </c>
       <c r="C121" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D121" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="D121" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E121" s="2">
-        <v>1</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -7004,10 +7034,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7018,16 +7048,16 @@
         <v>121</v>
       </c>
       <c r="C122" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D122" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="D122" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
@@ -7036,10 +7066,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7050,7 +7080,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D123" s="2">
         <v>-1</v>
@@ -7059,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
@@ -7068,10 +7098,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N123" s="2">
         <v>1</v>
@@ -7085,7 +7115,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D124" s="2">
         <v>-1</v>
@@ -7094,7 +7124,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
@@ -7103,10 +7133,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N124" s="2">
         <v>1</v>
@@ -7120,7 +7150,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D125" s="2">
         <v>-1</v>
@@ -7129,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
@@ -7138,10 +7168,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N125" s="2">
         <v>1</v>
@@ -7155,7 +7185,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D126" s="2">
         <v>-1</v>
@@ -7164,7 +7194,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -7173,10 +7203,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N126" s="2">
         <v>1</v>
@@ -7190,7 +7220,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D127" s="2">
         <v>-1</v>
@@ -7199,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -7208,10 +7238,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N127" s="2">
         <v>1</v>
@@ -7225,7 +7255,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D128" s="2">
         <v>-1</v>
@@ -7234,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
@@ -7243,10 +7273,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N128" s="2">
         <v>1</v>
@@ -7260,7 +7290,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D129" s="2">
         <v>-1</v>
@@ -7269,7 +7299,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
@@ -7278,10 +7308,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N129" s="2">
         <v>1</v>
@@ -7295,7 +7325,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D130" s="2">
         <v>-1</v>
@@ -7304,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
@@ -7313,10 +7343,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N130" s="2">
         <v>1</v>
@@ -7330,7 +7360,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D131" s="2">
         <v>-1</v>
@@ -7339,7 +7369,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G131" s="2">
         <v>0</v>
@@ -7348,10 +7378,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="J131" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -7362,7 +7392,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D132" s="2">
         <v>-1</v>
@@ -7371,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G132" s="2">
         <v>0</v>
@@ -7380,10 +7410,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="J132" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="J132" s="5" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -7394,7 +7424,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D133" s="2">
         <v>-1</v>
@@ -7403,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G133" s="2">
         <v>0</v>
@@ -7412,10 +7442,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -7426,7 +7456,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D134" s="2">
         <v>-1</v>
@@ -7435,7 +7465,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G134" s="2">
         <v>0</v>
@@ -7444,10 +7474,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -7458,7 +7488,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D135" s="2">
         <v>-1</v>
@@ -7467,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G135" s="2">
         <v>0</v>
@@ -7476,10 +7506,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -7490,7 +7520,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D136" s="2">
         <v>-1</v>
@@ -7499,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G136" s="2">
         <v>0</v>
@@ -7508,10 +7538,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -7522,7 +7552,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D137" s="2">
         <v>-1</v>
@@ -7531,7 +7561,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G137" s="2">
         <v>0</v>
@@ -7540,10 +7570,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -7554,7 +7584,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D138" s="2">
         <v>-1</v>
@@ -7563,7 +7593,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -7572,10 +7602,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -7586,7 +7616,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D139" s="2">
         <v>-1</v>
@@ -7595,7 +7625,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -7604,10 +7634,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -7618,7 +7648,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D140" s="2">
         <v>-1</v>
@@ -7636,10 +7666,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -7650,7 +7680,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D141" s="2">
         <v>-1</v>
@@ -7659,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -7668,10 +7698,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -7682,7 +7712,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D142" s="2">
         <v>-1</v>
@@ -7691,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -7700,10 +7730,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -7714,7 +7744,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D143" s="2">
         <v>-1</v>
@@ -7723,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -7732,10 +7762,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -7746,7 +7776,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D144" s="2">
         <v>-1</v>
@@ -7755,7 +7785,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -7764,10 +7794,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="J144" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="J144" s="5" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -7778,7 +7808,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D145" s="2">
         <v>-1</v>
@@ -7787,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -7796,10 +7826,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="J145" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="J145" s="5" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="146" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7810,7 +7840,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D146" s="11">
         <v>-1</v>
@@ -7819,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G146" s="11">
         <v>0</v>
@@ -7828,10 +7858,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="J146" s="23" t="s">
         <v>522</v>
-      </c>
-      <c r="J146" s="23" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="147" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7842,7 +7872,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D147" s="11">
         <v>-1</v>
@@ -7851,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G147" s="11">
         <v>0</v>
@@ -7860,10 +7890,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="J147" s="23" t="s">
         <v>525</v>
-      </c>
-      <c r="J147" s="23" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7874,7 +7904,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D148" s="11">
         <v>-1</v>
@@ -7883,7 +7913,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G148" s="11">
         <v>0</v>
@@ -7892,10 +7922,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="J148" s="23" t="s">
         <v>528</v>
-      </c>
-      <c r="J148" s="23" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="149" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7906,7 +7936,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D149" s="11">
         <v>-1</v>
@@ -7915,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G149" s="11">
         <v>0</v>
@@ -7924,10 +7954,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="J149" s="23" t="s">
         <v>531</v>
-      </c>
-      <c r="J149" s="23" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="150" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7938,7 +7968,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D150" s="11">
         <v>-1</v>
@@ -7947,7 +7977,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G150" s="11">
         <v>0</v>
@@ -7956,10 +7986,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="J150" s="23" t="s">
         <v>534</v>
-      </c>
-      <c r="J150" s="23" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="151" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7970,16 +8000,16 @@
         <v>150</v>
       </c>
       <c r="C151" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="D151" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="11">
+        <v>1</v>
+      </c>
+      <c r="F151" s="12" t="s">
         <v>536</v>
-      </c>
-      <c r="D151" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E151" s="11">
-        <v>1</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>537</v>
       </c>
       <c r="G151" s="11">
         <v>0</v>
@@ -7988,10 +8018,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="J151" s="23" t="s">
         <v>538</v>
-      </c>
-      <c r="J151" s="23" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="152" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8002,7 +8032,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D152" s="11">
         <v>-1</v>
@@ -8011,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G152" s="11">
         <v>0</v>
@@ -8020,10 +8050,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J152" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="153" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8034,7 +8064,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D153" s="11">
         <v>-1</v>
@@ -8043,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G153" s="11">
         <v>0</v>
@@ -8052,10 +8082,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J153" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="154" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8066,7 +8096,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D154" s="11">
         <v>-1</v>
@@ -8075,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G154" s="11">
         <v>0</v>
@@ -8084,10 +8114,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J154" s="23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="155" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -8098,16 +8128,16 @@
         <v>154</v>
       </c>
       <c r="C155" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="D155" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="11">
+        <v>1</v>
+      </c>
+      <c r="F155" s="12" t="s">
         <v>551</v>
-      </c>
-      <c r="D155" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E155" s="11">
-        <v>1</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>552</v>
       </c>
       <c r="G155" s="11">
         <v>0</v>
@@ -8116,10 +8146,10 @@
         <v>33</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="156" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8130,7 +8160,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D156" s="11">
         <v>-1</v>
@@ -8139,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G156" s="11">
         <v>0</v>
@@ -8148,10 +8178,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="J156" s="23" t="s">
         <v>554</v>
-      </c>
-      <c r="J156" s="23" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="157" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8162,7 +8192,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D157" s="11">
         <v>-1</v>
@@ -8171,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G157" s="11">
         <v>1</v>
@@ -8180,13 +8210,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="158" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8197,7 +8227,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D158" s="11">
         <v>-1</v>
@@ -8206,7 +8236,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G158" s="11">
         <v>1</v>
@@ -8215,13 +8245,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="159" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8232,7 +8262,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="24" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D159" s="11">
         <v>-1</v>
@@ -8241,7 +8271,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G159" s="11">
         <v>1</v>
@@ -8250,13 +8280,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="160" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8267,7 +8297,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -8276,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -8285,10 +8315,10 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="161" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8299,7 +8329,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -8308,7 +8338,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -8317,10 +8347,10 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="162" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8331,7 +8361,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D162" s="11">
         <v>-1</v>
@@ -8340,7 +8370,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G162" s="11">
         <v>1</v>
@@ -8349,10 +8379,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="163" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8363,7 +8393,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D163" s="11">
         <v>-1</v>
@@ -8372,7 +8402,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G163" s="11">
         <v>1</v>
@@ -8381,10 +8411,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="164" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8395,7 +8425,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D164" s="11">
         <v>-1</v>
@@ -8404,7 +8434,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G164" s="11">
         <v>1</v>
@@ -8413,10 +8443,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="165" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8427,7 +8457,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D165" s="11">
         <v>-1</v>
@@ -8436,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G165" s="11">
         <v>1</v>
@@ -8445,10 +8475,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="166" spans="1:10" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8459,7 +8489,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D166" s="13">
         <v>-1</v>
@@ -8468,7 +8498,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G166" s="13">
         <v>0</v>
@@ -8477,10 +8507,10 @@
         <v>33</v>
       </c>
       <c r="I166" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="J166" s="14" t="s">
         <v>584</v>
-      </c>
-      <c r="J166" s="14" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="167" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8491,16 +8521,16 @@
         <v>166</v>
       </c>
       <c r="C167" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="D167" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E167" s="13">
+        <v>1</v>
+      </c>
+      <c r="F167" s="13" t="s">
         <v>592</v>
-      </c>
-      <c r="D167" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E167" s="13">
-        <v>1</v>
-      </c>
-      <c r="F167" s="13" t="s">
-        <v>593</v>
       </c>
       <c r="G167" s="13">
         <v>1</v>
@@ -8509,10 +8539,10 @@
         <v>33</v>
       </c>
       <c r="I167" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="J167" s="13" t="s">
         <v>594</v>
-      </c>
-      <c r="J167" s="13" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="168" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8523,16 +8553,16 @@
         <v>167</v>
       </c>
       <c r="C168" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="D168" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E168" s="13">
+        <v>1</v>
+      </c>
+      <c r="F168" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="D168" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E168" s="13">
-        <v>1</v>
-      </c>
-      <c r="F168" s="13" t="s">
-        <v>597</v>
       </c>
       <c r="G168" s="13">
         <v>1</v>
@@ -8541,10 +8571,10 @@
         <v>33</v>
       </c>
       <c r="I168" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="J168" s="13" t="s">
         <v>598</v>
-      </c>
-      <c r="J168" s="13" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="169" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8555,16 +8585,16 @@
         <v>168</v>
       </c>
       <c r="C169" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="D169" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E169" s="13">
+        <v>1</v>
+      </c>
+      <c r="F169" s="13" t="s">
         <v>600</v>
-      </c>
-      <c r="D169" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E169" s="13">
-        <v>1</v>
-      </c>
-      <c r="F169" s="13" t="s">
-        <v>601</v>
       </c>
       <c r="G169" s="13">
         <v>1</v>
@@ -8573,14 +8603,40 @@
         <v>33</v>
       </c>
       <c r="I169" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="J169" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="J169" s="13" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C170" s="26"/>
+    </row>
+    <row r="170" spans="1:10" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A170" s="27">
+        <v>169</v>
+      </c>
+      <c r="B170" s="27">
+        <v>169</v>
+      </c>
+      <c r="C170" s="28" t="s">
+        <v>605</v>
+      </c>
+      <c r="D170" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E170" s="27">
+        <v>1</v>
+      </c>
+      <c r="G170" s="27">
+        <v>0</v>
+      </c>
+      <c r="H170" s="27">
+        <v>33</v>
+      </c>
+      <c r="I170" s="27" t="s">
+        <v>606</v>
+      </c>
+      <c r="J170" s="27" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="171" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C171" s="26"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="609">
   <si>
     <t>id|行号</t>
   </si>
@@ -2470,15 +2470,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>积分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐积分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_hytb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>task_1000114</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐积分</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3021,7 +3025,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F173" sqref="F173"/>
+      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8617,13 +8621,16 @@
         <v>169</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D170" s="27">
         <v>-1</v>
       </c>
       <c r="E170" s="27">
         <v>1</v>
+      </c>
+      <c r="F170" s="27" t="s">
+        <v>607</v>
       </c>
       <c r="G170" s="27">
         <v>0</v>
@@ -8632,10 +8639,10 @@
         <v>33</v>
       </c>
       <c r="I170" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="J170" s="27" t="s">
         <v>606</v>
-      </c>
-      <c r="J170" s="27" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="171" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="605">
   <si>
     <t>id|行号</t>
   </si>
@@ -2467,22 +2467,6 @@
   </si>
   <si>
     <t>task_13000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐积分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_hytb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_1000114</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2581,7 +2565,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2603,12 +2587,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2655,7 +2633,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2737,10 +2715,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3025,7 +3000,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
+      <selection pane="bottomLeft" activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8613,37 +8588,8 @@
         <v>602</v>
       </c>
     </row>
-    <row r="170" spans="1:10" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="27">
-        <v>169</v>
-      </c>
-      <c r="B170" s="27">
-        <v>169</v>
-      </c>
-      <c r="C170" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="D170" s="27">
-        <v>-1</v>
-      </c>
-      <c r="E170" s="27">
-        <v>1</v>
-      </c>
-      <c r="F170" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="G170" s="27">
-        <v>0</v>
-      </c>
-      <c r="H170" s="27">
-        <v>33</v>
-      </c>
-      <c r="I170" s="27" t="s">
-        <v>605</v>
-      </c>
-      <c r="J170" s="27" t="s">
-        <v>606</v>
-      </c>
+    <row r="170" spans="1:10" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C170" s="27"/>
     </row>
     <row r="171" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C171" s="26"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="638">
   <si>
     <t>id|行号</t>
   </si>
@@ -1480,10 +1480,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_web_chip_huafei</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>com_award_icon_hfsp</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1589,6 +1585,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>task_13000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>prop_tiny_game_coin</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1823,6 +1823,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>prop_guess_apple_bet_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>zpg_icon_shui</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2294,179 +2298,296 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>prop_3d_fish_nuclear_bomb_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_1</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_3</t>
+  </si>
+  <si>
+    <t>初级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cyj_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_10</t>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_xrbx_1</t>
+  </si>
+  <si>
+    <t>新手宝箱</t>
+  </si>
+  <si>
+    <t>新人专享新手宝箱</t>
+  </si>
+  <si>
+    <t>prop_cjlb_11</t>
+  </si>
+  <si>
+    <t>act_033_xrzxlb_gjbx</t>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+  </si>
+  <si>
+    <t>新人专享高级宝箱</t>
+  </si>
+  <si>
+    <t>prop_cjlb_12</t>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_hhbx_1</t>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+  </si>
+  <si>
+    <t>新人专享豪华宝箱</t>
+  </si>
+  <si>
+    <t>prop_guess_apple_cz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_sd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldfd_icon_shui</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldfd_zpg_icon_cc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_11.11_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwzp_icon_cjq</t>
+  </si>
+  <si>
+    <t>cwzp_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一抽奖券</t>
+  </si>
+  <si>
+    <t>双十一抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_4</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_5</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_4</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_5</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_4</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_5</t>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_4_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_5_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_4_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_5_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_4_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_5_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_1000114</t>
+  </si>
+  <si>
+    <t>ty_icon_hytb</t>
+  </si>
+  <si>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>新人七天乐积分</t>
+  </si>
+  <si>
     <t>prop_3d_fish_nuclear_bomb_1</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_3</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_1</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_3</t>
-  </si>
-  <si>
-    <t>初级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_3_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_3_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳节抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳节抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cyj_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwzp_icon_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_10</t>
-  </si>
-  <si>
-    <t>xrzxlb_iocn_xrbx_1</t>
-  </si>
-  <si>
-    <t>新手宝箱</t>
-  </si>
-  <si>
-    <t>新人专享新手宝箱</t>
-  </si>
-  <si>
-    <t>prop_cjlb_11</t>
-  </si>
-  <si>
-    <t>act_033_xrzxlb_gjbx</t>
-  </si>
-  <si>
-    <t>高级宝箱</t>
-  </si>
-  <si>
-    <t>新人专享高级宝箱</t>
-  </si>
-  <si>
-    <t>prop_cjlb_12</t>
-  </si>
-  <si>
-    <t>xrzxlb_iocn_hhbx_1</t>
-  </si>
-  <si>
-    <t>豪华宝箱</t>
-  </si>
-  <si>
-    <t>新人专享豪华宝箱</t>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_13000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2474,7 +2595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2544,28 +2665,8 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2587,6 +2688,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2633,7 +2752,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2676,9 +2795,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2700,22 +2816,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2996,11 +3118,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q171"/>
+  <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3064,7 +3186,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>296</v>
@@ -3181,10 +3303,10 @@
         <v>380</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -3233,10 +3355,10 @@
         <v>381</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3259,7 +3381,7 @@
         <v>382</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>395</v>
@@ -4303,7 +4425,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D43" s="2">
         <v>-1</v>
@@ -4479,7 +4601,7 @@
       <c r="B48" s="3">
         <v>46</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="14" t="s">
         <v>430</v>
       </c>
       <c r="D48" s="2">
@@ -4513,7 +4635,7 @@
       <c r="B49" s="3">
         <v>47</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="14" t="s">
         <v>429</v>
       </c>
       <c r="D49" s="2">
@@ -4644,7 +4766,7 @@
       <c r="B53" s="3">
         <v>51</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="14" t="s">
         <v>188</v>
       </c>
       <c r="D53" s="2">
@@ -4676,7 +4798,7 @@
       <c r="B54" s="3">
         <v>52</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="14" t="s">
         <v>191</v>
       </c>
       <c r="D54" s="2">
@@ -4697,7 +4819,7 @@
       <c r="I54" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="J54" s="16" t="s">
+      <c r="J54" s="15" t="s">
         <v>193</v>
       </c>
       <c r="L54" s="5" t="s">
@@ -4714,7 +4836,7 @@
       <c r="B55" s="3">
         <v>53</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="14" t="s">
         <v>194</v>
       </c>
       <c r="D55" s="2">
@@ -4735,7 +4857,7 @@
       <c r="I55" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="J55" s="16" t="s">
+      <c r="J55" s="15" t="s">
         <v>196</v>
       </c>
       <c r="L55" s="5" t="s">
@@ -4752,7 +4874,7 @@
       <c r="B56" s="3">
         <v>54</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>197</v>
       </c>
       <c r="D56" s="2">
@@ -4773,7 +4895,7 @@
       <c r="I56" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="J56" s="16" t="s">
+      <c r="J56" s="15" t="s">
         <v>199</v>
       </c>
       <c r="L56" s="5" t="s">
@@ -4790,7 +4912,7 @@
       <c r="B57" s="3">
         <v>55</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>200</v>
       </c>
       <c r="D57" s="2">
@@ -4799,7 +4921,7 @@
       <c r="E57" s="2">
         <v>1</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="14" t="s">
         <v>201</v>
       </c>
       <c r="G57" s="2">
@@ -4811,7 +4933,7 @@
       <c r="I57" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="J57" s="16" t="s">
+      <c r="J57" s="15" t="s">
         <v>202</v>
       </c>
       <c r="L57" s="5" t="s">
@@ -4825,7 +4947,7 @@
       <c r="B58" s="3">
         <v>56</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="14" t="s">
         <v>204</v>
       </c>
       <c r="D58" s="2">
@@ -4846,7 +4968,7 @@
       <c r="I58" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J58" s="16" t="s">
+      <c r="J58" s="15" t="s">
         <v>207</v>
       </c>
       <c r="N58" s="2">
@@ -4860,7 +4982,7 @@
       <c r="B59" s="3">
         <v>57</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>208</v>
       </c>
       <c r="D59" s="2">
@@ -4881,7 +5003,7 @@
       <c r="I59" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="J59" s="16" t="s">
+      <c r="J59" s="15" t="s">
         <v>211</v>
       </c>
       <c r="N59" s="2">
@@ -4895,7 +5017,7 @@
       <c r="B60" s="3">
         <v>58</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="14" t="s">
         <v>212</v>
       </c>
       <c r="D60" s="2">
@@ -4916,7 +5038,7 @@
       <c r="I60" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="J60" s="16" t="s">
+      <c r="J60" s="15" t="s">
         <v>215</v>
       </c>
       <c r="N60" s="2">
@@ -4930,7 +5052,7 @@
       <c r="B61" s="3">
         <v>59</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="14" t="s">
         <v>216</v>
       </c>
       <c r="D61" s="2">
@@ -4951,7 +5073,7 @@
       <c r="I61" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="J61" s="16" t="s">
+      <c r="J61" s="15" t="s">
         <v>219</v>
       </c>
       <c r="N61" s="2">
@@ -4965,7 +5087,7 @@
       <c r="B62" s="3">
         <v>60</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D62" s="2">
@@ -4986,7 +5108,7 @@
       <c r="I62" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="J62" s="16" t="s">
+      <c r="J62" s="15" t="s">
         <v>177</v>
       </c>
       <c r="N62" s="2">
@@ -5000,7 +5122,7 @@
       <c r="B63" s="3">
         <v>61</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="14" t="s">
         <v>222</v>
       </c>
       <c r="D63" s="2">
@@ -5021,7 +5143,7 @@
       <c r="I63" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="J63" s="16" t="s">
+      <c r="J63" s="15" t="s">
         <v>225</v>
       </c>
       <c r="L63" s="5" t="s">
@@ -5035,7 +5157,7 @@
       <c r="B64" s="3">
         <v>62</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="14" t="s">
         <v>226</v>
       </c>
       <c r="D64" s="2">
@@ -5056,7 +5178,7 @@
       <c r="I64" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J64" s="16" t="s">
+      <c r="J64" s="15" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5067,7 +5189,7 @@
       <c r="B65" s="3">
         <v>63</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="14" t="s">
         <v>230</v>
       </c>
       <c r="D65" s="2">
@@ -5076,7 +5198,7 @@
       <c r="E65" s="2">
         <v>1</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="14" t="s">
         <v>231</v>
       </c>
       <c r="G65" s="2">
@@ -5088,7 +5210,7 @@
       <c r="I65" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="J65" s="16" t="s">
+      <c r="J65" s="15" t="s">
         <v>233</v>
       </c>
       <c r="L65" s="5" t="s">
@@ -5123,7 +5245,7 @@
       <c r="I66" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="J66" s="16" t="s">
+      <c r="J66" s="15" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5155,7 +5277,7 @@
       <c r="I67" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="J67" s="16" t="s">
+      <c r="J67" s="15" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5187,7 +5309,7 @@
       <c r="I68" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J68" s="16" t="s">
+      <c r="J68" s="15" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5219,7 +5341,7 @@
       <c r="I69" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="J69" s="16" t="s">
+      <c r="J69" s="15" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5230,7 +5352,7 @@
       <c r="B70" s="2">
         <v>68</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="14" t="s">
         <v>251</v>
       </c>
       <c r="D70" s="2">
@@ -5251,7 +5373,7 @@
       <c r="I70" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="J70" s="16" t="s">
+      <c r="J70" s="15" t="s">
         <v>225</v>
       </c>
       <c r="L70" s="5" t="s">
@@ -5274,7 +5396,7 @@
       <c r="E71" s="2">
         <v>1</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="F71" s="14" t="s">
         <v>254</v>
       </c>
       <c r="G71" s="2">
@@ -5286,7 +5408,7 @@
       <c r="I71" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="J71" s="16" t="s">
+      <c r="J71" s="15" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5306,8 +5428,8 @@
       <c r="E72" s="2">
         <v>1</v>
       </c>
-      <c r="F72" s="15" t="s">
-        <v>548</v>
+      <c r="F72" s="14" t="s">
+        <v>549</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -5318,7 +5440,7 @@
       <c r="I72" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="J72" s="16" t="s">
+      <c r="J72" s="15" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5329,7 +5451,7 @@
       <c r="B73" s="2">
         <v>71</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="14" t="s">
         <v>261</v>
       </c>
       <c r="D73" s="2">
@@ -5347,10 +5469,10 @@
       <c r="H73" s="2">
         <v>1</v>
       </c>
-      <c r="I73" s="15" t="s">
+      <c r="I73" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="J73" s="16" t="s">
+      <c r="J73" s="15" t="s">
         <v>263</v>
       </c>
       <c r="L73" s="5" t="s">
@@ -5388,7 +5510,7 @@
       <c r="I74" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="J74" s="16" t="s">
+      <c r="J74" s="15" t="s">
         <v>266</v>
       </c>
       <c r="L74" s="5" t="s">
@@ -5405,7 +5527,7 @@
       <c r="B75" s="2">
         <v>73</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="14" t="s">
         <v>267</v>
       </c>
       <c r="D75" s="2">
@@ -5414,7 +5536,7 @@
       <c r="E75" s="2">
         <v>1</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="14" t="s">
         <v>268</v>
       </c>
       <c r="G75" s="2">
@@ -5426,7 +5548,7 @@
       <c r="I75" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="J75" s="16" t="s">
+      <c r="J75" s="15" t="s">
         <v>270</v>
       </c>
       <c r="L75" s="5" t="s">
@@ -5443,7 +5565,7 @@
       <c r="B76" s="2">
         <v>74</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D76" s="2">
@@ -5452,7 +5574,7 @@
       <c r="E76" s="2">
         <v>1</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="14" t="s">
         <v>272</v>
       </c>
       <c r="G76" s="2">
@@ -5464,7 +5586,7 @@
       <c r="I76" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="J76" s="16" t="s">
+      <c r="J76" s="15" t="s">
         <v>274</v>
       </c>
       <c r="L76" s="5"/>
@@ -5500,7 +5622,7 @@
       <c r="I77" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="J77" s="17" t="s">
+      <c r="J77" s="16" t="s">
         <v>396</v>
       </c>
       <c r="L77" s="5" t="s">
@@ -5535,7 +5657,7 @@
       <c r="I78" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J78" s="17" t="s">
+      <c r="J78" s="16" t="s">
         <v>281</v>
       </c>
       <c r="L78" s="5"/>
@@ -5556,7 +5678,7 @@
       <c r="E79" s="2">
         <v>1</v>
       </c>
-      <c r="F79" s="15" t="s">
+      <c r="F79" s="14" t="s">
         <v>283</v>
       </c>
       <c r="G79" s="2">
@@ -5568,7 +5690,7 @@
       <c r="I79" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="J79" s="16" t="s">
+      <c r="J79" s="15" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5588,8 +5710,8 @@
       <c r="E80" s="2">
         <v>1</v>
       </c>
-      <c r="F80" s="15" t="s">
-        <v>454</v>
+      <c r="F80" s="14" t="s">
+        <v>455</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -5600,7 +5722,7 @@
       <c r="I80" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="J80" s="16" t="s">
+      <c r="J80" s="15" t="s">
         <v>286</v>
       </c>
       <c r="L80" s="5" t="s">
@@ -5623,7 +5745,7 @@
       <c r="E81" s="2">
         <v>1</v>
       </c>
-      <c r="F81" s="15" t="s">
+      <c r="F81" s="14" t="s">
         <v>288</v>
       </c>
       <c r="G81" s="2">
@@ -5635,7 +5757,7 @@
       <c r="I81" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J81" s="17" t="s">
+      <c r="J81" s="16" t="s">
         <v>411</v>
       </c>
       <c r="L81" s="5" t="s">
@@ -5661,7 +5783,7 @@
       <c r="E82" s="2">
         <v>1</v>
       </c>
-      <c r="F82" s="15" t="s">
+      <c r="F82" s="14" t="s">
         <v>291</v>
       </c>
       <c r="G82" s="2">
@@ -5673,7 +5795,7 @@
       <c r="I82" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="J82" s="17" t="s">
+      <c r="J82" s="16" t="s">
         <v>412</v>
       </c>
       <c r="L82" s="5" t="s">
@@ -5690,7 +5812,7 @@
       <c r="B83" s="9">
         <v>82</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="17" t="s">
         <v>335</v>
       </c>
       <c r="D83" s="9">
@@ -5699,7 +5821,7 @@
       <c r="E83" s="9">
         <v>1</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="17" t="s">
         <v>336</v>
       </c>
       <c r="G83" s="9">
@@ -5711,7 +5833,7 @@
       <c r="I83" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="J83" s="19" t="s">
+      <c r="J83" s="18" t="s">
         <v>346</v>
       </c>
     </row>
@@ -5731,7 +5853,7 @@
       <c r="E84" s="11">
         <v>1</v>
       </c>
-      <c r="F84" s="20" t="s">
+      <c r="F84" s="19" t="s">
         <v>294</v>
       </c>
       <c r="G84" s="11">
@@ -5743,7 +5865,7 @@
       <c r="I84" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="J84" s="21" t="s">
+      <c r="J84" s="20" t="s">
         <v>330</v>
       </c>
     </row>
@@ -5763,7 +5885,7 @@
       <c r="E85" s="2">
         <v>1</v>
       </c>
-      <c r="F85" s="15" t="s">
+      <c r="F85" s="14" t="s">
         <v>299</v>
       </c>
       <c r="G85" s="2">
@@ -5795,7 +5917,7 @@
       <c r="E86" s="2">
         <v>1</v>
       </c>
-      <c r="F86" s="15" t="s">
+      <c r="F86" s="14" t="s">
         <v>300</v>
       </c>
       <c r="G86" s="2">
@@ -5827,7 +5949,7 @@
       <c r="E87" s="2">
         <v>1</v>
       </c>
-      <c r="F87" s="15" t="s">
+      <c r="F87" s="14" t="s">
         <v>301</v>
       </c>
       <c r="G87" s="2">
@@ -5859,7 +5981,7 @@
       <c r="E88" s="2">
         <v>1</v>
       </c>
-      <c r="F88" s="15" t="s">
+      <c r="F88" s="14" t="s">
         <v>302</v>
       </c>
       <c r="G88" s="2">
@@ -5891,7 +6013,7 @@
       <c r="E89" s="2">
         <v>1</v>
       </c>
-      <c r="F89" s="15" t="s">
+      <c r="F89" s="14" t="s">
         <v>303</v>
       </c>
       <c r="G89" s="2">
@@ -5923,7 +6045,7 @@
       <c r="E90" s="2">
         <v>1</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="F90" s="14" t="s">
         <v>304</v>
       </c>
       <c r="G90" s="2">
@@ -5955,7 +6077,7 @@
       <c r="E91" s="2">
         <v>1</v>
       </c>
-      <c r="F91" s="15" t="s">
+      <c r="F91" s="14" t="s">
         <v>305</v>
       </c>
       <c r="G91" s="2">
@@ -5987,7 +6109,7 @@
       <c r="E92" s="2">
         <v>1</v>
       </c>
-      <c r="F92" s="15" t="s">
+      <c r="F92" s="14" t="s">
         <v>306</v>
       </c>
       <c r="G92" s="2">
@@ -6019,7 +6141,7 @@
       <c r="E93" s="2">
         <v>1</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="F93" s="14" t="s">
         <v>307</v>
       </c>
       <c r="G93" s="2">
@@ -6051,7 +6173,7 @@
       <c r="E94" s="2">
         <v>1</v>
       </c>
-      <c r="F94" s="15" t="s">
+      <c r="F94" s="14" t="s">
         <v>327</v>
       </c>
       <c r="G94" s="2">
@@ -6095,7 +6217,7 @@
       <c r="E95" s="2">
         <v>1</v>
       </c>
-      <c r="F95" s="15" t="s">
+      <c r="F95" s="14" t="s">
         <v>340</v>
       </c>
       <c r="G95" s="2">
@@ -6127,7 +6249,7 @@
       <c r="E96" s="2">
         <v>1</v>
       </c>
-      <c r="F96" s="15" t="s">
+      <c r="F96" s="14" t="s">
         <v>341</v>
       </c>
       <c r="G96" s="2">
@@ -6151,16 +6273,16 @@
         <v>96</v>
       </c>
       <c r="C97" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="D97" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="14" t="s">
         <v>349</v>
-      </c>
-      <c r="D97" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E97" s="2">
-        <v>1</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>350</v>
       </c>
       <c r="G97" s="2">
         <v>1</v>
@@ -6183,7 +6305,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D98" s="2">
         <v>-1</v>
@@ -6191,7 +6313,7 @@
       <c r="E98" s="2">
         <v>1</v>
       </c>
-      <c r="F98" s="15" t="s">
+      <c r="F98" s="14" t="s">
         <v>388</v>
       </c>
       <c r="G98" s="2">
@@ -6204,7 +6326,7 @@
         <v>415</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N98" s="2">
         <v>9</v>
@@ -6218,7 +6340,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D99" s="2">
         <v>-1</v>
@@ -6226,7 +6348,7 @@
       <c r="E99" s="2">
         <v>1</v>
       </c>
-      <c r="F99" s="15" t="s">
+      <c r="F99" s="14" t="s">
         <v>391</v>
       </c>
       <c r="G99" s="2">
@@ -6239,7 +6361,7 @@
         <v>416</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N99" s="2">
         <v>9</v>
@@ -6253,7 +6375,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D100" s="2">
         <v>-1</v>
@@ -6261,7 +6383,7 @@
       <c r="E100" s="2">
         <v>1</v>
       </c>
-      <c r="F100" s="15" t="s">
+      <c r="F100" s="14" t="s">
         <v>390</v>
       </c>
       <c r="G100" s="2">
@@ -6274,7 +6396,7 @@
         <v>417</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N100" s="2">
         <v>9</v>
@@ -6288,7 +6410,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D101" s="2">
         <v>-1</v>
@@ -6296,7 +6418,7 @@
       <c r="E101" s="2">
         <v>1</v>
       </c>
-      <c r="F101" s="15" t="s">
+      <c r="F101" s="14" t="s">
         <v>394</v>
       </c>
       <c r="G101" s="2">
@@ -6309,7 +6431,7 @@
         <v>418</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N101" s="2">
         <v>9</v>
@@ -6323,7 +6445,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D102" s="2">
         <v>-1</v>
@@ -6331,7 +6453,7 @@
       <c r="E102" s="2">
         <v>1</v>
       </c>
-      <c r="F102" s="15" t="s">
+      <c r="F102" s="14" t="s">
         <v>392</v>
       </c>
       <c r="G102" s="2">
@@ -6344,7 +6466,7 @@
         <v>419</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N102" s="2">
         <v>9</v>
@@ -6366,7 +6488,7 @@
       <c r="E103" s="2">
         <v>1</v>
       </c>
-      <c r="F103" s="15" t="s">
+      <c r="F103" s="14" t="s">
         <v>384</v>
       </c>
       <c r="G103" s="2">
@@ -6379,7 +6501,7 @@
         <v>420</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N103" s="2">
         <v>9</v>
@@ -6401,7 +6523,7 @@
       <c r="E104" s="2">
         <v>1</v>
       </c>
-      <c r="F104" s="15" t="s">
+      <c r="F104" s="14" t="s">
         <v>385</v>
       </c>
       <c r="G104" s="2">
@@ -6428,7 +6550,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D105" s="2">
         <v>-1</v>
@@ -6436,7 +6558,7 @@
       <c r="E105" s="2">
         <v>1</v>
       </c>
-      <c r="F105" s="15" t="s">
+      <c r="F105" s="14" t="s">
         <v>391</v>
       </c>
       <c r="G105" s="2">
@@ -6449,7 +6571,7 @@
         <v>425</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N105" s="2">
         <v>9</v>
@@ -6463,7 +6585,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D106" s="2">
         <v>-1</v>
@@ -6471,7 +6593,7 @@
       <c r="E106" s="2">
         <v>1</v>
       </c>
-      <c r="F106" s="15" t="s">
+      <c r="F106" s="14" t="s">
         <v>393</v>
       </c>
       <c r="G106" s="2">
@@ -6484,7 +6606,7 @@
         <v>424</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N106" s="2">
         <v>9</v>
@@ -6497,7 +6619,7 @@
       <c r="B107" s="2">
         <v>106</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="14" t="s">
         <v>431</v>
       </c>
       <c r="D107" s="2">
@@ -6507,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G107" s="2">
         <v>1</v>
@@ -6534,7 +6656,7 @@
       <c r="B108" s="2">
         <v>107</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="14" t="s">
         <v>432</v>
       </c>
       <c r="D108" s="2">
@@ -6544,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G108" s="2">
         <v>1</v>
@@ -6572,7 +6694,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>604</v>
+        <v>374</v>
       </c>
       <c r="D109" s="2">
         <v>-1</v>
@@ -6580,8 +6702,8 @@
       <c r="E109" s="2">
         <v>1</v>
       </c>
-      <c r="F109" s="15" t="s">
-        <v>372</v>
+      <c r="F109" s="14" t="s">
+        <v>371</v>
       </c>
       <c r="G109" s="2">
         <v>1</v>
@@ -6590,10 +6712,10 @@
         <v>33</v>
       </c>
       <c r="I109" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="J109" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6612,7 +6734,7 @@
       <c r="E110" s="2">
         <v>1</v>
       </c>
-      <c r="F110" s="15" t="s">
+      <c r="F110" s="14" t="s">
         <v>378</v>
       </c>
       <c r="G110" s="2">
@@ -6636,7 +6758,7 @@
       <c r="B111" s="2">
         <v>110</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="14" t="s">
         <v>397</v>
       </c>
       <c r="D111" s="2">
@@ -6674,7 +6796,7 @@
       <c r="B112" s="2">
         <v>111</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="14" t="s">
         <v>400</v>
       </c>
       <c r="D112" s="2">
@@ -6712,7 +6834,7 @@
       <c r="B113" s="2">
         <v>112</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C113" s="14" t="s">
         <v>403</v>
       </c>
       <c r="D113" s="2">
@@ -6750,7 +6872,7 @@
       <c r="B114" s="2">
         <v>113</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="C114" s="14" t="s">
         <v>405</v>
       </c>
       <c r="D114" s="2">
@@ -6788,7 +6910,7 @@
       <c r="B115" s="2">
         <v>114</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C115" s="14" t="s">
         <v>407</v>
       </c>
       <c r="D115" s="2">
@@ -6826,7 +6948,7 @@
       <c r="B116" s="2">
         <v>115</v>
       </c>
-      <c r="C116" s="15" t="s">
+      <c r="C116" s="14" t="s">
         <v>409</v>
       </c>
       <c r="D116" s="2">
@@ -6864,8 +6986,8 @@
       <c r="B117" s="2">
         <v>116</v>
       </c>
-      <c r="C117" s="15" t="s">
-        <v>450</v>
+      <c r="C117" s="14" t="s">
+        <v>451</v>
       </c>
       <c r="D117" s="2">
         <v>-1</v>
@@ -6874,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G117" s="2">
         <v>0</v>
@@ -6883,10 +7005,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="J117" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -6898,8 +7020,8 @@
       <c r="B118" s="2">
         <v>117</v>
       </c>
-      <c r="C118" s="15" t="s">
-        <v>603</v>
+      <c r="C118" s="14" t="s">
+        <v>434</v>
       </c>
       <c r="D118" s="2">
         <v>-1</v>
@@ -6908,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G118" s="2">
         <v>0</v>
@@ -6917,10 +7039,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6930,8 +7052,8 @@
       <c r="B119" s="2">
         <v>118</v>
       </c>
-      <c r="C119" s="15" t="s">
-        <v>438</v>
+      <c r="C119" s="14" t="s">
+        <v>439</v>
       </c>
       <c r="D119" s="2">
         <v>-1</v>
@@ -6940,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
@@ -6949,10 +7071,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6962,8 +7084,8 @@
       <c r="B120" s="2">
         <v>119</v>
       </c>
-      <c r="C120" s="15" t="s">
-        <v>441</v>
+      <c r="C120" s="14" t="s">
+        <v>442</v>
       </c>
       <c r="D120" s="2">
         <v>-1</v>
@@ -6972,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
@@ -6981,10 +7103,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6994,8 +7116,8 @@
       <c r="B121" s="2">
         <v>120</v>
       </c>
-      <c r="C121" s="15" t="s">
-        <v>444</v>
+      <c r="C121" s="14" t="s">
+        <v>445</v>
       </c>
       <c r="D121" s="2">
         <v>-1</v>
@@ -7004,7 +7126,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -7013,10 +7135,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7026,8 +7148,8 @@
       <c r="B122" s="2">
         <v>121</v>
       </c>
-      <c r="C122" s="15" t="s">
-        <v>447</v>
+      <c r="C122" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="D122" s="2">
         <v>-1</v>
@@ -7036,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
@@ -7045,10 +7167,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7058,8 +7180,8 @@
       <c r="B123" s="2">
         <v>122</v>
       </c>
-      <c r="C123" s="15" t="s">
-        <v>456</v>
+      <c r="C123" s="14" t="s">
+        <v>457</v>
       </c>
       <c r="D123" s="2">
         <v>-1</v>
@@ -7068,7 +7190,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
@@ -7077,10 +7199,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N123" s="2">
         <v>1</v>
@@ -7093,8 +7215,8 @@
       <c r="B124" s="2">
         <v>123</v>
       </c>
-      <c r="C124" s="15" t="s">
-        <v>457</v>
+      <c r="C124" s="14" t="s">
+        <v>458</v>
       </c>
       <c r="D124" s="2">
         <v>-1</v>
@@ -7103,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
@@ -7112,10 +7234,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N124" s="2">
         <v>1</v>
@@ -7128,8 +7250,8 @@
       <c r="B125" s="2">
         <v>124</v>
       </c>
-      <c r="C125" s="15" t="s">
-        <v>458</v>
+      <c r="C125" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="D125" s="2">
         <v>-1</v>
@@ -7138,7 +7260,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
@@ -7147,10 +7269,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N125" s="2">
         <v>1</v>
@@ -7163,8 +7285,8 @@
       <c r="B126" s="2">
         <v>125</v>
       </c>
-      <c r="C126" s="15" t="s">
-        <v>459</v>
+      <c r="C126" s="14" t="s">
+        <v>460</v>
       </c>
       <c r="D126" s="2">
         <v>-1</v>
@@ -7173,7 +7295,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -7182,10 +7304,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N126" s="2">
         <v>1</v>
@@ -7198,8 +7320,8 @@
       <c r="B127" s="2">
         <v>126</v>
       </c>
-      <c r="C127" s="15" t="s">
-        <v>460</v>
+      <c r="C127" s="14" t="s">
+        <v>461</v>
       </c>
       <c r="D127" s="2">
         <v>-1</v>
@@ -7208,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -7217,10 +7339,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N127" s="2">
         <v>1</v>
@@ -7233,8 +7355,8 @@
       <c r="B128" s="2">
         <v>127</v>
       </c>
-      <c r="C128" s="15" t="s">
-        <v>461</v>
+      <c r="C128" s="14" t="s">
+        <v>462</v>
       </c>
       <c r="D128" s="2">
         <v>-1</v>
@@ -7243,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
@@ -7252,10 +7374,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N128" s="2">
         <v>1</v>
@@ -7268,8 +7390,8 @@
       <c r="B129" s="2">
         <v>128</v>
       </c>
-      <c r="C129" s="15" t="s">
-        <v>462</v>
+      <c r="C129" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="D129" s="2">
         <v>-1</v>
@@ -7278,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
@@ -7287,10 +7409,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N129" s="2">
         <v>1</v>
@@ -7303,8 +7425,8 @@
       <c r="B130" s="2">
         <v>129</v>
       </c>
-      <c r="C130" s="15" t="s">
-        <v>463</v>
+      <c r="C130" s="14" t="s">
+        <v>464</v>
       </c>
       <c r="D130" s="2">
         <v>-1</v>
@@ -7313,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
@@ -7322,10 +7444,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N130" s="2">
         <v>1</v>
@@ -7338,8 +7460,8 @@
       <c r="B131" s="2">
         <v>130</v>
       </c>
-      <c r="C131" s="15" t="s">
-        <v>466</v>
+      <c r="C131" s="14" t="s">
+        <v>467</v>
       </c>
       <c r="D131" s="2">
         <v>-1</v>
@@ -7348,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G131" s="2">
         <v>0</v>
@@ -7357,10 +7479,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -7371,7 +7493,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D132" s="2">
         <v>-1</v>
@@ -7380,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G132" s="2">
         <v>0</v>
@@ -7389,10 +7511,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -7403,7 +7525,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D133" s="2">
         <v>-1</v>
@@ -7412,7 +7534,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G133" s="2">
         <v>0</v>
@@ -7421,10 +7543,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -7435,7 +7557,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D134" s="2">
         <v>-1</v>
@@ -7444,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G134" s="2">
         <v>0</v>
@@ -7453,10 +7575,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -7467,7 +7589,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D135" s="2">
         <v>-1</v>
@@ -7476,7 +7598,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G135" s="2">
         <v>0</v>
@@ -7485,10 +7607,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -7499,7 +7621,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D136" s="2">
         <v>-1</v>
@@ -7508,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G136" s="2">
         <v>0</v>
@@ -7517,10 +7639,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -7531,7 +7653,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D137" s="2">
         <v>-1</v>
@@ -7540,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G137" s="2">
         <v>0</v>
@@ -7549,10 +7671,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -7563,7 +7685,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D138" s="2">
         <v>-1</v>
@@ -7572,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -7581,10 +7703,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -7595,7 +7717,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D139" s="2">
         <v>-1</v>
@@ -7604,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -7613,10 +7735,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -7627,7 +7749,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D140" s="2">
         <v>-1</v>
@@ -7645,10 +7767,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -7659,7 +7781,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D141" s="2">
         <v>-1</v>
@@ -7668,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -7677,10 +7799,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -7691,7 +7813,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D142" s="2">
         <v>-1</v>
@@ -7700,7 +7822,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -7709,10 +7831,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -7723,7 +7845,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D143" s="2">
         <v>-1</v>
@@ -7732,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -7741,10 +7863,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -7755,7 +7877,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D144" s="2">
         <v>-1</v>
@@ -7764,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -7773,10 +7895,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -7787,7 +7909,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D145" s="2">
         <v>-1</v>
@@ -7796,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -7805,10 +7927,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="146" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7818,8 +7940,8 @@
       <c r="B146" s="11">
         <v>145</v>
       </c>
-      <c r="C146" s="20" t="s">
-        <v>545</v>
+      <c r="C146" s="19" t="s">
+        <v>546</v>
       </c>
       <c r="D146" s="11">
         <v>-1</v>
@@ -7828,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G146" s="11">
         <v>0</v>
@@ -7837,10 +7959,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="J146" s="23" t="s">
         <v>522</v>
+      </c>
+      <c r="J146" s="21" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="147" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7850,8 +7972,8 @@
       <c r="B147" s="11">
         <v>146</v>
       </c>
-      <c r="C147" s="20" t="s">
-        <v>523</v>
+      <c r="C147" s="19" t="s">
+        <v>524</v>
       </c>
       <c r="D147" s="11">
         <v>-1</v>
@@ -7869,10 +7991,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="J147" s="23" t="s">
         <v>525</v>
+      </c>
+      <c r="J147" s="21" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7882,8 +8004,8 @@
       <c r="B148" s="11">
         <v>147</v>
       </c>
-      <c r="C148" s="20" t="s">
-        <v>546</v>
+      <c r="C148" s="19" t="s">
+        <v>547</v>
       </c>
       <c r="D148" s="11">
         <v>-1</v>
@@ -7892,7 +8014,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G148" s="11">
         <v>0</v>
@@ -7901,10 +8023,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="J148" s="23" t="s">
         <v>528</v>
+      </c>
+      <c r="J148" s="21" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="149" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7914,8 +8036,8 @@
       <c r="B149" s="11">
         <v>148</v>
       </c>
-      <c r="C149" s="20" t="s">
-        <v>529</v>
+      <c r="C149" s="19" t="s">
+        <v>530</v>
       </c>
       <c r="D149" s="11">
         <v>-1</v>
@@ -7924,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G149" s="11">
         <v>0</v>
@@ -7933,10 +8055,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="J149" s="23" t="s">
         <v>531</v>
+      </c>
+      <c r="J149" s="21" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="150" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7946,8 +8068,8 @@
       <c r="B150" s="11">
         <v>149</v>
       </c>
-      <c r="C150" s="20" t="s">
-        <v>532</v>
+      <c r="C150" s="19" t="s">
+        <v>533</v>
       </c>
       <c r="D150" s="11">
         <v>-1</v>
@@ -7965,10 +8087,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="J150" s="23" t="s">
         <v>534</v>
+      </c>
+      <c r="J150" s="21" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="151" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7978,8 +8100,8 @@
       <c r="B151" s="11">
         <v>150</v>
       </c>
-      <c r="C151" s="20" t="s">
-        <v>535</v>
+      <c r="C151" s="19" t="s">
+        <v>536</v>
       </c>
       <c r="D151" s="11">
         <v>-1</v>
@@ -7988,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G151" s="11">
         <v>0</v>
@@ -7997,10 +8119,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="J151" s="23" t="s">
         <v>538</v>
+      </c>
+      <c r="J151" s="21" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="152" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8010,8 +8132,8 @@
       <c r="B152" s="11">
         <v>151</v>
       </c>
-      <c r="C152" s="20" t="s">
-        <v>547</v>
+      <c r="C152" s="19" t="s">
+        <v>548</v>
       </c>
       <c r="D152" s="11">
         <v>-1</v>
@@ -8020,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G152" s="11">
         <v>0</v>
@@ -8029,10 +8151,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="J152" s="23" t="s">
-        <v>544</v>
+        <v>531</v>
+      </c>
+      <c r="J152" s="21" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="153" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8042,8 +8164,8 @@
       <c r="B153" s="11">
         <v>152</v>
       </c>
-      <c r="C153" s="20" t="s">
-        <v>540</v>
+      <c r="C153" s="19" t="s">
+        <v>541</v>
       </c>
       <c r="D153" s="11">
         <v>-1</v>
@@ -8061,10 +8183,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="J153" s="23" t="s">
-        <v>543</v>
+        <v>534</v>
+      </c>
+      <c r="J153" s="21" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="154" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8074,8 +8196,8 @@
       <c r="B154" s="11">
         <v>153</v>
       </c>
-      <c r="C154" s="20" t="s">
-        <v>541</v>
+      <c r="C154" s="19" t="s">
+        <v>542</v>
       </c>
       <c r="D154" s="11">
         <v>-1</v>
@@ -8084,7 +8206,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G154" s="11">
         <v>0</v>
@@ -8093,10 +8215,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="J154" s="23" t="s">
-        <v>542</v>
+        <v>528</v>
+      </c>
+      <c r="J154" s="21" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="155" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -8107,7 +8229,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D155" s="11">
         <v>-1</v>
@@ -8116,7 +8238,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G155" s="11">
         <v>0</v>
@@ -8128,7 +8250,7 @@
         <v>428</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="156" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8138,8 +8260,8 @@
       <c r="B156" s="11">
         <v>155</v>
       </c>
-      <c r="C156" s="20" t="s">
-        <v>552</v>
+      <c r="C156" s="19" t="s">
+        <v>553</v>
       </c>
       <c r="D156" s="11">
         <v>-1</v>
@@ -8148,7 +8270,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G156" s="11">
         <v>0</v>
@@ -8157,10 +8279,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="12" t="s">
-        <v>553</v>
-      </c>
-      <c r="J156" s="23" t="s">
         <v>554</v>
+      </c>
+      <c r="J156" s="21" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="157" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8170,7 +8292,7 @@
       <c r="B157" s="11">
         <v>156</v>
       </c>
-      <c r="C157" s="24" t="s">
+      <c r="C157" s="22" t="s">
         <v>573</v>
       </c>
       <c r="D157" s="11">
@@ -8205,7 +8327,7 @@
       <c r="B158" s="11">
         <v>157</v>
       </c>
-      <c r="C158" s="24" t="s">
+      <c r="C158" s="22" t="s">
         <v>559</v>
       </c>
       <c r="D158" s="11">
@@ -8240,7 +8362,7 @@
       <c r="B159" s="11">
         <v>158</v>
       </c>
-      <c r="C159" s="24" t="s">
+      <c r="C159" s="22" t="s">
         <v>560</v>
       </c>
       <c r="D159" s="11">
@@ -8275,8 +8397,8 @@
       <c r="B160" s="11">
         <v>159</v>
       </c>
-      <c r="C160" s="24" t="s">
-        <v>556</v>
+      <c r="C160" s="22" t="s">
+        <v>611</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -8285,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>577</v>
+        <v>621</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -8294,21 +8416,24 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>564</v>
+        <v>625</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="L160" s="12" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="11">
         <v>160</v>
       </c>
       <c r="B161" s="11">
         <v>160</v>
       </c>
-      <c r="C161" s="24" t="s">
-        <v>557</v>
+      <c r="C161" s="22" t="s">
+        <v>612</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -8317,7 +8442,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>578</v>
+        <v>622</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -8326,21 +8451,24 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+      <c r="L161" s="12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="11">
         <v>161</v>
       </c>
       <c r="B162" s="11">
         <v>161</v>
       </c>
-      <c r="C162" s="24" t="s">
-        <v>558</v>
+      <c r="C162" s="22" t="s">
+        <v>636</v>
       </c>
       <c r="D162" s="11">
         <v>-1</v>
@@ -8349,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G162" s="11">
         <v>1</v>
@@ -8358,21 +8486,21 @@
         <v>34</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="11">
         <v>162</v>
       </c>
       <c r="B163" s="11">
         <v>162</v>
       </c>
-      <c r="C163" s="24" t="s">
-        <v>561</v>
+      <c r="C163" s="22" t="s">
+        <v>557</v>
       </c>
       <c r="D163" s="11">
         <v>-1</v>
@@ -8381,7 +8509,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G163" s="11">
         <v>1</v>
@@ -8390,21 +8518,21 @@
         <v>34</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="11">
         <v>163</v>
       </c>
       <c r="B164" s="11">
         <v>163</v>
       </c>
-      <c r="C164" s="24" t="s">
-        <v>562</v>
+      <c r="C164" s="22" t="s">
+        <v>558</v>
       </c>
       <c r="D164" s="11">
         <v>-1</v>
@@ -8413,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G164" s="11">
         <v>1</v>
@@ -8422,21 +8550,21 @@
         <v>34</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="11">
         <v>164</v>
       </c>
       <c r="B165" s="11">
         <v>164</v>
       </c>
-      <c r="C165" s="24" t="s">
-        <v>563</v>
+      <c r="C165" s="22" t="s">
+        <v>613</v>
       </c>
       <c r="D165" s="11">
         <v>-1</v>
@@ -8445,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="G165" s="11">
         <v>1</v>
@@ -8454,145 +8582,459 @@
         <v>34</v>
       </c>
       <c r="I165" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="J165" s="12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="11">
+        <v>165</v>
+      </c>
+      <c r="B166" s="11">
+        <v>165</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="D166" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="11">
+        <v>1</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="G166" s="11">
+        <v>1</v>
+      </c>
+      <c r="H166" s="11">
+        <v>34</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="J166" s="12" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A167" s="11">
+        <v>166</v>
+      </c>
+      <c r="B167" s="11">
+        <v>166</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="D167" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E167" s="11">
+        <v>1</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="G167" s="11">
+        <v>1</v>
+      </c>
+      <c r="H167" s="11">
+        <v>34</v>
+      </c>
+      <c r="I167" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="J167" s="12" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A168" s="11">
+        <v>167</v>
+      </c>
+      <c r="B168" s="11">
+        <v>167</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="D168" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E168" s="11">
+        <v>1</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="G168" s="11">
+        <v>1</v>
+      </c>
+      <c r="H168" s="11">
+        <v>34</v>
+      </c>
+      <c r="I168" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="J168" s="12" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A169" s="11">
+        <v>168</v>
+      </c>
+      <c r="B169" s="11">
+        <v>168</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="D169" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E169" s="11">
+        <v>1</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="G169" s="11">
+        <v>1</v>
+      </c>
+      <c r="H169" s="11">
+        <v>34</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="J169" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="J165" s="12" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="13">
-        <v>165</v>
-      </c>
-      <c r="B166" s="13">
-        <v>165</v>
-      </c>
-      <c r="C166" s="22" t="s">
+    </row>
+    <row r="170" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A170" s="11">
+        <v>169</v>
+      </c>
+      <c r="B170" s="11">
+        <v>169</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="D170" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E170" s="11">
+        <v>1</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="G170" s="11">
+        <v>1</v>
+      </c>
+      <c r="H170" s="11">
+        <v>34</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="J170" s="12" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A171" s="11">
+        <v>170</v>
+      </c>
+      <c r="B171" s="11">
+        <v>170</v>
+      </c>
+      <c r="C171" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="D171" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E171" s="11">
+        <v>1</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="G171" s="11">
+        <v>1</v>
+      </c>
+      <c r="H171" s="11">
+        <v>34</v>
+      </c>
+      <c r="I171" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="J171" s="12" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A172" s="11">
+        <v>171</v>
+      </c>
+      <c r="B172" s="11">
+        <v>171</v>
+      </c>
+      <c r="C172" s="22" t="s">
         <v>585</v>
       </c>
-      <c r="D166" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E166" s="13">
-        <v>1</v>
-      </c>
-      <c r="F166" s="14" t="s">
+      <c r="D172" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E172" s="11">
+        <v>1</v>
+      </c>
+      <c r="F172" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="G172" s="11">
+        <v>0</v>
+      </c>
+      <c r="H172" s="11">
+        <v>33</v>
+      </c>
+      <c r="I172" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="J172" s="12" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="11">
+        <v>172</v>
+      </c>
+      <c r="B173" s="11">
+        <v>172</v>
+      </c>
+      <c r="C173" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="G166" s="13">
+      <c r="D173" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E173" s="13">
+        <v>1</v>
+      </c>
+      <c r="F173" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="G173" s="13">
+        <v>1</v>
+      </c>
+      <c r="H173" s="13">
+        <v>33</v>
+      </c>
+      <c r="I173" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="J173" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="11">
+        <v>173</v>
+      </c>
+      <c r="B174" s="11">
+        <v>173</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="D174" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E174" s="13">
+        <v>1</v>
+      </c>
+      <c r="F174" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="G174" s="13">
+        <v>1</v>
+      </c>
+      <c r="H174" s="13">
+        <v>33</v>
+      </c>
+      <c r="I174" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="J174" s="13" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="11">
+        <v>174</v>
+      </c>
+      <c r="B175" s="11">
+        <v>174</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="D175" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E175" s="13">
+        <v>1</v>
+      </c>
+      <c r="F175" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="G175" s="13">
+        <v>1</v>
+      </c>
+      <c r="H175" s="13">
+        <v>33</v>
+      </c>
+      <c r="I175" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="J175" s="13" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A176" s="11">
+        <v>175</v>
+      </c>
+      <c r="B176" s="11">
+        <v>175</v>
+      </c>
+      <c r="C176" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D176" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="23">
+        <v>1</v>
+      </c>
+      <c r="F176" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="G176" s="23">
         <v>0</v>
       </c>
-      <c r="H166" s="13">
+      <c r="H176" s="23">
+        <v>36</v>
+      </c>
+      <c r="I176" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="J176" s="25" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A177" s="11">
+        <v>176</v>
+      </c>
+      <c r="B177" s="11">
+        <v>176</v>
+      </c>
+      <c r="C177" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="D177" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E177" s="23">
+        <v>1</v>
+      </c>
+      <c r="F177" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="G177" s="23">
+        <v>0</v>
+      </c>
+      <c r="H177" s="23">
+        <v>38</v>
+      </c>
+      <c r="I177" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="J177" s="25" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="11">
+        <v>177</v>
+      </c>
+      <c r="B178" s="11">
+        <v>177</v>
+      </c>
+      <c r="C178" s="27" t="s">
+        <v>606</v>
+      </c>
+      <c r="D178" s="26">
+        <v>-1</v>
+      </c>
+      <c r="E178" s="26">
+        <v>1</v>
+      </c>
+      <c r="F178" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="G178" s="26">
+        <v>0</v>
+      </c>
+      <c r="H178" s="26">
         <v>33</v>
       </c>
-      <c r="I166" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="J166" s="14" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="13">
-        <v>166</v>
-      </c>
-      <c r="B167" s="13">
-        <v>166</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="D167" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E167" s="13">
-        <v>1</v>
-      </c>
-      <c r="F167" s="13" t="s">
-        <v>592</v>
-      </c>
-      <c r="G167" s="13">
-        <v>1</v>
-      </c>
-      <c r="H167" s="13">
+      <c r="I178" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="J178" s="26" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="11">
+        <v>178</v>
+      </c>
+      <c r="B179" s="11">
+        <v>178</v>
+      </c>
+      <c r="C179" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="D179" s="28">
+        <v>-1</v>
+      </c>
+      <c r="E179" s="28">
+        <v>1</v>
+      </c>
+      <c r="F179" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="G179" s="28">
+        <v>0</v>
+      </c>
+      <c r="H179" s="28">
         <v>33</v>
       </c>
-      <c r="I167" s="13" t="s">
-        <v>593</v>
-      </c>
-      <c r="J167" s="13" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="13">
-        <v>167</v>
-      </c>
-      <c r="B168" s="13">
-        <v>167</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="D168" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E168" s="13">
-        <v>1</v>
-      </c>
-      <c r="F168" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="G168" s="13">
-        <v>1</v>
-      </c>
-      <c r="H168" s="13">
-        <v>33</v>
-      </c>
-      <c r="I168" s="13" t="s">
-        <v>597</v>
-      </c>
-      <c r="J168" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="13">
-        <v>168</v>
-      </c>
-      <c r="B169" s="13">
-        <v>168</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>599</v>
-      </c>
-      <c r="D169" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E169" s="13">
-        <v>1</v>
-      </c>
-      <c r="F169" s="13" t="s">
-        <v>600</v>
-      </c>
-      <c r="G169" s="13">
-        <v>1</v>
-      </c>
-      <c r="H169" s="13">
-        <v>33</v>
-      </c>
-      <c r="I169" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="J169" s="13" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C170" s="27"/>
-    </row>
-    <row r="171" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C171" s="26"/>
+      <c r="I179" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="J179" s="28" t="s">
+        <v>635</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="605">
   <si>
     <t>id|行号</t>
   </si>
@@ -1827,662 +1827,646 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>zpg_icon_shui</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于苹果大战种植</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于苹果大战种植</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpg_icon_yg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_3</t>
+  </si>
+  <si>
+    <t>zpg_icon_cc</t>
+  </si>
+  <si>
+    <t>铲子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_4</t>
+  </si>
+  <si>
+    <t>zpg_icon_sc</t>
+  </si>
+  <si>
+    <t>除虫剂</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_5</t>
+  </si>
+  <si>
+    <t>zpg_icon_fl</t>
+  </si>
+  <si>
+    <t>肥料</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_mfcjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_5y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_50flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_200flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_500flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_1000flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_50flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_200flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_500flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_1000flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_4</t>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠白银宝箱（免费小额用户，V1-V3用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠黄金宝箱（免费小额用户，V1-V3用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠钻石宝箱（免费小额用户，V1-V3用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠白银宝箱（V4-V7用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠黄金宝箱（V4-V7用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠钻石宝箱（V4-V7用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠白银宝箱（V8-V10用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠黄金宝箱（V8-V10用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠钻石宝箱（V8-V10用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_3</t>
+  </si>
+  <si>
+    <t>prop_cjlb_4</t>
+  </si>
+  <si>
+    <t>prop_cjlb_5</t>
+  </si>
+  <si>
+    <t>prop_cjlb_6</t>
+  </si>
+  <si>
+    <t>prop_cjlb_7</t>
+  </si>
+  <si>
+    <t>prop_cjlb_8</t>
+  </si>
+  <si>
+    <t>prop_cjlb_9</t>
+  </si>
+  <si>
+    <t>prop_xrcdj_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrcdj_2</t>
+  </si>
+  <si>
+    <t>prop_xrcdj_3</t>
+  </si>
+  <si>
+    <t>青铜抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的青铜抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的白银抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的黄金抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫七夕活动道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>_common_rank_true_love_026_rank</t>
+  </si>
+  <si>
+    <t>bblb_icon_xin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bblb_icon_xin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱排行榜积分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱排行榜积分道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xycd_icon_ty2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋活动道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xycd_sunshine</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>250福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加250福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加2500福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加25000福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加250000福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩礼包抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cwlb_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_031_aster</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆快乐活动掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_icon_xx2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_1</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_1</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_3</t>
+  </si>
+  <si>
+    <t>初级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cyj_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwzp_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_10</t>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_xrbx_1</t>
+  </si>
+  <si>
+    <t>新手宝箱</t>
+  </si>
+  <si>
+    <t>新人专享新手宝箱</t>
+  </si>
+  <si>
+    <t>prop_cjlb_11</t>
+  </si>
+  <si>
+    <t>act_033_xrzxlb_gjbx</t>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+  </si>
+  <si>
+    <t>新人专享高级宝箱</t>
+  </si>
+  <si>
+    <t>prop_cjlb_12</t>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_hhbx_1</t>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+  </si>
+  <si>
+    <t>新人专享豪华宝箱</t>
+  </si>
+  <si>
     <t>prop_guess_apple_bet_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>zpg_icon_shui</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>水滴</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于苹果大战种植</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于苹果大战种植</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>zpg_icon_yg</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_3</t>
-  </si>
-  <si>
-    <t>zpg_icon_cc</t>
-  </si>
-  <si>
-    <t>铲子</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_4</t>
-  </si>
-  <si>
-    <t>zpg_icon_sc</t>
-  </si>
-  <si>
-    <t>除虫剂</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_5</t>
-  </si>
-  <si>
-    <t>zpg_icon_fl</t>
-  </si>
-  <si>
-    <t>肥料</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_mfcjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_5y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_50flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_200flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_500flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_1000flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_50flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_200flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_500flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_1000flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_4</t>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠白银宝箱（免费小额用户，V1-V3用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠黄金宝箱（免费小额用户，V1-V3用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠钻石宝箱（免费小额用户，V1-V3用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠白银宝箱（V4-V7用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠黄金宝箱（V4-V7用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠钻石宝箱（V4-V7用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠白银宝箱（V8-V10用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠黄金宝箱（V8-V10用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠钻石宝箱（V8-V10用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_3</t>
-  </si>
-  <si>
-    <t>prop_cjlb_4</t>
-  </si>
-  <si>
-    <t>prop_cjlb_5</t>
-  </si>
-  <si>
-    <t>prop_cjlb_6</t>
-  </si>
-  <si>
-    <t>prop_cjlb_7</t>
-  </si>
-  <si>
-    <t>prop_cjlb_8</t>
-  </si>
-  <si>
-    <t>prop_cjlb_9</t>
-  </si>
-  <si>
-    <t>prop_xrcdj_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xrcdj_2</t>
-  </si>
-  <si>
-    <t>prop_xrcdj_3</t>
-  </si>
-  <si>
-    <t>青铜抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于新人抽大奖中的青铜抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于新人抽大奖中的白银抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于新人抽大奖中的黄金抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱心</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪漫七夕活动道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>_common_rank_true_love_026_rank</t>
-  </si>
-  <si>
-    <t>bblb_icon_xin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bblb_icon_xin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>真爱排行榜积分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>真爱排行榜积分道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xycd_icon_ty2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩蛋活动道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xycd_sunshine</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>250福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>25000福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加250福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加2500福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加25000福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加250000福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>银锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>银锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>畅玩礼包抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cwlb_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_031_aster</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆快乐活动掉落</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_icon_xx2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_1</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_3</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_1</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_3</t>
-  </si>
-  <si>
-    <t>初级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_3_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_3_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳节抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳节抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cyj_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwzp_icon_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_10</t>
-  </si>
-  <si>
-    <t>xrzxlb_iocn_xrbx_1</t>
-  </si>
-  <si>
-    <t>新手宝箱</t>
-  </si>
-  <si>
-    <t>新人专享新手宝箱</t>
-  </si>
-  <si>
-    <t>prop_cjlb_11</t>
-  </si>
-  <si>
-    <t>act_033_xrzxlb_gjbx</t>
-  </si>
-  <si>
-    <t>高级宝箱</t>
-  </si>
-  <si>
-    <t>新人专享高级宝箱</t>
-  </si>
-  <si>
-    <t>prop_cjlb_12</t>
-  </si>
-  <si>
-    <t>xrzxlb_iocn_hhbx_1</t>
-  </si>
-  <si>
-    <t>豪华宝箱</t>
-  </si>
-  <si>
-    <t>新人专享豪华宝箱</t>
-  </si>
-  <si>
-    <t>prop_guess_apple_cz</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_sd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldfd_icon_shui</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldfd_zpg_icon_cc</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2490,7 +2474,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2560,8 +2544,22 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2583,12 +2581,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2635,7 +2627,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2711,13 +2703,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3001,8 +2990,8 @@
   <dimension ref="A1:Q171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G176" sqref="G176"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3982,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4305,7 +4294,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D43" s="2">
         <v>-1</v>
@@ -5309,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -5591,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -6867,16 +6856,16 @@
         <v>116</v>
       </c>
       <c r="C117" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="D117" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="D117" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G117" s="2">
         <v>0</v>
@@ -6885,10 +6874,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -6901,16 +6890,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="D118" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="D118" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E118" s="2">
-        <v>1</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="G118" s="2">
         <v>0</v>
@@ -6919,10 +6908,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6933,16 +6922,16 @@
         <v>118</v>
       </c>
       <c r="C119" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="D119" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="D119" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
@@ -6951,10 +6940,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6965,16 +6954,16 @@
         <v>119</v>
       </c>
       <c r="C120" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D120" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="D120" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
@@ -6983,10 +6972,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6997,16 +6986,16 @@
         <v>120</v>
       </c>
       <c r="C121" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D121" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="D121" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E121" s="2">
-        <v>1</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -7015,10 +7004,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7029,16 +7018,16 @@
         <v>121</v>
       </c>
       <c r="C122" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D122" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="D122" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
@@ -7047,10 +7036,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7061,7 +7050,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D123" s="2">
         <v>-1</v>
@@ -7070,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
@@ -7079,10 +7068,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N123" s="2">
         <v>1</v>
@@ -7096,7 +7085,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D124" s="2">
         <v>-1</v>
@@ -7105,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
@@ -7114,10 +7103,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N124" s="2">
         <v>1</v>
@@ -7131,7 +7120,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D125" s="2">
         <v>-1</v>
@@ -7140,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
@@ -7149,10 +7138,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N125" s="2">
         <v>1</v>
@@ -7166,7 +7155,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D126" s="2">
         <v>-1</v>
@@ -7175,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -7184,10 +7173,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N126" s="2">
         <v>1</v>
@@ -7201,7 +7190,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D127" s="2">
         <v>-1</v>
@@ -7210,7 +7199,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -7219,10 +7208,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N127" s="2">
         <v>1</v>
@@ -7236,7 +7225,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D128" s="2">
         <v>-1</v>
@@ -7245,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
@@ -7254,10 +7243,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N128" s="2">
         <v>1</v>
@@ -7271,7 +7260,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D129" s="2">
         <v>-1</v>
@@ -7280,7 +7269,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
@@ -7289,10 +7278,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N129" s="2">
         <v>1</v>
@@ -7306,7 +7295,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D130" s="2">
         <v>-1</v>
@@ -7315,7 +7304,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
@@ -7324,10 +7313,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N130" s="2">
         <v>1</v>
@@ -7341,7 +7330,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D131" s="2">
         <v>-1</v>
@@ -7350,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G131" s="2">
         <v>0</v>
@@ -7359,10 +7348,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="J131" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -7373,7 +7362,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D132" s="2">
         <v>-1</v>
@@ -7382,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G132" s="2">
         <v>0</v>
@@ -7391,10 +7380,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="J132" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="J132" s="5" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -7405,7 +7394,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D133" s="2">
         <v>-1</v>
@@ -7414,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G133" s="2">
         <v>0</v>
@@ -7423,10 +7412,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -7437,7 +7426,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D134" s="2">
         <v>-1</v>
@@ -7446,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G134" s="2">
         <v>0</v>
@@ -7455,10 +7444,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -7469,7 +7458,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D135" s="2">
         <v>-1</v>
@@ -7478,7 +7467,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G135" s="2">
         <v>0</v>
@@ -7487,10 +7476,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -7501,7 +7490,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D136" s="2">
         <v>-1</v>
@@ -7510,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G136" s="2">
         <v>0</v>
@@ -7519,10 +7508,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -7533,7 +7522,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D137" s="2">
         <v>-1</v>
@@ -7542,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G137" s="2">
         <v>0</v>
@@ -7551,10 +7540,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -7565,7 +7554,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D138" s="2">
         <v>-1</v>
@@ -7574,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -7583,10 +7572,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -7597,7 +7586,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D139" s="2">
         <v>-1</v>
@@ -7606,7 +7595,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -7615,10 +7604,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -7629,7 +7618,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D140" s="2">
         <v>-1</v>
@@ -7647,10 +7636,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -7661,7 +7650,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D141" s="2">
         <v>-1</v>
@@ -7670,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -7679,10 +7668,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -7693,7 +7682,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D142" s="2">
         <v>-1</v>
@@ -7702,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -7711,10 +7700,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -7725,7 +7714,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D143" s="2">
         <v>-1</v>
@@ -7734,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -7743,10 +7732,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -7757,7 +7746,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D144" s="2">
         <v>-1</v>
@@ -7766,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -7775,10 +7764,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="J144" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="J144" s="5" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -7789,7 +7778,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D145" s="2">
         <v>-1</v>
@@ -7798,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -7807,10 +7796,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="J145" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="J145" s="5" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="146" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7821,7 +7810,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D146" s="11">
         <v>-1</v>
@@ -7830,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G146" s="11">
         <v>0</v>
@@ -7839,10 +7828,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="J146" s="23" t="s">
         <v>523</v>
-      </c>
-      <c r="J146" s="23" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="147" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7853,7 +7842,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D147" s="11">
         <v>-1</v>
@@ -7862,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G147" s="11">
         <v>0</v>
@@ -7871,10 +7860,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="J147" s="23" t="s">
         <v>526</v>
-      </c>
-      <c r="J147" s="23" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="148" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7885,7 +7874,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D148" s="11">
         <v>-1</v>
@@ -7894,7 +7883,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G148" s="11">
         <v>0</v>
@@ -7903,10 +7892,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="J148" s="23" t="s">
         <v>529</v>
-      </c>
-      <c r="J148" s="23" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="149" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7917,7 +7906,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D149" s="11">
         <v>-1</v>
@@ -7926,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G149" s="11">
         <v>0</v>
@@ -7935,10 +7924,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="J149" s="23" t="s">
         <v>532</v>
-      </c>
-      <c r="J149" s="23" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="150" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7949,7 +7938,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D150" s="11">
         <v>-1</v>
@@ -7958,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G150" s="11">
         <v>0</v>
@@ -7967,10 +7956,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="J150" s="23" t="s">
         <v>535</v>
-      </c>
-      <c r="J150" s="23" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="151" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7981,16 +7970,16 @@
         <v>150</v>
       </c>
       <c r="C151" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="D151" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="11">
+        <v>1</v>
+      </c>
+      <c r="F151" s="12" t="s">
         <v>537</v>
-      </c>
-      <c r="D151" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E151" s="11">
-        <v>1</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>538</v>
       </c>
       <c r="G151" s="11">
         <v>0</v>
@@ -7999,10 +7988,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="J151" s="23" t="s">
         <v>539</v>
-      </c>
-      <c r="J151" s="23" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="152" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8013,7 +8002,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D152" s="11">
         <v>-1</v>
@@ -8022,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G152" s="11">
         <v>0</v>
@@ -8031,10 +8020,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J152" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="153" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8045,7 +8034,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D153" s="11">
         <v>-1</v>
@@ -8054,7 +8043,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G153" s="11">
         <v>0</v>
@@ -8063,10 +8052,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J153" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="154" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8077,7 +8066,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D154" s="11">
         <v>-1</v>
@@ -8086,7 +8075,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G154" s="11">
         <v>0</v>
@@ -8095,10 +8084,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J154" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="155" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -8109,16 +8098,16 @@
         <v>154</v>
       </c>
       <c r="C155" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="D155" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="11">
+        <v>1</v>
+      </c>
+      <c r="F155" s="12" t="s">
         <v>552</v>
-      </c>
-      <c r="D155" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E155" s="11">
-        <v>1</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>553</v>
       </c>
       <c r="G155" s="11">
         <v>0</v>
@@ -8130,7 +8119,7 @@
         <v>429</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="156" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8141,7 +8130,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D156" s="11">
         <v>-1</v>
@@ -8150,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G156" s="11">
         <v>0</v>
@@ -8159,10 +8148,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="J156" s="23" t="s">
         <v>555</v>
-      </c>
-      <c r="J156" s="23" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="157" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8173,7 +8162,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D157" s="11">
         <v>-1</v>
@@ -8182,7 +8171,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G157" s="11">
         <v>1</v>
@@ -8191,13 +8180,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="158" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8208,7 +8197,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D158" s="11">
         <v>-1</v>
@@ -8217,7 +8206,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G158" s="11">
         <v>1</v>
@@ -8226,13 +8215,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="159" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8243,7 +8232,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="24" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D159" s="11">
         <v>-1</v>
@@ -8252,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G159" s="11">
         <v>1</v>
@@ -8261,13 +8250,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="160" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8278,7 +8267,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -8287,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -8296,10 +8285,10 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="161" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8310,7 +8299,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -8319,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -8328,10 +8317,10 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="162" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8342,7 +8331,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D162" s="11">
         <v>-1</v>
@@ -8351,7 +8340,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G162" s="11">
         <v>1</v>
@@ -8360,10 +8349,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="163" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8374,7 +8363,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D163" s="11">
         <v>-1</v>
@@ -8383,7 +8372,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G163" s="11">
         <v>1</v>
@@ -8392,10 +8381,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="164" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8406,7 +8395,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D164" s="11">
         <v>-1</v>
@@ -8415,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G164" s="11">
         <v>1</v>
@@ -8424,10 +8413,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="165" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8438,7 +8427,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D165" s="11">
         <v>-1</v>
@@ -8447,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G165" s="11">
         <v>1</v>
@@ -8456,10 +8445,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:10" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8470,7 +8459,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D166" s="13">
         <v>-1</v>
@@ -8479,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G166" s="13">
         <v>0</v>
@@ -8488,10 +8477,10 @@
         <v>33</v>
       </c>
       <c r="I166" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="J166" s="14" t="s">
         <v>585</v>
-      </c>
-      <c r="J166" s="14" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="167" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8502,16 +8491,16 @@
         <v>166</v>
       </c>
       <c r="C167" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="D167" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E167" s="13">
+        <v>1</v>
+      </c>
+      <c r="F167" s="13" t="s">
         <v>593</v>
-      </c>
-      <c r="D167" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E167" s="13">
-        <v>1</v>
-      </c>
-      <c r="F167" s="13" t="s">
-        <v>594</v>
       </c>
       <c r="G167" s="13">
         <v>1</v>
@@ -8520,10 +8509,10 @@
         <v>33</v>
       </c>
       <c r="I167" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="J167" s="13" t="s">
         <v>595</v>
-      </c>
-      <c r="J167" s="13" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="168" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8534,16 +8523,16 @@
         <v>167</v>
       </c>
       <c r="C168" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D168" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E168" s="13">
+        <v>1</v>
+      </c>
+      <c r="F168" s="13" t="s">
         <v>597</v>
-      </c>
-      <c r="D168" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E168" s="13">
-        <v>1</v>
-      </c>
-      <c r="F168" s="13" t="s">
-        <v>598</v>
       </c>
       <c r="G168" s="13">
         <v>1</v>
@@ -8552,10 +8541,10 @@
         <v>33</v>
       </c>
       <c r="I168" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="J168" s="13" t="s">
         <v>599</v>
-      </c>
-      <c r="J168" s="13" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="169" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8566,16 +8555,16 @@
         <v>168</v>
       </c>
       <c r="C169" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="D169" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E169" s="13">
+        <v>1</v>
+      </c>
+      <c r="F169" s="13" t="s">
         <v>601</v>
-      </c>
-      <c r="D169" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E169" s="13">
-        <v>1</v>
-      </c>
-      <c r="F169" s="13" t="s">
-        <v>602</v>
       </c>
       <c r="G169" s="13">
         <v>1</v>
@@ -8584,75 +8573,17 @@
         <v>33</v>
       </c>
       <c r="I169" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="J169" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="J169" s="13" t="s">
-        <v>604</v>
-      </c>
     </row>
     <row r="170" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="25">
-        <v>169</v>
-      </c>
-      <c r="B170" s="25">
-        <v>169</v>
-      </c>
-      <c r="C170" s="26" t="s">
-        <v>606</v>
-      </c>
-      <c r="D170" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E170" s="25">
-        <v>1</v>
-      </c>
-      <c r="F170" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="G170" s="25">
-        <v>0</v>
-      </c>
-      <c r="H170" s="25">
-        <v>36</v>
-      </c>
-      <c r="I170" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="J170" s="27" t="s">
-        <v>439</v>
-      </c>
+      <c r="C170" s="26"/>
     </row>
     <row r="171" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="25">
-        <v>170</v>
-      </c>
-      <c r="B171" s="25">
-        <v>170</v>
-      </c>
-      <c r="C171" s="26" t="s">
-        <v>605</v>
-      </c>
-      <c r="D171" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E171" s="25">
-        <v>1</v>
-      </c>
-      <c r="F171" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="G171" s="25">
-        <v>0</v>
-      </c>
-      <c r="H171" s="25">
-        <v>38</v>
-      </c>
-      <c r="I171" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="J171" s="27" t="s">
-        <v>439</v>
-      </c>
+      <c r="C171" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="776">
   <si>
     <t>id|行号</t>
   </si>
@@ -1484,805 +1484,1234 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>obj_fish_3d_free_bullet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_power_bullet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_crit_bullet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_time_free_power_bullet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_laser_bullet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_quick_shoot</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_drill_bullet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费子弹-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级火力-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍时刻-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超速子弹-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻头弹-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费超级火力-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_bd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_sd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利额度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_hytb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活跃度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常活跃</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于小游戏消耗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_zs_30y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_ctgd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_ctgd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_zh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytx_zt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_danmf2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_danmf2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_sbsk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_sbsk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_cjhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_zt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_jg_skill</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_dan_bs08</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日福利券额度</t>
+  </si>
+  <si>
+    <t>宝箱可随机开出1000-15万金币。使用时间：2019年11月5日7:30至2019年11月11日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_secondary_bomb_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bymatch_game_btn_xbz</t>
+  </si>
+  <si>
+    <t>原子弹-浅水湾</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_super_bomb_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bymatch_game_btn_dbz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级原子弹-浅水湾</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_secondary_bomb_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子弹-深海寻宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_super_bomb_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级原子弹-深海寻宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_secondary_bomb_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子弹-地底遗迹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_super_bomb_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级原子弹-地底遗迹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅给与徒弟的免费激励宝箱可随机开出1000-15万金币。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅给与徒弟的激励宝箱可随机开出1000-15万金币。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年1月24日-2月8日可开启宝箱，最多可获得10万金币。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费子弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级火力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍时刻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超速子弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻头弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费超级火力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_pierce_bullet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_summon_fish</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_lock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_frozen</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_frozen</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_flqcj","panel",1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpg_icon_shui</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于苹果大战种植</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于苹果大战种植</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpg_icon_yg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_3</t>
+  </si>
+  <si>
+    <t>zpg_icon_cc</t>
+  </si>
+  <si>
+    <t>铲子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_4</t>
+  </si>
+  <si>
+    <t>zpg_icon_sc</t>
+  </si>
+  <si>
+    <t>除虫剂</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_5</t>
+  </si>
+  <si>
+    <t>zpg_icon_fl</t>
+  </si>
+  <si>
+    <t>肥料</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_mfcjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_5y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_50flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_200flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_500flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_1000flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_50flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_200flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_500flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_1000flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_4</t>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠白银宝箱（免费小额用户，V1-V3用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠黄金宝箱（免费小额用户，V1-V3用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠钻石宝箱（免费小额用户，V1-V3用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠白银宝箱（V4-V7用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠黄金宝箱（V4-V7用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠钻石宝箱（V4-V7用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠白银宝箱（V8-V10用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠黄金宝箱（V8-V10用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠钻石宝箱（V8-V10用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_3</t>
+  </si>
+  <si>
+    <t>prop_cjlb_4</t>
+  </si>
+  <si>
+    <t>prop_cjlb_5</t>
+  </si>
+  <si>
+    <t>prop_cjlb_6</t>
+  </si>
+  <si>
+    <t>prop_cjlb_7</t>
+  </si>
+  <si>
+    <t>prop_cjlb_8</t>
+  </si>
+  <si>
+    <t>prop_cjlb_9</t>
+  </si>
+  <si>
+    <t>prop_xrcdj_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrcdj_2</t>
+  </si>
+  <si>
+    <t>prop_xrcdj_3</t>
+  </si>
+  <si>
+    <t>青铜抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的青铜抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的白银抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的黄金抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫七夕活动道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>_common_rank_true_love_026_rank</t>
+  </si>
+  <si>
+    <t>bblb_icon_xin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bblb_icon_xin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱排行榜积分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱排行榜积分道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xycd_icon_ty2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋活动道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xycd_sunshine</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>250福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加250福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加2500福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加25000福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加250000福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩礼包抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cwlb_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_031_aster</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆快乐活动掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_icon_xx2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_1</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_3</t>
+  </si>
+  <si>
+    <t>初级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cyj_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_10</t>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_xrbx_1</t>
+  </si>
+  <si>
+    <t>新手宝箱</t>
+  </si>
+  <si>
+    <t>新人专享新手宝箱</t>
+  </si>
+  <si>
+    <t>prop_cjlb_11</t>
+  </si>
+  <si>
+    <t>act_033_xrzxlb_gjbx</t>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+  </si>
+  <si>
+    <t>新人专享高级宝箱</t>
+  </si>
+  <si>
+    <t>prop_cjlb_12</t>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_hhbx_1</t>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+  </si>
+  <si>
+    <t>新人专享豪华宝箱</t>
+  </si>
+  <si>
+    <t>prop_11.11_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwzp_icon_cjq</t>
+  </si>
+  <si>
+    <t>cwzp_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一抽奖券</t>
+  </si>
+  <si>
+    <t>双十一抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_5</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_4</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_5</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_4</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_5</t>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_4_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_5_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_4_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_5_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_4_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_5_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_1000114</t>
+  </si>
+  <si>
+    <t>ty_icon_hytb</t>
+  </si>
+  <si>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>新人七天乐积分</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_accelerate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_wild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_doubled</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>以1.5倍的速度进行发炮，持续15秒。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼将获得双倍奖励，同时会提升消耗，持续15秒。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹获得双倍威力，同时会提升消耗，持续15秒。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_jb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_js</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_kb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩节火鸡道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩节稀有</t>
+  </si>
+  <si>
+    <t>感恩节史诗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩节传说</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hjhhl_iocn_jt</t>
+  </si>
+  <si>
+    <t>火鸡掉落物</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gej_ss</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gej_hj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gej_xy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>eznhk_icon_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>eznhk_icon_4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>stgc_icon_bx2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_036_gelb","prop_gej_xy"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_036_gelb","prop_gej_ss"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_036_gelb","prop_gej_cs"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>tag|二进制
 1 大厅背包 
 2 捕鱼自由场背包
 4 捕鱼比赛场背包
 8 捕鱼3D自由场背包
+16 水族馆道具背包
 都显示相加即可</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>obj_fish_3d_free_bullet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_power_bullet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_crit_bullet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_time_free_power_bullet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_laser_bullet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_quick_shoot</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_drill_bullet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费子弹-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级火力-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍时刻-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超速子弹-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻头弹-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透子弹-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费超级火力-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_bd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_sd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利额度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_hytb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活跃度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常活跃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_13000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏币</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于小游戏消耗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_yxb_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_zs_30y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_15y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_ctgd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_ctgd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_zh</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bytx_zt</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_danmf2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_danmf2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_sbsk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_sbsk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_cjhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_zt</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_jg_skill</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_dan_bs08</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日福利券额度</t>
-  </si>
-  <si>
-    <t>宝箱可随机开出1000-15万金币。使用时间：2019年11月5日7:30至2019年11月11日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_secondary_bomb_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bymatch_game_btn_xbz</t>
-  </si>
-  <si>
-    <t>原子弹-浅水湾</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_super_bomb_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bymatch_game_btn_dbz</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级原子弹-浅水湾</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_secondary_bomb_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>原子弹-深海寻宝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_super_bomb_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级原子弹-深海寻宝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_secondary_bomb_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>原子弹-地底遗迹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_super_bomb_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级原子弹-地底遗迹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>师傅给与徒弟的免费激励宝箱可随机开出1000-15万金币。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>师傅给与徒弟的激励宝箱可随机开出1000-15万金币。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年1月24日-2月8日可开启宝箱，最多可获得10万金币。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费子弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级火力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍时刻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超速子弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻头弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透子弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁定</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰冻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费超级火力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_pierce_bullet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_summon_fish</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_lock</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_frozen</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_frozen</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_lock</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_flqcj","panel",1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>zpg_icon_shui</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>水滴</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于苹果大战种植</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于苹果大战种植</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>zpg_icon_yg</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_3</t>
-  </si>
-  <si>
-    <t>zpg_icon_cc</t>
-  </si>
-  <si>
-    <t>铲子</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_4</t>
-  </si>
-  <si>
-    <t>zpg_icon_sc</t>
-  </si>
-  <si>
-    <t>除虫剂</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_5</t>
-  </si>
-  <si>
-    <t>zpg_icon_fl</t>
-  </si>
-  <si>
-    <t>肥料</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_mfcjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_5y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_50flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_200flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_500flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_1000flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_50flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_200flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_500flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_1000flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_4</t>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠白银宝箱（免费小额用户，V1-V3用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠黄金宝箱（免费小额用户，V1-V3用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠钻石宝箱（免费小额用户，V1-V3用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠白银宝箱（V4-V7用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠黄金宝箱（V4-V7用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠钻石宝箱（V4-V7用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠白银宝箱（V8-V10用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠黄金宝箱（V8-V10用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠钻石宝箱（V8-V10用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_3</t>
-  </si>
-  <si>
-    <t>prop_cjlb_4</t>
-  </si>
-  <si>
-    <t>prop_cjlb_5</t>
-  </si>
-  <si>
-    <t>prop_cjlb_6</t>
-  </si>
-  <si>
-    <t>prop_cjlb_7</t>
-  </si>
-  <si>
-    <t>prop_cjlb_8</t>
-  </si>
-  <si>
-    <t>prop_cjlb_9</t>
-  </si>
-  <si>
-    <t>prop_xrcdj_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xrcdj_2</t>
-  </si>
-  <si>
-    <t>prop_xrcdj_3</t>
-  </si>
-  <si>
-    <t>青铜抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于新人抽大奖中的青铜抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于新人抽大奖中的白银抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于新人抽大奖中的黄金抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱心</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪漫七夕活动道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>_common_rank_true_love_026_rank</t>
-  </si>
-  <si>
-    <t>bblb_icon_xin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bblb_icon_xin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>真爱排行榜积分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>真爱排行榜积分道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xycd_icon_ty2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩蛋活动道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xycd_sunshine</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>250福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>25000福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加250福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加2500福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加25000福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加250000福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>银锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>银锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>畅玩礼包抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cwlb_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_031_aster</t>
+    <t>prop_gej_cs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_feed</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_coin1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_coin2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_4</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2290,336 +2719,337 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>国庆快乐活动掉落</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_icon_xx2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_3</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_1</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_3</t>
-  </si>
-  <si>
-    <t>初级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_3_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_3_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳节抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳节抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cyj_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_10</t>
-  </si>
-  <si>
-    <t>xrzxlb_iocn_xrbx_1</t>
-  </si>
-  <si>
-    <t>新手宝箱</t>
-  </si>
-  <si>
-    <t>新人专享新手宝箱</t>
-  </si>
-  <si>
-    <t>prop_cjlb_11</t>
-  </si>
-  <si>
-    <t>act_033_xrzxlb_gjbx</t>
-  </si>
-  <si>
-    <t>高级宝箱</t>
-  </si>
-  <si>
-    <t>新人专享高级宝箱</t>
-  </si>
-  <si>
-    <t>prop_cjlb_12</t>
-  </si>
-  <si>
-    <t>xrzxlb_iocn_hhbx_1</t>
-  </si>
-  <si>
-    <t>豪华宝箱</t>
-  </si>
-  <si>
-    <t>新人专享豪华宝箱</t>
-  </si>
-  <si>
-    <t>prop_11.11_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwzp_icon_cjq</t>
-  </si>
-  <si>
-    <t>cwzp_icon_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一抽奖券</t>
-  </si>
-  <si>
-    <t>双十一抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_4</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_5</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_4</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_5</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_4</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_5</t>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_4_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_5_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_4_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_5_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_4_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_5_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>终极核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>终极核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>终极核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_1000114</t>
-  </si>
-  <si>
-    <t>ty_icon_hytb</t>
-  </si>
-  <si>
-    <t>积分</t>
-  </si>
-  <si>
-    <t>新人七天乐积分</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_web_chip_huafei</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_accelerate</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_wild</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_doubled</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>以1.5倍的速度进行发炮，持续15秒。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼将获得双倍奖励，同时会提升消耗，持续15秒。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹获得双倍威力，同时会提升消耗，持续15秒。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_jb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_js</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_kb</t>
+    <t>水族馆通用货币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饲料</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于喂养水族馆中的鱼苗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵硬币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级精灵硬币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢入精灵泉水中进行普通祈祷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢入精灵泉水中进行普高级祈祷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼苗碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>可放入水族馆中进行喂养，每次喂养即可产出货币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于合成鱼苗，也可以直接售卖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经成熟的鱼，可以进行售卖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼苗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish2</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish3</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish4</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish5</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish6</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish7</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish8</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish9</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish10</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish11</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish12</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish13</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish14</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish15</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish16</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish17</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish18</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish19</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish20</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish21</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish22</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish23</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish24</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish25</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish26</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish27</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish28</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish29</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish30</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish31</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment2</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment3</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment4</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment5</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment6</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment7</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment8</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment9</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment10</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment11</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment12</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment13</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment14</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment15</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment16</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment17</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment18</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment19</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment20</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment21</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment22</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment23</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment24</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment25</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment26</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment27</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment28</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment29</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment30</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment31</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry2</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry3</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry4</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry5</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry6</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry7</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry8</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry9</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry10</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry11</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry12</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry13</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry14</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry15</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry16</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry17</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry18</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry19</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry20</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry21</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry22</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry23</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry24</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry25</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry26</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry27</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry28</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry29</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry30</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry31</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_stars</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2698,7 +3128,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2732,6 +3162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2778,7 +3214,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2855,6 +3291,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3135,11 +3580,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q180"/>
+  <dimension ref="A1:Q281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B172" sqref="B172:B180"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3203,7 +3648,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>350</v>
+        <v>662</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>296</v>
@@ -3291,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>20</v>
@@ -3317,13 +3762,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -3369,13 +3814,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3395,13 +3840,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -4119,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4442,7 +4887,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D43" s="2">
         <v>-1</v>
@@ -4619,7 +5064,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D48" s="2">
         <v>-1</v>
@@ -4653,7 +5098,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D49" s="2">
         <v>-1</v>
@@ -4825,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -4863,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -4901,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -5446,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -5478,7 +5923,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -5516,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -5640,7 +6085,7 @@
         <v>277</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>331</v>
@@ -5728,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -5737,13 +6182,13 @@
         <v>23</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J80" s="15" t="s">
         <v>286</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5775,7 +6220,7 @@
         <v>289</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>297</v>
@@ -5813,7 +6258,7 @@
         <v>292</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>298</v>
@@ -6203,7 +6648,7 @@
         <v>328</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>332</v>
@@ -6290,7 +6735,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D97" s="2">
         <v>-1</v>
@@ -6322,7 +6767,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D98" s="2">
         <v>-1</v>
@@ -6331,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
@@ -6340,10 +6785,10 @@
         <v>36</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N98" s="2">
         <v>9</v>
@@ -6357,7 +6802,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D99" s="2">
         <v>-1</v>
@@ -6366,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
@@ -6375,10 +6820,10 @@
         <v>37</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N99" s="2">
         <v>9</v>
@@ -6392,7 +6837,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D100" s="2">
         <v>-1</v>
@@ -6401,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G100" s="2">
         <v>1</v>
@@ -6410,10 +6855,10 @@
         <v>38</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N100" s="2">
         <v>9</v>
@@ -6427,7 +6872,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D101" s="2">
         <v>-1</v>
@@ -6436,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G101" s="2">
         <v>1</v>
@@ -6445,10 +6890,10 @@
         <v>39</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N101" s="2">
         <v>9</v>
@@ -6462,7 +6907,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D102" s="2">
         <v>-1</v>
@@ -6471,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
@@ -6480,10 +6925,10 @@
         <v>40</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N102" s="2">
         <v>9</v>
@@ -6497,7 +6942,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D103" s="2">
         <v>-1</v>
@@ -6506,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G103" s="2">
         <v>1</v>
@@ -6515,10 +6960,10 @@
         <v>41</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N103" s="2">
         <v>9</v>
@@ -6532,7 +6977,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D104" s="2">
         <v>-1</v>
@@ -6541,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
@@ -6550,10 +6995,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N104" s="2">
         <v>9</v>
@@ -6567,7 +7012,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D105" s="2">
         <v>-1</v>
@@ -6576,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
@@ -6585,10 +7030,10 @@
         <v>43</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N105" s="2">
         <v>9</v>
@@ -6602,7 +7047,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D106" s="2">
         <v>-1</v>
@@ -6611,7 +7056,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G106" s="2">
         <v>1</v>
@@ -6620,10 +7065,10 @@
         <v>44</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N106" s="2">
         <v>9</v>
@@ -6637,7 +7082,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D107" s="2">
         <v>-1</v>
@@ -6646,7 +7091,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G107" s="2">
         <v>1</v>
@@ -6655,7 +7100,7 @@
         <v>32</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>173</v>
@@ -6674,7 +7119,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D108" s="2">
         <v>-1</v>
@@ -6683,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G108" s="2">
         <v>1</v>
@@ -6692,7 +7137,7 @@
         <v>33</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>177</v>
@@ -6711,7 +7156,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D109" s="2">
         <v>-1</v>
@@ -6720,7 +7165,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G109" s="2">
         <v>1</v>
@@ -6729,10 +7174,10 @@
         <v>33</v>
       </c>
       <c r="I109" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="J109" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6743,7 +7188,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D110" s="2">
         <v>-1</v>
@@ -6752,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
@@ -6761,10 +7206,10 @@
         <v>34</v>
       </c>
       <c r="I110" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="J110" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="L110" s="5"/>
     </row>
@@ -6776,28 +7221,28 @@
         <v>110</v>
       </c>
       <c r="C111" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="D111" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D111" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="G111" s="2">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2">
-        <v>1</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>399</v>
-      </c>
       <c r="J111" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>174</v>
@@ -6814,28 +7259,28 @@
         <v>111</v>
       </c>
       <c r="C112" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="D112" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D112" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112" s="5" t="s">
+      <c r="G112" s="2">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1</v>
+      </c>
+      <c r="I112" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="G112" s="2">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2">
-        <v>1</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>402</v>
-      </c>
       <c r="J112" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>174</v>
@@ -6852,28 +7297,28 @@
         <v>112</v>
       </c>
       <c r="C113" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="D113" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1</v>
+      </c>
+      <c r="I113" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D113" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G113" s="2">
-        <v>1</v>
-      </c>
-      <c r="H113" s="2">
-        <v>1</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>404</v>
-      </c>
       <c r="J113" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>174</v>
@@ -6890,28 +7335,28 @@
         <v>113</v>
       </c>
       <c r="C114" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="D114" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1</v>
+      </c>
+      <c r="I114" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D114" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="G114" s="2">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2">
-        <v>1</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>406</v>
-      </c>
       <c r="J114" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>174</v>
@@ -6928,28 +7373,28 @@
         <v>114</v>
       </c>
       <c r="C115" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="D115" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="I115" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D115" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G115" s="2">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2">
-        <v>1</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>408</v>
-      </c>
       <c r="J115" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>174</v>
@@ -6966,28 +7411,28 @@
         <v>115</v>
       </c>
       <c r="C116" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D116" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="G116" s="2">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="I116" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D116" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E116" s="2">
-        <v>1</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="G116" s="2">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2">
-        <v>1</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>410</v>
-      </c>
       <c r="J116" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L116" s="5" t="s">
         <v>174</v>
@@ -7004,16 +7449,16 @@
         <v>116</v>
       </c>
       <c r="C117" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="D117" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="D117" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="G117" s="2">
         <v>0</v>
@@ -7022,10 +7467,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -7038,16 +7483,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="D118" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="D118" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E118" s="2">
-        <v>1</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>435</v>
       </c>
       <c r="G118" s="2">
         <v>0</v>
@@ -7056,10 +7501,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7070,16 +7515,16 @@
         <v>118</v>
       </c>
       <c r="C119" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D119" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="D119" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
@@ -7088,10 +7533,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7102,16 +7547,16 @@
         <v>119</v>
       </c>
       <c r="C120" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="D120" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="D120" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
@@ -7120,10 +7565,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7134,16 +7579,16 @@
         <v>120</v>
       </c>
       <c r="C121" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="D121" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="D121" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E121" s="2">
-        <v>1</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -7152,10 +7597,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7166,16 +7611,16 @@
         <v>121</v>
       </c>
       <c r="C122" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="D122" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="D122" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
@@ -7184,10 +7629,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7198,7 +7643,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D123" s="2">
         <v>-1</v>
@@ -7207,7 +7652,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
@@ -7216,10 +7661,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N123" s="2">
         <v>1</v>
@@ -7233,7 +7678,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D124" s="2">
         <v>-1</v>
@@ -7242,7 +7687,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
@@ -7251,10 +7696,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N124" s="2">
         <v>1</v>
@@ -7268,7 +7713,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D125" s="2">
         <v>-1</v>
@@ -7277,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
@@ -7286,10 +7731,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N125" s="2">
         <v>1</v>
@@ -7303,7 +7748,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D126" s="2">
         <v>-1</v>
@@ -7312,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -7321,10 +7766,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N126" s="2">
         <v>1</v>
@@ -7338,7 +7783,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D127" s="2">
         <v>-1</v>
@@ -7347,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -7356,10 +7801,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N127" s="2">
         <v>1</v>
@@ -7373,7 +7818,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D128" s="2">
         <v>-1</v>
@@ -7382,7 +7827,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
@@ -7391,10 +7836,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N128" s="2">
         <v>1</v>
@@ -7408,7 +7853,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D129" s="2">
         <v>-1</v>
@@ -7417,7 +7862,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
@@ -7426,10 +7871,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N129" s="2">
         <v>1</v>
@@ -7443,7 +7888,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D130" s="2">
         <v>-1</v>
@@ -7452,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
@@ -7461,10 +7906,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N130" s="2">
         <v>1</v>
@@ -7478,7 +7923,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D131" s="2">
         <v>-1</v>
@@ -7487,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G131" s="2">
         <v>0</v>
@@ -7496,10 +7941,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="J131" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -7510,7 +7955,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D132" s="2">
         <v>-1</v>
@@ -7519,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G132" s="2">
         <v>0</v>
@@ -7528,10 +7973,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="J132" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="J132" s="5" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -7542,7 +7987,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D133" s="2">
         <v>-1</v>
@@ -7551,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G133" s="2">
         <v>0</v>
@@ -7560,10 +8005,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -7574,7 +8019,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D134" s="2">
         <v>-1</v>
@@ -7583,7 +8028,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G134" s="2">
         <v>0</v>
@@ -7592,10 +8037,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -7606,7 +8051,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D135" s="2">
         <v>-1</v>
@@ -7615,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G135" s="2">
         <v>0</v>
@@ -7624,10 +8069,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -7638,7 +8083,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D136" s="2">
         <v>-1</v>
@@ -7647,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G136" s="2">
         <v>0</v>
@@ -7656,10 +8101,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -7670,7 +8115,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D137" s="2">
         <v>-1</v>
@@ -7679,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G137" s="2">
         <v>0</v>
@@ -7688,10 +8133,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -7702,7 +8147,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D138" s="2">
         <v>-1</v>
@@ -7711,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -7720,10 +8165,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -7734,7 +8179,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D139" s="2">
         <v>-1</v>
@@ -7743,7 +8188,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -7752,10 +8197,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -7766,7 +8211,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D140" s="2">
         <v>-1</v>
@@ -7784,10 +8229,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -7798,7 +8243,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D141" s="2">
         <v>-1</v>
@@ -7807,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -7816,10 +8261,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -7830,7 +8275,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D142" s="2">
         <v>-1</v>
@@ -7839,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -7848,10 +8293,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -7862,7 +8307,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D143" s="2">
         <v>-1</v>
@@ -7871,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -7880,10 +8325,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -7894,7 +8339,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D144" s="2">
         <v>-1</v>
@@ -7903,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -7912,10 +8357,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="J144" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="J144" s="5" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -7926,7 +8371,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D145" s="2">
         <v>-1</v>
@@ -7935,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -7944,10 +8389,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="J145" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="J145" s="5" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="146" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7958,7 +8403,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D146" s="11">
         <v>-1</v>
@@ -7967,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G146" s="11">
         <v>0</v>
@@ -7976,10 +8421,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="J146" s="21" t="s">
         <v>522</v>
-      </c>
-      <c r="J146" s="21" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="147" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7990,7 +8435,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D147" s="11">
         <v>-1</v>
@@ -7999,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G147" s="11">
         <v>0</v>
@@ -8008,10 +8453,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="J147" s="21" t="s">
         <v>525</v>
-      </c>
-      <c r="J147" s="21" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8022,7 +8467,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D148" s="11">
         <v>-1</v>
@@ -8031,7 +8476,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G148" s="11">
         <v>0</v>
@@ -8040,10 +8485,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="J148" s="21" t="s">
         <v>528</v>
-      </c>
-      <c r="J148" s="21" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="149" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8054,7 +8499,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D149" s="11">
         <v>-1</v>
@@ -8063,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G149" s="11">
         <v>0</v>
@@ -8072,10 +8517,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="J149" s="21" t="s">
         <v>531</v>
-      </c>
-      <c r="J149" s="21" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="150" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8086,7 +8531,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D150" s="11">
         <v>-1</v>
@@ -8095,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G150" s="11">
         <v>0</v>
@@ -8104,10 +8549,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="J150" s="21" t="s">
         <v>534</v>
-      </c>
-      <c r="J150" s="21" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="151" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8118,16 +8563,16 @@
         <v>150</v>
       </c>
       <c r="C151" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="D151" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="11">
+        <v>1</v>
+      </c>
+      <c r="F151" s="12" t="s">
         <v>536</v>
-      </c>
-      <c r="D151" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E151" s="11">
-        <v>1</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>537</v>
       </c>
       <c r="G151" s="11">
         <v>0</v>
@@ -8136,10 +8581,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="J151" s="21" t="s">
         <v>538</v>
-      </c>
-      <c r="J151" s="21" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="152" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8150,7 +8595,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D152" s="11">
         <v>-1</v>
@@ -8159,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G152" s="11">
         <v>0</v>
@@ -8168,10 +8613,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J152" s="21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="153" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8182,7 +8627,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D153" s="11">
         <v>-1</v>
@@ -8191,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G153" s="11">
         <v>0</v>
@@ -8200,10 +8645,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J153" s="21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="154" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8214,7 +8659,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D154" s="11">
         <v>-1</v>
@@ -8223,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G154" s="11">
         <v>0</v>
@@ -8232,10 +8677,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J154" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="155" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -8246,16 +8691,16 @@
         <v>154</v>
       </c>
       <c r="C155" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="D155" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="11">
+        <v>1</v>
+      </c>
+      <c r="F155" s="12" t="s">
         <v>551</v>
-      </c>
-      <c r="D155" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E155" s="11">
-        <v>1</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>552</v>
       </c>
       <c r="G155" s="11">
         <v>0</v>
@@ -8264,10 +8709,10 @@
         <v>33</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="156" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8278,7 +8723,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D156" s="11">
         <v>-1</v>
@@ -8287,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G156" s="11">
         <v>0</v>
@@ -8296,10 +8741,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="J156" s="21" t="s">
         <v>554</v>
-      </c>
-      <c r="J156" s="21" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="157" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8310,7 +8755,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D157" s="11">
         <v>-1</v>
@@ -8319,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G157" s="11">
         <v>1</v>
@@ -8328,13 +8773,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8345,7 +8790,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D158" s="11">
         <v>-1</v>
@@ -8354,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G158" s="11">
         <v>1</v>
@@ -8363,13 +8808,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="159" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8380,7 +8825,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D159" s="11">
         <v>-1</v>
@@ -8389,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G159" s="11">
         <v>1</v>
@@ -8398,13 +8843,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="160" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8415,7 +8860,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>607</v>
+        <v>668</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -8424,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -8433,13 +8878,13 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="161" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8450,7 +8895,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -8459,7 +8904,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -8468,13 +8913,13 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="162" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8485,7 +8930,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D162" s="11">
         <v>-1</v>
@@ -8494,7 +8939,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G162" s="11">
         <v>1</v>
@@ -8503,10 +8948,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="163" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8517,7 +8962,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D163" s="11">
         <v>-1</v>
@@ -8526,7 +8971,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G163" s="11">
         <v>1</v>
@@ -8535,10 +8980,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="164" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8549,7 +8994,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D164" s="11">
         <v>-1</v>
@@ -8558,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G164" s="11">
         <v>1</v>
@@ -8567,10 +9012,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="165" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8581,7 +9026,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D165" s="11">
         <v>-1</v>
@@ -8590,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G165" s="11">
         <v>1</v>
@@ -8599,10 +9044,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="166" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8613,7 +9058,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D166" s="11">
         <v>-1</v>
@@ -8622,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G166" s="11">
         <v>1</v>
@@ -8631,10 +9076,10 @@
         <v>34</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="167" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8645,7 +9090,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D167" s="11">
         <v>-1</v>
@@ -8654,7 +9099,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G167" s="11">
         <v>1</v>
@@ -8663,10 +9108,10 @@
         <v>34</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="168" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8677,7 +9122,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D168" s="11">
         <v>-1</v>
@@ -8686,7 +9131,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G168" s="11">
         <v>1</v>
@@ -8695,10 +9140,10 @@
         <v>34</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="169" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8709,7 +9154,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D169" s="11">
         <v>-1</v>
@@ -8718,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G169" s="11">
         <v>1</v>
@@ -8727,10 +9172,10 @@
         <v>34</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="170" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8741,16 +9186,16 @@
         <v>169</v>
       </c>
       <c r="C170" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="D170" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E170" s="11">
+        <v>1</v>
+      </c>
+      <c r="F170" s="12" t="s">
         <v>611</v>
-      </c>
-      <c r="D170" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E170" s="11">
-        <v>1</v>
-      </c>
-      <c r="F170" s="12" t="s">
-        <v>613</v>
       </c>
       <c r="G170" s="11">
         <v>1</v>
@@ -8759,10 +9204,10 @@
         <v>34</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="171" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8773,16 +9218,16 @@
         <v>170</v>
       </c>
       <c r="C171" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="D171" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E171" s="11">
+        <v>1</v>
+      </c>
+      <c r="F171" s="12" t="s">
         <v>612</v>
-      </c>
-      <c r="D171" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E171" s="11">
-        <v>1</v>
-      </c>
-      <c r="F171" s="12" t="s">
-        <v>614</v>
       </c>
       <c r="G171" s="11">
         <v>1</v>
@@ -8791,10 +9236,10 @@
         <v>34</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="172" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8805,7 +9250,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D172" s="11">
         <v>-1</v>
@@ -8814,7 +9259,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G172" s="11">
         <v>0</v>
@@ -8823,10 +9268,10 @@
         <v>33</v>
       </c>
       <c r="I172" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="J172" s="12" t="s">
         <v>583</v>
-      </c>
-      <c r="J172" s="12" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="173" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8837,16 +9282,16 @@
         <v>172</v>
       </c>
       <c r="C173" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="D173" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E173" s="13">
+        <v>1</v>
+      </c>
+      <c r="F173" s="13" t="s">
         <v>590</v>
-      </c>
-      <c r="D173" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E173" s="13">
-        <v>1</v>
-      </c>
-      <c r="F173" s="13" t="s">
-        <v>591</v>
       </c>
       <c r="G173" s="13">
         <v>1</v>
@@ -8855,10 +9300,10 @@
         <v>33</v>
       </c>
       <c r="I173" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="J173" s="13" t="s">
         <v>592</v>
-      </c>
-      <c r="J173" s="13" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="174" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8869,16 +9314,16 @@
         <v>173</v>
       </c>
       <c r="C174" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="D174" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E174" s="13">
+        <v>1</v>
+      </c>
+      <c r="F174" s="13" t="s">
         <v>594</v>
-      </c>
-      <c r="D174" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E174" s="13">
-        <v>1</v>
-      </c>
-      <c r="F174" s="13" t="s">
-        <v>595</v>
       </c>
       <c r="G174" s="13">
         <v>1</v>
@@ -8887,10 +9332,10 @@
         <v>33</v>
       </c>
       <c r="I174" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="J174" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="J174" s="13" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="175" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8901,16 +9346,16 @@
         <v>174</v>
       </c>
       <c r="C175" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="D175" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E175" s="13">
+        <v>1</v>
+      </c>
+      <c r="F175" s="13" t="s">
         <v>598</v>
-      </c>
-      <c r="D175" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E175" s="13">
-        <v>1</v>
-      </c>
-      <c r="F175" s="13" t="s">
-        <v>599</v>
       </c>
       <c r="G175" s="13">
         <v>1</v>
@@ -8919,10 +9364,10 @@
         <v>33</v>
       </c>
       <c r="I175" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="J175" s="13" t="s">
         <v>600</v>
-      </c>
-      <c r="J175" s="13" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="176" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8933,16 +9378,16 @@
         <v>175</v>
       </c>
       <c r="C176" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="D176" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="23">
+        <v>1</v>
+      </c>
+      <c r="F176" s="23" t="s">
         <v>602</v>
-      </c>
-      <c r="D176" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E176" s="23">
-        <v>1</v>
-      </c>
-      <c r="F176" s="23" t="s">
-        <v>603</v>
       </c>
       <c r="G176" s="23">
         <v>0</v>
@@ -8951,13 +9396,13 @@
         <v>33</v>
       </c>
       <c r="I176" s="23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J176" s="23" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="11">
         <v>176</v>
       </c>
@@ -8965,7 +9410,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D177" s="25">
         <v>-1</v>
@@ -8974,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="F177" s="25" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G177" s="25">
         <v>0</v>
@@ -8983,13 +9428,13 @@
         <v>33</v>
       </c>
       <c r="I177" s="25" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="J177" s="25" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="11">
         <v>177</v>
       </c>
@@ -8997,7 +9442,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D178" s="2">
         <v>-1</v>
@@ -9006,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G178" s="2">
         <v>1</v>
@@ -9015,10 +9460,10 @@
         <v>32</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
@@ -9026,7 +9471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="11">
         <v>178</v>
       </c>
@@ -9034,7 +9479,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D179" s="2">
         <v>-1</v>
@@ -9043,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G179" s="2">
         <v>1</v>
@@ -9052,10 +9497,10 @@
         <v>33</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
@@ -9063,7 +9508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="11">
         <v>179</v>
       </c>
@@ -9071,7 +9516,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D180" s="2">
         <v>-1</v>
@@ -9080,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
@@ -9089,15 +9534,3556 @@
         <v>33</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
       <c r="N180" s="2">
         <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="11">
+        <v>180</v>
+      </c>
+      <c r="B181" s="11">
+        <v>180</v>
+      </c>
+      <c r="C181" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="D181" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E181" s="25">
+        <v>1</v>
+      </c>
+      <c r="F181" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="G181" s="25">
+        <v>0</v>
+      </c>
+      <c r="H181" s="25">
+        <v>33</v>
+      </c>
+      <c r="I181" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="J181" s="25" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="11">
+        <v>181</v>
+      </c>
+      <c r="B182" s="11">
+        <v>181</v>
+      </c>
+      <c r="C182" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="D182" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E182" s="23">
+        <v>1</v>
+      </c>
+      <c r="F182" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="G182" s="23">
+        <v>1</v>
+      </c>
+      <c r="H182" s="23">
+        <v>33</v>
+      </c>
+      <c r="I182" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="J182" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="L182" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="O182" s="23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="11">
+        <v>182</v>
+      </c>
+      <c r="B183" s="11">
+        <v>182</v>
+      </c>
+      <c r="C183" s="24" t="s">
+        <v>653</v>
+      </c>
+      <c r="D183" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E183" s="23">
+        <v>1</v>
+      </c>
+      <c r="F183" s="23" t="s">
+        <v>657</v>
+      </c>
+      <c r="G183" s="23">
+        <v>1</v>
+      </c>
+      <c r="H183" s="23">
+        <v>33</v>
+      </c>
+      <c r="I183" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="J183" s="24" t="s">
+        <v>646</v>
+      </c>
+      <c r="L183" s="23" t="s">
+        <v>660</v>
+      </c>
+      <c r="O183" s="23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="11">
+        <v>183</v>
+      </c>
+      <c r="B184" s="11">
+        <v>183</v>
+      </c>
+      <c r="C184" s="24" t="s">
+        <v>663</v>
+      </c>
+      <c r="D184" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E184" s="23">
+        <v>1</v>
+      </c>
+      <c r="F184" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="G184" s="23">
+        <v>1</v>
+      </c>
+      <c r="H184" s="23">
+        <v>33</v>
+      </c>
+      <c r="I184" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="J184" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="L184" s="23" t="s">
+        <v>661</v>
+      </c>
+      <c r="O184" s="23">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="27">
+        <v>184</v>
+      </c>
+      <c r="B185" s="27">
+        <v>184</v>
+      </c>
+      <c r="C185" s="28" t="s">
+        <v>775</v>
+      </c>
+      <c r="D185" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E185" s="27">
+        <v>1</v>
+      </c>
+      <c r="F185" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G185" s="27">
+        <v>1</v>
+      </c>
+      <c r="H185" s="27">
+        <v>1</v>
+      </c>
+      <c r="I185" s="28" t="s">
+        <v>669</v>
+      </c>
+      <c r="J185" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="N185" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="27">
+        <v>185</v>
+      </c>
+      <c r="B186" s="27">
+        <v>185</v>
+      </c>
+      <c r="C186" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="D186" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E186" s="27">
+        <v>1</v>
+      </c>
+      <c r="F186" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G186" s="27">
+        <v>1</v>
+      </c>
+      <c r="H186" s="27">
+        <v>2</v>
+      </c>
+      <c r="I186" s="28" t="s">
+        <v>671</v>
+      </c>
+      <c r="J186" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="N186" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="27">
+        <v>186</v>
+      </c>
+      <c r="B187" s="27">
+        <v>186</v>
+      </c>
+      <c r="C187" s="27" t="s">
+        <v>665</v>
+      </c>
+      <c r="D187" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E187" s="27">
+        <v>1</v>
+      </c>
+      <c r="F187" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G187" s="27">
+        <v>1</v>
+      </c>
+      <c r="H187" s="27">
+        <v>3</v>
+      </c>
+      <c r="I187" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="J187" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="N187" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="27">
+        <v>187</v>
+      </c>
+      <c r="B188" s="27">
+        <v>187</v>
+      </c>
+      <c r="C188" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="D188" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E188" s="27">
+        <v>1</v>
+      </c>
+      <c r="F188" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G188" s="27">
+        <v>1</v>
+      </c>
+      <c r="H188" s="27">
+        <v>4</v>
+      </c>
+      <c r="I188" s="28" t="s">
+        <v>674</v>
+      </c>
+      <c r="J188" s="28" t="s">
+        <v>676</v>
+      </c>
+      <c r="N188" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="27">
+        <v>188</v>
+      </c>
+      <c r="B189" s="27">
+        <v>188</v>
+      </c>
+      <c r="C189" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="D189" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E189" s="27">
+        <v>1</v>
+      </c>
+      <c r="F189" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G189" s="27">
+        <v>1</v>
+      </c>
+      <c r="H189" s="27">
+        <v>5</v>
+      </c>
+      <c r="I189" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J189" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N189" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="27">
+        <v>189</v>
+      </c>
+      <c r="B190" s="27">
+        <v>189</v>
+      </c>
+      <c r="C190" s="28" t="s">
+        <v>744</v>
+      </c>
+      <c r="D190" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E190" s="27">
+        <v>1</v>
+      </c>
+      <c r="F190" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G190" s="27">
+        <v>1</v>
+      </c>
+      <c r="H190" s="27">
+        <v>6</v>
+      </c>
+      <c r="I190" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J190" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N190" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="27">
+        <v>190</v>
+      </c>
+      <c r="B191" s="27">
+        <v>190</v>
+      </c>
+      <c r="C191" s="28" t="s">
+        <v>745</v>
+      </c>
+      <c r="D191" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E191" s="27">
+        <v>1</v>
+      </c>
+      <c r="F191" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G191" s="27">
+        <v>1</v>
+      </c>
+      <c r="H191" s="27">
+        <v>7</v>
+      </c>
+      <c r="I191" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J191" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N191" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A192" s="27">
+        <v>191</v>
+      </c>
+      <c r="B192" s="27">
+        <v>191</v>
+      </c>
+      <c r="C192" s="28" t="s">
+        <v>746</v>
+      </c>
+      <c r="D192" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E192" s="27">
+        <v>1</v>
+      </c>
+      <c r="F192" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G192" s="27">
+        <v>1</v>
+      </c>
+      <c r="H192" s="27">
+        <v>8</v>
+      </c>
+      <c r="I192" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J192" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N192" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A193" s="27">
+        <v>192</v>
+      </c>
+      <c r="B193" s="27">
+        <v>192</v>
+      </c>
+      <c r="C193" s="28" t="s">
+        <v>747</v>
+      </c>
+      <c r="D193" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E193" s="27">
+        <v>1</v>
+      </c>
+      <c r="F193" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G193" s="27">
+        <v>1</v>
+      </c>
+      <c r="H193" s="27">
+        <v>9</v>
+      </c>
+      <c r="I193" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J193" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N193" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A194" s="27">
+        <v>193</v>
+      </c>
+      <c r="B194" s="27">
+        <v>193</v>
+      </c>
+      <c r="C194" s="28" t="s">
+        <v>748</v>
+      </c>
+      <c r="D194" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E194" s="27">
+        <v>1</v>
+      </c>
+      <c r="F194" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G194" s="27">
+        <v>1</v>
+      </c>
+      <c r="H194" s="27">
+        <v>10</v>
+      </c>
+      <c r="I194" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J194" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N194" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A195" s="27">
+        <v>194</v>
+      </c>
+      <c r="B195" s="27">
+        <v>194</v>
+      </c>
+      <c r="C195" s="28" t="s">
+        <v>749</v>
+      </c>
+      <c r="D195" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E195" s="27">
+        <v>1</v>
+      </c>
+      <c r="F195" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G195" s="27">
+        <v>1</v>
+      </c>
+      <c r="H195" s="27">
+        <v>11</v>
+      </c>
+      <c r="I195" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J195" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N195" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A196" s="27">
+        <v>195</v>
+      </c>
+      <c r="B196" s="27">
+        <v>195</v>
+      </c>
+      <c r="C196" s="28" t="s">
+        <v>750</v>
+      </c>
+      <c r="D196" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E196" s="27">
+        <v>1</v>
+      </c>
+      <c r="F196" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G196" s="27">
+        <v>1</v>
+      </c>
+      <c r="H196" s="27">
+        <v>12</v>
+      </c>
+      <c r="I196" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J196" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N196" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A197" s="27">
+        <v>196</v>
+      </c>
+      <c r="B197" s="27">
+        <v>196</v>
+      </c>
+      <c r="C197" s="28" t="s">
+        <v>751</v>
+      </c>
+      <c r="D197" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E197" s="27">
+        <v>1</v>
+      </c>
+      <c r="F197" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G197" s="27">
+        <v>1</v>
+      </c>
+      <c r="H197" s="27">
+        <v>13</v>
+      </c>
+      <c r="I197" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J197" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N197" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A198" s="27">
+        <v>197</v>
+      </c>
+      <c r="B198" s="27">
+        <v>197</v>
+      </c>
+      <c r="C198" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D198" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E198" s="27">
+        <v>1</v>
+      </c>
+      <c r="F198" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G198" s="27">
+        <v>1</v>
+      </c>
+      <c r="H198" s="27">
+        <v>14</v>
+      </c>
+      <c r="I198" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J198" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N198" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A199" s="27">
+        <v>198</v>
+      </c>
+      <c r="B199" s="27">
+        <v>198</v>
+      </c>
+      <c r="C199" s="28" t="s">
+        <v>753</v>
+      </c>
+      <c r="D199" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E199" s="27">
+        <v>1</v>
+      </c>
+      <c r="F199" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G199" s="27">
+        <v>1</v>
+      </c>
+      <c r="H199" s="27">
+        <v>15</v>
+      </c>
+      <c r="I199" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J199" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N199" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A200" s="27">
+        <v>199</v>
+      </c>
+      <c r="B200" s="27">
+        <v>199</v>
+      </c>
+      <c r="C200" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="D200" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E200" s="27">
+        <v>1</v>
+      </c>
+      <c r="F200" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G200" s="27">
+        <v>1</v>
+      </c>
+      <c r="H200" s="27">
+        <v>16</v>
+      </c>
+      <c r="I200" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J200" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N200" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A201" s="27">
+        <v>200</v>
+      </c>
+      <c r="B201" s="27">
+        <v>200</v>
+      </c>
+      <c r="C201" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="D201" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E201" s="27">
+        <v>1</v>
+      </c>
+      <c r="F201" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G201" s="27">
+        <v>1</v>
+      </c>
+      <c r="H201" s="27">
+        <v>17</v>
+      </c>
+      <c r="I201" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J201" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N201" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A202" s="27">
+        <v>201</v>
+      </c>
+      <c r="B202" s="27">
+        <v>201</v>
+      </c>
+      <c r="C202" s="28" t="s">
+        <v>756</v>
+      </c>
+      <c r="D202" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E202" s="27">
+        <v>1</v>
+      </c>
+      <c r="F202" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G202" s="27">
+        <v>1</v>
+      </c>
+      <c r="H202" s="27">
+        <v>18</v>
+      </c>
+      <c r="I202" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J202" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N202" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A203" s="27">
+        <v>202</v>
+      </c>
+      <c r="B203" s="27">
+        <v>202</v>
+      </c>
+      <c r="C203" s="28" t="s">
+        <v>757</v>
+      </c>
+      <c r="D203" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E203" s="27">
+        <v>1</v>
+      </c>
+      <c r="F203" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G203" s="27">
+        <v>1</v>
+      </c>
+      <c r="H203" s="27">
+        <v>19</v>
+      </c>
+      <c r="I203" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J203" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N203" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A204" s="27">
+        <v>203</v>
+      </c>
+      <c r="B204" s="27">
+        <v>203</v>
+      </c>
+      <c r="C204" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="D204" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E204" s="27">
+        <v>1</v>
+      </c>
+      <c r="F204" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G204" s="27">
+        <v>1</v>
+      </c>
+      <c r="H204" s="27">
+        <v>20</v>
+      </c>
+      <c r="I204" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J204" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N204" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A205" s="27">
+        <v>204</v>
+      </c>
+      <c r="B205" s="27">
+        <v>204</v>
+      </c>
+      <c r="C205" s="28" t="s">
+        <v>759</v>
+      </c>
+      <c r="D205" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E205" s="27">
+        <v>1</v>
+      </c>
+      <c r="F205" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G205" s="27">
+        <v>1</v>
+      </c>
+      <c r="H205" s="27">
+        <v>21</v>
+      </c>
+      <c r="I205" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J205" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N205" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A206" s="27">
+        <v>205</v>
+      </c>
+      <c r="B206" s="27">
+        <v>205</v>
+      </c>
+      <c r="C206" s="28" t="s">
+        <v>760</v>
+      </c>
+      <c r="D206" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E206" s="27">
+        <v>1</v>
+      </c>
+      <c r="F206" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G206" s="27">
+        <v>1</v>
+      </c>
+      <c r="H206" s="27">
+        <v>22</v>
+      </c>
+      <c r="I206" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J206" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N206" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A207" s="27">
+        <v>206</v>
+      </c>
+      <c r="B207" s="27">
+        <v>206</v>
+      </c>
+      <c r="C207" s="28" t="s">
+        <v>761</v>
+      </c>
+      <c r="D207" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E207" s="27">
+        <v>1</v>
+      </c>
+      <c r="F207" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G207" s="27">
+        <v>1</v>
+      </c>
+      <c r="H207" s="27">
+        <v>23</v>
+      </c>
+      <c r="I207" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J207" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N207" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A208" s="27">
+        <v>207</v>
+      </c>
+      <c r="B208" s="27">
+        <v>207</v>
+      </c>
+      <c r="C208" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="D208" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E208" s="27">
+        <v>1</v>
+      </c>
+      <c r="F208" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G208" s="27">
+        <v>1</v>
+      </c>
+      <c r="H208" s="27">
+        <v>24</v>
+      </c>
+      <c r="I208" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J208" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N208" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A209" s="27">
+        <v>208</v>
+      </c>
+      <c r="B209" s="27">
+        <v>208</v>
+      </c>
+      <c r="C209" s="28" t="s">
+        <v>763</v>
+      </c>
+      <c r="D209" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E209" s="27">
+        <v>1</v>
+      </c>
+      <c r="F209" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G209" s="27">
+        <v>1</v>
+      </c>
+      <c r="H209" s="27">
+        <v>25</v>
+      </c>
+      <c r="I209" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J209" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N209" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A210" s="27">
+        <v>209</v>
+      </c>
+      <c r="B210" s="27">
+        <v>209</v>
+      </c>
+      <c r="C210" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="D210" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E210" s="27">
+        <v>1</v>
+      </c>
+      <c r="F210" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G210" s="27">
+        <v>1</v>
+      </c>
+      <c r="H210" s="27">
+        <v>26</v>
+      </c>
+      <c r="I210" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J210" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N210" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A211" s="27">
+        <v>210</v>
+      </c>
+      <c r="B211" s="27">
+        <v>210</v>
+      </c>
+      <c r="C211" s="28" t="s">
+        <v>765</v>
+      </c>
+      <c r="D211" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E211" s="27">
+        <v>1</v>
+      </c>
+      <c r="F211" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G211" s="27">
+        <v>1</v>
+      </c>
+      <c r="H211" s="27">
+        <v>27</v>
+      </c>
+      <c r="I211" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J211" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N211" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A212" s="27">
+        <v>211</v>
+      </c>
+      <c r="B212" s="27">
+        <v>211</v>
+      </c>
+      <c r="C212" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="D212" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E212" s="27">
+        <v>1</v>
+      </c>
+      <c r="F212" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G212" s="27">
+        <v>1</v>
+      </c>
+      <c r="H212" s="27">
+        <v>28</v>
+      </c>
+      <c r="I212" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J212" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N212" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A213" s="27">
+        <v>212</v>
+      </c>
+      <c r="B213" s="27">
+        <v>212</v>
+      </c>
+      <c r="C213" s="28" t="s">
+        <v>767</v>
+      </c>
+      <c r="D213" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E213" s="27">
+        <v>1</v>
+      </c>
+      <c r="F213" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G213" s="27">
+        <v>1</v>
+      </c>
+      <c r="H213" s="27">
+        <v>29</v>
+      </c>
+      <c r="I213" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J213" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N213" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A214" s="27">
+        <v>213</v>
+      </c>
+      <c r="B214" s="27">
+        <v>213</v>
+      </c>
+      <c r="C214" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="D214" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E214" s="27">
+        <v>1</v>
+      </c>
+      <c r="F214" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G214" s="27">
+        <v>1</v>
+      </c>
+      <c r="H214" s="27">
+        <v>30</v>
+      </c>
+      <c r="I214" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J214" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N214" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A215" s="27">
+        <v>214</v>
+      </c>
+      <c r="B215" s="27">
+        <v>214</v>
+      </c>
+      <c r="C215" s="28" t="s">
+        <v>769</v>
+      </c>
+      <c r="D215" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E215" s="27">
+        <v>1</v>
+      </c>
+      <c r="F215" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G215" s="27">
+        <v>1</v>
+      </c>
+      <c r="H215" s="27">
+        <v>31</v>
+      </c>
+      <c r="I215" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J215" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N215" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A216" s="27">
+        <v>215</v>
+      </c>
+      <c r="B216" s="27">
+        <v>215</v>
+      </c>
+      <c r="C216" s="28" t="s">
+        <v>770</v>
+      </c>
+      <c r="D216" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E216" s="27">
+        <v>1</v>
+      </c>
+      <c r="F216" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G216" s="27">
+        <v>1</v>
+      </c>
+      <c r="H216" s="27">
+        <v>32</v>
+      </c>
+      <c r="I216" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J216" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N216" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A217" s="27">
+        <v>216</v>
+      </c>
+      <c r="B217" s="27">
+        <v>216</v>
+      </c>
+      <c r="C217" s="28" t="s">
+        <v>771</v>
+      </c>
+      <c r="D217" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E217" s="27">
+        <v>1</v>
+      </c>
+      <c r="F217" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G217" s="27">
+        <v>1</v>
+      </c>
+      <c r="H217" s="27">
+        <v>33</v>
+      </c>
+      <c r="I217" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J217" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N217" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A218" s="27">
+        <v>217</v>
+      </c>
+      <c r="B218" s="27">
+        <v>217</v>
+      </c>
+      <c r="C218" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="D218" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E218" s="27">
+        <v>1</v>
+      </c>
+      <c r="F218" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G218" s="27">
+        <v>1</v>
+      </c>
+      <c r="H218" s="27">
+        <v>34</v>
+      </c>
+      <c r="I218" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J218" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N218" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A219" s="27">
+        <v>218</v>
+      </c>
+      <c r="B219" s="27">
+        <v>218</v>
+      </c>
+      <c r="C219" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="D219" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E219" s="27">
+        <v>1</v>
+      </c>
+      <c r="F219" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G219" s="27">
+        <v>1</v>
+      </c>
+      <c r="H219" s="27">
+        <v>35</v>
+      </c>
+      <c r="I219" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J219" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N219" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A220" s="27">
+        <v>219</v>
+      </c>
+      <c r="B220" s="27">
+        <v>219</v>
+      </c>
+      <c r="C220" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="D220" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E220" s="27">
+        <v>1</v>
+      </c>
+      <c r="F220" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G220" s="27">
+        <v>1</v>
+      </c>
+      <c r="H220" s="27">
+        <v>38</v>
+      </c>
+      <c r="I220" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J220" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N220" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A221" s="27">
+        <v>220</v>
+      </c>
+      <c r="B221" s="27">
+        <v>220</v>
+      </c>
+      <c r="C221" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="D221" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E221" s="27">
+        <v>1</v>
+      </c>
+      <c r="F221" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G221" s="27">
+        <v>1</v>
+      </c>
+      <c r="H221" s="27">
+        <v>39</v>
+      </c>
+      <c r="I221" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J221" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N221" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A222" s="27">
+        <v>221</v>
+      </c>
+      <c r="B222" s="27">
+        <v>221</v>
+      </c>
+      <c r="C222" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="D222" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E222" s="27">
+        <v>1</v>
+      </c>
+      <c r="F222" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G222" s="27">
+        <v>1</v>
+      </c>
+      <c r="H222" s="27">
+        <v>40</v>
+      </c>
+      <c r="I222" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J222" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N222" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A223" s="27">
+        <v>222</v>
+      </c>
+      <c r="B223" s="27">
+        <v>222</v>
+      </c>
+      <c r="C223" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="D223" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E223" s="27">
+        <v>1</v>
+      </c>
+      <c r="F223" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G223" s="27">
+        <v>1</v>
+      </c>
+      <c r="H223" s="27">
+        <v>41</v>
+      </c>
+      <c r="I223" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J223" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N223" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A224" s="27">
+        <v>223</v>
+      </c>
+      <c r="B224" s="27">
+        <v>223</v>
+      </c>
+      <c r="C224" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="D224" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E224" s="27">
+        <v>1</v>
+      </c>
+      <c r="F224" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G224" s="27">
+        <v>1</v>
+      </c>
+      <c r="H224" s="27">
+        <v>42</v>
+      </c>
+      <c r="I224" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J224" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N224" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A225" s="27">
+        <v>224</v>
+      </c>
+      <c r="B225" s="27">
+        <v>224</v>
+      </c>
+      <c r="C225" s="27" t="s">
+        <v>718</v>
+      </c>
+      <c r="D225" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E225" s="27">
+        <v>1</v>
+      </c>
+      <c r="F225" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G225" s="27">
+        <v>1</v>
+      </c>
+      <c r="H225" s="27">
+        <v>43</v>
+      </c>
+      <c r="I225" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J225" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N225" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A226" s="27">
+        <v>225</v>
+      </c>
+      <c r="B226" s="27">
+        <v>225</v>
+      </c>
+      <c r="C226" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="D226" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E226" s="27">
+        <v>1</v>
+      </c>
+      <c r="F226" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G226" s="27">
+        <v>1</v>
+      </c>
+      <c r="H226" s="27">
+        <v>44</v>
+      </c>
+      <c r="I226" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J226" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N226" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A227" s="27">
+        <v>226</v>
+      </c>
+      <c r="B227" s="27">
+        <v>226</v>
+      </c>
+      <c r="C227" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="D227" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E227" s="27">
+        <v>1</v>
+      </c>
+      <c r="F227" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G227" s="27">
+        <v>1</v>
+      </c>
+      <c r="H227" s="27">
+        <v>45</v>
+      </c>
+      <c r="I227" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J227" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N227" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A228" s="27">
+        <v>227</v>
+      </c>
+      <c r="B228" s="27">
+        <v>227</v>
+      </c>
+      <c r="C228" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="D228" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E228" s="27">
+        <v>1</v>
+      </c>
+      <c r="F228" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G228" s="27">
+        <v>1</v>
+      </c>
+      <c r="H228" s="27">
+        <v>46</v>
+      </c>
+      <c r="I228" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J228" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N228" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A229" s="27">
+        <v>228</v>
+      </c>
+      <c r="B229" s="27">
+        <v>228</v>
+      </c>
+      <c r="C229" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="D229" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E229" s="27">
+        <v>1</v>
+      </c>
+      <c r="F229" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G229" s="27">
+        <v>1</v>
+      </c>
+      <c r="H229" s="27">
+        <v>47</v>
+      </c>
+      <c r="I229" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J229" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N229" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A230" s="27">
+        <v>229</v>
+      </c>
+      <c r="B230" s="27">
+        <v>229</v>
+      </c>
+      <c r="C230" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="D230" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E230" s="27">
+        <v>1</v>
+      </c>
+      <c r="F230" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G230" s="27">
+        <v>1</v>
+      </c>
+      <c r="H230" s="27">
+        <v>48</v>
+      </c>
+      <c r="I230" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J230" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N230" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A231" s="27">
+        <v>230</v>
+      </c>
+      <c r="B231" s="27">
+        <v>230</v>
+      </c>
+      <c r="C231" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="D231" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E231" s="27">
+        <v>1</v>
+      </c>
+      <c r="F231" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G231" s="27">
+        <v>1</v>
+      </c>
+      <c r="H231" s="27">
+        <v>49</v>
+      </c>
+      <c r="I231" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J231" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N231" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A232" s="27">
+        <v>231</v>
+      </c>
+      <c r="B232" s="27">
+        <v>231</v>
+      </c>
+      <c r="C232" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="D232" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E232" s="27">
+        <v>1</v>
+      </c>
+      <c r="F232" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G232" s="27">
+        <v>1</v>
+      </c>
+      <c r="H232" s="27">
+        <v>50</v>
+      </c>
+      <c r="I232" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J232" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N232" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A233" s="27">
+        <v>232</v>
+      </c>
+      <c r="B233" s="27">
+        <v>232</v>
+      </c>
+      <c r="C233" s="27" t="s">
+        <v>726</v>
+      </c>
+      <c r="D233" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E233" s="27">
+        <v>1</v>
+      </c>
+      <c r="F233" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G233" s="27">
+        <v>1</v>
+      </c>
+      <c r="H233" s="27">
+        <v>51</v>
+      </c>
+      <c r="I233" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J233" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N233" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A234" s="27">
+        <v>233</v>
+      </c>
+      <c r="B234" s="27">
+        <v>233</v>
+      </c>
+      <c r="C234" s="27" t="s">
+        <v>727</v>
+      </c>
+      <c r="D234" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E234" s="27">
+        <v>1</v>
+      </c>
+      <c r="F234" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G234" s="27">
+        <v>1</v>
+      </c>
+      <c r="H234" s="27">
+        <v>52</v>
+      </c>
+      <c r="I234" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J234" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N234" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A235" s="27">
+        <v>234</v>
+      </c>
+      <c r="B235" s="27">
+        <v>234</v>
+      </c>
+      <c r="C235" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="D235" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E235" s="27">
+        <v>1</v>
+      </c>
+      <c r="F235" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G235" s="27">
+        <v>1</v>
+      </c>
+      <c r="H235" s="27">
+        <v>53</v>
+      </c>
+      <c r="I235" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J235" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N235" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A236" s="27">
+        <v>235</v>
+      </c>
+      <c r="B236" s="27">
+        <v>235</v>
+      </c>
+      <c r="C236" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="D236" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E236" s="27">
+        <v>1</v>
+      </c>
+      <c r="F236" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G236" s="27">
+        <v>1</v>
+      </c>
+      <c r="H236" s="27">
+        <v>54</v>
+      </c>
+      <c r="I236" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J236" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N236" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A237" s="27">
+        <v>236</v>
+      </c>
+      <c r="B237" s="27">
+        <v>236</v>
+      </c>
+      <c r="C237" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="D237" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E237" s="27">
+        <v>1</v>
+      </c>
+      <c r="F237" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G237" s="27">
+        <v>1</v>
+      </c>
+      <c r="H237" s="27">
+        <v>55</v>
+      </c>
+      <c r="I237" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J237" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N237" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A238" s="27">
+        <v>237</v>
+      </c>
+      <c r="B238" s="27">
+        <v>237</v>
+      </c>
+      <c r="C238" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="D238" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E238" s="27">
+        <v>1</v>
+      </c>
+      <c r="F238" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G238" s="27">
+        <v>1</v>
+      </c>
+      <c r="H238" s="27">
+        <v>56</v>
+      </c>
+      <c r="I238" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J238" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N238" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A239" s="27">
+        <v>238</v>
+      </c>
+      <c r="B239" s="27">
+        <v>238</v>
+      </c>
+      <c r="C239" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="D239" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E239" s="27">
+        <v>1</v>
+      </c>
+      <c r="F239" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G239" s="27">
+        <v>1</v>
+      </c>
+      <c r="H239" s="27">
+        <v>57</v>
+      </c>
+      <c r="I239" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J239" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N239" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A240" s="27">
+        <v>239</v>
+      </c>
+      <c r="B240" s="27">
+        <v>239</v>
+      </c>
+      <c r="C240" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="D240" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E240" s="27">
+        <v>1</v>
+      </c>
+      <c r="F240" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G240" s="27">
+        <v>1</v>
+      </c>
+      <c r="H240" s="27">
+        <v>58</v>
+      </c>
+      <c r="I240" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J240" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N240" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A241" s="27">
+        <v>240</v>
+      </c>
+      <c r="B241" s="27">
+        <v>240</v>
+      </c>
+      <c r="C241" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="D241" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E241" s="27">
+        <v>1</v>
+      </c>
+      <c r="F241" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G241" s="27">
+        <v>1</v>
+      </c>
+      <c r="H241" s="27">
+        <v>59</v>
+      </c>
+      <c r="I241" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J241" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N241" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A242" s="27">
+        <v>241</v>
+      </c>
+      <c r="B242" s="27">
+        <v>241</v>
+      </c>
+      <c r="C242" s="27" t="s">
+        <v>735</v>
+      </c>
+      <c r="D242" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E242" s="27">
+        <v>1</v>
+      </c>
+      <c r="F242" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G242" s="27">
+        <v>1</v>
+      </c>
+      <c r="H242" s="27">
+        <v>60</v>
+      </c>
+      <c r="I242" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J242" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N242" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A243" s="27">
+        <v>242</v>
+      </c>
+      <c r="B243" s="27">
+        <v>242</v>
+      </c>
+      <c r="C243" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="D243" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E243" s="27">
+        <v>1</v>
+      </c>
+      <c r="F243" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G243" s="27">
+        <v>1</v>
+      </c>
+      <c r="H243" s="27">
+        <v>61</v>
+      </c>
+      <c r="I243" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J243" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N243" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A244" s="27">
+        <v>243</v>
+      </c>
+      <c r="B244" s="27">
+        <v>243</v>
+      </c>
+      <c r="C244" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="D244" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E244" s="27">
+        <v>1</v>
+      </c>
+      <c r="F244" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G244" s="27">
+        <v>1</v>
+      </c>
+      <c r="H244" s="27">
+        <v>62</v>
+      </c>
+      <c r="I244" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J244" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N244" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A245" s="27">
+        <v>244</v>
+      </c>
+      <c r="B245" s="27">
+        <v>244</v>
+      </c>
+      <c r="C245" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="D245" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E245" s="27">
+        <v>1</v>
+      </c>
+      <c r="F245" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G245" s="27">
+        <v>1</v>
+      </c>
+      <c r="H245" s="27">
+        <v>63</v>
+      </c>
+      <c r="I245" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J245" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N245" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A246" s="27">
+        <v>245</v>
+      </c>
+      <c r="B246" s="27">
+        <v>245</v>
+      </c>
+      <c r="C246" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="D246" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E246" s="27">
+        <v>1</v>
+      </c>
+      <c r="F246" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G246" s="27">
+        <v>1</v>
+      </c>
+      <c r="H246" s="27">
+        <v>64</v>
+      </c>
+      <c r="I246" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J246" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N246" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A247" s="27">
+        <v>246</v>
+      </c>
+      <c r="B247" s="27">
+        <v>246</v>
+      </c>
+      <c r="C247" s="27" t="s">
+        <v>740</v>
+      </c>
+      <c r="D247" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E247" s="27">
+        <v>1</v>
+      </c>
+      <c r="F247" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G247" s="27">
+        <v>1</v>
+      </c>
+      <c r="H247" s="27">
+        <v>65</v>
+      </c>
+      <c r="I247" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J247" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N247" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A248" s="27">
+        <v>247</v>
+      </c>
+      <c r="B248" s="27">
+        <v>247</v>
+      </c>
+      <c r="C248" s="27" t="s">
+        <v>741</v>
+      </c>
+      <c r="D248" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E248" s="27">
+        <v>1</v>
+      </c>
+      <c r="F248" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G248" s="27">
+        <v>1</v>
+      </c>
+      <c r="H248" s="27">
+        <v>66</v>
+      </c>
+      <c r="I248" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J248" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N248" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A249" s="27">
+        <v>248</v>
+      </c>
+      <c r="B249" s="27">
+        <v>248</v>
+      </c>
+      <c r="C249" s="27" t="s">
+        <v>742</v>
+      </c>
+      <c r="D249" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E249" s="27">
+        <v>1</v>
+      </c>
+      <c r="F249" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G249" s="27">
+        <v>1</v>
+      </c>
+      <c r="H249" s="27">
+        <v>67</v>
+      </c>
+      <c r="I249" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J249" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N249" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A250" s="27">
+        <v>249</v>
+      </c>
+      <c r="B250" s="27">
+        <v>249</v>
+      </c>
+      <c r="C250" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="D250" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E250" s="27">
+        <v>1</v>
+      </c>
+      <c r="F250" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G250" s="27">
+        <v>1</v>
+      </c>
+      <c r="H250" s="27">
+        <v>68</v>
+      </c>
+      <c r="I250" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J250" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N250" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A251" s="27">
+        <v>250</v>
+      </c>
+      <c r="B251" s="27">
+        <v>250</v>
+      </c>
+      <c r="C251" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="D251" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E251" s="27">
+        <v>1</v>
+      </c>
+      <c r="F251" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G251" s="27">
+        <v>1</v>
+      </c>
+      <c r="H251" s="27">
+        <v>69</v>
+      </c>
+      <c r="I251" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J251" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N251" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A252" s="27">
+        <v>251</v>
+      </c>
+      <c r="B252" s="27">
+        <v>251</v>
+      </c>
+      <c r="C252" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="D252" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E252" s="27">
+        <v>1</v>
+      </c>
+      <c r="F252" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G252" s="27">
+        <v>1</v>
+      </c>
+      <c r="H252" s="27">
+        <v>70</v>
+      </c>
+      <c r="I252" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J252" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N252" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A253" s="27">
+        <v>252</v>
+      </c>
+      <c r="B253" s="27">
+        <v>252</v>
+      </c>
+      <c r="C253" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="D253" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E253" s="27">
+        <v>1</v>
+      </c>
+      <c r="F253" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G253" s="27">
+        <v>1</v>
+      </c>
+      <c r="H253" s="27">
+        <v>71</v>
+      </c>
+      <c r="I253" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J253" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N253" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A254" s="27">
+        <v>253</v>
+      </c>
+      <c r="B254" s="27">
+        <v>253</v>
+      </c>
+      <c r="C254" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="D254" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E254" s="27">
+        <v>1</v>
+      </c>
+      <c r="F254" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G254" s="27">
+        <v>1</v>
+      </c>
+      <c r="H254" s="27">
+        <v>72</v>
+      </c>
+      <c r="I254" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J254" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N254" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A255" s="27">
+        <v>254</v>
+      </c>
+      <c r="B255" s="27">
+        <v>254</v>
+      </c>
+      <c r="C255" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="D255" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E255" s="27">
+        <v>1</v>
+      </c>
+      <c r="F255" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G255" s="27">
+        <v>1</v>
+      </c>
+      <c r="H255" s="27">
+        <v>73</v>
+      </c>
+      <c r="I255" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J255" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N255" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A256" s="27">
+        <v>255</v>
+      </c>
+      <c r="B256" s="27">
+        <v>255</v>
+      </c>
+      <c r="C256" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="D256" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E256" s="27">
+        <v>1</v>
+      </c>
+      <c r="F256" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G256" s="27">
+        <v>1</v>
+      </c>
+      <c r="H256" s="27">
+        <v>74</v>
+      </c>
+      <c r="I256" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J256" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N256" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A257" s="27">
+        <v>256</v>
+      </c>
+      <c r="B257" s="27">
+        <v>256</v>
+      </c>
+      <c r="C257" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="D257" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E257" s="27">
+        <v>1</v>
+      </c>
+      <c r="F257" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G257" s="27">
+        <v>1</v>
+      </c>
+      <c r="H257" s="27">
+        <v>75</v>
+      </c>
+      <c r="I257" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J257" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N257" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A258" s="27">
+        <v>257</v>
+      </c>
+      <c r="B258" s="27">
+        <v>257</v>
+      </c>
+      <c r="C258" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="D258" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E258" s="27">
+        <v>1</v>
+      </c>
+      <c r="F258" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G258" s="27">
+        <v>1</v>
+      </c>
+      <c r="H258" s="27">
+        <v>76</v>
+      </c>
+      <c r="I258" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J258" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N258" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A259" s="27">
+        <v>258</v>
+      </c>
+      <c r="B259" s="27">
+        <v>258</v>
+      </c>
+      <c r="C259" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="D259" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E259" s="27">
+        <v>1</v>
+      </c>
+      <c r="F259" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G259" s="27">
+        <v>1</v>
+      </c>
+      <c r="H259" s="27">
+        <v>77</v>
+      </c>
+      <c r="I259" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J259" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N259" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A260" s="27">
+        <v>259</v>
+      </c>
+      <c r="B260" s="27">
+        <v>259</v>
+      </c>
+      <c r="C260" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="D260" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E260" s="27">
+        <v>1</v>
+      </c>
+      <c r="F260" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G260" s="27">
+        <v>1</v>
+      </c>
+      <c r="H260" s="27">
+        <v>78</v>
+      </c>
+      <c r="I260" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J260" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N260" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A261" s="27">
+        <v>260</v>
+      </c>
+      <c r="B261" s="27">
+        <v>260</v>
+      </c>
+      <c r="C261" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="D261" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E261" s="27">
+        <v>1</v>
+      </c>
+      <c r="F261" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G261" s="27">
+        <v>1</v>
+      </c>
+      <c r="H261" s="27">
+        <v>79</v>
+      </c>
+      <c r="I261" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J261" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N261" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A262" s="27">
+        <v>261</v>
+      </c>
+      <c r="B262" s="27">
+        <v>261</v>
+      </c>
+      <c r="C262" s="28" t="s">
+        <v>694</v>
+      </c>
+      <c r="D262" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E262" s="27">
+        <v>1</v>
+      </c>
+      <c r="F262" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G262" s="27">
+        <v>1</v>
+      </c>
+      <c r="H262" s="27">
+        <v>80</v>
+      </c>
+      <c r="I262" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J262" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N262" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A263" s="27">
+        <v>262</v>
+      </c>
+      <c r="B263" s="27">
+        <v>262</v>
+      </c>
+      <c r="C263" s="28" t="s">
+        <v>695</v>
+      </c>
+      <c r="D263" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E263" s="27">
+        <v>1</v>
+      </c>
+      <c r="F263" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G263" s="27">
+        <v>1</v>
+      </c>
+      <c r="H263" s="27">
+        <v>81</v>
+      </c>
+      <c r="I263" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J263" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N263" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A264" s="27">
+        <v>263</v>
+      </c>
+      <c r="B264" s="27">
+        <v>263</v>
+      </c>
+      <c r="C264" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="D264" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E264" s="27">
+        <v>1</v>
+      </c>
+      <c r="F264" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G264" s="27">
+        <v>1</v>
+      </c>
+      <c r="H264" s="27">
+        <v>82</v>
+      </c>
+      <c r="I264" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J264" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N264" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A265" s="27">
+        <v>264</v>
+      </c>
+      <c r="B265" s="27">
+        <v>264</v>
+      </c>
+      <c r="C265" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="D265" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E265" s="27">
+        <v>1</v>
+      </c>
+      <c r="F265" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G265" s="27">
+        <v>1</v>
+      </c>
+      <c r="H265" s="27">
+        <v>83</v>
+      </c>
+      <c r="I265" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J265" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N265" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A266" s="27">
+        <v>265</v>
+      </c>
+      <c r="B266" s="27">
+        <v>265</v>
+      </c>
+      <c r="C266" s="28" t="s">
+        <v>698</v>
+      </c>
+      <c r="D266" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E266" s="27">
+        <v>1</v>
+      </c>
+      <c r="F266" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G266" s="27">
+        <v>1</v>
+      </c>
+      <c r="H266" s="27">
+        <v>84</v>
+      </c>
+      <c r="I266" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J266" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N266" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A267" s="27">
+        <v>266</v>
+      </c>
+      <c r="B267" s="27">
+        <v>266</v>
+      </c>
+      <c r="C267" s="28" t="s">
+        <v>699</v>
+      </c>
+      <c r="D267" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E267" s="27">
+        <v>1</v>
+      </c>
+      <c r="F267" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G267" s="27">
+        <v>1</v>
+      </c>
+      <c r="H267" s="27">
+        <v>85</v>
+      </c>
+      <c r="I267" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J267" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N267" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A268" s="27">
+        <v>267</v>
+      </c>
+      <c r="B268" s="27">
+        <v>267</v>
+      </c>
+      <c r="C268" s="28" t="s">
+        <v>700</v>
+      </c>
+      <c r="D268" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E268" s="27">
+        <v>1</v>
+      </c>
+      <c r="F268" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G268" s="27">
+        <v>1</v>
+      </c>
+      <c r="H268" s="27">
+        <v>86</v>
+      </c>
+      <c r="I268" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J268" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N268" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A269" s="27">
+        <v>268</v>
+      </c>
+      <c r="B269" s="27">
+        <v>268</v>
+      </c>
+      <c r="C269" s="28" t="s">
+        <v>701</v>
+      </c>
+      <c r="D269" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E269" s="27">
+        <v>1</v>
+      </c>
+      <c r="F269" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G269" s="27">
+        <v>1</v>
+      </c>
+      <c r="H269" s="27">
+        <v>87</v>
+      </c>
+      <c r="I269" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J269" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N269" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A270" s="27">
+        <v>269</v>
+      </c>
+      <c r="B270" s="27">
+        <v>269</v>
+      </c>
+      <c r="C270" s="28" t="s">
+        <v>702</v>
+      </c>
+      <c r="D270" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E270" s="27">
+        <v>1</v>
+      </c>
+      <c r="F270" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G270" s="27">
+        <v>1</v>
+      </c>
+      <c r="H270" s="27">
+        <v>88</v>
+      </c>
+      <c r="I270" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J270" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N270" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A271" s="27">
+        <v>270</v>
+      </c>
+      <c r="B271" s="27">
+        <v>270</v>
+      </c>
+      <c r="C271" s="28" t="s">
+        <v>703</v>
+      </c>
+      <c r="D271" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E271" s="27">
+        <v>1</v>
+      </c>
+      <c r="F271" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G271" s="27">
+        <v>1</v>
+      </c>
+      <c r="H271" s="27">
+        <v>89</v>
+      </c>
+      <c r="I271" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J271" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N271" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A272" s="27">
+        <v>271</v>
+      </c>
+      <c r="B272" s="27">
+        <v>271</v>
+      </c>
+      <c r="C272" s="28" t="s">
+        <v>704</v>
+      </c>
+      <c r="D272" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E272" s="27">
+        <v>1</v>
+      </c>
+      <c r="F272" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G272" s="27">
+        <v>1</v>
+      </c>
+      <c r="H272" s="27">
+        <v>90</v>
+      </c>
+      <c r="I272" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J272" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N272" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A273" s="27">
+        <v>272</v>
+      </c>
+      <c r="B273" s="27">
+        <v>272</v>
+      </c>
+      <c r="C273" s="28" t="s">
+        <v>705</v>
+      </c>
+      <c r="D273" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E273" s="27">
+        <v>1</v>
+      </c>
+      <c r="F273" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G273" s="27">
+        <v>1</v>
+      </c>
+      <c r="H273" s="27">
+        <v>91</v>
+      </c>
+      <c r="I273" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J273" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N273" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A274" s="27">
+        <v>273</v>
+      </c>
+      <c r="B274" s="27">
+        <v>273</v>
+      </c>
+      <c r="C274" s="28" t="s">
+        <v>706</v>
+      </c>
+      <c r="D274" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E274" s="27">
+        <v>1</v>
+      </c>
+      <c r="F274" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G274" s="27">
+        <v>1</v>
+      </c>
+      <c r="H274" s="27">
+        <v>92</v>
+      </c>
+      <c r="I274" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J274" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N274" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A275" s="27">
+        <v>274</v>
+      </c>
+      <c r="B275" s="27">
+        <v>274</v>
+      </c>
+      <c r="C275" s="28" t="s">
+        <v>707</v>
+      </c>
+      <c r="D275" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E275" s="27">
+        <v>1</v>
+      </c>
+      <c r="F275" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G275" s="27">
+        <v>1</v>
+      </c>
+      <c r="H275" s="27">
+        <v>93</v>
+      </c>
+      <c r="I275" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J275" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N275" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A276" s="27">
+        <v>275</v>
+      </c>
+      <c r="B276" s="27">
+        <v>275</v>
+      </c>
+      <c r="C276" s="28" t="s">
+        <v>708</v>
+      </c>
+      <c r="D276" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E276" s="27">
+        <v>1</v>
+      </c>
+      <c r="F276" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G276" s="27">
+        <v>1</v>
+      </c>
+      <c r="H276" s="27">
+        <v>94</v>
+      </c>
+      <c r="I276" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J276" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N276" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A277" s="27">
+        <v>276</v>
+      </c>
+      <c r="B277" s="27">
+        <v>276</v>
+      </c>
+      <c r="C277" s="28" t="s">
+        <v>709</v>
+      </c>
+      <c r="D277" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E277" s="27">
+        <v>1</v>
+      </c>
+      <c r="F277" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G277" s="27">
+        <v>1</v>
+      </c>
+      <c r="H277" s="27">
+        <v>95</v>
+      </c>
+      <c r="I277" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J277" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N277" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A278" s="27">
+        <v>277</v>
+      </c>
+      <c r="B278" s="27">
+        <v>277</v>
+      </c>
+      <c r="C278" s="28" t="s">
+        <v>710</v>
+      </c>
+      <c r="D278" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E278" s="27">
+        <v>1</v>
+      </c>
+      <c r="F278" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G278" s="27">
+        <v>1</v>
+      </c>
+      <c r="H278" s="27">
+        <v>96</v>
+      </c>
+      <c r="I278" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J278" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N278" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A279" s="27">
+        <v>278</v>
+      </c>
+      <c r="B279" s="27">
+        <v>278</v>
+      </c>
+      <c r="C279" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="D279" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E279" s="27">
+        <v>1</v>
+      </c>
+      <c r="F279" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G279" s="27">
+        <v>1</v>
+      </c>
+      <c r="H279" s="27">
+        <v>97</v>
+      </c>
+      <c r="I279" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J279" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N279" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A280" s="27">
+        <v>279</v>
+      </c>
+      <c r="B280" s="27">
+        <v>279</v>
+      </c>
+      <c r="C280" s="28" t="s">
+        <v>712</v>
+      </c>
+      <c r="D280" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E280" s="27">
+        <v>1</v>
+      </c>
+      <c r="F280" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G280" s="27">
+        <v>1</v>
+      </c>
+      <c r="H280" s="27">
+        <v>98</v>
+      </c>
+      <c r="I280" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J280" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N280" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A281" s="27">
+        <v>280</v>
+      </c>
+      <c r="B281" s="27">
+        <v>280</v>
+      </c>
+      <c r="C281" s="28" t="s">
+        <v>713</v>
+      </c>
+      <c r="D281" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E281" s="27">
+        <v>1</v>
+      </c>
+      <c r="F281" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G281" s="27">
+        <v>1</v>
+      </c>
+      <c r="H281" s="27">
+        <v>99</v>
+      </c>
+      <c r="I281" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J281" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N281" s="27">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="634">
   <si>
     <t>id|行号</t>
   </si>
@@ -2569,18 +2569,6 @@
   <si>
     <t>终极核弹(赠送)</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_1000114</t>
-  </si>
-  <si>
-    <t>ty_icon_hytb</t>
-  </si>
-  <si>
-    <t>积分</t>
-  </si>
-  <si>
-    <t>新人七天乐积分</t>
   </si>
   <si>
     <t>prop_3d_fish_nuclear_bomb_1</t>
@@ -2666,7 +2654,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2700,12 +2688,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2752,7 +2734,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2835,9 +2817,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3121,8 +3100,8 @@
   <dimension ref="A1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A179" sqref="A179:XFD179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6273,7 +6252,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D97" s="2">
         <v>-1</v>
@@ -8468,7 +8447,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D162" s="11">
         <v>-1</v>
@@ -9004,38 +8983,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="179" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="11">
-        <v>178</v>
-      </c>
-      <c r="B179" s="11">
-        <v>178</v>
-      </c>
-      <c r="C179" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="D179" s="28">
-        <v>-1</v>
-      </c>
-      <c r="E179" s="28">
-        <v>1</v>
-      </c>
-      <c r="F179" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="G179" s="28">
-        <v>0</v>
-      </c>
-      <c r="H179" s="28">
-        <v>33</v>
-      </c>
-      <c r="I179" s="28" t="s">
-        <v>634</v>
-      </c>
-      <c r="J179" s="28" t="s">
-        <v>635</v>
-      </c>
-    </row>
+    <row r="179" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="630">
   <si>
     <t>id|行号</t>
   </si>
@@ -2457,22 +2457,6 @@
   </si>
   <si>
     <t>新人专享豪华宝箱</t>
-  </si>
-  <si>
-    <t>prop_guess_apple_cz</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_sd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldfd_icon_shui</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldfd_zpg_icon_cc</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>prop_11.11_cjq</t>
@@ -2654,7 +2638,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2676,12 +2660,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2734,7 +2712,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2807,16 +2785,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3100,8 +3069,8 @@
   <dimension ref="A1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A179" sqref="A179:XFD179"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B184" sqref="B184:C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6252,7 +6221,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D97" s="2">
         <v>-1</v>
@@ -8377,7 +8346,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -8386,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -8395,13 +8364,13 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="161" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8412,7 +8381,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -8421,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -8430,13 +8399,13 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="162" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8447,7 +8416,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D162" s="11">
         <v>-1</v>
@@ -8543,7 +8512,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D165" s="11">
         <v>-1</v>
@@ -8552,7 +8521,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G165" s="11">
         <v>1</v>
@@ -8561,10 +8530,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="166" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8575,7 +8544,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D166" s="11">
         <v>-1</v>
@@ -8584,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G166" s="11">
         <v>1</v>
@@ -8593,10 +8562,10 @@
         <v>34</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="167" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8689,7 +8658,7 @@
         <v>34</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="J169" s="12" t="s">
         <v>572</v>
@@ -8703,7 +8672,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D170" s="11">
         <v>-1</v>
@@ -8712,7 +8681,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="G170" s="11">
         <v>1</v>
@@ -8721,10 +8690,10 @@
         <v>34</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="171" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8735,7 +8704,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D171" s="11">
         <v>-1</v>
@@ -8744,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G171" s="11">
         <v>1</v>
@@ -8753,10 +8722,10 @@
         <v>34</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="172" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8776,7 +8745,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G172" s="11">
         <v>0</v>
@@ -8887,7 +8856,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="176" spans="1:12" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="11">
         <v>175</v>
       </c>
@@ -8895,95 +8864,36 @@
         <v>175</v>
       </c>
       <c r="C176" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="D176" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="23">
+        <v>1</v>
+      </c>
+      <c r="F176" s="23" t="s">
         <v>603</v>
-      </c>
-      <c r="D176" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E176" s="23">
-        <v>1</v>
-      </c>
-      <c r="F176" s="25" t="s">
-        <v>604</v>
       </c>
       <c r="G176" s="23">
         <v>0</v>
       </c>
       <c r="H176" s="23">
-        <v>36</v>
-      </c>
-      <c r="I176" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="J176" s="25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="11">
-        <v>176</v>
-      </c>
-      <c r="B177" s="11">
-        <v>176</v>
-      </c>
-      <c r="C177" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="D177" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E177" s="23">
-        <v>1</v>
-      </c>
-      <c r="F177" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I176" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="J176" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="G177" s="23">
-        <v>0</v>
-      </c>
-      <c r="H177" s="23">
-        <v>38</v>
-      </c>
-      <c r="I177" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="J177" s="25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="11">
-        <v>177</v>
-      </c>
-      <c r="B178" s="11">
-        <v>177</v>
-      </c>
-      <c r="C178" s="27" t="s">
-        <v>606</v>
-      </c>
-      <c r="D178" s="26">
-        <v>-1</v>
-      </c>
-      <c r="E178" s="26">
-        <v>1</v>
-      </c>
-      <c r="F178" s="26" t="s">
-        <v>607</v>
-      </c>
-      <c r="G178" s="26">
-        <v>0</v>
-      </c>
-      <c r="H178" s="26">
-        <v>33</v>
-      </c>
-      <c r="I178" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="J178" s="26" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="177" spans="3:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C177" s="19"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+    </row>
+    <row r="179" spans="3:10" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="822">
   <si>
     <t>id|行号</t>
   </si>
@@ -3042,14 +3042,168 @@
     <t>prop_fishbowl_fry30</t>
   </si>
   <si>
+    <t>prop_fishbowl_fry_fragment1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_stars</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒掉落物</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_12_12_lh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dhhl_iocn_lh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二礼盒道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_12_12_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>szg_iocn_xx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>szg_iocn_sl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>szg_iocn_jlyb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>szg_iocn_gjjlyb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu29</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu27</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu28</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu36</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu31</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu30</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu43</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu47</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry31</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fry_fragment1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fishbowl_stars</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish32</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3128,7 +3282,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3168,6 +3322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3214,7 +3374,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3300,6 +3460,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3580,11 +3746,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q281"/>
+  <dimension ref="A1:Q286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N157" sqref="N157:N171"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F253" sqref="F253:F284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9747,7 +9913,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D185" s="27">
         <v>-1</v>
@@ -9756,7 +9922,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>658</v>
+        <v>782</v>
       </c>
       <c r="G185" s="27">
         <v>1</v>
@@ -9790,8 +9956,8 @@
       <c r="E186" s="27">
         <v>1</v>
       </c>
-      <c r="F186" s="27" t="s">
-        <v>658</v>
+      <c r="F186" s="28" t="s">
+        <v>783</v>
       </c>
       <c r="G186" s="27">
         <v>1</v>
@@ -9825,8 +9991,8 @@
       <c r="E187" s="27">
         <v>1</v>
       </c>
-      <c r="F187" s="27" t="s">
-        <v>658</v>
+      <c r="F187" s="28" t="s">
+        <v>784</v>
       </c>
       <c r="G187" s="27">
         <v>1</v>
@@ -9860,8 +10026,8 @@
       <c r="E188" s="27">
         <v>1</v>
       </c>
-      <c r="F188" s="27" t="s">
-        <v>658</v>
+      <c r="F188" s="28" t="s">
+        <v>785</v>
       </c>
       <c r="G188" s="27">
         <v>1</v>
@@ -9895,8 +10061,8 @@
       <c r="E189" s="27">
         <v>1</v>
       </c>
-      <c r="F189" s="27" t="s">
-        <v>658</v>
+      <c r="F189" s="28" t="s">
+        <v>787</v>
       </c>
       <c r="G189" s="27">
         <v>1</v>
@@ -9931,7 +10097,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>658</v>
+        <v>788</v>
       </c>
       <c r="G190" s="27">
         <v>1</v>
@@ -9966,7 +10132,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>658</v>
+        <v>786</v>
       </c>
       <c r="G191" s="27">
         <v>1</v>
@@ -10001,7 +10167,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>658</v>
+        <v>789</v>
       </c>
       <c r="G192" s="27">
         <v>1</v>
@@ -10036,7 +10202,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>658</v>
+        <v>790</v>
       </c>
       <c r="G193" s="27">
         <v>1</v>
@@ -10071,7 +10237,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>658</v>
+        <v>791</v>
       </c>
       <c r="G194" s="27">
         <v>1</v>
@@ -10106,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>658</v>
+        <v>792</v>
       </c>
       <c r="G195" s="27">
         <v>1</v>
@@ -10141,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
       <c r="G196" s="27">
         <v>1</v>
@@ -10176,7 +10342,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>658</v>
+        <v>796</v>
       </c>
       <c r="G197" s="27">
         <v>1</v>
@@ -10211,7 +10377,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>658</v>
+        <v>797</v>
       </c>
       <c r="G198" s="27">
         <v>1</v>
@@ -10246,7 +10412,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="G199" s="27">
         <v>1</v>
@@ -10281,7 +10447,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="27" t="s">
-        <v>658</v>
+        <v>799</v>
       </c>
       <c r="G200" s="27">
         <v>1</v>
@@ -10316,7 +10482,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>658</v>
+        <v>794</v>
       </c>
       <c r="G201" s="27">
         <v>1</v>
@@ -10351,7 +10517,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>658</v>
+        <v>795</v>
       </c>
       <c r="G202" s="27">
         <v>1</v>
@@ -10386,7 +10552,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>658</v>
+        <v>800</v>
       </c>
       <c r="G203" s="27">
         <v>1</v>
@@ -10421,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>658</v>
+        <v>801</v>
       </c>
       <c r="G204" s="27">
         <v>1</v>
@@ -10456,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>658</v>
+        <v>802</v>
       </c>
       <c r="G205" s="27">
         <v>1</v>
@@ -10491,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>658</v>
+        <v>803</v>
       </c>
       <c r="G206" s="27">
         <v>1</v>
@@ -10526,7 +10692,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>658</v>
+        <v>804</v>
       </c>
       <c r="G207" s="27">
         <v>1</v>
@@ -10561,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="27" t="s">
-        <v>658</v>
+        <v>805</v>
       </c>
       <c r="G208" s="27">
         <v>1</v>
@@ -10596,7 +10762,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>658</v>
+        <v>806</v>
       </c>
       <c r="G209" s="27">
         <v>1</v>
@@ -10631,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>658</v>
+        <v>807</v>
       </c>
       <c r="G210" s="27">
         <v>1</v>
@@ -10666,7 +10832,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>658</v>
+        <v>808</v>
       </c>
       <c r="G211" s="27">
         <v>1</v>
@@ -10701,7 +10867,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>658</v>
+        <v>809</v>
       </c>
       <c r="G212" s="27">
         <v>1</v>
@@ -10736,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>658</v>
+        <v>810</v>
       </c>
       <c r="G213" s="27">
         <v>1</v>
@@ -10771,7 +10937,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>658</v>
+        <v>811</v>
       </c>
       <c r="G214" s="27">
         <v>1</v>
@@ -10806,7 +10972,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>658</v>
+        <v>812</v>
       </c>
       <c r="G215" s="27">
         <v>1</v>
@@ -10841,7 +11007,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>658</v>
+        <v>813</v>
       </c>
       <c r="G216" s="27">
         <v>1</v>
@@ -10876,7 +11042,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>658</v>
+        <v>814</v>
       </c>
       <c r="G217" s="27">
         <v>1</v>
@@ -10911,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>658</v>
+        <v>815</v>
       </c>
       <c r="G218" s="27">
         <v>1</v>
@@ -10937,7 +11103,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>773</v>
+        <v>817</v>
       </c>
       <c r="D219" s="27">
         <v>-1</v>
@@ -10946,7 +11112,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>658</v>
+        <v>816</v>
       </c>
       <c r="G219" s="27">
         <v>1</v>
@@ -10972,7 +11138,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
-        <v>774</v>
+        <v>818</v>
       </c>
       <c r="D220" s="27">
         <v>-1</v>
@@ -10980,20 +11146,20 @@
       <c r="E220" s="27">
         <v>1</v>
       </c>
-      <c r="F220" s="27" t="s">
-        <v>658</v>
+      <c r="F220" s="28" t="s">
+        <v>819</v>
       </c>
       <c r="G220" s="27">
         <v>1</v>
       </c>
       <c r="H220" s="27">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N220" s="27">
         <v>16</v>
@@ -11006,8 +11172,8 @@
       <c r="B221" s="27">
         <v>220</v>
       </c>
-      <c r="C221" s="27" t="s">
-        <v>714</v>
+      <c r="C221" s="28" t="s">
+        <v>773</v>
       </c>
       <c r="D221" s="27">
         <v>-1</v>
@@ -11015,14 +11181,14 @@
       <c r="E221" s="27">
         <v>1</v>
       </c>
-      <c r="F221" s="27" t="s">
-        <v>658</v>
+      <c r="F221" s="28" t="s">
+        <v>787</v>
       </c>
       <c r="G221" s="27">
         <v>1</v>
       </c>
       <c r="H221" s="27">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I221" s="28" t="s">
         <v>677</v>
@@ -11042,7 +11208,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D222" s="27">
         <v>-1</v>
@@ -11051,13 +11217,13 @@
         <v>1</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>658</v>
+        <v>788</v>
       </c>
       <c r="G222" s="27">
         <v>1</v>
       </c>
       <c r="H222" s="27">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I222" s="28" t="s">
         <v>677</v>
@@ -11077,7 +11243,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D223" s="27">
         <v>-1</v>
@@ -11086,13 +11252,13 @@
         <v>1</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>658</v>
+        <v>786</v>
       </c>
       <c r="G223" s="27">
         <v>1</v>
       </c>
       <c r="H223" s="27">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I223" s="28" t="s">
         <v>677</v>
@@ -11112,7 +11278,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D224" s="27">
         <v>-1</v>
@@ -11121,13 +11287,13 @@
         <v>1</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>658</v>
+        <v>789</v>
       </c>
       <c r="G224" s="27">
         <v>1</v>
       </c>
       <c r="H224" s="27">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I224" s="28" t="s">
         <v>677</v>
@@ -11147,7 +11313,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D225" s="27">
         <v>-1</v>
@@ -11156,13 +11322,13 @@
         <v>1</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>658</v>
+        <v>790</v>
       </c>
       <c r="G225" s="27">
         <v>1</v>
       </c>
       <c r="H225" s="27">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I225" s="28" t="s">
         <v>677</v>
@@ -11182,7 +11348,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D226" s="27">
         <v>-1</v>
@@ -11191,13 +11357,13 @@
         <v>1</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>658</v>
+        <v>791</v>
       </c>
       <c r="G226" s="27">
         <v>1</v>
       </c>
       <c r="H226" s="27">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I226" s="28" t="s">
         <v>677</v>
@@ -11217,7 +11383,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D227" s="27">
         <v>-1</v>
@@ -11226,13 +11392,13 @@
         <v>1</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>658</v>
+        <v>792</v>
       </c>
       <c r="G227" s="27">
         <v>1</v>
       </c>
       <c r="H227" s="27">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I227" s="28" t="s">
         <v>677</v>
@@ -11252,7 +11418,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D228" s="27">
         <v>-1</v>
@@ -11261,13 +11427,13 @@
         <v>1</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
       <c r="G228" s="27">
         <v>1</v>
       </c>
       <c r="H228" s="27">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I228" s="28" t="s">
         <v>677</v>
@@ -11287,7 +11453,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D229" s="27">
         <v>-1</v>
@@ -11296,13 +11462,13 @@
         <v>1</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>658</v>
+        <v>796</v>
       </c>
       <c r="G229" s="27">
         <v>1</v>
       </c>
       <c r="H229" s="27">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I229" s="28" t="s">
         <v>677</v>
@@ -11322,7 +11488,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D230" s="27">
         <v>-1</v>
@@ -11331,13 +11497,13 @@
         <v>1</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>658</v>
+        <v>797</v>
       </c>
       <c r="G230" s="27">
         <v>1</v>
       </c>
       <c r="H230" s="27">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I230" s="28" t="s">
         <v>677</v>
@@ -11357,7 +11523,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D231" s="27">
         <v>-1</v>
@@ -11366,13 +11532,13 @@
         <v>1</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="G231" s="27">
         <v>1</v>
       </c>
       <c r="H231" s="27">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I231" s="28" t="s">
         <v>677</v>
@@ -11392,7 +11558,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D232" s="27">
         <v>-1</v>
@@ -11401,13 +11567,13 @@
         <v>1</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>658</v>
+        <v>799</v>
       </c>
       <c r="G232" s="27">
         <v>1</v>
       </c>
       <c r="H232" s="27">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I232" s="28" t="s">
         <v>677</v>
@@ -11427,7 +11593,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D233" s="27">
         <v>-1</v>
@@ -11436,13 +11602,13 @@
         <v>1</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>658</v>
+        <v>794</v>
       </c>
       <c r="G233" s="27">
         <v>1</v>
       </c>
       <c r="H233" s="27">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I233" s="28" t="s">
         <v>677</v>
@@ -11462,7 +11628,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D234" s="27">
         <v>-1</v>
@@ -11471,13 +11637,13 @@
         <v>1</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>658</v>
+        <v>795</v>
       </c>
       <c r="G234" s="27">
         <v>1</v>
       </c>
       <c r="H234" s="27">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I234" s="28" t="s">
         <v>677</v>
@@ -11497,7 +11663,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D235" s="27">
         <v>-1</v>
@@ -11506,13 +11672,13 @@
         <v>1</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>658</v>
+        <v>800</v>
       </c>
       <c r="G235" s="27">
         <v>1</v>
       </c>
       <c r="H235" s="27">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I235" s="28" t="s">
         <v>677</v>
@@ -11532,7 +11698,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D236" s="27">
         <v>-1</v>
@@ -11541,13 +11707,13 @@
         <v>1</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>658</v>
+        <v>801</v>
       </c>
       <c r="G236" s="27">
         <v>1</v>
       </c>
       <c r="H236" s="27">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I236" s="28" t="s">
         <v>677</v>
@@ -11567,7 +11733,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D237" s="27">
         <v>-1</v>
@@ -11576,13 +11742,13 @@
         <v>1</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>658</v>
+        <v>802</v>
       </c>
       <c r="G237" s="27">
         <v>1</v>
       </c>
       <c r="H237" s="27">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I237" s="28" t="s">
         <v>677</v>
@@ -11602,7 +11768,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D238" s="27">
         <v>-1</v>
@@ -11611,13 +11777,13 @@
         <v>1</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>658</v>
+        <v>803</v>
       </c>
       <c r="G238" s="27">
         <v>1</v>
       </c>
       <c r="H238" s="27">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I238" s="28" t="s">
         <v>677</v>
@@ -11637,7 +11803,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D239" s="27">
         <v>-1</v>
@@ -11646,13 +11812,13 @@
         <v>1</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>658</v>
+        <v>804</v>
       </c>
       <c r="G239" s="27">
         <v>1</v>
       </c>
       <c r="H239" s="27">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I239" s="28" t="s">
         <v>677</v>
@@ -11672,7 +11838,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D240" s="27">
         <v>-1</v>
@@ -11681,13 +11847,13 @@
         <v>1</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>658</v>
+        <v>805</v>
       </c>
       <c r="G240" s="27">
         <v>1</v>
       </c>
       <c r="H240" s="27">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I240" s="28" t="s">
         <v>677</v>
@@ -11707,7 +11873,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D241" s="27">
         <v>-1</v>
@@ -11716,13 +11882,13 @@
         <v>1</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>658</v>
+        <v>806</v>
       </c>
       <c r="G241" s="27">
         <v>1</v>
       </c>
       <c r="H241" s="27">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I241" s="28" t="s">
         <v>677</v>
@@ -11742,7 +11908,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D242" s="27">
         <v>-1</v>
@@ -11751,13 +11917,13 @@
         <v>1</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>658</v>
+        <v>807</v>
       </c>
       <c r="G242" s="27">
         <v>1</v>
       </c>
       <c r="H242" s="27">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I242" s="28" t="s">
         <v>677</v>
@@ -11777,7 +11943,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D243" s="27">
         <v>-1</v>
@@ -11786,13 +11952,13 @@
         <v>1</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>658</v>
+        <v>808</v>
       </c>
       <c r="G243" s="27">
         <v>1</v>
       </c>
       <c r="H243" s="27">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I243" s="28" t="s">
         <v>677</v>
@@ -11812,7 +11978,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D244" s="27">
         <v>-1</v>
@@ -11821,13 +11987,13 @@
         <v>1</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>658</v>
+        <v>809</v>
       </c>
       <c r="G244" s="27">
         <v>1</v>
       </c>
       <c r="H244" s="27">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I244" s="28" t="s">
         <v>677</v>
@@ -11847,7 +12013,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D245" s="27">
         <v>-1</v>
@@ -11856,13 +12022,13 @@
         <v>1</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>658</v>
+        <v>810</v>
       </c>
       <c r="G245" s="27">
         <v>1</v>
       </c>
       <c r="H245" s="27">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I245" s="28" t="s">
         <v>677</v>
@@ -11882,7 +12048,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D246" s="27">
         <v>-1</v>
@@ -11891,13 +12057,13 @@
         <v>1</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>658</v>
+        <v>811</v>
       </c>
       <c r="G246" s="27">
         <v>1</v>
       </c>
       <c r="H246" s="27">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I246" s="28" t="s">
         <v>677</v>
@@ -11917,7 +12083,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D247" s="27">
         <v>-1</v>
@@ -11926,13 +12092,13 @@
         <v>1</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>658</v>
+        <v>812</v>
       </c>
       <c r="G247" s="27">
         <v>1</v>
       </c>
       <c r="H247" s="27">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I247" s="28" t="s">
         <v>677</v>
@@ -11952,7 +12118,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D248" s="27">
         <v>-1</v>
@@ -11961,13 +12127,13 @@
         <v>1</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>658</v>
+        <v>813</v>
       </c>
       <c r="G248" s="27">
         <v>1</v>
       </c>
       <c r="H248" s="27">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I248" s="28" t="s">
         <v>677</v>
@@ -11987,7 +12153,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D249" s="27">
         <v>-1</v>
@@ -11996,13 +12162,13 @@
         <v>1</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>658</v>
+        <v>814</v>
       </c>
       <c r="G249" s="27">
         <v>1</v>
       </c>
       <c r="H249" s="27">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I249" s="28" t="s">
         <v>677</v>
@@ -12022,7 +12188,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D250" s="27">
         <v>-1</v>
@@ -12031,13 +12197,13 @@
         <v>1</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>658</v>
+        <v>815</v>
       </c>
       <c r="G250" s="27">
         <v>1</v>
       </c>
       <c r="H250" s="27">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I250" s="28" t="s">
         <v>677</v>
@@ -12056,8 +12222,8 @@
       <c r="B251" s="27">
         <v>250</v>
       </c>
-      <c r="C251" s="28" t="s">
-        <v>667</v>
+      <c r="C251" s="27" t="s">
+        <v>743</v>
       </c>
       <c r="D251" s="27">
         <v>-1</v>
@@ -12066,19 +12232,19 @@
         <v>1</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>658</v>
+        <v>816</v>
       </c>
       <c r="G251" s="27">
         <v>1</v>
       </c>
       <c r="H251" s="27">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I251" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J251" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N251" s="27">
         <v>16</v>
@@ -12092,7 +12258,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>684</v>
+        <v>820</v>
       </c>
       <c r="D252" s="27">
         <v>-1</v>
@@ -12100,20 +12266,20 @@
       <c r="E252" s="27">
         <v>1</v>
       </c>
-      <c r="F252" s="27" t="s">
-        <v>658</v>
+      <c r="F252" s="28" t="s">
+        <v>819</v>
       </c>
       <c r="G252" s="27">
         <v>1</v>
       </c>
       <c r="H252" s="27">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I252" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J252" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N252" s="27">
         <v>16</v>
@@ -12127,7 +12293,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="D253" s="27">
         <v>-1</v>
@@ -12135,14 +12301,14 @@
       <c r="E253" s="27">
         <v>1</v>
       </c>
-      <c r="F253" s="27" t="s">
-        <v>658</v>
+      <c r="F253" s="28" t="s">
+        <v>787</v>
       </c>
       <c r="G253" s="27">
         <v>1</v>
       </c>
       <c r="H253" s="27">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I253" s="28" t="s">
         <v>678</v>
@@ -12162,7 +12328,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D254" s="27">
         <v>-1</v>
@@ -12171,13 +12337,13 @@
         <v>1</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>658</v>
+        <v>788</v>
       </c>
       <c r="G254" s="27">
         <v>1</v>
       </c>
       <c r="H254" s="27">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I254" s="28" t="s">
         <v>678</v>
@@ -12197,7 +12363,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D255" s="27">
         <v>-1</v>
@@ -12206,13 +12372,13 @@
         <v>1</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>658</v>
+        <v>786</v>
       </c>
       <c r="G255" s="27">
         <v>1</v>
       </c>
       <c r="H255" s="27">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I255" s="28" t="s">
         <v>678</v>
@@ -12232,7 +12398,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D256" s="27">
         <v>-1</v>
@@ -12241,13 +12407,13 @@
         <v>1</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>658</v>
+        <v>789</v>
       </c>
       <c r="G256" s="27">
         <v>1</v>
       </c>
       <c r="H256" s="27">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I256" s="28" t="s">
         <v>678</v>
@@ -12267,7 +12433,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D257" s="27">
         <v>-1</v>
@@ -12276,13 +12442,13 @@
         <v>1</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>658</v>
+        <v>790</v>
       </c>
       <c r="G257" s="27">
         <v>1</v>
       </c>
       <c r="H257" s="27">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I257" s="28" t="s">
         <v>678</v>
@@ -12302,7 +12468,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D258" s="27">
         <v>-1</v>
@@ -12311,13 +12477,13 @@
         <v>1</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>658</v>
+        <v>791</v>
       </c>
       <c r="G258" s="27">
         <v>1</v>
       </c>
       <c r="H258" s="27">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I258" s="28" t="s">
         <v>678</v>
@@ -12337,7 +12503,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D259" s="27">
         <v>-1</v>
@@ -12346,13 +12512,13 @@
         <v>1</v>
       </c>
       <c r="F259" s="27" t="s">
-        <v>658</v>
+        <v>792</v>
       </c>
       <c r="G259" s="27">
         <v>1</v>
       </c>
       <c r="H259" s="27">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I259" s="28" t="s">
         <v>678</v>
@@ -12372,7 +12538,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D260" s="27">
         <v>-1</v>
@@ -12381,13 +12547,13 @@
         <v>1</v>
       </c>
       <c r="F260" s="27" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
       <c r="G260" s="27">
         <v>1</v>
       </c>
       <c r="H260" s="27">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I260" s="28" t="s">
         <v>678</v>
@@ -12407,7 +12573,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D261" s="27">
         <v>-1</v>
@@ -12416,13 +12582,13 @@
         <v>1</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>658</v>
+        <v>796</v>
       </c>
       <c r="G261" s="27">
         <v>1</v>
       </c>
       <c r="H261" s="27">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I261" s="28" t="s">
         <v>678</v>
@@ -12442,7 +12608,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D262" s="27">
         <v>-1</v>
@@ -12451,13 +12617,13 @@
         <v>1</v>
       </c>
       <c r="F262" s="27" t="s">
-        <v>658</v>
+        <v>797</v>
       </c>
       <c r="G262" s="27">
         <v>1</v>
       </c>
       <c r="H262" s="27">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I262" s="28" t="s">
         <v>678</v>
@@ -12477,7 +12643,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D263" s="27">
         <v>-1</v>
@@ -12486,13 +12652,13 @@
         <v>1</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="G263" s="27">
         <v>1</v>
       </c>
       <c r="H263" s="27">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I263" s="28" t="s">
         <v>678</v>
@@ -12512,7 +12678,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D264" s="27">
         <v>-1</v>
@@ -12521,13 +12687,13 @@
         <v>1</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>658</v>
+        <v>799</v>
       </c>
       <c r="G264" s="27">
         <v>1</v>
       </c>
       <c r="H264" s="27">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I264" s="28" t="s">
         <v>678</v>
@@ -12547,7 +12713,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D265" s="27">
         <v>-1</v>
@@ -12556,13 +12722,13 @@
         <v>1</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>658</v>
+        <v>794</v>
       </c>
       <c r="G265" s="27">
         <v>1</v>
       </c>
       <c r="H265" s="27">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I265" s="28" t="s">
         <v>678</v>
@@ -12582,7 +12748,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D266" s="27">
         <v>-1</v>
@@ -12591,13 +12757,13 @@
         <v>1</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>658</v>
+        <v>795</v>
       </c>
       <c r="G266" s="27">
         <v>1</v>
       </c>
       <c r="H266" s="27">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I266" s="28" t="s">
         <v>678</v>
@@ -12617,7 +12783,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D267" s="27">
         <v>-1</v>
@@ -12626,13 +12792,13 @@
         <v>1</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>658</v>
+        <v>800</v>
       </c>
       <c r="G267" s="27">
         <v>1</v>
       </c>
       <c r="H267" s="27">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I267" s="28" t="s">
         <v>678</v>
@@ -12652,7 +12818,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D268" s="27">
         <v>-1</v>
@@ -12661,13 +12827,13 @@
         <v>1</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>658</v>
+        <v>801</v>
       </c>
       <c r="G268" s="27">
         <v>1</v>
       </c>
       <c r="H268" s="27">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I268" s="28" t="s">
         <v>678</v>
@@ -12687,7 +12853,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D269" s="27">
         <v>-1</v>
@@ -12696,13 +12862,13 @@
         <v>1</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>658</v>
+        <v>802</v>
       </c>
       <c r="G269" s="27">
         <v>1</v>
       </c>
       <c r="H269" s="27">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I269" s="28" t="s">
         <v>678</v>
@@ -12722,7 +12888,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D270" s="27">
         <v>-1</v>
@@ -12731,13 +12897,13 @@
         <v>1</v>
       </c>
       <c r="F270" s="27" t="s">
-        <v>658</v>
+        <v>803</v>
       </c>
       <c r="G270" s="27">
         <v>1</v>
       </c>
       <c r="H270" s="27">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I270" s="28" t="s">
         <v>678</v>
@@ -12757,7 +12923,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D271" s="27">
         <v>-1</v>
@@ -12766,13 +12932,13 @@
         <v>1</v>
       </c>
       <c r="F271" s="27" t="s">
-        <v>658</v>
+        <v>804</v>
       </c>
       <c r="G271" s="27">
         <v>1</v>
       </c>
       <c r="H271" s="27">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I271" s="28" t="s">
         <v>678</v>
@@ -12792,7 +12958,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D272" s="27">
         <v>-1</v>
@@ -12801,13 +12967,13 @@
         <v>1</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>658</v>
+        <v>805</v>
       </c>
       <c r="G272" s="27">
         <v>1</v>
       </c>
       <c r="H272" s="27">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I272" s="28" t="s">
         <v>678</v>
@@ -12827,7 +12993,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D273" s="27">
         <v>-1</v>
@@ -12836,13 +13002,13 @@
         <v>1</v>
       </c>
       <c r="F273" s="27" t="s">
-        <v>658</v>
+        <v>806</v>
       </c>
       <c r="G273" s="27">
         <v>1</v>
       </c>
       <c r="H273" s="27">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I273" s="28" t="s">
         <v>678</v>
@@ -12862,7 +13028,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D274" s="27">
         <v>-1</v>
@@ -12871,13 +13037,13 @@
         <v>1</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>658</v>
+        <v>807</v>
       </c>
       <c r="G274" s="27">
         <v>1</v>
       </c>
       <c r="H274" s="27">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I274" s="28" t="s">
         <v>678</v>
@@ -12897,7 +13063,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D275" s="27">
         <v>-1</v>
@@ -12906,13 +13072,13 @@
         <v>1</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>658</v>
+        <v>808</v>
       </c>
       <c r="G275" s="27">
         <v>1</v>
       </c>
       <c r="H275" s="27">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I275" s="28" t="s">
         <v>678</v>
@@ -12932,7 +13098,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D276" s="27">
         <v>-1</v>
@@ -12941,13 +13107,13 @@
         <v>1</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>658</v>
+        <v>809</v>
       </c>
       <c r="G276" s="27">
         <v>1</v>
       </c>
       <c r="H276" s="27">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I276" s="28" t="s">
         <v>678</v>
@@ -12967,7 +13133,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D277" s="27">
         <v>-1</v>
@@ -12976,13 +13142,13 @@
         <v>1</v>
       </c>
       <c r="F277" s="27" t="s">
-        <v>658</v>
+        <v>810</v>
       </c>
       <c r="G277" s="27">
         <v>1</v>
       </c>
       <c r="H277" s="27">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I277" s="28" t="s">
         <v>678</v>
@@ -13002,7 +13168,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D278" s="27">
         <v>-1</v>
@@ -13011,13 +13177,13 @@
         <v>1</v>
       </c>
       <c r="F278" s="27" t="s">
-        <v>658</v>
+        <v>811</v>
       </c>
       <c r="G278" s="27">
         <v>1</v>
       </c>
       <c r="H278" s="27">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I278" s="28" t="s">
         <v>678</v>
@@ -13037,7 +13203,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D279" s="27">
         <v>-1</v>
@@ -13046,13 +13212,13 @@
         <v>1</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>658</v>
+        <v>812</v>
       </c>
       <c r="G279" s="27">
         <v>1</v>
       </c>
       <c r="H279" s="27">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I279" s="28" t="s">
         <v>678</v>
@@ -13072,7 +13238,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D280" s="27">
         <v>-1</v>
@@ -13081,13 +13247,13 @@
         <v>1</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>658</v>
+        <v>813</v>
       </c>
       <c r="G280" s="27">
         <v>1</v>
       </c>
       <c r="H280" s="27">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I280" s="28" t="s">
         <v>678</v>
@@ -13107,7 +13273,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D281" s="27">
         <v>-1</v>
@@ -13116,13 +13282,13 @@
         <v>1</v>
       </c>
       <c r="F281" s="27" t="s">
-        <v>658</v>
+        <v>814</v>
       </c>
       <c r="G281" s="27">
         <v>1</v>
       </c>
       <c r="H281" s="27">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I281" s="28" t="s">
         <v>678</v>
@@ -13132,6 +13298,175 @@
       </c>
       <c r="N281" s="27">
         <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A282" s="27">
+        <v>281</v>
+      </c>
+      <c r="B282" s="27">
+        <v>281</v>
+      </c>
+      <c r="C282" s="28" t="s">
+        <v>712</v>
+      </c>
+      <c r="D282" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E282" s="27">
+        <v>1</v>
+      </c>
+      <c r="F282" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="G282" s="27">
+        <v>1</v>
+      </c>
+      <c r="H282" s="27">
+        <v>98</v>
+      </c>
+      <c r="I282" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J282" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N282" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A283" s="27">
+        <v>282</v>
+      </c>
+      <c r="B283" s="27">
+        <v>282</v>
+      </c>
+      <c r="C283" s="28" t="s">
+        <v>713</v>
+      </c>
+      <c r="D283" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E283" s="27">
+        <v>1</v>
+      </c>
+      <c r="F283" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="G283" s="27">
+        <v>1</v>
+      </c>
+      <c r="H283" s="27">
+        <v>99</v>
+      </c>
+      <c r="I283" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J283" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N283" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A284" s="27">
+        <v>283</v>
+      </c>
+      <c r="B284" s="27">
+        <v>283</v>
+      </c>
+      <c r="C284" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="D284" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E284" s="27">
+        <v>1</v>
+      </c>
+      <c r="F284" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="G284" s="27">
+        <v>1</v>
+      </c>
+      <c r="H284" s="27">
+        <v>99</v>
+      </c>
+      <c r="I284" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J284" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N284" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="27">
+        <v>284</v>
+      </c>
+      <c r="B285" s="27">
+        <v>284</v>
+      </c>
+      <c r="C285" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="D285" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="G285" s="29">
+        <v>0</v>
+      </c>
+      <c r="H285" s="29">
+        <v>33</v>
+      </c>
+      <c r="I285" s="30" t="s">
+        <v>775</v>
+      </c>
+      <c r="J285" s="30" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="27">
+        <v>285</v>
+      </c>
+      <c r="B286" s="27">
+        <v>285</v>
+      </c>
+      <c r="C286" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="D286" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E286" s="29">
+        <v>1</v>
+      </c>
+      <c r="F286" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="G286" s="29">
+        <v>0</v>
+      </c>
+      <c r="H286" s="29">
+        <v>33</v>
+      </c>
+      <c r="I286" s="29" t="s">
+        <v>779</v>
+      </c>
+      <c r="J286" s="29" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3582,9 +3582,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B191" sqref="B191"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N97" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6758,6 +6758,9 @@
       <c r="J97" s="5" t="s">
         <v>348</v>
       </c>
+      <c r="N97" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="826">
   <si>
     <t>id|行号</t>
   </si>
@@ -3204,6 +3204,22 @@
   </si>
   <si>
     <t>prop_fishbowl_fish32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_dz_jz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hldz_iocn_jz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子掉落物</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬至饺子掉落物</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3282,7 +3298,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3331,6 +3347,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3374,7 +3396,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3466,6 +3488,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3746,11 +3774,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q286"/>
+  <dimension ref="A1:Q287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F253" sqref="F253:F284"/>
+      <selection pane="bottomLeft" activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13469,6 +13497,38 @@
         <v>780</v>
       </c>
     </row>
+    <row r="287" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="31">
+        <v>286</v>
+      </c>
+      <c r="B287" s="31">
+        <v>286</v>
+      </c>
+      <c r="C287" s="32" t="s">
+        <v>822</v>
+      </c>
+      <c r="D287" s="31">
+        <v>-1</v>
+      </c>
+      <c r="E287" s="31">
+        <v>1</v>
+      </c>
+      <c r="F287" s="31" t="s">
+        <v>823</v>
+      </c>
+      <c r="G287" s="31">
+        <v>0</v>
+      </c>
+      <c r="H287" s="31">
+        <v>33</v>
+      </c>
+      <c r="I287" s="31" t="s">
+        <v>824</v>
+      </c>
+      <c r="J287" s="31" t="s">
+        <v>825</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3582,9 +3582,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N97" sqref="N97"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N157" sqref="N157:N171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8366,7 +8366,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="11">
         <v>145</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="147" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="11">
         <v>146</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="11">
         <v>147</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="149" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="11">
         <v>148</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="150" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="11">
         <v>149</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="151" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="11">
         <v>150</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="11">
         <v>151</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="153" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="11">
         <v>152</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="11">
         <v>153</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="155" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="11">
         <v>154</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="156" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="11">
         <v>155</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="157" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="11">
         <v>156</v>
       </c>
@@ -8784,8 +8784,11 @@
       <c r="L157" s="12" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N157" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="11">
         <v>157</v>
       </c>
@@ -8819,8 +8822,11 @@
       <c r="L158" s="12" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N158" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="11">
         <v>158</v>
       </c>
@@ -8854,8 +8860,11 @@
       <c r="L159" s="12" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N159" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="11">
         <v>159</v>
       </c>
@@ -8889,8 +8898,11 @@
       <c r="L160" s="12" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N160" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="11">
         <v>160</v>
       </c>
@@ -8924,8 +8936,11 @@
       <c r="L161" s="12" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N161" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="11">
         <v>161</v>
       </c>
@@ -8956,8 +8971,11 @@
       <c r="J162" s="12" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N162" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="11">
         <v>162</v>
       </c>
@@ -8988,8 +9006,11 @@
       <c r="J163" s="12" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N163" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="11">
         <v>163</v>
       </c>
@@ -9020,8 +9041,11 @@
       <c r="J164" s="12" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N164" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="11">
         <v>164</v>
       </c>
@@ -9052,8 +9076,11 @@
       <c r="J165" s="12" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N165" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="11">
         <v>165</v>
       </c>
@@ -9084,8 +9111,11 @@
       <c r="J166" s="12" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N166" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="11">
         <v>166</v>
       </c>
@@ -9116,8 +9146,11 @@
       <c r="J167" s="12" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N167" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="11">
         <v>167</v>
       </c>
@@ -9148,8 +9181,11 @@
       <c r="J168" s="12" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N168" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="11">
         <v>168</v>
       </c>
@@ -9180,8 +9216,11 @@
       <c r="J169" s="12" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N169" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="11">
         <v>169</v>
       </c>
@@ -9212,8 +9251,11 @@
       <c r="J170" s="12" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N170" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="11">
         <v>170</v>
       </c>
@@ -9244,8 +9286,11 @@
       <c r="J171" s="12" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N171" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="11">
         <v>171</v>
       </c>
@@ -9277,7 +9322,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="173" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="11">
         <v>172</v>
       </c>
@@ -9309,7 +9354,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="174" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="11">
         <v>173</v>
       </c>
@@ -9341,7 +9386,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="175" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="11">
         <v>174</v>
       </c>
@@ -9373,7 +9418,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="176" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="11">
         <v>175</v>
       </c>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="825">
   <si>
     <t>id|行号</t>
   </si>
@@ -1807,10 +1807,6 @@
   </si>
   <si>
     <t>prop_3d_fish_lock</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_flqcj","panel",1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3776,9 +3772,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q287"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B288" sqref="B288"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3842,7 +3838,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>296</v>
@@ -4758,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -5081,7 +5077,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D43" s="2">
         <v>-1</v>
@@ -6085,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -6367,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -6381,9 +6377,7 @@
       <c r="J80" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="L80" s="5" t="s">
-        <v>432</v>
-      </c>
+      <c r="L80" s="5"/>
     </row>
     <row r="81" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
@@ -6929,7 +6923,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D97" s="2">
         <v>-1</v>
@@ -7646,16 +7640,16 @@
         <v>116</v>
       </c>
       <c r="C117" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="D117" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="D117" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>451</v>
       </c>
       <c r="G117" s="2">
         <v>0</v>
@@ -7664,10 +7658,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -7680,16 +7674,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D118" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="D118" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E118" s="2">
-        <v>1</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>434</v>
       </c>
       <c r="G118" s="2">
         <v>0</v>
@@ -7698,10 +7692,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7712,16 +7706,16 @@
         <v>118</v>
       </c>
       <c r="C119" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D119" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="D119" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>439</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
@@ -7730,10 +7724,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7744,16 +7738,16 @@
         <v>119</v>
       </c>
       <c r="C120" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="D120" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="D120" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
@@ -7762,10 +7756,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7776,16 +7770,16 @@
         <v>120</v>
       </c>
       <c r="C121" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D121" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="D121" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E121" s="2">
-        <v>1</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -7794,10 +7788,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7808,16 +7802,16 @@
         <v>121</v>
       </c>
       <c r="C122" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D122" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="D122" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
@@ -7826,10 +7820,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7840,7 +7834,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D123" s="2">
         <v>-1</v>
@@ -7849,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
@@ -7858,10 +7852,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N123" s="2">
         <v>1</v>
@@ -7875,7 +7869,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D124" s="2">
         <v>-1</v>
@@ -7884,7 +7878,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
@@ -7893,10 +7887,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N124" s="2">
         <v>1</v>
@@ -7910,7 +7904,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D125" s="2">
         <v>-1</v>
@@ -7919,7 +7913,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
@@ -7928,10 +7922,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N125" s="2">
         <v>1</v>
@@ -7945,7 +7939,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D126" s="2">
         <v>-1</v>
@@ -7954,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -7963,10 +7957,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N126" s="2">
         <v>1</v>
@@ -7980,7 +7974,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D127" s="2">
         <v>-1</v>
@@ -7989,7 +7983,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -7998,10 +7992,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N127" s="2">
         <v>1</v>
@@ -8015,7 +8009,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D128" s="2">
         <v>-1</v>
@@ -8024,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
@@ -8033,10 +8027,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N128" s="2">
         <v>1</v>
@@ -8050,7 +8044,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D129" s="2">
         <v>-1</v>
@@ -8059,7 +8053,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
@@ -8068,10 +8062,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N129" s="2">
         <v>1</v>
@@ -8085,7 +8079,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D130" s="2">
         <v>-1</v>
@@ -8094,7 +8088,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
@@ -8103,10 +8097,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N130" s="2">
         <v>1</v>
@@ -8120,7 +8114,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D131" s="2">
         <v>-1</v>
@@ -8129,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G131" s="2">
         <v>0</v>
@@ -8138,10 +8132,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="J131" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -8152,7 +8146,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D132" s="2">
         <v>-1</v>
@@ -8161,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G132" s="2">
         <v>0</v>
@@ -8170,10 +8164,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="J132" s="5" t="s">
         <v>471</v>
-      </c>
-      <c r="J132" s="5" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -8184,7 +8178,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D133" s="2">
         <v>-1</v>
@@ -8193,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G133" s="2">
         <v>0</v>
@@ -8202,10 +8196,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -8216,7 +8210,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D134" s="2">
         <v>-1</v>
@@ -8225,7 +8219,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G134" s="2">
         <v>0</v>
@@ -8234,10 +8228,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -8248,7 +8242,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D135" s="2">
         <v>-1</v>
@@ -8257,7 +8251,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G135" s="2">
         <v>0</v>
@@ -8266,10 +8260,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -8280,7 +8274,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D136" s="2">
         <v>-1</v>
@@ -8289,7 +8283,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G136" s="2">
         <v>0</v>
@@ -8298,10 +8292,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -8312,7 +8306,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D137" s="2">
         <v>-1</v>
@@ -8321,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G137" s="2">
         <v>0</v>
@@ -8330,10 +8324,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -8344,7 +8338,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D138" s="2">
         <v>-1</v>
@@ -8353,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -8362,10 +8356,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -8376,7 +8370,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D139" s="2">
         <v>-1</v>
@@ -8385,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -8394,10 +8388,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -8408,7 +8402,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D140" s="2">
         <v>-1</v>
@@ -8426,10 +8420,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -8440,7 +8434,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D141" s="2">
         <v>-1</v>
@@ -8449,7 +8443,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -8458,10 +8452,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -8472,7 +8466,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D142" s="2">
         <v>-1</v>
@@ -8481,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -8490,10 +8484,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -8504,7 +8498,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D143" s="2">
         <v>-1</v>
@@ -8513,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -8522,10 +8516,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -8536,7 +8530,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D144" s="2">
         <v>-1</v>
@@ -8545,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -8554,10 +8548,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="J144" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="J144" s="5" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
@@ -8568,7 +8562,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D145" s="2">
         <v>-1</v>
@@ -8577,7 +8571,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -8586,10 +8580,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="J145" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="J145" s="5" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="146" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8600,7 +8594,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D146" s="11">
         <v>-1</v>
@@ -8609,7 +8603,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G146" s="11">
         <v>0</v>
@@ -8618,10 +8612,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="J146" s="21" t="s">
         <v>521</v>
-      </c>
-      <c r="J146" s="21" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="147" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8632,7 +8626,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D147" s="11">
         <v>-1</v>
@@ -8641,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G147" s="11">
         <v>0</v>
@@ -8650,10 +8644,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="J147" s="21" t="s">
         <v>524</v>
-      </c>
-      <c r="J147" s="21" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="148" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8664,7 +8658,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D148" s="11">
         <v>-1</v>
@@ -8673,7 +8667,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G148" s="11">
         <v>0</v>
@@ -8682,10 +8676,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="J148" s="21" t="s">
         <v>527</v>
-      </c>
-      <c r="J148" s="21" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="149" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8696,7 +8690,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D149" s="11">
         <v>-1</v>
@@ -8705,7 +8699,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G149" s="11">
         <v>0</v>
@@ -8714,10 +8708,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="J149" s="21" t="s">
         <v>530</v>
-      </c>
-      <c r="J149" s="21" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="150" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8728,7 +8722,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D150" s="11">
         <v>-1</v>
@@ -8737,7 +8731,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G150" s="11">
         <v>0</v>
@@ -8746,10 +8740,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="J150" s="21" t="s">
         <v>533</v>
-      </c>
-      <c r="J150" s="21" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="151" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8760,16 +8754,16 @@
         <v>150</v>
       </c>
       <c r="C151" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="D151" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="11">
+        <v>1</v>
+      </c>
+      <c r="F151" s="12" t="s">
         <v>535</v>
-      </c>
-      <c r="D151" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E151" s="11">
-        <v>1</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>536</v>
       </c>
       <c r="G151" s="11">
         <v>0</v>
@@ -8778,10 +8772,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J151" s="21" t="s">
         <v>537</v>
-      </c>
-      <c r="J151" s="21" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="152" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8792,7 +8786,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D152" s="11">
         <v>-1</v>
@@ -8801,7 +8795,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G152" s="11">
         <v>0</v>
@@ -8810,10 +8804,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J152" s="21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="153" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8824,7 +8818,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D153" s="11">
         <v>-1</v>
@@ -8833,7 +8827,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G153" s="11">
         <v>0</v>
@@ -8842,10 +8836,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J153" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="154" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8856,7 +8850,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D154" s="11">
         <v>-1</v>
@@ -8865,7 +8859,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G154" s="11">
         <v>0</v>
@@ -8874,10 +8868,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J154" s="21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="155" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -8888,16 +8882,16 @@
         <v>154</v>
       </c>
       <c r="C155" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D155" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="11">
+        <v>1</v>
+      </c>
+      <c r="F155" s="12" t="s">
         <v>550</v>
-      </c>
-      <c r="D155" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E155" s="11">
-        <v>1</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>551</v>
       </c>
       <c r="G155" s="11">
         <v>0</v>
@@ -8909,7 +8903,7 @@
         <v>427</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="156" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8920,7 +8914,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D156" s="11">
         <v>-1</v>
@@ -8929,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G156" s="11">
         <v>0</v>
@@ -8938,10 +8932,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="J156" s="21" t="s">
         <v>553</v>
-      </c>
-      <c r="J156" s="21" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="157" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8952,7 +8946,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D157" s="11">
         <v>-1</v>
@@ -8961,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G157" s="11">
         <v>1</v>
@@ -8970,13 +8964,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N157" s="11">
         <v>9</v>
@@ -8990,7 +8984,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D158" s="11">
         <v>-1</v>
@@ -8999,7 +8993,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G158" s="11">
         <v>1</v>
@@ -9008,13 +9002,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N158" s="11">
         <v>9</v>
@@ -9028,7 +9022,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D159" s="11">
         <v>-1</v>
@@ -9037,7 +9031,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G159" s="11">
         <v>1</v>
@@ -9046,13 +9040,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N159" s="11">
         <v>9</v>
@@ -9066,7 +9060,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -9075,7 +9069,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -9084,13 +9078,13 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N160" s="11">
         <v>9</v>
@@ -9104,7 +9098,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -9113,7 +9107,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -9122,13 +9116,13 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N161" s="11">
         <v>9</v>
@@ -9142,7 +9136,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D162" s="11">
         <v>-1</v>
@@ -9151,7 +9145,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G162" s="11">
         <v>1</v>
@@ -9160,10 +9154,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N162" s="11">
         <v>9</v>
@@ -9177,7 +9171,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D163" s="11">
         <v>-1</v>
@@ -9186,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G163" s="11">
         <v>1</v>
@@ -9195,10 +9189,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N163" s="11">
         <v>9</v>
@@ -9212,7 +9206,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D164" s="11">
         <v>-1</v>
@@ -9221,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G164" s="11">
         <v>1</v>
@@ -9230,10 +9224,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N164" s="11">
         <v>9</v>
@@ -9247,7 +9241,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D165" s="11">
         <v>-1</v>
@@ -9256,7 +9250,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G165" s="11">
         <v>1</v>
@@ -9265,10 +9259,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N165" s="11">
         <v>9</v>
@@ -9282,7 +9276,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D166" s="11">
         <v>-1</v>
@@ -9291,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G166" s="11">
         <v>1</v>
@@ -9300,10 +9294,10 @@
         <v>34</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N166" s="11">
         <v>9</v>
@@ -9317,7 +9311,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D167" s="11">
         <v>-1</v>
@@ -9326,7 +9320,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G167" s="11">
         <v>1</v>
@@ -9335,10 +9329,10 @@
         <v>34</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N167" s="11">
         <v>9</v>
@@ -9352,7 +9346,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D168" s="11">
         <v>-1</v>
@@ -9361,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G168" s="11">
         <v>1</v>
@@ -9370,10 +9364,10 @@
         <v>34</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N168" s="11">
         <v>9</v>
@@ -9387,7 +9381,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D169" s="11">
         <v>-1</v>
@@ -9396,7 +9390,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G169" s="11">
         <v>1</v>
@@ -9405,10 +9399,10 @@
         <v>34</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N169" s="11">
         <v>9</v>
@@ -9422,7 +9416,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D170" s="11">
         <v>-1</v>
@@ -9431,7 +9425,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G170" s="11">
         <v>1</v>
@@ -9440,10 +9434,10 @@
         <v>34</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N170" s="11">
         <v>9</v>
@@ -9457,7 +9451,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D171" s="11">
         <v>-1</v>
@@ -9466,7 +9460,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G171" s="11">
         <v>1</v>
@@ -9475,10 +9469,10 @@
         <v>34</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N171" s="11">
         <v>9</v>
@@ -9492,7 +9486,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D172" s="11">
         <v>-1</v>
@@ -9501,7 +9495,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G172" s="11">
         <v>0</v>
@@ -9510,10 +9504,10 @@
         <v>33</v>
       </c>
       <c r="I172" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="J172" s="12" t="s">
         <v>582</v>
-      </c>
-      <c r="J172" s="12" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="173" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9524,16 +9518,16 @@
         <v>172</v>
       </c>
       <c r="C173" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="D173" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E173" s="13">
+        <v>1</v>
+      </c>
+      <c r="F173" s="13" t="s">
         <v>589</v>
-      </c>
-      <c r="D173" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E173" s="13">
-        <v>1</v>
-      </c>
-      <c r="F173" s="13" t="s">
-        <v>590</v>
       </c>
       <c r="G173" s="13">
         <v>1</v>
@@ -9542,10 +9536,10 @@
         <v>33</v>
       </c>
       <c r="I173" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="J173" s="13" t="s">
         <v>591</v>
-      </c>
-      <c r="J173" s="13" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="174" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9556,16 +9550,16 @@
         <v>173</v>
       </c>
       <c r="C174" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="D174" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E174" s="13">
+        <v>1</v>
+      </c>
+      <c r="F174" s="13" t="s">
         <v>593</v>
-      </c>
-      <c r="D174" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E174" s="13">
-        <v>1</v>
-      </c>
-      <c r="F174" s="13" t="s">
-        <v>594</v>
       </c>
       <c r="G174" s="13">
         <v>1</v>
@@ -9574,10 +9568,10 @@
         <v>33</v>
       </c>
       <c r="I174" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="J174" s="13" t="s">
         <v>595</v>
-      </c>
-      <c r="J174" s="13" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="175" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9588,16 +9582,16 @@
         <v>174</v>
       </c>
       <c r="C175" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D175" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E175" s="13">
+        <v>1</v>
+      </c>
+      <c r="F175" s="13" t="s">
         <v>597</v>
-      </c>
-      <c r="D175" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E175" s="13">
-        <v>1</v>
-      </c>
-      <c r="F175" s="13" t="s">
-        <v>598</v>
       </c>
       <c r="G175" s="13">
         <v>1</v>
@@ -9606,10 +9600,10 @@
         <v>33</v>
       </c>
       <c r="I175" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="J175" s="13" t="s">
         <v>599</v>
-      </c>
-      <c r="J175" s="13" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="176" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -9620,16 +9614,16 @@
         <v>175</v>
       </c>
       <c r="C176" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="D176" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="23">
+        <v>1</v>
+      </c>
+      <c r="F176" s="23" t="s">
         <v>601</v>
-      </c>
-      <c r="D176" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E176" s="23">
-        <v>1</v>
-      </c>
-      <c r="F176" s="23" t="s">
-        <v>602</v>
       </c>
       <c r="G176" s="23">
         <v>0</v>
@@ -9638,10 +9632,10 @@
         <v>33</v>
       </c>
       <c r="I176" s="23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J176" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="177" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -9652,16 +9646,16 @@
         <v>176</v>
       </c>
       <c r="C177" s="25" t="s">
+        <v>625</v>
+      </c>
+      <c r="D177" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E177" s="25">
+        <v>1</v>
+      </c>
+      <c r="F177" s="25" t="s">
         <v>626</v>
-      </c>
-      <c r="D177" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E177" s="25">
-        <v>1</v>
-      </c>
-      <c r="F177" s="25" t="s">
-        <v>627</v>
       </c>
       <c r="G177" s="25">
         <v>0</v>
@@ -9670,10 +9664,10 @@
         <v>33</v>
       </c>
       <c r="I177" s="25" t="s">
+        <v>627</v>
+      </c>
+      <c r="J177" s="25" t="s">
         <v>628</v>
-      </c>
-      <c r="J177" s="25" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="178" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9684,7 +9678,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D178" s="2">
         <v>-1</v>
@@ -9693,7 +9687,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G178" s="2">
         <v>1</v>
@@ -9702,10 +9696,10 @@
         <v>32</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
@@ -9721,7 +9715,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D179" s="2">
         <v>-1</v>
@@ -9730,7 +9724,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G179" s="2">
         <v>1</v>
@@ -9739,10 +9733,10 @@
         <v>33</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
@@ -9758,7 +9752,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D180" s="2">
         <v>-1</v>
@@ -9767,7 +9761,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
@@ -9776,10 +9770,10 @@
         <v>33</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
@@ -9795,7 +9789,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D181" s="25">
         <v>-1</v>
@@ -9804,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="25" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G181" s="25">
         <v>0</v>
@@ -9813,10 +9807,10 @@
         <v>33</v>
       </c>
       <c r="I181" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J181" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="182" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -9827,16 +9821,16 @@
         <v>181</v>
       </c>
       <c r="C182" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="D182" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E182" s="23">
+        <v>1</v>
+      </c>
+      <c r="F182" s="23" t="s">
         <v>655</v>
-      </c>
-      <c r="D182" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E182" s="23">
-        <v>1</v>
-      </c>
-      <c r="F182" s="23" t="s">
-        <v>656</v>
       </c>
       <c r="G182" s="23">
         <v>1</v>
@@ -9845,13 +9839,13 @@
         <v>33</v>
       </c>
       <c r="I182" s="24" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J182" s="23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L182" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="O182" s="23">
         <v>57</v>
@@ -9865,7 +9859,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D183" s="23">
         <v>-1</v>
@@ -9874,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="23" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G183" s="23">
         <v>1</v>
@@ -9883,13 +9877,13 @@
         <v>33</v>
       </c>
       <c r="I183" s="24" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J183" s="24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L183" s="23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O183" s="23">
         <v>58</v>
@@ -9903,7 +9897,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D184" s="23">
         <v>-1</v>
@@ -9912,7 +9906,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="23" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G184" s="23">
         <v>1</v>
@@ -9921,13 +9915,13 @@
         <v>33</v>
       </c>
       <c r="I184" s="24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J184" s="24" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L184" s="23" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O184" s="23">
         <v>59</v>
@@ -9941,7 +9935,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D185" s="27">
         <v>-1</v>
@@ -9950,7 +9944,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G185" s="27">
         <v>1</v>
@@ -9959,10 +9953,10 @@
         <v>1</v>
       </c>
       <c r="I185" s="28" t="s">
+        <v>668</v>
+      </c>
+      <c r="J185" s="28" t="s">
         <v>669</v>
-      </c>
-      <c r="J185" s="28" t="s">
-        <v>670</v>
       </c>
       <c r="N185" s="27">
         <v>16</v>
@@ -9976,7 +9970,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D186" s="27">
         <v>-1</v>
@@ -9985,7 +9979,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G186" s="27">
         <v>1</v>
@@ -9994,10 +9988,10 @@
         <v>2</v>
       </c>
       <c r="I186" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="J186" s="28" t="s">
         <v>671</v>
-      </c>
-      <c r="J186" s="28" t="s">
-        <v>672</v>
       </c>
       <c r="N186" s="27">
         <v>16</v>
@@ -10011,7 +10005,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="27" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D187" s="27">
         <v>-1</v>
@@ -10020,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G187" s="27">
         <v>1</v>
@@ -10029,10 +10023,10 @@
         <v>3</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J187" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N187" s="27">
         <v>16</v>
@@ -10046,7 +10040,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D188" s="27">
         <v>-1</v>
@@ -10055,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G188" s="27">
         <v>1</v>
@@ -10064,10 +10058,10 @@
         <v>4</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N188" s="27">
         <v>16</v>
@@ -10081,7 +10075,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D189" s="27">
         <v>-1</v>
@@ -10090,7 +10084,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G189" s="27">
         <v>1</v>
@@ -10099,10 +10093,10 @@
         <v>5</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J189" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N189" s="27">
         <v>16</v>
@@ -10116,7 +10110,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D190" s="27">
         <v>-1</v>
@@ -10125,7 +10119,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G190" s="27">
         <v>1</v>
@@ -10134,10 +10128,10 @@
         <v>6</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J190" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N190" s="27">
         <v>16</v>
@@ -10151,7 +10145,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D191" s="27">
         <v>-1</v>
@@ -10160,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G191" s="27">
         <v>1</v>
@@ -10169,10 +10163,10 @@
         <v>7</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N191" s="27">
         <v>16</v>
@@ -10186,7 +10180,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D192" s="27">
         <v>-1</v>
@@ -10195,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G192" s="27">
         <v>1</v>
@@ -10204,10 +10198,10 @@
         <v>8</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N192" s="27">
         <v>16</v>
@@ -10221,7 +10215,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D193" s="27">
         <v>-1</v>
@@ -10230,7 +10224,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G193" s="27">
         <v>1</v>
@@ -10239,10 +10233,10 @@
         <v>9</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J193" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N193" s="27">
         <v>16</v>
@@ -10256,7 +10250,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D194" s="27">
         <v>-1</v>
@@ -10265,7 +10259,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G194" s="27">
         <v>1</v>
@@ -10274,10 +10268,10 @@
         <v>10</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N194" s="27">
         <v>16</v>
@@ -10291,7 +10285,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D195" s="27">
         <v>-1</v>
@@ -10300,7 +10294,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G195" s="27">
         <v>1</v>
@@ -10309,10 +10303,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J195" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N195" s="27">
         <v>16</v>
@@ -10326,7 +10320,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D196" s="27">
         <v>-1</v>
@@ -10335,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G196" s="27">
         <v>1</v>
@@ -10344,10 +10338,10 @@
         <v>12</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N196" s="27">
         <v>16</v>
@@ -10361,7 +10355,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D197" s="27">
         <v>-1</v>
@@ -10370,7 +10364,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G197" s="27">
         <v>1</v>
@@ -10379,10 +10373,10 @@
         <v>13</v>
       </c>
       <c r="I197" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N197" s="27">
         <v>16</v>
@@ -10396,7 +10390,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D198" s="27">
         <v>-1</v>
@@ -10405,7 +10399,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G198" s="27">
         <v>1</v>
@@ -10414,10 +10408,10 @@
         <v>14</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N198" s="27">
         <v>16</v>
@@ -10431,7 +10425,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D199" s="27">
         <v>-1</v>
@@ -10440,7 +10434,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G199" s="27">
         <v>1</v>
@@ -10449,10 +10443,10 @@
         <v>15</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N199" s="27">
         <v>16</v>
@@ -10466,7 +10460,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D200" s="27">
         <v>-1</v>
@@ -10475,7 +10469,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G200" s="27">
         <v>1</v>
@@ -10484,10 +10478,10 @@
         <v>16</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N200" s="27">
         <v>16</v>
@@ -10501,7 +10495,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D201" s="27">
         <v>-1</v>
@@ -10510,7 +10504,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G201" s="27">
         <v>1</v>
@@ -10519,10 +10513,10 @@
         <v>17</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N201" s="27">
         <v>16</v>
@@ -10536,7 +10530,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D202" s="27">
         <v>-1</v>
@@ -10545,7 +10539,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G202" s="27">
         <v>1</v>
@@ -10554,10 +10548,10 @@
         <v>18</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N202" s="27">
         <v>16</v>
@@ -10571,7 +10565,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D203" s="27">
         <v>-1</v>
@@ -10580,7 +10574,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G203" s="27">
         <v>1</v>
@@ -10589,10 +10583,10 @@
         <v>19</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N203" s="27">
         <v>16</v>
@@ -10606,7 +10600,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D204" s="27">
         <v>-1</v>
@@ -10615,7 +10609,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G204" s="27">
         <v>1</v>
@@ -10624,10 +10618,10 @@
         <v>20</v>
       </c>
       <c r="I204" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N204" s="27">
         <v>16</v>
@@ -10641,7 +10635,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D205" s="27">
         <v>-1</v>
@@ -10650,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G205" s="27">
         <v>1</v>
@@ -10659,10 +10653,10 @@
         <v>21</v>
       </c>
       <c r="I205" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J205" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N205" s="27">
         <v>16</v>
@@ -10676,7 +10670,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D206" s="27">
         <v>-1</v>
@@ -10685,7 +10679,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G206" s="27">
         <v>1</v>
@@ -10694,10 +10688,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J206" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N206" s="27">
         <v>16</v>
@@ -10711,7 +10705,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D207" s="27">
         <v>-1</v>
@@ -10720,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G207" s="27">
         <v>1</v>
@@ -10729,10 +10723,10 @@
         <v>23</v>
       </c>
       <c r="I207" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J207" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N207" s="27">
         <v>16</v>
@@ -10746,7 +10740,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D208" s="27">
         <v>-1</v>
@@ -10755,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G208" s="27">
         <v>1</v>
@@ -10764,10 +10758,10 @@
         <v>24</v>
       </c>
       <c r="I208" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J208" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N208" s="27">
         <v>16</v>
@@ -10781,7 +10775,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D209" s="27">
         <v>-1</v>
@@ -10790,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G209" s="27">
         <v>1</v>
@@ -10799,10 +10793,10 @@
         <v>25</v>
       </c>
       <c r="I209" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J209" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N209" s="27">
         <v>16</v>
@@ -10816,7 +10810,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D210" s="27">
         <v>-1</v>
@@ -10825,7 +10819,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G210" s="27">
         <v>1</v>
@@ -10834,10 +10828,10 @@
         <v>26</v>
       </c>
       <c r="I210" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J210" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N210" s="27">
         <v>16</v>
@@ -10851,7 +10845,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D211" s="27">
         <v>-1</v>
@@ -10860,7 +10854,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G211" s="27">
         <v>1</v>
@@ -10869,10 +10863,10 @@
         <v>27</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N211" s="27">
         <v>16</v>
@@ -10886,7 +10880,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D212" s="27">
         <v>-1</v>
@@ -10895,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G212" s="27">
         <v>1</v>
@@ -10904,10 +10898,10 @@
         <v>28</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N212" s="27">
         <v>16</v>
@@ -10921,7 +10915,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D213" s="27">
         <v>-1</v>
@@ -10930,7 +10924,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G213" s="27">
         <v>1</v>
@@ -10939,10 +10933,10 @@
         <v>29</v>
       </c>
       <c r="I213" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N213" s="27">
         <v>16</v>
@@ -10956,7 +10950,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="28" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D214" s="27">
         <v>-1</v>
@@ -10965,7 +10959,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G214" s="27">
         <v>1</v>
@@ -10974,10 +10968,10 @@
         <v>30</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N214" s="27">
         <v>16</v>
@@ -10991,7 +10985,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D215" s="27">
         <v>-1</v>
@@ -11000,7 +10994,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G215" s="27">
         <v>1</v>
@@ -11009,10 +11003,10 @@
         <v>31</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J215" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N215" s="27">
         <v>16</v>
@@ -11026,7 +11020,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="28" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D216" s="27">
         <v>-1</v>
@@ -11035,7 +11029,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G216" s="27">
         <v>1</v>
@@ -11044,10 +11038,10 @@
         <v>32</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J216" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N216" s="27">
         <v>16</v>
@@ -11061,7 +11055,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D217" s="27">
         <v>-1</v>
@@ -11070,7 +11064,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G217" s="27">
         <v>1</v>
@@ -11079,10 +11073,10 @@
         <v>33</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N217" s="27">
         <v>16</v>
@@ -11096,7 +11090,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="28" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D218" s="27">
         <v>-1</v>
@@ -11105,7 +11099,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G218" s="27">
         <v>1</v>
@@ -11114,10 +11108,10 @@
         <v>34</v>
       </c>
       <c r="I218" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J218" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N218" s="27">
         <v>16</v>
@@ -11131,7 +11125,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D219" s="27">
         <v>-1</v>
@@ -11140,7 +11134,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G219" s="27">
         <v>1</v>
@@ -11149,10 +11143,10 @@
         <v>35</v>
       </c>
       <c r="I219" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J219" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N219" s="27">
         <v>16</v>
@@ -11166,16 +11160,16 @@
         <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="D220" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E220" s="27">
+        <v>1</v>
+      </c>
+      <c r="F220" s="28" t="s">
         <v>818</v>
-      </c>
-      <c r="D220" s="27">
-        <v>-1</v>
-      </c>
-      <c r="E220" s="27">
-        <v>1</v>
-      </c>
-      <c r="F220" s="28" t="s">
-        <v>819</v>
       </c>
       <c r="G220" s="27">
         <v>1</v>
@@ -11184,10 +11178,10 @@
         <v>36</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N220" s="27">
         <v>16</v>
@@ -11201,7 +11195,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D221" s="27">
         <v>-1</v>
@@ -11210,7 +11204,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="28" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G221" s="27">
         <v>1</v>
@@ -11219,10 +11213,10 @@
         <v>38</v>
       </c>
       <c r="I221" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J221" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N221" s="27">
         <v>16</v>
@@ -11236,7 +11230,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D222" s="27">
         <v>-1</v>
@@ -11245,7 +11239,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G222" s="27">
         <v>1</v>
@@ -11254,10 +11248,10 @@
         <v>39</v>
       </c>
       <c r="I222" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J222" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N222" s="27">
         <v>16</v>
@@ -11271,7 +11265,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D223" s="27">
         <v>-1</v>
@@ -11280,7 +11274,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G223" s="27">
         <v>1</v>
@@ -11289,10 +11283,10 @@
         <v>40</v>
       </c>
       <c r="I223" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J223" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N223" s="27">
         <v>16</v>
@@ -11306,7 +11300,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D224" s="27">
         <v>-1</v>
@@ -11315,7 +11309,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G224" s="27">
         <v>1</v>
@@ -11324,10 +11318,10 @@
         <v>41</v>
       </c>
       <c r="I224" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J224" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N224" s="27">
         <v>16</v>
@@ -11341,7 +11335,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D225" s="27">
         <v>-1</v>
@@ -11350,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G225" s="27">
         <v>1</v>
@@ -11359,10 +11353,10 @@
         <v>42</v>
       </c>
       <c r="I225" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J225" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N225" s="27">
         <v>16</v>
@@ -11376,7 +11370,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D226" s="27">
         <v>-1</v>
@@ -11385,7 +11379,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G226" s="27">
         <v>1</v>
@@ -11394,10 +11388,10 @@
         <v>43</v>
       </c>
       <c r="I226" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J226" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N226" s="27">
         <v>16</v>
@@ -11411,7 +11405,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D227" s="27">
         <v>-1</v>
@@ -11420,7 +11414,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G227" s="27">
         <v>1</v>
@@ -11429,10 +11423,10 @@
         <v>44</v>
       </c>
       <c r="I227" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J227" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N227" s="27">
         <v>16</v>
@@ -11446,7 +11440,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D228" s="27">
         <v>-1</v>
@@ -11455,7 +11449,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G228" s="27">
         <v>1</v>
@@ -11464,10 +11458,10 @@
         <v>45</v>
       </c>
       <c r="I228" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J228" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N228" s="27">
         <v>16</v>
@@ -11481,7 +11475,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D229" s="27">
         <v>-1</v>
@@ -11490,7 +11484,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G229" s="27">
         <v>1</v>
@@ -11499,10 +11493,10 @@
         <v>46</v>
       </c>
       <c r="I229" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J229" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N229" s="27">
         <v>16</v>
@@ -11516,7 +11510,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D230" s="27">
         <v>-1</v>
@@ -11525,7 +11519,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G230" s="27">
         <v>1</v>
@@ -11534,10 +11528,10 @@
         <v>47</v>
       </c>
       <c r="I230" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J230" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N230" s="27">
         <v>16</v>
@@ -11551,7 +11545,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D231" s="27">
         <v>-1</v>
@@ -11560,7 +11554,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G231" s="27">
         <v>1</v>
@@ -11569,10 +11563,10 @@
         <v>48</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J231" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N231" s="27">
         <v>16</v>
@@ -11586,7 +11580,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D232" s="27">
         <v>-1</v>
@@ -11595,7 +11589,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G232" s="27">
         <v>1</v>
@@ -11604,10 +11598,10 @@
         <v>49</v>
       </c>
       <c r="I232" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J232" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N232" s="27">
         <v>16</v>
@@ -11621,7 +11615,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D233" s="27">
         <v>-1</v>
@@ -11630,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G233" s="27">
         <v>1</v>
@@ -11639,10 +11633,10 @@
         <v>50</v>
       </c>
       <c r="I233" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J233" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N233" s="27">
         <v>16</v>
@@ -11656,7 +11650,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D234" s="27">
         <v>-1</v>
@@ -11665,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G234" s="27">
         <v>1</v>
@@ -11674,10 +11668,10 @@
         <v>51</v>
       </c>
       <c r="I234" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J234" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N234" s="27">
         <v>16</v>
@@ -11691,7 +11685,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D235" s="27">
         <v>-1</v>
@@ -11700,7 +11694,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G235" s="27">
         <v>1</v>
@@ -11709,10 +11703,10 @@
         <v>52</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J235" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N235" s="27">
         <v>16</v>
@@ -11726,7 +11720,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D236" s="27">
         <v>-1</v>
@@ -11735,7 +11729,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G236" s="27">
         <v>1</v>
@@ -11744,10 +11738,10 @@
         <v>53</v>
       </c>
       <c r="I236" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J236" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N236" s="27">
         <v>16</v>
@@ -11761,7 +11755,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D237" s="27">
         <v>-1</v>
@@ -11770,7 +11764,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G237" s="27">
         <v>1</v>
@@ -11779,10 +11773,10 @@
         <v>54</v>
       </c>
       <c r="I237" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J237" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N237" s="27">
         <v>16</v>
@@ -11796,7 +11790,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D238" s="27">
         <v>-1</v>
@@ -11805,7 +11799,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G238" s="27">
         <v>1</v>
@@ -11814,10 +11808,10 @@
         <v>55</v>
       </c>
       <c r="I238" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J238" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N238" s="27">
         <v>16</v>
@@ -11831,7 +11825,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D239" s="27">
         <v>-1</v>
@@ -11840,7 +11834,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G239" s="27">
         <v>1</v>
@@ -11849,10 +11843,10 @@
         <v>56</v>
       </c>
       <c r="I239" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J239" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N239" s="27">
         <v>16</v>
@@ -11866,7 +11860,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D240" s="27">
         <v>-1</v>
@@ -11875,7 +11869,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G240" s="27">
         <v>1</v>
@@ -11884,10 +11878,10 @@
         <v>57</v>
       </c>
       <c r="I240" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J240" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N240" s="27">
         <v>16</v>
@@ -11901,7 +11895,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D241" s="27">
         <v>-1</v>
@@ -11910,7 +11904,7 @@
         <v>1</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G241" s="27">
         <v>1</v>
@@ -11919,10 +11913,10 @@
         <v>58</v>
       </c>
       <c r="I241" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J241" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N241" s="27">
         <v>16</v>
@@ -11936,7 +11930,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D242" s="27">
         <v>-1</v>
@@ -11945,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G242" s="27">
         <v>1</v>
@@ -11954,10 +11948,10 @@
         <v>59</v>
       </c>
       <c r="I242" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J242" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N242" s="27">
         <v>16</v>
@@ -11971,7 +11965,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D243" s="27">
         <v>-1</v>
@@ -11980,7 +11974,7 @@
         <v>1</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G243" s="27">
         <v>1</v>
@@ -11989,10 +11983,10 @@
         <v>60</v>
       </c>
       <c r="I243" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J243" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N243" s="27">
         <v>16</v>
@@ -12006,7 +12000,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D244" s="27">
         <v>-1</v>
@@ -12015,7 +12009,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G244" s="27">
         <v>1</v>
@@ -12024,10 +12018,10 @@
         <v>61</v>
       </c>
       <c r="I244" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J244" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N244" s="27">
         <v>16</v>
@@ -12041,7 +12035,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D245" s="27">
         <v>-1</v>
@@ -12050,7 +12044,7 @@
         <v>1</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G245" s="27">
         <v>1</v>
@@ -12059,10 +12053,10 @@
         <v>62</v>
       </c>
       <c r="I245" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J245" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N245" s="27">
         <v>16</v>
@@ -12076,7 +12070,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D246" s="27">
         <v>-1</v>
@@ -12085,7 +12079,7 @@
         <v>1</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G246" s="27">
         <v>1</v>
@@ -12094,10 +12088,10 @@
         <v>63</v>
       </c>
       <c r="I246" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J246" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N246" s="27">
         <v>16</v>
@@ -12111,7 +12105,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D247" s="27">
         <v>-1</v>
@@ -12120,7 +12114,7 @@
         <v>1</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G247" s="27">
         <v>1</v>
@@ -12129,10 +12123,10 @@
         <v>64</v>
       </c>
       <c r="I247" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J247" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N247" s="27">
         <v>16</v>
@@ -12146,7 +12140,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D248" s="27">
         <v>-1</v>
@@ -12155,7 +12149,7 @@
         <v>1</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G248" s="27">
         <v>1</v>
@@ -12164,10 +12158,10 @@
         <v>65</v>
       </c>
       <c r="I248" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J248" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N248" s="27">
         <v>16</v>
@@ -12181,7 +12175,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D249" s="27">
         <v>-1</v>
@@ -12190,7 +12184,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G249" s="27">
         <v>1</v>
@@ -12199,10 +12193,10 @@
         <v>66</v>
       </c>
       <c r="I249" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J249" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N249" s="27">
         <v>16</v>
@@ -12216,7 +12210,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D250" s="27">
         <v>-1</v>
@@ -12225,7 +12219,7 @@
         <v>1</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G250" s="27">
         <v>1</v>
@@ -12234,10 +12228,10 @@
         <v>67</v>
       </c>
       <c r="I250" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J250" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N250" s="27">
         <v>16</v>
@@ -12251,7 +12245,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D251" s="27">
         <v>-1</v>
@@ -12260,7 +12254,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G251" s="27">
         <v>1</v>
@@ -12269,10 +12263,10 @@
         <v>68</v>
       </c>
       <c r="I251" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J251" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N251" s="27">
         <v>16</v>
@@ -12286,7 +12280,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D252" s="27">
         <v>-1</v>
@@ -12295,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="F252" s="28" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G252" s="27">
         <v>1</v>
@@ -12304,10 +12298,10 @@
         <v>68</v>
       </c>
       <c r="I252" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J252" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N252" s="27">
         <v>16</v>
@@ -12321,7 +12315,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D253" s="27">
         <v>-1</v>
@@ -12330,7 +12324,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="28" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G253" s="27">
         <v>1</v>
@@ -12339,10 +12333,10 @@
         <v>69</v>
       </c>
       <c r="I253" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J253" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N253" s="27">
         <v>16</v>
@@ -12356,7 +12350,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D254" s="27">
         <v>-1</v>
@@ -12365,7 +12359,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G254" s="27">
         <v>1</v>
@@ -12374,10 +12368,10 @@
         <v>70</v>
       </c>
       <c r="I254" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J254" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N254" s="27">
         <v>16</v>
@@ -12391,7 +12385,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D255" s="27">
         <v>-1</v>
@@ -12400,7 +12394,7 @@
         <v>1</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G255" s="27">
         <v>1</v>
@@ -12409,10 +12403,10 @@
         <v>71</v>
       </c>
       <c r="I255" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J255" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N255" s="27">
         <v>16</v>
@@ -12426,7 +12420,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D256" s="27">
         <v>-1</v>
@@ -12435,7 +12429,7 @@
         <v>1</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G256" s="27">
         <v>1</v>
@@ -12444,10 +12438,10 @@
         <v>72</v>
       </c>
       <c r="I256" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J256" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N256" s="27">
         <v>16</v>
@@ -12461,7 +12455,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D257" s="27">
         <v>-1</v>
@@ -12470,7 +12464,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G257" s="27">
         <v>1</v>
@@ -12479,10 +12473,10 @@
         <v>73</v>
       </c>
       <c r="I257" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J257" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N257" s="27">
         <v>16</v>
@@ -12496,7 +12490,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D258" s="27">
         <v>-1</v>
@@ -12505,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G258" s="27">
         <v>1</v>
@@ -12514,10 +12508,10 @@
         <v>74</v>
       </c>
       <c r="I258" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J258" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N258" s="27">
         <v>16</v>
@@ -12531,7 +12525,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D259" s="27">
         <v>-1</v>
@@ -12540,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G259" s="27">
         <v>1</v>
@@ -12549,10 +12543,10 @@
         <v>75</v>
       </c>
       <c r="I259" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J259" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N259" s="27">
         <v>16</v>
@@ -12566,7 +12560,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D260" s="27">
         <v>-1</v>
@@ -12575,7 +12569,7 @@
         <v>1</v>
       </c>
       <c r="F260" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G260" s="27">
         <v>1</v>
@@ -12584,10 +12578,10 @@
         <v>76</v>
       </c>
       <c r="I260" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J260" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N260" s="27">
         <v>16</v>
@@ -12601,7 +12595,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D261" s="27">
         <v>-1</v>
@@ -12610,7 +12604,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G261" s="27">
         <v>1</v>
@@ -12619,10 +12613,10 @@
         <v>77</v>
       </c>
       <c r="I261" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J261" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N261" s="27">
         <v>16</v>
@@ -12636,7 +12630,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D262" s="27">
         <v>-1</v>
@@ -12645,7 +12639,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G262" s="27">
         <v>1</v>
@@ -12654,10 +12648,10 @@
         <v>78</v>
       </c>
       <c r="I262" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J262" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N262" s="27">
         <v>16</v>
@@ -12671,7 +12665,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D263" s="27">
         <v>-1</v>
@@ -12680,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G263" s="27">
         <v>1</v>
@@ -12689,10 +12683,10 @@
         <v>79</v>
       </c>
       <c r="I263" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J263" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N263" s="27">
         <v>16</v>
@@ -12706,7 +12700,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D264" s="27">
         <v>-1</v>
@@ -12715,7 +12709,7 @@
         <v>1</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G264" s="27">
         <v>1</v>
@@ -12724,10 +12718,10 @@
         <v>80</v>
       </c>
       <c r="I264" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J264" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N264" s="27">
         <v>16</v>
@@ -12741,7 +12735,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D265" s="27">
         <v>-1</v>
@@ -12750,7 +12744,7 @@
         <v>1</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G265" s="27">
         <v>1</v>
@@ -12759,10 +12753,10 @@
         <v>81</v>
       </c>
       <c r="I265" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J265" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N265" s="27">
         <v>16</v>
@@ -12776,7 +12770,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D266" s="27">
         <v>-1</v>
@@ -12785,7 +12779,7 @@
         <v>1</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G266" s="27">
         <v>1</v>
@@ -12794,10 +12788,10 @@
         <v>82</v>
       </c>
       <c r="I266" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J266" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N266" s="27">
         <v>16</v>
@@ -12811,7 +12805,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D267" s="27">
         <v>-1</v>
@@ -12820,7 +12814,7 @@
         <v>1</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G267" s="27">
         <v>1</v>
@@ -12829,10 +12823,10 @@
         <v>83</v>
       </c>
       <c r="I267" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J267" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N267" s="27">
         <v>16</v>
@@ -12846,7 +12840,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D268" s="27">
         <v>-1</v>
@@ -12855,7 +12849,7 @@
         <v>1</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G268" s="27">
         <v>1</v>
@@ -12864,10 +12858,10 @@
         <v>84</v>
       </c>
       <c r="I268" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J268" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N268" s="27">
         <v>16</v>
@@ -12881,7 +12875,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D269" s="27">
         <v>-1</v>
@@ -12890,7 +12884,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G269" s="27">
         <v>1</v>
@@ -12899,10 +12893,10 @@
         <v>85</v>
       </c>
       <c r="I269" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J269" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N269" s="27">
         <v>16</v>
@@ -12916,7 +12910,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D270" s="27">
         <v>-1</v>
@@ -12925,7 +12919,7 @@
         <v>1</v>
       </c>
       <c r="F270" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G270" s="27">
         <v>1</v>
@@ -12934,10 +12928,10 @@
         <v>86</v>
       </c>
       <c r="I270" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J270" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N270" s="27">
         <v>16</v>
@@ -12951,7 +12945,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D271" s="27">
         <v>-1</v>
@@ -12960,7 +12954,7 @@
         <v>1</v>
       </c>
       <c r="F271" s="27" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G271" s="27">
         <v>1</v>
@@ -12969,10 +12963,10 @@
         <v>87</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J271" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N271" s="27">
         <v>16</v>
@@ -12986,7 +12980,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D272" s="27">
         <v>-1</v>
@@ -12995,7 +12989,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G272" s="27">
         <v>1</v>
@@ -13004,10 +12998,10 @@
         <v>88</v>
       </c>
       <c r="I272" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J272" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N272" s="27">
         <v>16</v>
@@ -13021,7 +13015,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D273" s="27">
         <v>-1</v>
@@ -13030,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="27" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G273" s="27">
         <v>1</v>
@@ -13039,10 +13033,10 @@
         <v>89</v>
       </c>
       <c r="I273" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J273" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N273" s="27">
         <v>16</v>
@@ -13056,7 +13050,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D274" s="27">
         <v>-1</v>
@@ -13065,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G274" s="27">
         <v>1</v>
@@ -13074,10 +13068,10 @@
         <v>90</v>
       </c>
       <c r="I274" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J274" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N274" s="27">
         <v>16</v>
@@ -13091,7 +13085,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D275" s="27">
         <v>-1</v>
@@ -13100,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G275" s="27">
         <v>1</v>
@@ -13109,10 +13103,10 @@
         <v>91</v>
       </c>
       <c r="I275" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J275" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N275" s="27">
         <v>16</v>
@@ -13126,7 +13120,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D276" s="27">
         <v>-1</v>
@@ -13135,7 +13129,7 @@
         <v>1</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G276" s="27">
         <v>1</v>
@@ -13144,10 +13138,10 @@
         <v>92</v>
       </c>
       <c r="I276" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J276" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N276" s="27">
         <v>16</v>
@@ -13161,7 +13155,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D277" s="27">
         <v>-1</v>
@@ -13170,7 +13164,7 @@
         <v>1</v>
       </c>
       <c r="F277" s="27" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G277" s="27">
         <v>1</v>
@@ -13179,10 +13173,10 @@
         <v>93</v>
       </c>
       <c r="I277" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J277" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N277" s="27">
         <v>16</v>
@@ -13196,7 +13190,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D278" s="27">
         <v>-1</v>
@@ -13205,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="27" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G278" s="27">
         <v>1</v>
@@ -13214,10 +13208,10 @@
         <v>94</v>
       </c>
       <c r="I278" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J278" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N278" s="27">
         <v>16</v>
@@ -13231,7 +13225,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D279" s="27">
         <v>-1</v>
@@ -13240,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G279" s="27">
         <v>1</v>
@@ -13249,10 +13243,10 @@
         <v>95</v>
       </c>
       <c r="I279" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J279" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N279" s="27">
         <v>16</v>
@@ -13266,7 +13260,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D280" s="27">
         <v>-1</v>
@@ -13275,7 +13269,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G280" s="27">
         <v>1</v>
@@ -13284,10 +13278,10 @@
         <v>96</v>
       </c>
       <c r="I280" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J280" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N280" s="27">
         <v>16</v>
@@ -13301,7 +13295,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D281" s="27">
         <v>-1</v>
@@ -13310,7 +13304,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="27" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G281" s="27">
         <v>1</v>
@@ -13319,10 +13313,10 @@
         <v>97</v>
       </c>
       <c r="I281" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J281" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N281" s="27">
         <v>16</v>
@@ -13336,7 +13330,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D282" s="27">
         <v>-1</v>
@@ -13345,7 +13339,7 @@
         <v>1</v>
       </c>
       <c r="F282" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G282" s="27">
         <v>1</v>
@@ -13354,10 +13348,10 @@
         <v>98</v>
       </c>
       <c r="I282" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J282" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N282" s="27">
         <v>16</v>
@@ -13371,7 +13365,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D283" s="27">
         <v>-1</v>
@@ -13380,7 +13374,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G283" s="27">
         <v>1</v>
@@ -13389,10 +13383,10 @@
         <v>99</v>
       </c>
       <c r="I283" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J283" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N283" s="27">
         <v>16</v>
@@ -13406,7 +13400,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D284" s="27">
         <v>-1</v>
@@ -13415,7 +13409,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="28" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G284" s="27">
         <v>1</v>
@@ -13424,10 +13418,10 @@
         <v>99</v>
       </c>
       <c r="I284" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J284" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N284" s="27">
         <v>16</v>
@@ -13441,16 +13435,16 @@
         <v>284</v>
       </c>
       <c r="C285" s="30" t="s">
+        <v>775</v>
+      </c>
+      <c r="D285" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="30" t="s">
         <v>776</v>
-      </c>
-      <c r="D285" s="29">
-        <v>-1</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="30" t="s">
-        <v>777</v>
       </c>
       <c r="G285" s="29">
         <v>0</v>
@@ -13459,10 +13453,10 @@
         <v>33</v>
       </c>
       <c r="I285" s="30" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J285" s="30" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="286" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -13473,7 +13467,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="30" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D286" s="29">
         <v>-1</v>
@@ -13482,7 +13476,7 @@
         <v>1</v>
       </c>
       <c r="F286" s="29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G286" s="29">
         <v>0</v>
@@ -13491,10 +13485,10 @@
         <v>33</v>
       </c>
       <c r="I286" s="29" t="s">
+        <v>778</v>
+      </c>
+      <c r="J286" s="29" t="s">
         <v>779</v>
-      </c>
-      <c r="J286" s="29" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="287" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -13505,16 +13499,16 @@
         <v>286</v>
       </c>
       <c r="C287" s="32" t="s">
+        <v>821</v>
+      </c>
+      <c r="D287" s="31">
+        <v>-1</v>
+      </c>
+      <c r="E287" s="31">
+        <v>1</v>
+      </c>
+      <c r="F287" s="31" t="s">
         <v>822</v>
-      </c>
-      <c r="D287" s="31">
-        <v>-1</v>
-      </c>
-      <c r="E287" s="31">
-        <v>1</v>
-      </c>
-      <c r="F287" s="31" t="s">
-        <v>823</v>
       </c>
       <c r="G287" s="31">
         <v>0</v>
@@ -13523,10 +13517,10 @@
         <v>33</v>
       </c>
       <c r="I287" s="31" t="s">
+        <v>823</v>
+      </c>
+      <c r="J287" s="31" t="s">
         <v>824</v>
-      </c>
-      <c r="J287" s="31" t="s">
-        <v>825</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -1241,9 +1241,6 @@
     <t>prop_xycj_coin</t>
   </si>
   <si>
-    <t>用于红包大转盘的抽奖</t>
-  </si>
-  <si>
     <t>prop_box_stxt_free</t>
   </si>
   <si>
@@ -3216,6 +3213,10 @@
   </si>
   <si>
     <t>冬至饺子掉落物</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于福利券转盘中的福利转盘抽奖。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3774,7 +3775,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L80" sqref="L80"/>
+      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3826,7 +3827,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -3838,16 +3839,16 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P1" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>333</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -3926,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>20</v>
@@ -3952,13 +3953,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -4004,13 +4005,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -4030,13 +4031,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -4754,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -5077,7 +5078,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D43" s="2">
         <v>-1</v>
@@ -5254,7 +5255,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D48" s="2">
         <v>-1</v>
@@ -5288,7 +5289,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D49" s="2">
         <v>-1</v>
@@ -5460,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -5498,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -5536,7 +5537,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -6081,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -6113,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -6151,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -6275,10 +6276,10 @@
         <v>277</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -6363,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -6372,10 +6373,10 @@
         <v>23</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>286</v>
+        <v>824</v>
       </c>
       <c r="L80" s="5"/>
     </row>
@@ -6387,16 +6388,16 @@
         <v>80</v>
       </c>
       <c r="C81" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D81" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="F81" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="D81" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E81" s="2">
-        <v>1</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>288</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
@@ -6405,13 +6406,13 @@
         <v>24</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O81" s="2">
         <v>4</v>
@@ -6425,16 +6426,16 @@
         <v>81</v>
       </c>
       <c r="C82" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D82" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="14" t="s">
         <v>290</v>
-      </c>
-      <c r="D82" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E82" s="2">
-        <v>1</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>291</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
@@ -6443,13 +6444,13 @@
         <v>25</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O82" s="2">
         <v>5</v>
@@ -6463,16 +6464,16 @@
         <v>82</v>
       </c>
       <c r="C83" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="D83" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="9">
+        <v>1</v>
+      </c>
+      <c r="F83" s="17" t="s">
         <v>335</v>
-      </c>
-      <c r="D83" s="9">
-        <v>-1</v>
-      </c>
-      <c r="E83" s="9">
-        <v>1</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>336</v>
       </c>
       <c r="G83" s="9">
         <v>1</v>
@@ -6481,10 +6482,10 @@
         <v>22</v>
       </c>
       <c r="I83" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="J83" s="18" t="s">
         <v>345</v>
-      </c>
-      <c r="J83" s="18" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6495,7 +6496,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D84" s="11">
         <v>-1</v>
@@ -6504,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G84" s="11">
         <v>0</v>
@@ -6513,10 +6514,10 @@
         <v>23</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J84" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6527,7 +6528,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D85" s="2">
         <v>-1</v>
@@ -6536,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -6545,10 +6546,10 @@
         <v>24</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6559,7 +6560,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D86" s="2">
         <v>-1</v>
@@ -6568,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
@@ -6577,10 +6578,10 @@
         <v>25</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6591,7 +6592,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D87" s="2">
         <v>-1</v>
@@ -6600,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G87" s="2">
         <v>1</v>
@@ -6609,10 +6610,10 @@
         <v>26</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6623,7 +6624,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D88" s="2">
         <v>-1</v>
@@ -6632,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G88" s="2">
         <v>1</v>
@@ -6641,10 +6642,10 @@
         <v>27</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6655,7 +6656,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D89" s="2">
         <v>-1</v>
@@ -6664,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G89" s="2">
         <v>1</v>
@@ -6673,10 +6674,10 @@
         <v>28</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6687,7 +6688,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D90" s="2">
         <v>-1</v>
@@ -6696,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G90" s="2">
         <v>1</v>
@@ -6705,10 +6706,10 @@
         <v>29</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6719,7 +6720,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D91" s="2">
         <v>-1</v>
@@ -6728,7 +6729,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G91" s="2">
         <v>1</v>
@@ -6737,10 +6738,10 @@
         <v>30</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6751,7 +6752,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D92" s="2">
         <v>-1</v>
@@ -6760,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G92" s="2">
         <v>1</v>
@@ -6769,10 +6770,10 @@
         <v>31</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6783,7 +6784,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D93" s="2">
         <v>-1</v>
@@ -6792,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G93" s="2">
         <v>1</v>
@@ -6801,10 +6802,10 @@
         <v>32</v>
       </c>
       <c r="I93" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="J93" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6815,7 +6816,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D94" s="2">
         <v>-1</v>
@@ -6824,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G94" s="2">
         <v>1</v>
@@ -6833,13 +6834,13 @@
         <v>-100</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O94" s="2">
         <v>12</v>
@@ -6859,7 +6860,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D95" s="2">
         <v>-1</v>
@@ -6868,7 +6869,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G95" s="2">
         <v>0</v>
@@ -6877,10 +6878,10 @@
         <v>33</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6891,7 +6892,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D96" s="2">
         <v>-1</v>
@@ -6900,7 +6901,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G96" s="2">
         <v>0</v>
@@ -6909,10 +6910,10 @@
         <v>34</v>
       </c>
       <c r="I96" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="J96" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6923,7 +6924,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D97" s="2">
         <v>-1</v>
@@ -6932,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G97" s="2">
         <v>1</v>
@@ -6941,10 +6942,10 @@
         <v>35</v>
       </c>
       <c r="I97" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="J97" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>348</v>
       </c>
       <c r="N97" s="2">
         <v>9</v>
@@ -6958,7 +6959,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D98" s="2">
         <v>-1</v>
@@ -6967,7 +6968,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
@@ -6976,10 +6977,10 @@
         <v>36</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N98" s="2">
         <v>9</v>
@@ -6993,7 +6994,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D99" s="2">
         <v>-1</v>
@@ -7002,7 +7003,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
@@ -7011,10 +7012,10 @@
         <v>37</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N99" s="2">
         <v>9</v>
@@ -7028,7 +7029,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D100" s="2">
         <v>-1</v>
@@ -7037,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G100" s="2">
         <v>1</v>
@@ -7046,10 +7047,10 @@
         <v>38</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N100" s="2">
         <v>9</v>
@@ -7063,7 +7064,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D101" s="2">
         <v>-1</v>
@@ -7072,7 +7073,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G101" s="2">
         <v>1</v>
@@ -7081,10 +7082,10 @@
         <v>39</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N101" s="2">
         <v>9</v>
@@ -7098,7 +7099,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D102" s="2">
         <v>-1</v>
@@ -7107,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
@@ -7116,10 +7117,10 @@
         <v>40</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N102" s="2">
         <v>9</v>
@@ -7133,7 +7134,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D103" s="2">
         <v>-1</v>
@@ -7142,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G103" s="2">
         <v>1</v>
@@ -7151,10 +7152,10 @@
         <v>41</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N103" s="2">
         <v>9</v>
@@ -7168,7 +7169,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D104" s="2">
         <v>-1</v>
@@ -7177,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
@@ -7186,10 +7187,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N104" s="2">
         <v>9</v>
@@ -7203,7 +7204,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D105" s="2">
         <v>-1</v>
@@ -7212,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
@@ -7221,10 +7222,10 @@
         <v>43</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N105" s="2">
         <v>9</v>
@@ -7238,7 +7239,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D106" s="2">
         <v>-1</v>
@@ -7247,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G106" s="2">
         <v>1</v>
@@ -7256,10 +7257,10 @@
         <v>44</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N106" s="2">
         <v>9</v>
@@ -7273,7 +7274,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D107" s="2">
         <v>-1</v>
@@ -7282,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G107" s="2">
         <v>1</v>
@@ -7291,7 +7292,7 @@
         <v>32</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>173</v>
@@ -7310,7 +7311,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D108" s="2">
         <v>-1</v>
@@ -7319,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G108" s="2">
         <v>1</v>
@@ -7328,7 +7329,7 @@
         <v>33</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>177</v>
@@ -7347,7 +7348,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D109" s="2">
         <v>-1</v>
@@ -7356,7 +7357,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G109" s="2">
         <v>1</v>
@@ -7365,10 +7366,10 @@
         <v>33</v>
       </c>
       <c r="I109" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J109" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7379,7 +7380,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D110" s="2">
         <v>-1</v>
@@ -7388,7 +7389,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
@@ -7397,10 +7398,10 @@
         <v>34</v>
       </c>
       <c r="I110" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="J110" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="L110" s="5"/>
     </row>
@@ -7412,28 +7413,28 @@
         <v>110</v>
       </c>
       <c r="C111" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="D111" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D111" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="G111" s="2">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2">
-        <v>1</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>398</v>
-      </c>
       <c r="J111" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>174</v>
@@ -7450,28 +7451,28 @@
         <v>111</v>
       </c>
       <c r="C112" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="D112" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="D112" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112" s="5" t="s">
+      <c r="G112" s="2">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1</v>
+      </c>
+      <c r="I112" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="G112" s="2">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2">
-        <v>1</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>401</v>
-      </c>
       <c r="J112" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>174</v>
@@ -7488,28 +7489,28 @@
         <v>112</v>
       </c>
       <c r="C113" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="D113" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1</v>
+      </c>
+      <c r="I113" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D113" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G113" s="2">
-        <v>1</v>
-      </c>
-      <c r="H113" s="2">
-        <v>1</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="J113" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>174</v>
@@ -7526,28 +7527,28 @@
         <v>113</v>
       </c>
       <c r="C114" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D114" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1</v>
+      </c>
+      <c r="I114" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D114" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="G114" s="2">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2">
-        <v>1</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="J114" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>174</v>
@@ -7564,28 +7565,28 @@
         <v>114</v>
       </c>
       <c r="C115" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D115" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="I115" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D115" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G115" s="2">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2">
-        <v>1</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="J115" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>174</v>
@@ -7602,28 +7603,28 @@
         <v>115</v>
       </c>
       <c r="C116" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D116" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G116" s="2">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="I116" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D116" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E116" s="2">
-        <v>1</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="G116" s="2">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2">
-        <v>1</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>409</v>
-      </c>
       <c r="J116" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L116" s="5" t="s">
         <v>174</v>
@@ -7640,16 +7641,16 @@
         <v>116</v>
       </c>
       <c r="C117" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="D117" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="D117" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="G117" s="2">
         <v>0</v>
@@ -7658,10 +7659,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -7674,16 +7675,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="D118" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="D118" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E118" s="2">
-        <v>1</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="G118" s="2">
         <v>0</v>
@@ -7692,10 +7693,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7706,16 +7707,16 @@
         <v>118</v>
       </c>
       <c r="C119" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="D119" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="D119" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
@@ -7724,10 +7725,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7738,16 +7739,16 @@
         <v>119</v>
       </c>
       <c r="C120" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="D120" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="D120" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
@@ -7756,10 +7757,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7770,16 +7771,16 @@
         <v>120</v>
       </c>
       <c r="C121" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D121" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="D121" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E121" s="2">
-        <v>1</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -7788,10 +7789,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7802,16 +7803,16 @@
         <v>121</v>
       </c>
       <c r="C122" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="D122" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="D122" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
@@ -7820,10 +7821,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7834,7 +7835,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D123" s="2">
         <v>-1</v>
@@ -7843,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
@@ -7852,10 +7853,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N123" s="2">
         <v>1</v>
@@ -7869,7 +7870,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D124" s="2">
         <v>-1</v>
@@ -7878,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
@@ -7887,10 +7888,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N124" s="2">
         <v>1</v>
@@ -7904,7 +7905,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D125" s="2">
         <v>-1</v>
@@ -7913,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
@@ -7922,10 +7923,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N125" s="2">
         <v>1</v>
@@ -7939,7 +7940,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D126" s="2">
         <v>-1</v>
@@ -7948,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -7957,10 +7958,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N126" s="2">
         <v>1</v>
@@ -7974,7 +7975,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D127" s="2">
         <v>-1</v>
@@ -7983,7 +7984,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -7992,10 +7993,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N127" s="2">
         <v>1</v>
@@ -8009,7 +8010,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D128" s="2">
         <v>-1</v>
@@ -8018,7 +8019,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
@@ -8027,10 +8028,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N128" s="2">
         <v>1</v>
@@ -8044,7 +8045,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D129" s="2">
         <v>-1</v>
@@ -8053,7 +8054,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
@@ -8062,10 +8063,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N129" s="2">
         <v>1</v>
@@ -8079,7 +8080,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D130" s="2">
         <v>-1</v>
@@ -8088,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
@@ -8097,10 +8098,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N130" s="2">
         <v>1</v>
@@ -8114,7 +8115,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D131" s="2">
         <v>-1</v>
@@ -8123,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G131" s="2">
         <v>0</v>
@@ -8132,10 +8133,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="J131" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -8146,7 +8147,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D132" s="2">
         <v>-1</v>
@@ -8155,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G132" s="2">
         <v>0</v>
@@ -8164,10 +8165,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="J132" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="J132" s="5" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -8178,7 +8179,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D133" s="2">
         <v>-1</v>
@@ -8187,7 +8188,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G133" s="2">
         <v>0</v>
@@ -8196,10 +8197,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -8210,7 +8211,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D134" s="2">
         <v>-1</v>
@@ -8219,7 +8220,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G134" s="2">
         <v>0</v>
@@ -8228,10 +8229,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -8242,7 +8243,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D135" s="2">
         <v>-1</v>
@@ -8251,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G135" s="2">
         <v>0</v>
@@ -8260,10 +8261,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -8274,7 +8275,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D136" s="2">
         <v>-1</v>
@@ -8283,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G136" s="2">
         <v>0</v>
@@ -8292,10 +8293,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -8306,7 +8307,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D137" s="2">
         <v>-1</v>
@@ -8315,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G137" s="2">
         <v>0</v>
@@ -8324,10 +8325,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -8338,7 +8339,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D138" s="2">
         <v>-1</v>
@@ -8347,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -8356,10 +8357,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -8370,7 +8371,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D139" s="2">
         <v>-1</v>
@@ -8379,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -8388,10 +8389,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -8402,7 +8403,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D140" s="2">
         <v>-1</v>
@@ -8420,10 +8421,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -8434,7 +8435,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D141" s="2">
         <v>-1</v>
@@ -8443,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -8452,10 +8453,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -8466,7 +8467,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D142" s="2">
         <v>-1</v>
@@ -8475,7 +8476,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -8484,10 +8485,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -8498,7 +8499,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D143" s="2">
         <v>-1</v>
@@ -8507,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -8516,10 +8517,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -8530,7 +8531,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D144" s="2">
         <v>-1</v>
@@ -8539,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -8548,10 +8549,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="J144" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="J144" s="5" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
@@ -8562,7 +8563,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D145" s="2">
         <v>-1</v>
@@ -8571,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -8580,10 +8581,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="J145" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="J145" s="5" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="146" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8594,7 +8595,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D146" s="11">
         <v>-1</v>
@@ -8603,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G146" s="11">
         <v>0</v>
@@ -8612,10 +8613,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="J146" s="21" t="s">
         <v>520</v>
-      </c>
-      <c r="J146" s="21" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="147" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8626,7 +8627,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D147" s="11">
         <v>-1</v>
@@ -8635,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G147" s="11">
         <v>0</v>
@@ -8644,10 +8645,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="J147" s="21" t="s">
         <v>523</v>
-      </c>
-      <c r="J147" s="21" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8658,7 +8659,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D148" s="11">
         <v>-1</v>
@@ -8667,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G148" s="11">
         <v>0</v>
@@ -8676,10 +8677,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="J148" s="21" t="s">
         <v>526</v>
-      </c>
-      <c r="J148" s="21" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="149" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8690,7 +8691,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D149" s="11">
         <v>-1</v>
@@ -8699,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G149" s="11">
         <v>0</v>
@@ -8708,10 +8709,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="J149" s="21" t="s">
         <v>529</v>
-      </c>
-      <c r="J149" s="21" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="150" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8722,7 +8723,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D150" s="11">
         <v>-1</v>
@@ -8731,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G150" s="11">
         <v>0</v>
@@ -8740,10 +8741,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="J150" s="21" t="s">
         <v>532</v>
-      </c>
-      <c r="J150" s="21" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="151" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8754,16 +8755,16 @@
         <v>150</v>
       </c>
       <c r="C151" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="D151" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="11">
+        <v>1</v>
+      </c>
+      <c r="F151" s="12" t="s">
         <v>534</v>
-      </c>
-      <c r="D151" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E151" s="11">
-        <v>1</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>535</v>
       </c>
       <c r="G151" s="11">
         <v>0</v>
@@ -8772,10 +8773,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="J151" s="21" t="s">
         <v>536</v>
-      </c>
-      <c r="J151" s="21" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="152" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8786,7 +8787,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D152" s="11">
         <v>-1</v>
@@ -8795,7 +8796,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G152" s="11">
         <v>0</v>
@@ -8804,10 +8805,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J152" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="153" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8818,7 +8819,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D153" s="11">
         <v>-1</v>
@@ -8827,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G153" s="11">
         <v>0</v>
@@ -8836,10 +8837,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J153" s="21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="154" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8850,7 +8851,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D154" s="11">
         <v>-1</v>
@@ -8859,7 +8860,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G154" s="11">
         <v>0</v>
@@ -8868,10 +8869,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J154" s="21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="155" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -8882,16 +8883,16 @@
         <v>154</v>
       </c>
       <c r="C155" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="D155" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="11">
+        <v>1</v>
+      </c>
+      <c r="F155" s="12" t="s">
         <v>549</v>
-      </c>
-      <c r="D155" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E155" s="11">
-        <v>1</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>550</v>
       </c>
       <c r="G155" s="11">
         <v>0</v>
@@ -8900,10 +8901,10 @@
         <v>33</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="156" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8914,7 +8915,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D156" s="11">
         <v>-1</v>
@@ -8923,7 +8924,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G156" s="11">
         <v>0</v>
@@ -8932,10 +8933,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="J156" s="21" t="s">
         <v>552</v>
-      </c>
-      <c r="J156" s="21" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="157" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8946,7 +8947,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D157" s="11">
         <v>-1</v>
@@ -8955,7 +8956,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G157" s="11">
         <v>1</v>
@@ -8964,13 +8965,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N157" s="11">
         <v>9</v>
@@ -8984,7 +8985,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D158" s="11">
         <v>-1</v>
@@ -8993,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G158" s="11">
         <v>1</v>
@@ -9002,13 +9003,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N158" s="11">
         <v>9</v>
@@ -9022,7 +9023,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D159" s="11">
         <v>-1</v>
@@ -9031,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G159" s="11">
         <v>1</v>
@@ -9040,13 +9041,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N159" s="11">
         <v>9</v>
@@ -9060,7 +9061,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -9069,7 +9070,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -9078,13 +9079,13 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N160" s="11">
         <v>9</v>
@@ -9098,7 +9099,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -9107,7 +9108,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -9116,13 +9117,13 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N161" s="11">
         <v>9</v>
@@ -9136,7 +9137,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D162" s="11">
         <v>-1</v>
@@ -9145,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G162" s="11">
         <v>1</v>
@@ -9154,10 +9155,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N162" s="11">
         <v>9</v>
@@ -9171,7 +9172,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D163" s="11">
         <v>-1</v>
@@ -9180,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G163" s="11">
         <v>1</v>
@@ -9189,10 +9190,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N163" s="11">
         <v>9</v>
@@ -9206,7 +9207,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D164" s="11">
         <v>-1</v>
@@ -9215,7 +9216,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G164" s="11">
         <v>1</v>
@@ -9224,10 +9225,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N164" s="11">
         <v>9</v>
@@ -9241,7 +9242,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D165" s="11">
         <v>-1</v>
@@ -9250,7 +9251,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G165" s="11">
         <v>1</v>
@@ -9259,10 +9260,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N165" s="11">
         <v>9</v>
@@ -9276,7 +9277,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D166" s="11">
         <v>-1</v>
@@ -9285,7 +9286,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G166" s="11">
         <v>1</v>
@@ -9294,10 +9295,10 @@
         <v>34</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N166" s="11">
         <v>9</v>
@@ -9311,7 +9312,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D167" s="11">
         <v>-1</v>
@@ -9320,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G167" s="11">
         <v>1</v>
@@ -9329,10 +9330,10 @@
         <v>34</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N167" s="11">
         <v>9</v>
@@ -9346,7 +9347,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D168" s="11">
         <v>-1</v>
@@ -9355,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G168" s="11">
         <v>1</v>
@@ -9364,10 +9365,10 @@
         <v>34</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N168" s="11">
         <v>9</v>
@@ -9381,7 +9382,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D169" s="11">
         <v>-1</v>
@@ -9390,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G169" s="11">
         <v>1</v>
@@ -9399,10 +9400,10 @@
         <v>34</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N169" s="11">
         <v>9</v>
@@ -9416,7 +9417,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D170" s="11">
         <v>-1</v>
@@ -9425,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G170" s="11">
         <v>1</v>
@@ -9434,10 +9435,10 @@
         <v>34</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N170" s="11">
         <v>9</v>
@@ -9451,7 +9452,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D171" s="11">
         <v>-1</v>
@@ -9460,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G171" s="11">
         <v>1</v>
@@ -9469,10 +9470,10 @@
         <v>34</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N171" s="11">
         <v>9</v>
@@ -9486,7 +9487,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D172" s="11">
         <v>-1</v>
@@ -9495,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G172" s="11">
         <v>0</v>
@@ -9504,10 +9505,10 @@
         <v>33</v>
       </c>
       <c r="I172" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="J172" s="12" t="s">
         <v>581</v>
-      </c>
-      <c r="J172" s="12" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="173" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9518,16 +9519,16 @@
         <v>172</v>
       </c>
       <c r="C173" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="D173" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E173" s="13">
+        <v>1</v>
+      </c>
+      <c r="F173" s="13" t="s">
         <v>588</v>
-      </c>
-      <c r="D173" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E173" s="13">
-        <v>1</v>
-      </c>
-      <c r="F173" s="13" t="s">
-        <v>589</v>
       </c>
       <c r="G173" s="13">
         <v>1</v>
@@ -9536,10 +9537,10 @@
         <v>33</v>
       </c>
       <c r="I173" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="J173" s="13" t="s">
         <v>590</v>
-      </c>
-      <c r="J173" s="13" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="174" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9550,16 +9551,16 @@
         <v>173</v>
       </c>
       <c r="C174" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="D174" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E174" s="13">
+        <v>1</v>
+      </c>
+      <c r="F174" s="13" t="s">
         <v>592</v>
-      </c>
-      <c r="D174" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E174" s="13">
-        <v>1</v>
-      </c>
-      <c r="F174" s="13" t="s">
-        <v>593</v>
       </c>
       <c r="G174" s="13">
         <v>1</v>
@@ -9568,10 +9569,10 @@
         <v>33</v>
       </c>
       <c r="I174" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="J174" s="13" t="s">
         <v>594</v>
-      </c>
-      <c r="J174" s="13" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="175" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9582,16 +9583,16 @@
         <v>174</v>
       </c>
       <c r="C175" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="D175" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E175" s="13">
+        <v>1</v>
+      </c>
+      <c r="F175" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="D175" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E175" s="13">
-        <v>1</v>
-      </c>
-      <c r="F175" s="13" t="s">
-        <v>597</v>
       </c>
       <c r="G175" s="13">
         <v>1</v>
@@ -9600,10 +9601,10 @@
         <v>33</v>
       </c>
       <c r="I175" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="J175" s="13" t="s">
         <v>598</v>
-      </c>
-      <c r="J175" s="13" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="176" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -9614,16 +9615,16 @@
         <v>175</v>
       </c>
       <c r="C176" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="D176" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="23">
+        <v>1</v>
+      </c>
+      <c r="F176" s="23" t="s">
         <v>600</v>
-      </c>
-      <c r="D176" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E176" s="23">
-        <v>1</v>
-      </c>
-      <c r="F176" s="23" t="s">
-        <v>601</v>
       </c>
       <c r="G176" s="23">
         <v>0</v>
@@ -9632,10 +9633,10 @@
         <v>33</v>
       </c>
       <c r="I176" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J176" s="23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="177" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -9646,16 +9647,16 @@
         <v>176</v>
       </c>
       <c r="C177" s="25" t="s">
+        <v>624</v>
+      </c>
+      <c r="D177" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E177" s="25">
+        <v>1</v>
+      </c>
+      <c r="F177" s="25" t="s">
         <v>625</v>
-      </c>
-      <c r="D177" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E177" s="25">
-        <v>1</v>
-      </c>
-      <c r="F177" s="25" t="s">
-        <v>626</v>
       </c>
       <c r="G177" s="25">
         <v>0</v>
@@ -9664,10 +9665,10 @@
         <v>33</v>
       </c>
       <c r="I177" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="J177" s="25" t="s">
         <v>627</v>
-      </c>
-      <c r="J177" s="25" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="178" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9678,7 +9679,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D178" s="2">
         <v>-1</v>
@@ -9687,7 +9688,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G178" s="2">
         <v>1</v>
@@ -9696,10 +9697,10 @@
         <v>32</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
@@ -9715,7 +9716,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D179" s="2">
         <v>-1</v>
@@ -9724,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G179" s="2">
         <v>1</v>
@@ -9733,10 +9734,10 @@
         <v>33</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
@@ -9752,7 +9753,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D180" s="2">
         <v>-1</v>
@@ -9761,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
@@ -9770,10 +9771,10 @@
         <v>33</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
@@ -9789,7 +9790,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D181" s="25">
         <v>-1</v>
@@ -9798,7 +9799,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="25" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G181" s="25">
         <v>0</v>
@@ -9807,10 +9808,10 @@
         <v>33</v>
       </c>
       <c r="I181" s="25" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J181" s="25" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="182" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -9821,16 +9822,16 @@
         <v>181</v>
       </c>
       <c r="C182" s="24" t="s">
+        <v>653</v>
+      </c>
+      <c r="D182" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E182" s="23">
+        <v>1</v>
+      </c>
+      <c r="F182" s="23" t="s">
         <v>654</v>
-      </c>
-      <c r="D182" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E182" s="23">
-        <v>1</v>
-      </c>
-      <c r="F182" s="23" t="s">
-        <v>655</v>
       </c>
       <c r="G182" s="23">
         <v>1</v>
@@ -9839,13 +9840,13 @@
         <v>33</v>
       </c>
       <c r="I182" s="24" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J182" s="23" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L182" s="23" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="O182" s="23">
         <v>57</v>
@@ -9859,7 +9860,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D183" s="23">
         <v>-1</v>
@@ -9868,7 +9869,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="23" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G183" s="23">
         <v>1</v>
@@ -9877,13 +9878,13 @@
         <v>33</v>
       </c>
       <c r="I183" s="24" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J183" s="24" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L183" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="O183" s="23">
         <v>58</v>
@@ -9897,7 +9898,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D184" s="23">
         <v>-1</v>
@@ -9906,7 +9907,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="23" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G184" s="23">
         <v>1</v>
@@ -9915,13 +9916,13 @@
         <v>33</v>
       </c>
       <c r="I184" s="24" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J184" s="24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L184" s="23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O184" s="23">
         <v>59</v>
@@ -9935,7 +9936,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D185" s="27">
         <v>-1</v>
@@ -9944,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G185" s="27">
         <v>1</v>
@@ -9953,10 +9954,10 @@
         <v>1</v>
       </c>
       <c r="I185" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="J185" s="28" t="s">
         <v>668</v>
-      </c>
-      <c r="J185" s="28" t="s">
-        <v>669</v>
       </c>
       <c r="N185" s="27">
         <v>16</v>
@@ -9970,7 +9971,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D186" s="27">
         <v>-1</v>
@@ -9979,7 +9980,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G186" s="27">
         <v>1</v>
@@ -9988,10 +9989,10 @@
         <v>2</v>
       </c>
       <c r="I186" s="28" t="s">
+        <v>669</v>
+      </c>
+      <c r="J186" s="28" t="s">
         <v>670</v>
-      </c>
-      <c r="J186" s="28" t="s">
-        <v>671</v>
       </c>
       <c r="N186" s="27">
         <v>16</v>
@@ -10005,7 +10006,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="27" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D187" s="27">
         <v>-1</v>
@@ -10014,7 +10015,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G187" s="27">
         <v>1</v>
@@ -10023,10 +10024,10 @@
         <v>3</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J187" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="N187" s="27">
         <v>16</v>
@@ -10040,7 +10041,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="27" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D188" s="27">
         <v>-1</v>
@@ -10049,7 +10050,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G188" s="27">
         <v>1</v>
@@ -10058,10 +10059,10 @@
         <v>4</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N188" s="27">
         <v>16</v>
@@ -10075,7 +10076,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D189" s="27">
         <v>-1</v>
@@ -10084,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G189" s="27">
         <v>1</v>
@@ -10093,10 +10094,10 @@
         <v>5</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J189" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N189" s="27">
         <v>16</v>
@@ -10110,7 +10111,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D190" s="27">
         <v>-1</v>
@@ -10119,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G190" s="27">
         <v>1</v>
@@ -10128,10 +10129,10 @@
         <v>6</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J190" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N190" s="27">
         <v>16</v>
@@ -10145,7 +10146,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D191" s="27">
         <v>-1</v>
@@ -10154,7 +10155,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G191" s="27">
         <v>1</v>
@@ -10163,10 +10164,10 @@
         <v>7</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N191" s="27">
         <v>16</v>
@@ -10180,7 +10181,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D192" s="27">
         <v>-1</v>
@@ -10189,7 +10190,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G192" s="27">
         <v>1</v>
@@ -10198,10 +10199,10 @@
         <v>8</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N192" s="27">
         <v>16</v>
@@ -10215,7 +10216,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="28" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D193" s="27">
         <v>-1</v>
@@ -10224,7 +10225,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G193" s="27">
         <v>1</v>
@@ -10233,10 +10234,10 @@
         <v>9</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J193" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N193" s="27">
         <v>16</v>
@@ -10250,7 +10251,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D194" s="27">
         <v>-1</v>
@@ -10259,7 +10260,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G194" s="27">
         <v>1</v>
@@ -10268,10 +10269,10 @@
         <v>10</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N194" s="27">
         <v>16</v>
@@ -10285,7 +10286,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D195" s="27">
         <v>-1</v>
@@ -10294,7 +10295,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G195" s="27">
         <v>1</v>
@@ -10303,10 +10304,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J195" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N195" s="27">
         <v>16</v>
@@ -10320,7 +10321,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D196" s="27">
         <v>-1</v>
@@ -10329,7 +10330,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G196" s="27">
         <v>1</v>
@@ -10338,10 +10339,10 @@
         <v>12</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N196" s="27">
         <v>16</v>
@@ -10355,7 +10356,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D197" s="27">
         <v>-1</v>
@@ -10364,7 +10365,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G197" s="27">
         <v>1</v>
@@ -10373,10 +10374,10 @@
         <v>13</v>
       </c>
       <c r="I197" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N197" s="27">
         <v>16</v>
@@ -10390,7 +10391,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D198" s="27">
         <v>-1</v>
@@ -10399,7 +10400,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G198" s="27">
         <v>1</v>
@@ -10408,10 +10409,10 @@
         <v>14</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N198" s="27">
         <v>16</v>
@@ -10425,7 +10426,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D199" s="27">
         <v>-1</v>
@@ -10434,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G199" s="27">
         <v>1</v>
@@ -10443,10 +10444,10 @@
         <v>15</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N199" s="27">
         <v>16</v>
@@ -10460,7 +10461,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D200" s="27">
         <v>-1</v>
@@ -10469,7 +10470,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G200" s="27">
         <v>1</v>
@@ -10478,10 +10479,10 @@
         <v>16</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N200" s="27">
         <v>16</v>
@@ -10495,7 +10496,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D201" s="27">
         <v>-1</v>
@@ -10504,7 +10505,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G201" s="27">
         <v>1</v>
@@ -10513,10 +10514,10 @@
         <v>17</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N201" s="27">
         <v>16</v>
@@ -10530,7 +10531,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D202" s="27">
         <v>-1</v>
@@ -10539,7 +10540,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G202" s="27">
         <v>1</v>
@@ -10548,10 +10549,10 @@
         <v>18</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N202" s="27">
         <v>16</v>
@@ -10565,7 +10566,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D203" s="27">
         <v>-1</v>
@@ -10574,7 +10575,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G203" s="27">
         <v>1</v>
@@ -10583,10 +10584,10 @@
         <v>19</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N203" s="27">
         <v>16</v>
@@ -10600,7 +10601,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D204" s="27">
         <v>-1</v>
@@ -10609,7 +10610,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G204" s="27">
         <v>1</v>
@@ -10618,10 +10619,10 @@
         <v>20</v>
       </c>
       <c r="I204" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N204" s="27">
         <v>16</v>
@@ -10635,7 +10636,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D205" s="27">
         <v>-1</v>
@@ -10644,7 +10645,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G205" s="27">
         <v>1</v>
@@ -10653,10 +10654,10 @@
         <v>21</v>
       </c>
       <c r="I205" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J205" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N205" s="27">
         <v>16</v>
@@ -10670,7 +10671,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D206" s="27">
         <v>-1</v>
@@ -10679,7 +10680,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G206" s="27">
         <v>1</v>
@@ -10688,10 +10689,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J206" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N206" s="27">
         <v>16</v>
@@ -10705,7 +10706,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D207" s="27">
         <v>-1</v>
@@ -10714,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G207" s="27">
         <v>1</v>
@@ -10723,10 +10724,10 @@
         <v>23</v>
       </c>
       <c r="I207" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J207" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N207" s="27">
         <v>16</v>
@@ -10740,7 +10741,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D208" s="27">
         <v>-1</v>
@@ -10749,7 +10750,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="27" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G208" s="27">
         <v>1</v>
@@ -10758,10 +10759,10 @@
         <v>24</v>
       </c>
       <c r="I208" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J208" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N208" s="27">
         <v>16</v>
@@ -10775,7 +10776,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D209" s="27">
         <v>-1</v>
@@ -10784,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G209" s="27">
         <v>1</v>
@@ -10793,10 +10794,10 @@
         <v>25</v>
       </c>
       <c r="I209" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J209" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N209" s="27">
         <v>16</v>
@@ -10810,7 +10811,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D210" s="27">
         <v>-1</v>
@@ -10819,7 +10820,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G210" s="27">
         <v>1</v>
@@ -10828,10 +10829,10 @@
         <v>26</v>
       </c>
       <c r="I210" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J210" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N210" s="27">
         <v>16</v>
@@ -10845,7 +10846,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D211" s="27">
         <v>-1</v>
@@ -10854,7 +10855,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G211" s="27">
         <v>1</v>
@@ -10863,10 +10864,10 @@
         <v>27</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N211" s="27">
         <v>16</v>
@@ -10880,7 +10881,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D212" s="27">
         <v>-1</v>
@@ -10889,7 +10890,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G212" s="27">
         <v>1</v>
@@ -10898,10 +10899,10 @@
         <v>28</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N212" s="27">
         <v>16</v>
@@ -10915,7 +10916,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D213" s="27">
         <v>-1</v>
@@ -10924,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G213" s="27">
         <v>1</v>
@@ -10933,10 +10934,10 @@
         <v>29</v>
       </c>
       <c r="I213" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N213" s="27">
         <v>16</v>
@@ -10950,7 +10951,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="28" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D214" s="27">
         <v>-1</v>
@@ -10959,7 +10960,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G214" s="27">
         <v>1</v>
@@ -10968,10 +10969,10 @@
         <v>30</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N214" s="27">
         <v>16</v>
@@ -10985,7 +10986,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D215" s="27">
         <v>-1</v>
@@ -10994,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G215" s="27">
         <v>1</v>
@@ -11003,10 +11004,10 @@
         <v>31</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J215" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N215" s="27">
         <v>16</v>
@@ -11020,7 +11021,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="28" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D216" s="27">
         <v>-1</v>
@@ -11029,7 +11030,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G216" s="27">
         <v>1</v>
@@ -11038,10 +11039,10 @@
         <v>32</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J216" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N216" s="27">
         <v>16</v>
@@ -11055,7 +11056,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="28" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D217" s="27">
         <v>-1</v>
@@ -11064,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G217" s="27">
         <v>1</v>
@@ -11073,10 +11074,10 @@
         <v>33</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N217" s="27">
         <v>16</v>
@@ -11090,7 +11091,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D218" s="27">
         <v>-1</v>
@@ -11099,7 +11100,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G218" s="27">
         <v>1</v>
@@ -11108,10 +11109,10 @@
         <v>34</v>
       </c>
       <c r="I218" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J218" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N218" s="27">
         <v>16</v>
@@ -11125,7 +11126,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D219" s="27">
         <v>-1</v>
@@ -11134,7 +11135,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G219" s="27">
         <v>1</v>
@@ -11143,10 +11144,10 @@
         <v>35</v>
       </c>
       <c r="I219" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J219" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N219" s="27">
         <v>16</v>
@@ -11160,16 +11161,16 @@
         <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
+        <v>816</v>
+      </c>
+      <c r="D220" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E220" s="27">
+        <v>1</v>
+      </c>
+      <c r="F220" s="28" t="s">
         <v>817</v>
-      </c>
-      <c r="D220" s="27">
-        <v>-1</v>
-      </c>
-      <c r="E220" s="27">
-        <v>1</v>
-      </c>
-      <c r="F220" s="28" t="s">
-        <v>818</v>
       </c>
       <c r="G220" s="27">
         <v>1</v>
@@ -11178,10 +11179,10 @@
         <v>36</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N220" s="27">
         <v>16</v>
@@ -11195,7 +11196,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="28" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D221" s="27">
         <v>-1</v>
@@ -11204,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="28" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G221" s="27">
         <v>1</v>
@@ -11213,10 +11214,10 @@
         <v>38</v>
       </c>
       <c r="I221" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J221" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N221" s="27">
         <v>16</v>
@@ -11230,7 +11231,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D222" s="27">
         <v>-1</v>
@@ -11239,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G222" s="27">
         <v>1</v>
@@ -11248,10 +11249,10 @@
         <v>39</v>
       </c>
       <c r="I222" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J222" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N222" s="27">
         <v>16</v>
@@ -11265,7 +11266,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D223" s="27">
         <v>-1</v>
@@ -11274,7 +11275,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G223" s="27">
         <v>1</v>
@@ -11283,10 +11284,10 @@
         <v>40</v>
       </c>
       <c r="I223" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J223" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N223" s="27">
         <v>16</v>
@@ -11300,7 +11301,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D224" s="27">
         <v>-1</v>
@@ -11309,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G224" s="27">
         <v>1</v>
@@ -11318,10 +11319,10 @@
         <v>41</v>
       </c>
       <c r="I224" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J224" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N224" s="27">
         <v>16</v>
@@ -11335,7 +11336,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D225" s="27">
         <v>-1</v>
@@ -11344,7 +11345,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G225" s="27">
         <v>1</v>
@@ -11353,10 +11354,10 @@
         <v>42</v>
       </c>
       <c r="I225" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J225" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N225" s="27">
         <v>16</v>
@@ -11370,7 +11371,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D226" s="27">
         <v>-1</v>
@@ -11379,7 +11380,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G226" s="27">
         <v>1</v>
@@ -11388,10 +11389,10 @@
         <v>43</v>
       </c>
       <c r="I226" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J226" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N226" s="27">
         <v>16</v>
@@ -11405,7 +11406,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D227" s="27">
         <v>-1</v>
@@ -11414,7 +11415,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G227" s="27">
         <v>1</v>
@@ -11423,10 +11424,10 @@
         <v>44</v>
       </c>
       <c r="I227" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J227" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N227" s="27">
         <v>16</v>
@@ -11440,7 +11441,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D228" s="27">
         <v>-1</v>
@@ -11449,7 +11450,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G228" s="27">
         <v>1</v>
@@ -11458,10 +11459,10 @@
         <v>45</v>
       </c>
       <c r="I228" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J228" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N228" s="27">
         <v>16</v>
@@ -11475,7 +11476,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D229" s="27">
         <v>-1</v>
@@ -11484,7 +11485,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G229" s="27">
         <v>1</v>
@@ -11493,10 +11494,10 @@
         <v>46</v>
       </c>
       <c r="I229" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J229" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N229" s="27">
         <v>16</v>
@@ -11510,7 +11511,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D230" s="27">
         <v>-1</v>
@@ -11519,7 +11520,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G230" s="27">
         <v>1</v>
@@ -11528,10 +11529,10 @@
         <v>47</v>
       </c>
       <c r="I230" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J230" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N230" s="27">
         <v>16</v>
@@ -11545,7 +11546,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D231" s="27">
         <v>-1</v>
@@ -11554,7 +11555,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G231" s="27">
         <v>1</v>
@@ -11563,10 +11564,10 @@
         <v>48</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J231" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N231" s="27">
         <v>16</v>
@@ -11580,7 +11581,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D232" s="27">
         <v>-1</v>
@@ -11589,7 +11590,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G232" s="27">
         <v>1</v>
@@ -11598,10 +11599,10 @@
         <v>49</v>
       </c>
       <c r="I232" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J232" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N232" s="27">
         <v>16</v>
@@ -11615,7 +11616,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D233" s="27">
         <v>-1</v>
@@ -11624,7 +11625,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G233" s="27">
         <v>1</v>
@@ -11633,10 +11634,10 @@
         <v>50</v>
       </c>
       <c r="I233" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J233" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N233" s="27">
         <v>16</v>
@@ -11650,7 +11651,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D234" s="27">
         <v>-1</v>
@@ -11659,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G234" s="27">
         <v>1</v>
@@ -11668,10 +11669,10 @@
         <v>51</v>
       </c>
       <c r="I234" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J234" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N234" s="27">
         <v>16</v>
@@ -11685,7 +11686,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D235" s="27">
         <v>-1</v>
@@ -11694,7 +11695,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G235" s="27">
         <v>1</v>
@@ -11703,10 +11704,10 @@
         <v>52</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J235" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N235" s="27">
         <v>16</v>
@@ -11720,7 +11721,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D236" s="27">
         <v>-1</v>
@@ -11729,7 +11730,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G236" s="27">
         <v>1</v>
@@ -11738,10 +11739,10 @@
         <v>53</v>
       </c>
       <c r="I236" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J236" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N236" s="27">
         <v>16</v>
@@ -11755,7 +11756,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D237" s="27">
         <v>-1</v>
@@ -11764,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G237" s="27">
         <v>1</v>
@@ -11773,10 +11774,10 @@
         <v>54</v>
       </c>
       <c r="I237" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J237" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N237" s="27">
         <v>16</v>
@@ -11790,7 +11791,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D238" s="27">
         <v>-1</v>
@@ -11799,7 +11800,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G238" s="27">
         <v>1</v>
@@ -11808,10 +11809,10 @@
         <v>55</v>
       </c>
       <c r="I238" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J238" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N238" s="27">
         <v>16</v>
@@ -11825,7 +11826,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D239" s="27">
         <v>-1</v>
@@ -11834,7 +11835,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G239" s="27">
         <v>1</v>
@@ -11843,10 +11844,10 @@
         <v>56</v>
       </c>
       <c r="I239" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J239" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N239" s="27">
         <v>16</v>
@@ -11860,7 +11861,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D240" s="27">
         <v>-1</v>
@@ -11869,7 +11870,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G240" s="27">
         <v>1</v>
@@ -11878,10 +11879,10 @@
         <v>57</v>
       </c>
       <c r="I240" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J240" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N240" s="27">
         <v>16</v>
@@ -11895,7 +11896,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D241" s="27">
         <v>-1</v>
@@ -11904,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G241" s="27">
         <v>1</v>
@@ -11913,10 +11914,10 @@
         <v>58</v>
       </c>
       <c r="I241" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J241" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N241" s="27">
         <v>16</v>
@@ -11930,7 +11931,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D242" s="27">
         <v>-1</v>
@@ -11939,7 +11940,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G242" s="27">
         <v>1</v>
@@ -11948,10 +11949,10 @@
         <v>59</v>
       </c>
       <c r="I242" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J242" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N242" s="27">
         <v>16</v>
@@ -11965,7 +11966,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D243" s="27">
         <v>-1</v>
@@ -11974,7 +11975,7 @@
         <v>1</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G243" s="27">
         <v>1</v>
@@ -11983,10 +11984,10 @@
         <v>60</v>
       </c>
       <c r="I243" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J243" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N243" s="27">
         <v>16</v>
@@ -12000,7 +12001,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D244" s="27">
         <v>-1</v>
@@ -12009,7 +12010,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G244" s="27">
         <v>1</v>
@@ -12018,10 +12019,10 @@
         <v>61</v>
       </c>
       <c r="I244" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J244" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N244" s="27">
         <v>16</v>
@@ -12035,7 +12036,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D245" s="27">
         <v>-1</v>
@@ -12044,7 +12045,7 @@
         <v>1</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G245" s="27">
         <v>1</v>
@@ -12053,10 +12054,10 @@
         <v>62</v>
       </c>
       <c r="I245" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J245" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N245" s="27">
         <v>16</v>
@@ -12070,7 +12071,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D246" s="27">
         <v>-1</v>
@@ -12079,7 +12080,7 @@
         <v>1</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G246" s="27">
         <v>1</v>
@@ -12088,10 +12089,10 @@
         <v>63</v>
       </c>
       <c r="I246" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J246" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N246" s="27">
         <v>16</v>
@@ -12105,7 +12106,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D247" s="27">
         <v>-1</v>
@@ -12114,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G247" s="27">
         <v>1</v>
@@ -12123,10 +12124,10 @@
         <v>64</v>
       </c>
       <c r="I247" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J247" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N247" s="27">
         <v>16</v>
@@ -12140,7 +12141,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D248" s="27">
         <v>-1</v>
@@ -12149,7 +12150,7 @@
         <v>1</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G248" s="27">
         <v>1</v>
@@ -12158,10 +12159,10 @@
         <v>65</v>
       </c>
       <c r="I248" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J248" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N248" s="27">
         <v>16</v>
@@ -12175,7 +12176,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D249" s="27">
         <v>-1</v>
@@ -12184,7 +12185,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G249" s="27">
         <v>1</v>
@@ -12193,10 +12194,10 @@
         <v>66</v>
       </c>
       <c r="I249" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J249" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N249" s="27">
         <v>16</v>
@@ -12210,7 +12211,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D250" s="27">
         <v>-1</v>
@@ -12219,7 +12220,7 @@
         <v>1</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G250" s="27">
         <v>1</v>
@@ -12228,10 +12229,10 @@
         <v>67</v>
       </c>
       <c r="I250" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J250" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N250" s="27">
         <v>16</v>
@@ -12245,7 +12246,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D251" s="27">
         <v>-1</v>
@@ -12254,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G251" s="27">
         <v>1</v>
@@ -12263,10 +12264,10 @@
         <v>68</v>
       </c>
       <c r="I251" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J251" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N251" s="27">
         <v>16</v>
@@ -12280,7 +12281,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D252" s="27">
         <v>-1</v>
@@ -12289,7 +12290,7 @@
         <v>1</v>
       </c>
       <c r="F252" s="28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G252" s="27">
         <v>1</v>
@@ -12298,10 +12299,10 @@
         <v>68</v>
       </c>
       <c r="I252" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J252" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N252" s="27">
         <v>16</v>
@@ -12315,7 +12316,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D253" s="27">
         <v>-1</v>
@@ -12324,7 +12325,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="28" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G253" s="27">
         <v>1</v>
@@ -12333,10 +12334,10 @@
         <v>69</v>
       </c>
       <c r="I253" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J253" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N253" s="27">
         <v>16</v>
@@ -12350,7 +12351,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D254" s="27">
         <v>-1</v>
@@ -12359,7 +12360,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G254" s="27">
         <v>1</v>
@@ -12368,10 +12369,10 @@
         <v>70</v>
       </c>
       <c r="I254" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J254" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N254" s="27">
         <v>16</v>
@@ -12385,7 +12386,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D255" s="27">
         <v>-1</v>
@@ -12394,7 +12395,7 @@
         <v>1</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G255" s="27">
         <v>1</v>
@@ -12403,10 +12404,10 @@
         <v>71</v>
       </c>
       <c r="I255" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J255" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N255" s="27">
         <v>16</v>
@@ -12420,7 +12421,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D256" s="27">
         <v>-1</v>
@@ -12429,7 +12430,7 @@
         <v>1</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G256" s="27">
         <v>1</v>
@@ -12438,10 +12439,10 @@
         <v>72</v>
       </c>
       <c r="I256" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J256" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N256" s="27">
         <v>16</v>
@@ -12455,7 +12456,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D257" s="27">
         <v>-1</v>
@@ -12464,7 +12465,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G257" s="27">
         <v>1</v>
@@ -12473,10 +12474,10 @@
         <v>73</v>
       </c>
       <c r="I257" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J257" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N257" s="27">
         <v>16</v>
@@ -12490,7 +12491,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D258" s="27">
         <v>-1</v>
@@ -12499,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G258" s="27">
         <v>1</v>
@@ -12508,10 +12509,10 @@
         <v>74</v>
       </c>
       <c r="I258" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J258" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N258" s="27">
         <v>16</v>
@@ -12525,7 +12526,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D259" s="27">
         <v>-1</v>
@@ -12534,7 +12535,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G259" s="27">
         <v>1</v>
@@ -12543,10 +12544,10 @@
         <v>75</v>
       </c>
       <c r="I259" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J259" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N259" s="27">
         <v>16</v>
@@ -12560,7 +12561,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D260" s="27">
         <v>-1</v>
@@ -12569,7 +12570,7 @@
         <v>1</v>
       </c>
       <c r="F260" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G260" s="27">
         <v>1</v>
@@ -12578,10 +12579,10 @@
         <v>76</v>
       </c>
       <c r="I260" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J260" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N260" s="27">
         <v>16</v>
@@ -12595,7 +12596,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D261" s="27">
         <v>-1</v>
@@ -12604,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G261" s="27">
         <v>1</v>
@@ -12613,10 +12614,10 @@
         <v>77</v>
       </c>
       <c r="I261" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J261" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N261" s="27">
         <v>16</v>
@@ -12630,7 +12631,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D262" s="27">
         <v>-1</v>
@@ -12639,7 +12640,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G262" s="27">
         <v>1</v>
@@ -12648,10 +12649,10 @@
         <v>78</v>
       </c>
       <c r="I262" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J262" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N262" s="27">
         <v>16</v>
@@ -12665,7 +12666,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D263" s="27">
         <v>-1</v>
@@ -12674,7 +12675,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G263" s="27">
         <v>1</v>
@@ -12683,10 +12684,10 @@
         <v>79</v>
       </c>
       <c r="I263" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J263" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N263" s="27">
         <v>16</v>
@@ -12700,7 +12701,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D264" s="27">
         <v>-1</v>
@@ -12709,7 +12710,7 @@
         <v>1</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G264" s="27">
         <v>1</v>
@@ -12718,10 +12719,10 @@
         <v>80</v>
       </c>
       <c r="I264" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J264" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N264" s="27">
         <v>16</v>
@@ -12735,7 +12736,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D265" s="27">
         <v>-1</v>
@@ -12744,7 +12745,7 @@
         <v>1</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G265" s="27">
         <v>1</v>
@@ -12753,10 +12754,10 @@
         <v>81</v>
       </c>
       <c r="I265" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J265" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N265" s="27">
         <v>16</v>
@@ -12770,7 +12771,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D266" s="27">
         <v>-1</v>
@@ -12779,7 +12780,7 @@
         <v>1</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G266" s="27">
         <v>1</v>
@@ -12788,10 +12789,10 @@
         <v>82</v>
       </c>
       <c r="I266" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J266" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N266" s="27">
         <v>16</v>
@@ -12805,7 +12806,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D267" s="27">
         <v>-1</v>
@@ -12814,7 +12815,7 @@
         <v>1</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G267" s="27">
         <v>1</v>
@@ -12823,10 +12824,10 @@
         <v>83</v>
       </c>
       <c r="I267" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J267" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N267" s="27">
         <v>16</v>
@@ -12840,7 +12841,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D268" s="27">
         <v>-1</v>
@@ -12849,7 +12850,7 @@
         <v>1</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G268" s="27">
         <v>1</v>
@@ -12858,10 +12859,10 @@
         <v>84</v>
       </c>
       <c r="I268" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J268" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N268" s="27">
         <v>16</v>
@@ -12875,7 +12876,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D269" s="27">
         <v>-1</v>
@@ -12884,7 +12885,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G269" s="27">
         <v>1</v>
@@ -12893,10 +12894,10 @@
         <v>85</v>
       </c>
       <c r="I269" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J269" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N269" s="27">
         <v>16</v>
@@ -12910,7 +12911,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D270" s="27">
         <v>-1</v>
@@ -12919,7 +12920,7 @@
         <v>1</v>
       </c>
       <c r="F270" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G270" s="27">
         <v>1</v>
@@ -12928,10 +12929,10 @@
         <v>86</v>
       </c>
       <c r="I270" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J270" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N270" s="27">
         <v>16</v>
@@ -12945,7 +12946,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D271" s="27">
         <v>-1</v>
@@ -12954,7 +12955,7 @@
         <v>1</v>
       </c>
       <c r="F271" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G271" s="27">
         <v>1</v>
@@ -12963,10 +12964,10 @@
         <v>87</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J271" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N271" s="27">
         <v>16</v>
@@ -12980,7 +12981,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D272" s="27">
         <v>-1</v>
@@ -12989,7 +12990,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G272" s="27">
         <v>1</v>
@@ -12998,10 +12999,10 @@
         <v>88</v>
       </c>
       <c r="I272" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J272" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N272" s="27">
         <v>16</v>
@@ -13015,7 +13016,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D273" s="27">
         <v>-1</v>
@@ -13024,7 +13025,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G273" s="27">
         <v>1</v>
@@ -13033,10 +13034,10 @@
         <v>89</v>
       </c>
       <c r="I273" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J273" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N273" s="27">
         <v>16</v>
@@ -13050,7 +13051,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D274" s="27">
         <v>-1</v>
@@ -13059,7 +13060,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G274" s="27">
         <v>1</v>
@@ -13068,10 +13069,10 @@
         <v>90</v>
       </c>
       <c r="I274" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J274" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N274" s="27">
         <v>16</v>
@@ -13085,7 +13086,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D275" s="27">
         <v>-1</v>
@@ -13094,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G275" s="27">
         <v>1</v>
@@ -13103,10 +13104,10 @@
         <v>91</v>
       </c>
       <c r="I275" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J275" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N275" s="27">
         <v>16</v>
@@ -13120,7 +13121,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D276" s="27">
         <v>-1</v>
@@ -13129,7 +13130,7 @@
         <v>1</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G276" s="27">
         <v>1</v>
@@ -13138,10 +13139,10 @@
         <v>92</v>
       </c>
       <c r="I276" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J276" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N276" s="27">
         <v>16</v>
@@ -13155,7 +13156,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D277" s="27">
         <v>-1</v>
@@ -13164,7 +13165,7 @@
         <v>1</v>
       </c>
       <c r="F277" s="27" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G277" s="27">
         <v>1</v>
@@ -13173,10 +13174,10 @@
         <v>93</v>
       </c>
       <c r="I277" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J277" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N277" s="27">
         <v>16</v>
@@ -13190,7 +13191,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D278" s="27">
         <v>-1</v>
@@ -13199,7 +13200,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="27" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G278" s="27">
         <v>1</v>
@@ -13208,10 +13209,10 @@
         <v>94</v>
       </c>
       <c r="I278" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J278" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N278" s="27">
         <v>16</v>
@@ -13225,7 +13226,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D279" s="27">
         <v>-1</v>
@@ -13234,7 +13235,7 @@
         <v>1</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G279" s="27">
         <v>1</v>
@@ -13243,10 +13244,10 @@
         <v>95</v>
       </c>
       <c r="I279" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J279" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N279" s="27">
         <v>16</v>
@@ -13260,7 +13261,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D280" s="27">
         <v>-1</v>
@@ -13269,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G280" s="27">
         <v>1</v>
@@ -13278,10 +13279,10 @@
         <v>96</v>
       </c>
       <c r="I280" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J280" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N280" s="27">
         <v>16</v>
@@ -13295,7 +13296,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D281" s="27">
         <v>-1</v>
@@ -13304,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="27" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G281" s="27">
         <v>1</v>
@@ -13313,10 +13314,10 @@
         <v>97</v>
       </c>
       <c r="I281" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J281" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N281" s="27">
         <v>16</v>
@@ -13330,7 +13331,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D282" s="27">
         <v>-1</v>
@@ -13339,7 +13340,7 @@
         <v>1</v>
       </c>
       <c r="F282" s="27" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G282" s="27">
         <v>1</v>
@@ -13348,10 +13349,10 @@
         <v>98</v>
       </c>
       <c r="I282" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J282" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N282" s="27">
         <v>16</v>
@@ -13365,7 +13366,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D283" s="27">
         <v>-1</v>
@@ -13374,7 +13375,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G283" s="27">
         <v>1</v>
@@ -13383,10 +13384,10 @@
         <v>99</v>
       </c>
       <c r="I283" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J283" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N283" s="27">
         <v>16</v>
@@ -13400,7 +13401,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D284" s="27">
         <v>-1</v>
@@ -13409,7 +13410,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G284" s="27">
         <v>1</v>
@@ -13418,10 +13419,10 @@
         <v>99</v>
       </c>
       <c r="I284" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J284" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N284" s="27">
         <v>16</v>
@@ -13435,16 +13436,16 @@
         <v>284</v>
       </c>
       <c r="C285" s="30" t="s">
+        <v>774</v>
+      </c>
+      <c r="D285" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="30" t="s">
         <v>775</v>
-      </c>
-      <c r="D285" s="29">
-        <v>-1</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="30" t="s">
-        <v>776</v>
       </c>
       <c r="G285" s="29">
         <v>0</v>
@@ -13453,10 +13454,10 @@
         <v>33</v>
       </c>
       <c r="I285" s="30" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J285" s="30" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="286" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -13467,7 +13468,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="30" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D286" s="29">
         <v>-1</v>
@@ -13476,7 +13477,7 @@
         <v>1</v>
       </c>
       <c r="F286" s="29" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G286" s="29">
         <v>0</v>
@@ -13485,10 +13486,10 @@
         <v>33</v>
       </c>
       <c r="I286" s="29" t="s">
+        <v>777</v>
+      </c>
+      <c r="J286" s="29" t="s">
         <v>778</v>
-      </c>
-      <c r="J286" s="29" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="287" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -13499,16 +13500,16 @@
         <v>286</v>
       </c>
       <c r="C287" s="32" t="s">
+        <v>820</v>
+      </c>
+      <c r="D287" s="31">
+        <v>-1</v>
+      </c>
+      <c r="E287" s="31">
+        <v>1</v>
+      </c>
+      <c r="F287" s="31" t="s">
         <v>821</v>
-      </c>
-      <c r="D287" s="31">
-        <v>-1</v>
-      </c>
-      <c r="E287" s="31">
-        <v>1</v>
-      </c>
-      <c r="F287" s="31" t="s">
-        <v>822</v>
       </c>
       <c r="G287" s="31">
         <v>0</v>
@@ -13517,10 +13518,10 @@
         <v>33</v>
       </c>
       <c r="I287" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="J287" s="31" t="s">
         <v>823</v>
-      </c>
-      <c r="J287" s="31" t="s">
-        <v>824</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="829">
   <si>
     <t>id|行号</t>
   </si>
@@ -3213,6 +3213,22 @@
   </si>
   <si>
     <t>冬至饺子掉落物</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_sd_lh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞节礼盒道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_sd_icon_lh_1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3393,7 +3409,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3491,6 +3507,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3771,10 +3790,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q287"/>
+  <dimension ref="A1:Q288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
@@ -6376,7 +6395,7 @@
         <v>426</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="L80" s="5"/>
     </row>
@@ -13522,6 +13541,38 @@
       </c>
       <c r="J287" s="31" t="s">
         <v>823</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="13">
+        <v>287</v>
+      </c>
+      <c r="B288" s="13">
+        <v>287</v>
+      </c>
+      <c r="C288" s="33" t="s">
+        <v>824</v>
+      </c>
+      <c r="D288" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E288" s="13">
+        <v>1</v>
+      </c>
+      <c r="F288" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="G288" s="13">
+        <v>0</v>
+      </c>
+      <c r="H288" s="13">
+        <v>33</v>
+      </c>
+      <c r="I288" s="33" t="s">
+        <v>825</v>
+      </c>
+      <c r="J288" s="33" t="s">
+        <v>826</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="927">
   <si>
     <t>id|行号</t>
   </si>
@@ -2740,14 +2740,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>鱼苗碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>成熟鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_fishbowl_fry1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2764,10 +2756,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>鱼苗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_fishbowl_fish2</t>
   </si>
   <si>
@@ -3228,12 +3216,320 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>用于福利券转盘中的福利转盘抽奖。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_yd_jyb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>by_sd_icon_lh_1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>用于福利券转盘中的福利转盘抽奖。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>hldz_iocn_jyb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦活动——金元宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小牛角鱼苗</t>
+  </si>
+  <si>
+    <t>小气泡鱼苗</t>
+  </si>
+  <si>
+    <t>小丑鱼鱼苗</t>
+  </si>
+  <si>
+    <t>小燕鱼鱼苗</t>
+  </si>
+  <si>
+    <t>小黄鳍鱼苗</t>
+  </si>
+  <si>
+    <t>小灯笼鱼苗</t>
+  </si>
+  <si>
+    <t>小旗鱼鱼苗</t>
+  </si>
+  <si>
+    <t>河豚鱼苗</t>
+  </si>
+  <si>
+    <t>小水母鱼苗</t>
+  </si>
+  <si>
+    <t>小章鱼鱼苗</t>
+  </si>
+  <si>
+    <t>小海龟鱼苗</t>
+  </si>
+  <si>
+    <t>狮子鱼鱼苗</t>
+  </si>
+  <si>
+    <t>魔鬼鱼鱼苗</t>
+  </si>
+  <si>
+    <t>虎鲸鱼苗</t>
+  </si>
+  <si>
+    <t>黄金灯笼鱼鱼苗</t>
+  </si>
+  <si>
+    <t>黄金炸弹鱼鱼苗</t>
+  </si>
+  <si>
+    <t>黄金狮子鱼鱼苗</t>
+  </si>
+  <si>
+    <t>黄金海龟鱼苗</t>
+  </si>
+  <si>
+    <t>黄金河豚鱼苗</t>
+  </si>
+  <si>
+    <t>金蟾鱼苗</t>
+  </si>
+  <si>
+    <t>大金鲨鱼苗</t>
+  </si>
+  <si>
+    <t>黄金锤头鲨鱼苗</t>
+  </si>
+  <si>
+    <t>闪电鱼鱼苗</t>
+  </si>
+  <si>
+    <t>美人鱼鱼苗</t>
+  </si>
+  <si>
+    <t>炽火龙王鱼苗</t>
+  </si>
+  <si>
+    <t>霸王蟹鱼苗</t>
+  </si>
+  <si>
+    <t>鲨鱼将军鱼苗</t>
+  </si>
+  <si>
+    <t>远古龙龟鱼苗</t>
+  </si>
+  <si>
+    <t>招财宝蟾鱼苗</t>
+  </si>
+  <si>
+    <t>深海狂鲨鱼苗</t>
+  </si>
+  <si>
+    <t>宝藏鳄鱼鱼苗</t>
+  </si>
+  <si>
+    <t>深海鲸鱼苗</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小牛角碎片</t>
+  </si>
+  <si>
+    <t>小气泡碎片</t>
+  </si>
+  <si>
+    <t>小丑鱼碎片</t>
+  </si>
+  <si>
+    <t>小燕鱼碎片</t>
+  </si>
+  <si>
+    <t>小黄鳍碎片</t>
+  </si>
+  <si>
+    <t>小灯笼碎片</t>
+  </si>
+  <si>
+    <t>小旗鱼碎片</t>
+  </si>
+  <si>
+    <t>河豚碎片</t>
+  </si>
+  <si>
+    <t>小水母碎片</t>
+  </si>
+  <si>
+    <t>小章鱼碎片</t>
+  </si>
+  <si>
+    <t>小海龟碎片</t>
+  </si>
+  <si>
+    <t>狮子鱼碎片</t>
+  </si>
+  <si>
+    <t>魔鬼鱼碎片</t>
+  </si>
+  <si>
+    <t>虎鲸碎片</t>
+  </si>
+  <si>
+    <t>黄金灯笼鱼碎片</t>
+  </si>
+  <si>
+    <t>黄金炸弹鱼碎片</t>
+  </si>
+  <si>
+    <t>黄金狮子鱼碎片</t>
+  </si>
+  <si>
+    <t>黄金海龟碎片</t>
+  </si>
+  <si>
+    <t>黄金河豚碎片</t>
+  </si>
+  <si>
+    <t>金蟾碎片</t>
+  </si>
+  <si>
+    <t>大金鲨碎片</t>
+  </si>
+  <si>
+    <t>黄金锤头鲨碎片</t>
+  </si>
+  <si>
+    <t>闪电鱼碎片</t>
+  </si>
+  <si>
+    <t>美人鱼碎片</t>
+  </si>
+  <si>
+    <t>炽火龙王碎片</t>
+  </si>
+  <si>
+    <t>霸王蟹碎片</t>
+  </si>
+  <si>
+    <t>鲨鱼将军碎片</t>
+  </si>
+  <si>
+    <t>远古龙龟碎片</t>
+  </si>
+  <si>
+    <t>招财宝蟾碎片</t>
+  </si>
+  <si>
+    <t>深海狂鲨碎片</t>
+  </si>
+  <si>
+    <t>宝藏鳄鱼碎片</t>
+  </si>
+  <si>
+    <t>深海鲸碎片</t>
+  </si>
+  <si>
+    <t>小丑鱼</t>
+  </si>
+  <si>
+    <t>河豚</t>
+  </si>
+  <si>
+    <t>魔鬼鱼</t>
+  </si>
+  <si>
+    <t>虎鲸</t>
+  </si>
+  <si>
+    <t>黄金灯笼鱼</t>
+  </si>
+  <si>
+    <t>黄金炸弹鱼</t>
+  </si>
+  <si>
+    <t>黄金狮子鱼</t>
+  </si>
+  <si>
+    <t>黄金海龟</t>
+  </si>
+  <si>
+    <t>黄金河豚</t>
+  </si>
+  <si>
+    <t>金蟾</t>
+  </si>
+  <si>
+    <t>大金鲨</t>
+  </si>
+  <si>
+    <t>黄金锤头鲨</t>
+  </si>
+  <si>
+    <t>霸王蟹</t>
+  </si>
+  <si>
+    <t>鲨鱼将军</t>
+  </si>
+  <si>
+    <t>远古龙龟</t>
+  </si>
+  <si>
+    <t>招财宝蟾</t>
+  </si>
+  <si>
+    <t>深海狂鲨</t>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+  </si>
+  <si>
+    <t>深海鲸</t>
+  </si>
+  <si>
+    <t>小牛角</t>
+  </si>
+  <si>
+    <t>小气泡</t>
+  </si>
+  <si>
+    <t>小燕鱼</t>
+  </si>
+  <si>
+    <t>小黄鳍</t>
+  </si>
+  <si>
+    <t>小灯笼</t>
+  </si>
+  <si>
+    <t>小旗鱼</t>
+  </si>
+  <si>
+    <t>小水母</t>
+  </si>
+  <si>
+    <t>小章鱼</t>
+  </si>
+  <si>
+    <t>小海龟</t>
+  </si>
+  <si>
+    <t>狮子鱼</t>
+  </si>
+  <si>
+    <t>闪电鱼</t>
+  </si>
+  <si>
+    <t>美人鱼</t>
+  </si>
+  <si>
+    <t>炽火龙王</t>
   </si>
 </sst>
 </file>
@@ -3311,7 +3607,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3366,6 +3662,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3409,7 +3711,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3510,6 +3812,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3790,11 +4098,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q288"/>
+  <dimension ref="A1:Q289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I253" sqref="I253:I284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6395,7 +6703,7 @@
         <v>426</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="L80" s="5"/>
     </row>
@@ -8165,28 +8473,28 @@
       <c r="B132" s="2">
         <v>131</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="D132" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E132" s="2">
-        <v>1</v>
-      </c>
-      <c r="F132" s="5" t="s">
+      <c r="D132" s="35">
+        <v>-1</v>
+      </c>
+      <c r="E132" s="35">
+        <v>1</v>
+      </c>
+      <c r="F132" s="34" t="s">
         <v>465</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G132" s="35">
         <v>0</v>
       </c>
-      <c r="H132" s="2">
+      <c r="H132" s="35">
         <v>33</v>
       </c>
-      <c r="I132" s="5" t="s">
+      <c r="I132" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="J132" s="5" t="s">
+      <c r="J132" s="34" t="s">
         <v>470</v>
       </c>
     </row>
@@ -8197,28 +8505,28 @@
       <c r="B133" s="2">
         <v>132</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C133" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="D133" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E133" s="2">
-        <v>1</v>
-      </c>
-      <c r="F133" s="5" t="s">
+      <c r="D133" s="35">
+        <v>-1</v>
+      </c>
+      <c r="E133" s="35">
+        <v>1</v>
+      </c>
+      <c r="F133" s="34" t="s">
         <v>466</v>
       </c>
-      <c r="G133" s="2">
+      <c r="G133" s="35">
         <v>0</v>
       </c>
-      <c r="H133" s="2">
+      <c r="H133" s="35">
         <v>33</v>
       </c>
-      <c r="I133" s="5" t="s">
+      <c r="I133" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="J133" s="5" t="s">
+      <c r="J133" s="34" t="s">
         <v>471</v>
       </c>
     </row>
@@ -8229,28 +8537,28 @@
       <c r="B134" s="2">
         <v>133</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="D134" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E134" s="2">
-        <v>1</v>
-      </c>
-      <c r="F134" s="5" t="s">
+      <c r="D134" s="35">
+        <v>-1</v>
+      </c>
+      <c r="E134" s="35">
+        <v>1</v>
+      </c>
+      <c r="F134" s="34" t="s">
         <v>466</v>
       </c>
-      <c r="G134" s="2">
+      <c r="G134" s="35">
         <v>0</v>
       </c>
-      <c r="H134" s="2">
+      <c r="H134" s="35">
         <v>33</v>
       </c>
-      <c r="I134" s="5" t="s">
+      <c r="I134" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="J134" s="5" t="s">
+      <c r="J134" s="34" t="s">
         <v>472</v>
       </c>
     </row>
@@ -8261,28 +8569,28 @@
       <c r="B135" s="2">
         <v>134</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="34" t="s">
         <v>482</v>
       </c>
-      <c r="D135" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E135" s="2">
-        <v>1</v>
-      </c>
-      <c r="F135" s="5" t="s">
+      <c r="D135" s="35">
+        <v>-1</v>
+      </c>
+      <c r="E135" s="35">
+        <v>1</v>
+      </c>
+      <c r="F135" s="34" t="s">
         <v>467</v>
       </c>
-      <c r="G135" s="2">
+      <c r="G135" s="35">
         <v>0</v>
       </c>
-      <c r="H135" s="2">
+      <c r="H135" s="35">
         <v>33</v>
       </c>
-      <c r="I135" s="5" t="s">
+      <c r="I135" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="J135" s="5" t="s">
+      <c r="J135" s="34" t="s">
         <v>473</v>
       </c>
     </row>
@@ -8293,28 +8601,28 @@
       <c r="B136" s="2">
         <v>135</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="D136" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E136" s="2">
-        <v>1</v>
-      </c>
-      <c r="F136" s="5" t="s">
+      <c r="D136" s="35">
+        <v>-1</v>
+      </c>
+      <c r="E136" s="35">
+        <v>1</v>
+      </c>
+      <c r="F136" s="34" t="s">
         <v>466</v>
       </c>
-      <c r="G136" s="2">
+      <c r="G136" s="35">
         <v>0</v>
       </c>
-      <c r="H136" s="2">
+      <c r="H136" s="35">
         <v>33</v>
       </c>
-      <c r="I136" s="5" t="s">
+      <c r="I136" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="J136" s="5" t="s">
+      <c r="J136" s="34" t="s">
         <v>474</v>
       </c>
     </row>
@@ -8325,28 +8633,28 @@
       <c r="B137" s="2">
         <v>136</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="D137" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E137" s="2">
-        <v>1</v>
-      </c>
-      <c r="F137" s="5" t="s">
+      <c r="D137" s="35">
+        <v>-1</v>
+      </c>
+      <c r="E137" s="35">
+        <v>1</v>
+      </c>
+      <c r="F137" s="34" t="s">
         <v>468</v>
       </c>
-      <c r="G137" s="2">
+      <c r="G137" s="35">
         <v>0</v>
       </c>
-      <c r="H137" s="2">
+      <c r="H137" s="35">
         <v>33</v>
       </c>
-      <c r="I137" s="5" t="s">
+      <c r="I137" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="J137" s="5" t="s">
+      <c r="J137" s="34" t="s">
         <v>475</v>
       </c>
     </row>
@@ -9955,7 +10263,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D185" s="27">
         <v>-1</v>
@@ -9964,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G185" s="27">
         <v>1</v>
@@ -9999,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G186" s="27">
         <v>1</v>
@@ -10034,7 +10342,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G187" s="27">
         <v>1</v>
@@ -10069,7 +10377,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="G188" s="27">
         <v>1</v>
@@ -10095,7 +10403,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D189" s="27">
         <v>-1</v>
@@ -10104,7 +10412,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G189" s="27">
         <v>1</v>
@@ -10113,10 +10421,10 @@
         <v>5</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>681</v>
+        <v>830</v>
       </c>
       <c r="J189" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N189" s="27">
         <v>16</v>
@@ -10130,7 +10438,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D190" s="27">
         <v>-1</v>
@@ -10139,7 +10447,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G190" s="27">
         <v>1</v>
@@ -10148,10 +10456,10 @@
         <v>6</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>681</v>
+        <v>831</v>
       </c>
       <c r="J190" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N190" s="27">
         <v>16</v>
@@ -10165,7 +10473,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D191" s="27">
         <v>-1</v>
@@ -10174,7 +10482,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G191" s="27">
         <v>1</v>
@@ -10183,10 +10491,10 @@
         <v>7</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>681</v>
+        <v>832</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N191" s="27">
         <v>16</v>
@@ -10200,7 +10508,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D192" s="27">
         <v>-1</v>
@@ -10209,7 +10517,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="G192" s="27">
         <v>1</v>
@@ -10218,10 +10526,10 @@
         <v>8</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>681</v>
+        <v>833</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N192" s="27">
         <v>16</v>
@@ -10235,7 +10543,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="28" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D193" s="27">
         <v>-1</v>
@@ -10244,7 +10552,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G193" s="27">
         <v>1</v>
@@ -10253,10 +10561,10 @@
         <v>9</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>681</v>
+        <v>834</v>
       </c>
       <c r="J193" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N193" s="27">
         <v>16</v>
@@ -10270,7 +10578,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D194" s="27">
         <v>-1</v>
@@ -10279,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G194" s="27">
         <v>1</v>
@@ -10288,10 +10596,10 @@
         <v>10</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>681</v>
+        <v>835</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N194" s="27">
         <v>16</v>
@@ -10305,7 +10613,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="28" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D195" s="27">
         <v>-1</v>
@@ -10314,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G195" s="27">
         <v>1</v>
@@ -10323,10 +10631,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>681</v>
+        <v>836</v>
       </c>
       <c r="J195" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N195" s="27">
         <v>16</v>
@@ -10340,7 +10648,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D196" s="27">
         <v>-1</v>
@@ -10349,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G196" s="27">
         <v>1</v>
@@ -10358,10 +10666,10 @@
         <v>12</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>681</v>
+        <v>837</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N196" s="27">
         <v>16</v>
@@ -10375,7 +10683,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D197" s="27">
         <v>-1</v>
@@ -10384,7 +10692,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G197" s="27">
         <v>1</v>
@@ -10393,10 +10701,10 @@
         <v>13</v>
       </c>
       <c r="I197" s="28" t="s">
-        <v>681</v>
+        <v>838</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N197" s="27">
         <v>16</v>
@@ -10410,7 +10718,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D198" s="27">
         <v>-1</v>
@@ -10419,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G198" s="27">
         <v>1</v>
@@ -10428,10 +10736,10 @@
         <v>14</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>681</v>
+        <v>839</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N198" s="27">
         <v>16</v>
@@ -10445,7 +10753,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D199" s="27">
         <v>-1</v>
@@ -10454,7 +10762,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G199" s="27">
         <v>1</v>
@@ -10463,10 +10771,10 @@
         <v>15</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>681</v>
+        <v>840</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N199" s="27">
         <v>16</v>
@@ -10480,7 +10788,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D200" s="27">
         <v>-1</v>
@@ -10489,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="27" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G200" s="27">
         <v>1</v>
@@ -10498,10 +10806,10 @@
         <v>16</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>681</v>
+        <v>841</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N200" s="27">
         <v>16</v>
@@ -10515,7 +10823,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D201" s="27">
         <v>-1</v>
@@ -10524,7 +10832,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G201" s="27">
         <v>1</v>
@@ -10533,10 +10841,10 @@
         <v>17</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>681</v>
+        <v>842</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N201" s="27">
         <v>16</v>
@@ -10550,7 +10858,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D202" s="27">
         <v>-1</v>
@@ -10559,7 +10867,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G202" s="27">
         <v>1</v>
@@ -10568,10 +10876,10 @@
         <v>18</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>681</v>
+        <v>843</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N202" s="27">
         <v>16</v>
@@ -10585,7 +10893,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D203" s="27">
         <v>-1</v>
@@ -10594,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G203" s="27">
         <v>1</v>
@@ -10603,10 +10911,10 @@
         <v>19</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>681</v>
+        <v>844</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N203" s="27">
         <v>16</v>
@@ -10620,7 +10928,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D204" s="27">
         <v>-1</v>
@@ -10629,7 +10937,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G204" s="27">
         <v>1</v>
@@ -10638,10 +10946,10 @@
         <v>20</v>
       </c>
       <c r="I204" s="28" t="s">
-        <v>681</v>
+        <v>845</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N204" s="27">
         <v>16</v>
@@ -10655,7 +10963,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D205" s="27">
         <v>-1</v>
@@ -10664,7 +10972,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="G205" s="27">
         <v>1</v>
@@ -10673,10 +10981,10 @@
         <v>21</v>
       </c>
       <c r="I205" s="28" t="s">
-        <v>681</v>
+        <v>846</v>
       </c>
       <c r="J205" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N205" s="27">
         <v>16</v>
@@ -10690,7 +10998,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D206" s="27">
         <v>-1</v>
@@ -10699,7 +11007,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G206" s="27">
         <v>1</v>
@@ -10708,10 +11016,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="28" t="s">
-        <v>681</v>
+        <v>847</v>
       </c>
       <c r="J206" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N206" s="27">
         <v>16</v>
@@ -10725,7 +11033,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D207" s="27">
         <v>-1</v>
@@ -10734,7 +11042,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G207" s="27">
         <v>1</v>
@@ -10743,10 +11051,10 @@
         <v>23</v>
       </c>
       <c r="I207" s="28" t="s">
-        <v>681</v>
+        <v>848</v>
       </c>
       <c r="J207" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N207" s="27">
         <v>16</v>
@@ -10760,7 +11068,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D208" s="27">
         <v>-1</v>
@@ -10769,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G208" s="27">
         <v>1</v>
@@ -10778,10 +11086,10 @@
         <v>24</v>
       </c>
       <c r="I208" s="28" t="s">
-        <v>681</v>
+        <v>849</v>
       </c>
       <c r="J208" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N208" s="27">
         <v>16</v>
@@ -10795,7 +11103,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D209" s="27">
         <v>-1</v>
@@ -10804,7 +11112,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G209" s="27">
         <v>1</v>
@@ -10813,10 +11121,10 @@
         <v>25</v>
       </c>
       <c r="I209" s="28" t="s">
-        <v>681</v>
+        <v>850</v>
       </c>
       <c r="J209" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N209" s="27">
         <v>16</v>
@@ -10830,7 +11138,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D210" s="27">
         <v>-1</v>
@@ -10839,7 +11147,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G210" s="27">
         <v>1</v>
@@ -10848,10 +11156,10 @@
         <v>26</v>
       </c>
       <c r="I210" s="28" t="s">
-        <v>681</v>
+        <v>851</v>
       </c>
       <c r="J210" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N210" s="27">
         <v>16</v>
@@ -10865,7 +11173,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D211" s="27">
         <v>-1</v>
@@ -10874,7 +11182,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G211" s="27">
         <v>1</v>
@@ -10883,10 +11191,10 @@
         <v>27</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>681</v>
+        <v>852</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N211" s="27">
         <v>16</v>
@@ -10900,7 +11208,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D212" s="27">
         <v>-1</v>
@@ -10909,7 +11217,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G212" s="27">
         <v>1</v>
@@ -10918,10 +11226,10 @@
         <v>28</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>681</v>
+        <v>853</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N212" s="27">
         <v>16</v>
@@ -10935,7 +11243,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D213" s="27">
         <v>-1</v>
@@ -10944,7 +11252,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G213" s="27">
         <v>1</v>
@@ -10953,10 +11261,10 @@
         <v>29</v>
       </c>
       <c r="I213" s="28" t="s">
-        <v>681</v>
+        <v>854</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N213" s="27">
         <v>16</v>
@@ -10970,7 +11278,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="28" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D214" s="27">
         <v>-1</v>
@@ -10979,7 +11287,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G214" s="27">
         <v>1</v>
@@ -10988,10 +11296,10 @@
         <v>30</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>681</v>
+        <v>855</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N214" s="27">
         <v>16</v>
@@ -11005,7 +11313,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D215" s="27">
         <v>-1</v>
@@ -11014,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G215" s="27">
         <v>1</v>
@@ -11023,10 +11331,10 @@
         <v>31</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>681</v>
+        <v>856</v>
       </c>
       <c r="J215" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N215" s="27">
         <v>16</v>
@@ -11040,7 +11348,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="28" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D216" s="27">
         <v>-1</v>
@@ -11049,7 +11357,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G216" s="27">
         <v>1</v>
@@ -11058,10 +11366,10 @@
         <v>32</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>681</v>
+        <v>857</v>
       </c>
       <c r="J216" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N216" s="27">
         <v>16</v>
@@ -11075,7 +11383,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="28" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D217" s="27">
         <v>-1</v>
@@ -11084,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G217" s="27">
         <v>1</v>
@@ -11093,10 +11401,10 @@
         <v>33</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>681</v>
+        <v>858</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N217" s="27">
         <v>16</v>
@@ -11110,7 +11418,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="28" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D218" s="27">
         <v>-1</v>
@@ -11119,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G218" s="27">
         <v>1</v>
@@ -11128,10 +11436,10 @@
         <v>34</v>
       </c>
       <c r="I218" s="28" t="s">
-        <v>681</v>
+        <v>859</v>
       </c>
       <c r="J218" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N218" s="27">
         <v>16</v>
@@ -11145,7 +11453,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D219" s="27">
         <v>-1</v>
@@ -11154,7 +11462,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G219" s="27">
         <v>1</v>
@@ -11163,10 +11471,10 @@
         <v>35</v>
       </c>
       <c r="I219" s="28" t="s">
-        <v>681</v>
+        <v>860</v>
       </c>
       <c r="J219" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N219" s="27">
         <v>16</v>
@@ -11180,7 +11488,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D220" s="27">
         <v>-1</v>
@@ -11189,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="28" t="s">
-        <v>817</v>
+        <v>862</v>
       </c>
       <c r="G220" s="27">
         <v>1</v>
@@ -11198,10 +11506,10 @@
         <v>36</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>681</v>
+        <v>861</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N220" s="27">
         <v>16</v>
@@ -11215,7 +11523,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="28" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D221" s="27">
         <v>-1</v>
@@ -11224,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="28" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G221" s="27">
         <v>1</v>
@@ -11233,10 +11541,10 @@
         <v>38</v>
       </c>
       <c r="I221" s="28" t="s">
-        <v>675</v>
+        <v>863</v>
       </c>
       <c r="J221" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N221" s="27">
         <v>16</v>
@@ -11250,7 +11558,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D222" s="27">
         <v>-1</v>
@@ -11259,7 +11567,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G222" s="27">
         <v>1</v>
@@ -11268,10 +11576,10 @@
         <v>39</v>
       </c>
       <c r="I222" s="28" t="s">
-        <v>675</v>
+        <v>864</v>
       </c>
       <c r="J222" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N222" s="27">
         <v>16</v>
@@ -11285,7 +11593,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D223" s="27">
         <v>-1</v>
@@ -11294,7 +11602,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G223" s="27">
         <v>1</v>
@@ -11303,10 +11611,10 @@
         <v>40</v>
       </c>
       <c r="I223" s="28" t="s">
-        <v>675</v>
+        <v>865</v>
       </c>
       <c r="J223" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N223" s="27">
         <v>16</v>
@@ -11320,7 +11628,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D224" s="27">
         <v>-1</v>
@@ -11329,7 +11637,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="G224" s="27">
         <v>1</v>
@@ -11338,10 +11646,10 @@
         <v>41</v>
       </c>
       <c r="I224" s="28" t="s">
-        <v>675</v>
+        <v>866</v>
       </c>
       <c r="J224" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N224" s="27">
         <v>16</v>
@@ -11355,7 +11663,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D225" s="27">
         <v>-1</v>
@@ -11364,7 +11672,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G225" s="27">
         <v>1</v>
@@ -11373,10 +11681,10 @@
         <v>42</v>
       </c>
       <c r="I225" s="28" t="s">
-        <v>675</v>
+        <v>867</v>
       </c>
       <c r="J225" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N225" s="27">
         <v>16</v>
@@ -11390,7 +11698,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D226" s="27">
         <v>-1</v>
@@ -11399,7 +11707,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G226" s="27">
         <v>1</v>
@@ -11408,10 +11716,10 @@
         <v>43</v>
       </c>
       <c r="I226" s="28" t="s">
-        <v>675</v>
+        <v>868</v>
       </c>
       <c r="J226" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N226" s="27">
         <v>16</v>
@@ -11425,7 +11733,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D227" s="27">
         <v>-1</v>
@@ -11434,7 +11742,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G227" s="27">
         <v>1</v>
@@ -11443,10 +11751,10 @@
         <v>44</v>
       </c>
       <c r="I227" s="28" t="s">
-        <v>675</v>
+        <v>869</v>
       </c>
       <c r="J227" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N227" s="27">
         <v>16</v>
@@ -11460,7 +11768,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D228" s="27">
         <v>-1</v>
@@ -11469,7 +11777,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G228" s="27">
         <v>1</v>
@@ -11478,10 +11786,10 @@
         <v>45</v>
       </c>
       <c r="I228" s="28" t="s">
-        <v>675</v>
+        <v>870</v>
       </c>
       <c r="J228" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N228" s="27">
         <v>16</v>
@@ -11495,7 +11803,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D229" s="27">
         <v>-1</v>
@@ -11504,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G229" s="27">
         <v>1</v>
@@ -11513,10 +11821,10 @@
         <v>46</v>
       </c>
       <c r="I229" s="28" t="s">
-        <v>675</v>
+        <v>871</v>
       </c>
       <c r="J229" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N229" s="27">
         <v>16</v>
@@ -11530,7 +11838,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D230" s="27">
         <v>-1</v>
@@ -11539,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G230" s="27">
         <v>1</v>
@@ -11548,10 +11856,10 @@
         <v>47</v>
       </c>
       <c r="I230" s="28" t="s">
-        <v>675</v>
+        <v>872</v>
       </c>
       <c r="J230" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N230" s="27">
         <v>16</v>
@@ -11565,7 +11873,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D231" s="27">
         <v>-1</v>
@@ -11574,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G231" s="27">
         <v>1</v>
@@ -11583,10 +11891,10 @@
         <v>48</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>675</v>
+        <v>873</v>
       </c>
       <c r="J231" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N231" s="27">
         <v>16</v>
@@ -11600,7 +11908,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D232" s="27">
         <v>-1</v>
@@ -11609,7 +11917,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G232" s="27">
         <v>1</v>
@@ -11618,10 +11926,10 @@
         <v>49</v>
       </c>
       <c r="I232" s="28" t="s">
-        <v>675</v>
+        <v>874</v>
       </c>
       <c r="J232" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N232" s="27">
         <v>16</v>
@@ -11635,7 +11943,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D233" s="27">
         <v>-1</v>
@@ -11644,7 +11952,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G233" s="27">
         <v>1</v>
@@ -11653,10 +11961,10 @@
         <v>50</v>
       </c>
       <c r="I233" s="28" t="s">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="J233" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N233" s="27">
         <v>16</v>
@@ -11670,7 +11978,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D234" s="27">
         <v>-1</v>
@@ -11679,7 +11987,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G234" s="27">
         <v>1</v>
@@ -11688,10 +11996,10 @@
         <v>51</v>
       </c>
       <c r="I234" s="28" t="s">
-        <v>675</v>
+        <v>876</v>
       </c>
       <c r="J234" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N234" s="27">
         <v>16</v>
@@ -11705,7 +12013,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D235" s="27">
         <v>-1</v>
@@ -11714,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G235" s="27">
         <v>1</v>
@@ -11723,10 +12031,10 @@
         <v>52</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>675</v>
+        <v>877</v>
       </c>
       <c r="J235" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N235" s="27">
         <v>16</v>
@@ -11740,7 +12048,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D236" s="27">
         <v>-1</v>
@@ -11749,7 +12057,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G236" s="27">
         <v>1</v>
@@ -11758,10 +12066,10 @@
         <v>53</v>
       </c>
       <c r="I236" s="28" t="s">
-        <v>675</v>
+        <v>878</v>
       </c>
       <c r="J236" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N236" s="27">
         <v>16</v>
@@ -11775,7 +12083,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D237" s="27">
         <v>-1</v>
@@ -11784,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="G237" s="27">
         <v>1</v>
@@ -11793,10 +12101,10 @@
         <v>54</v>
       </c>
       <c r="I237" s="28" t="s">
-        <v>675</v>
+        <v>879</v>
       </c>
       <c r="J237" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N237" s="27">
         <v>16</v>
@@ -11810,7 +12118,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D238" s="27">
         <v>-1</v>
@@ -11819,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G238" s="27">
         <v>1</v>
@@ -11828,10 +12136,10 @@
         <v>55</v>
       </c>
       <c r="I238" s="28" t="s">
-        <v>675</v>
+        <v>880</v>
       </c>
       <c r="J238" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N238" s="27">
         <v>16</v>
@@ -11845,7 +12153,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D239" s="27">
         <v>-1</v>
@@ -11854,7 +12162,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G239" s="27">
         <v>1</v>
@@ -11863,10 +12171,10 @@
         <v>56</v>
       </c>
       <c r="I239" s="28" t="s">
-        <v>675</v>
+        <v>881</v>
       </c>
       <c r="J239" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N239" s="27">
         <v>16</v>
@@ -11880,7 +12188,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D240" s="27">
         <v>-1</v>
@@ -11889,7 +12197,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G240" s="27">
         <v>1</v>
@@ -11898,10 +12206,10 @@
         <v>57</v>
       </c>
       <c r="I240" s="28" t="s">
-        <v>675</v>
+        <v>882</v>
       </c>
       <c r="J240" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N240" s="27">
         <v>16</v>
@@ -11915,7 +12223,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D241" s="27">
         <v>-1</v>
@@ -11924,7 +12232,7 @@
         <v>1</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G241" s="27">
         <v>1</v>
@@ -11933,10 +12241,10 @@
         <v>58</v>
       </c>
       <c r="I241" s="28" t="s">
-        <v>675</v>
+        <v>883</v>
       </c>
       <c r="J241" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N241" s="27">
         <v>16</v>
@@ -11950,7 +12258,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D242" s="27">
         <v>-1</v>
@@ -11959,7 +12267,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G242" s="27">
         <v>1</v>
@@ -11968,10 +12276,10 @@
         <v>59</v>
       </c>
       <c r="I242" s="28" t="s">
-        <v>675</v>
+        <v>884</v>
       </c>
       <c r="J242" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N242" s="27">
         <v>16</v>
@@ -11985,7 +12293,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D243" s="27">
         <v>-1</v>
@@ -11994,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G243" s="27">
         <v>1</v>
@@ -12003,10 +12311,10 @@
         <v>60</v>
       </c>
       <c r="I243" s="28" t="s">
-        <v>675</v>
+        <v>885</v>
       </c>
       <c r="J243" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N243" s="27">
         <v>16</v>
@@ -12020,7 +12328,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D244" s="27">
         <v>-1</v>
@@ -12029,7 +12337,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G244" s="27">
         <v>1</v>
@@ -12038,10 +12346,10 @@
         <v>61</v>
       </c>
       <c r="I244" s="28" t="s">
-        <v>675</v>
+        <v>886</v>
       </c>
       <c r="J244" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N244" s="27">
         <v>16</v>
@@ -12055,7 +12363,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D245" s="27">
         <v>-1</v>
@@ -12064,7 +12372,7 @@
         <v>1</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G245" s="27">
         <v>1</v>
@@ -12073,10 +12381,10 @@
         <v>62</v>
       </c>
       <c r="I245" s="28" t="s">
-        <v>675</v>
+        <v>887</v>
       </c>
       <c r="J245" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N245" s="27">
         <v>16</v>
@@ -12090,7 +12398,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D246" s="27">
         <v>-1</v>
@@ -12099,7 +12407,7 @@
         <v>1</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G246" s="27">
         <v>1</v>
@@ -12108,10 +12416,10 @@
         <v>63</v>
       </c>
       <c r="I246" s="28" t="s">
-        <v>675</v>
+        <v>888</v>
       </c>
       <c r="J246" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N246" s="27">
         <v>16</v>
@@ -12125,7 +12433,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D247" s="27">
         <v>-1</v>
@@ -12134,7 +12442,7 @@
         <v>1</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G247" s="27">
         <v>1</v>
@@ -12143,10 +12451,10 @@
         <v>64</v>
       </c>
       <c r="I247" s="28" t="s">
-        <v>675</v>
+        <v>889</v>
       </c>
       <c r="J247" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N247" s="27">
         <v>16</v>
@@ -12160,7 +12468,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D248" s="27">
         <v>-1</v>
@@ -12169,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G248" s="27">
         <v>1</v>
@@ -12178,10 +12486,10 @@
         <v>65</v>
       </c>
       <c r="I248" s="28" t="s">
-        <v>675</v>
+        <v>890</v>
       </c>
       <c r="J248" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N248" s="27">
         <v>16</v>
@@ -12195,7 +12503,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D249" s="27">
         <v>-1</v>
@@ -12204,7 +12512,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G249" s="27">
         <v>1</v>
@@ -12213,10 +12521,10 @@
         <v>66</v>
       </c>
       <c r="I249" s="28" t="s">
-        <v>675</v>
+        <v>891</v>
       </c>
       <c r="J249" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N249" s="27">
         <v>16</v>
@@ -12230,7 +12538,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D250" s="27">
         <v>-1</v>
@@ -12239,7 +12547,7 @@
         <v>1</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G250" s="27">
         <v>1</v>
@@ -12248,10 +12556,10 @@
         <v>67</v>
       </c>
       <c r="I250" s="28" t="s">
-        <v>675</v>
+        <v>892</v>
       </c>
       <c r="J250" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N250" s="27">
         <v>16</v>
@@ -12265,7 +12573,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D251" s="27">
         <v>-1</v>
@@ -12274,7 +12582,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G251" s="27">
         <v>1</v>
@@ -12283,10 +12591,10 @@
         <v>68</v>
       </c>
       <c r="I251" s="28" t="s">
-        <v>675</v>
+        <v>893</v>
       </c>
       <c r="J251" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N251" s="27">
         <v>16</v>
@@ -12300,7 +12608,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D252" s="27">
         <v>-1</v>
@@ -12309,7 +12617,7 @@
         <v>1</v>
       </c>
       <c r="F252" s="28" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G252" s="27">
         <v>1</v>
@@ -12318,10 +12626,10 @@
         <v>68</v>
       </c>
       <c r="I252" s="28" t="s">
-        <v>675</v>
+        <v>894</v>
       </c>
       <c r="J252" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N252" s="27">
         <v>16</v>
@@ -12344,7 +12652,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="28" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G253" s="27">
         <v>1</v>
@@ -12353,10 +12661,10 @@
         <v>69</v>
       </c>
       <c r="I253" s="28" t="s">
-        <v>676</v>
+        <v>914</v>
       </c>
       <c r="J253" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N253" s="27">
         <v>16</v>
@@ -12370,7 +12678,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D254" s="27">
         <v>-1</v>
@@ -12379,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G254" s="27">
         <v>1</v>
@@ -12388,10 +12696,10 @@
         <v>70</v>
       </c>
       <c r="I254" s="28" t="s">
-        <v>676</v>
+        <v>915</v>
       </c>
       <c r="J254" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N254" s="27">
         <v>16</v>
@@ -12405,7 +12713,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D255" s="27">
         <v>-1</v>
@@ -12414,7 +12722,7 @@
         <v>1</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G255" s="27">
         <v>1</v>
@@ -12423,10 +12731,10 @@
         <v>71</v>
       </c>
       <c r="I255" s="28" t="s">
-        <v>676</v>
+        <v>895</v>
       </c>
       <c r="J255" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N255" s="27">
         <v>16</v>
@@ -12440,7 +12748,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D256" s="27">
         <v>-1</v>
@@ -12449,7 +12757,7 @@
         <v>1</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="G256" s="27">
         <v>1</v>
@@ -12458,10 +12766,10 @@
         <v>72</v>
       </c>
       <c r="I256" s="28" t="s">
-        <v>676</v>
+        <v>916</v>
       </c>
       <c r="J256" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N256" s="27">
         <v>16</v>
@@ -12475,7 +12783,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D257" s="27">
         <v>-1</v>
@@ -12484,7 +12792,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G257" s="27">
         <v>1</v>
@@ -12493,10 +12801,10 @@
         <v>73</v>
       </c>
       <c r="I257" s="28" t="s">
-        <v>676</v>
+        <v>917</v>
       </c>
       <c r="J257" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N257" s="27">
         <v>16</v>
@@ -12510,7 +12818,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D258" s="27">
         <v>-1</v>
@@ -12519,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G258" s="27">
         <v>1</v>
@@ -12528,10 +12836,10 @@
         <v>74</v>
       </c>
       <c r="I258" s="28" t="s">
-        <v>676</v>
+        <v>918</v>
       </c>
       <c r="J258" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N258" s="27">
         <v>16</v>
@@ -12545,7 +12853,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D259" s="27">
         <v>-1</v>
@@ -12554,7 +12862,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="27" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G259" s="27">
         <v>1</v>
@@ -12563,10 +12871,10 @@
         <v>75</v>
       </c>
       <c r="I259" s="28" t="s">
-        <v>676</v>
+        <v>919</v>
       </c>
       <c r="J259" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N259" s="27">
         <v>16</v>
@@ -12580,7 +12888,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D260" s="27">
         <v>-1</v>
@@ -12589,7 +12897,7 @@
         <v>1</v>
       </c>
       <c r="F260" s="27" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G260" s="27">
         <v>1</v>
@@ -12598,10 +12906,10 @@
         <v>76</v>
       </c>
       <c r="I260" s="28" t="s">
-        <v>676</v>
+        <v>896</v>
       </c>
       <c r="J260" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N260" s="27">
         <v>16</v>
@@ -12615,7 +12923,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D261" s="27">
         <v>-1</v>
@@ -12624,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G261" s="27">
         <v>1</v>
@@ -12633,10 +12941,10 @@
         <v>77</v>
       </c>
       <c r="I261" s="28" t="s">
-        <v>676</v>
+        <v>920</v>
       </c>
       <c r="J261" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N261" s="27">
         <v>16</v>
@@ -12650,7 +12958,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D262" s="27">
         <v>-1</v>
@@ -12659,7 +12967,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="27" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G262" s="27">
         <v>1</v>
@@ -12668,10 +12976,10 @@
         <v>78</v>
       </c>
       <c r="I262" s="28" t="s">
-        <v>676</v>
+        <v>921</v>
       </c>
       <c r="J262" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N262" s="27">
         <v>16</v>
@@ -12685,7 +12993,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D263" s="27">
         <v>-1</v>
@@ -12694,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G263" s="27">
         <v>1</v>
@@ -12703,10 +13011,10 @@
         <v>79</v>
       </c>
       <c r="I263" s="28" t="s">
-        <v>676</v>
+        <v>922</v>
       </c>
       <c r="J263" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N263" s="27">
         <v>16</v>
@@ -12720,7 +13028,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D264" s="27">
         <v>-1</v>
@@ -12729,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G264" s="27">
         <v>1</v>
@@ -12738,10 +13046,10 @@
         <v>80</v>
       </c>
       <c r="I264" s="28" t="s">
-        <v>676</v>
+        <v>923</v>
       </c>
       <c r="J264" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N264" s="27">
         <v>16</v>
@@ -12755,7 +13063,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D265" s="27">
         <v>-1</v>
@@ -12764,7 +13072,7 @@
         <v>1</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G265" s="27">
         <v>1</v>
@@ -12773,10 +13081,10 @@
         <v>81</v>
       </c>
       <c r="I265" s="28" t="s">
-        <v>676</v>
+        <v>897</v>
       </c>
       <c r="J265" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N265" s="27">
         <v>16</v>
@@ -12790,7 +13098,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D266" s="27">
         <v>-1</v>
@@ -12799,7 +13107,7 @@
         <v>1</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G266" s="27">
         <v>1</v>
@@ -12808,10 +13116,10 @@
         <v>82</v>
       </c>
       <c r="I266" s="28" t="s">
-        <v>676</v>
+        <v>898</v>
       </c>
       <c r="J266" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N266" s="27">
         <v>16</v>
@@ -12825,7 +13133,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D267" s="27">
         <v>-1</v>
@@ -12834,7 +13142,7 @@
         <v>1</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G267" s="27">
         <v>1</v>
@@ -12843,10 +13151,10 @@
         <v>83</v>
       </c>
       <c r="I267" s="28" t="s">
-        <v>676</v>
+        <v>899</v>
       </c>
       <c r="J267" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N267" s="27">
         <v>16</v>
@@ -12860,7 +13168,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D268" s="27">
         <v>-1</v>
@@ -12869,7 +13177,7 @@
         <v>1</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G268" s="27">
         <v>1</v>
@@ -12878,10 +13186,10 @@
         <v>84</v>
       </c>
       <c r="I268" s="28" t="s">
-        <v>676</v>
+        <v>900</v>
       </c>
       <c r="J268" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N268" s="27">
         <v>16</v>
@@ -12895,7 +13203,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D269" s="27">
         <v>-1</v>
@@ -12904,7 +13212,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="G269" s="27">
         <v>1</v>
@@ -12913,10 +13221,10 @@
         <v>85</v>
       </c>
       <c r="I269" s="28" t="s">
-        <v>676</v>
+        <v>901</v>
       </c>
       <c r="J269" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N269" s="27">
         <v>16</v>
@@ -12930,7 +13238,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D270" s="27">
         <v>-1</v>
@@ -12939,7 +13247,7 @@
         <v>1</v>
       </c>
       <c r="F270" s="27" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G270" s="27">
         <v>1</v>
@@ -12948,10 +13256,10 @@
         <v>86</v>
       </c>
       <c r="I270" s="28" t="s">
-        <v>676</v>
+        <v>902</v>
       </c>
       <c r="J270" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N270" s="27">
         <v>16</v>
@@ -12965,7 +13273,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D271" s="27">
         <v>-1</v>
@@ -12974,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="F271" s="27" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G271" s="27">
         <v>1</v>
@@ -12983,10 +13291,10 @@
         <v>87</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>676</v>
+        <v>903</v>
       </c>
       <c r="J271" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N271" s="27">
         <v>16</v>
@@ -13000,7 +13308,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D272" s="27">
         <v>-1</v>
@@ -13009,7 +13317,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G272" s="27">
         <v>1</v>
@@ -13018,10 +13326,10 @@
         <v>88</v>
       </c>
       <c r="I272" s="28" t="s">
-        <v>676</v>
+        <v>904</v>
       </c>
       <c r="J272" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N272" s="27">
         <v>16</v>
@@ -13035,7 +13343,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D273" s="27">
         <v>-1</v>
@@ -13044,7 +13352,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="27" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G273" s="27">
         <v>1</v>
@@ -13053,10 +13361,10 @@
         <v>89</v>
       </c>
       <c r="I273" s="28" t="s">
-        <v>676</v>
+        <v>905</v>
       </c>
       <c r="J273" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N273" s="27">
         <v>16</v>
@@ -13070,7 +13378,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D274" s="27">
         <v>-1</v>
@@ -13079,7 +13387,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G274" s="27">
         <v>1</v>
@@ -13088,10 +13396,10 @@
         <v>90</v>
       </c>
       <c r="I274" s="28" t="s">
-        <v>676</v>
+        <v>906</v>
       </c>
       <c r="J274" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N274" s="27">
         <v>16</v>
@@ -13105,7 +13413,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D275" s="27">
         <v>-1</v>
@@ -13114,7 +13422,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G275" s="27">
         <v>1</v>
@@ -13123,10 +13431,10 @@
         <v>91</v>
       </c>
       <c r="I275" s="28" t="s">
-        <v>676</v>
+        <v>924</v>
       </c>
       <c r="J275" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N275" s="27">
         <v>16</v>
@@ -13140,7 +13448,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D276" s="27">
         <v>-1</v>
@@ -13149,7 +13457,7 @@
         <v>1</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G276" s="27">
         <v>1</v>
@@ -13158,10 +13466,10 @@
         <v>92</v>
       </c>
       <c r="I276" s="28" t="s">
-        <v>676</v>
+        <v>925</v>
       </c>
       <c r="J276" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N276" s="27">
         <v>16</v>
@@ -13175,7 +13483,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D277" s="27">
         <v>-1</v>
@@ -13184,7 +13492,7 @@
         <v>1</v>
       </c>
       <c r="F277" s="27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G277" s="27">
         <v>1</v>
@@ -13193,10 +13501,10 @@
         <v>93</v>
       </c>
       <c r="I277" s="28" t="s">
-        <v>676</v>
+        <v>926</v>
       </c>
       <c r="J277" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N277" s="27">
         <v>16</v>
@@ -13210,7 +13518,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D278" s="27">
         <v>-1</v>
@@ -13219,7 +13527,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="27" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G278" s="27">
         <v>1</v>
@@ -13228,10 +13536,10 @@
         <v>94</v>
       </c>
       <c r="I278" s="28" t="s">
-        <v>676</v>
+        <v>907</v>
       </c>
       <c r="J278" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N278" s="27">
         <v>16</v>
@@ -13245,7 +13553,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D279" s="27">
         <v>-1</v>
@@ -13254,7 +13562,7 @@
         <v>1</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G279" s="27">
         <v>1</v>
@@ -13263,10 +13571,10 @@
         <v>95</v>
       </c>
       <c r="I279" s="28" t="s">
-        <v>676</v>
+        <v>908</v>
       </c>
       <c r="J279" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N279" s="27">
         <v>16</v>
@@ -13280,7 +13588,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D280" s="27">
         <v>-1</v>
@@ -13289,7 +13597,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G280" s="27">
         <v>1</v>
@@ -13298,10 +13606,10 @@
         <v>96</v>
       </c>
       <c r="I280" s="28" t="s">
-        <v>676</v>
+        <v>909</v>
       </c>
       <c r="J280" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N280" s="27">
         <v>16</v>
@@ -13315,7 +13623,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D281" s="27">
         <v>-1</v>
@@ -13324,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="27" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G281" s="27">
         <v>1</v>
@@ -13333,10 +13641,10 @@
         <v>97</v>
       </c>
       <c r="I281" s="28" t="s">
-        <v>676</v>
+        <v>910</v>
       </c>
       <c r="J281" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N281" s="27">
         <v>16</v>
@@ -13350,7 +13658,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D282" s="27">
         <v>-1</v>
@@ -13359,7 +13667,7 @@
         <v>1</v>
       </c>
       <c r="F282" s="27" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G282" s="27">
         <v>1</v>
@@ -13368,10 +13676,10 @@
         <v>98</v>
       </c>
       <c r="I282" s="28" t="s">
-        <v>676</v>
+        <v>911</v>
       </c>
       <c r="J282" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N282" s="27">
         <v>16</v>
@@ -13385,7 +13693,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D283" s="27">
         <v>-1</v>
@@ -13394,7 +13702,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G283" s="27">
         <v>1</v>
@@ -13403,10 +13711,10 @@
         <v>99</v>
       </c>
       <c r="I283" s="28" t="s">
-        <v>676</v>
+        <v>912</v>
       </c>
       <c r="J283" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N283" s="27">
         <v>16</v>
@@ -13420,7 +13728,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D284" s="27">
         <v>-1</v>
@@ -13429,7 +13737,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="28" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G284" s="27">
         <v>1</v>
@@ -13438,10 +13746,10 @@
         <v>99</v>
       </c>
       <c r="I284" s="28" t="s">
-        <v>676</v>
+        <v>913</v>
       </c>
       <c r="J284" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N284" s="27">
         <v>16</v>
@@ -13455,7 +13763,7 @@
         <v>284</v>
       </c>
       <c r="C285" s="30" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D285" s="29">
         <v>-1</v>
@@ -13464,7 +13772,7 @@
         <v>1</v>
       </c>
       <c r="F285" s="30" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="G285" s="29">
         <v>0</v>
@@ -13473,10 +13781,10 @@
         <v>33</v>
       </c>
       <c r="I285" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="J285" s="30" t="s">
         <v>773</v>
-      </c>
-      <c r="J285" s="30" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="286" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -13487,7 +13795,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="30" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D286" s="29">
         <v>-1</v>
@@ -13505,10 +13813,10 @@
         <v>33</v>
       </c>
       <c r="I286" s="29" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="J286" s="29" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="287" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -13519,7 +13827,7 @@
         <v>286</v>
       </c>
       <c r="C287" s="32" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D287" s="31">
         <v>-1</v>
@@ -13528,7 +13836,7 @@
         <v>1</v>
       </c>
       <c r="F287" s="31" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="G287" s="31">
         <v>0</v>
@@ -13537,10 +13845,10 @@
         <v>33</v>
       </c>
       <c r="I287" s="31" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="J287" s="31" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="288" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -13551,7 +13859,7 @@
         <v>287</v>
       </c>
       <c r="C288" s="33" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D288" s="13">
         <v>-1</v>
@@ -13559,8 +13867,8 @@
       <c r="E288" s="13">
         <v>1</v>
       </c>
-      <c r="F288" s="13" t="s">
-        <v>827</v>
+      <c r="F288" s="33" t="s">
+        <v>826</v>
       </c>
       <c r="G288" s="13">
         <v>0</v>
@@ -13569,10 +13877,42 @@
         <v>33</v>
       </c>
       <c r="I288" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="J288" s="33" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="27">
+        <v>288</v>
+      </c>
+      <c r="B289" s="27">
+        <v>288</v>
+      </c>
+      <c r="C289" s="33" t="s">
         <v>825</v>
       </c>
-      <c r="J288" s="33" t="s">
-        <v>826</v>
+      <c r="D289" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E289" s="13">
+        <v>1</v>
+      </c>
+      <c r="F289" s="33" t="s">
+        <v>827</v>
+      </c>
+      <c r="G289" s="13">
+        <v>0</v>
+      </c>
+      <c r="H289" s="13">
+        <v>33</v>
+      </c>
+      <c r="I289" s="33" t="s">
+        <v>828</v>
+      </c>
+      <c r="J289" s="33" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="934">
   <si>
     <t>id|行号</t>
   </si>
@@ -2724,10 +2724,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>精灵硬币</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>高级精灵硬币</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2736,10 +2732,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>丢入精灵泉水中进行普高级祈祷</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_fishbowl_fry1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3530,6 +3522,42 @@
   </si>
   <si>
     <t>炽火龙王</t>
+  </si>
+  <si>
+    <t>act_ty_by_drop_7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典——星星</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hlqd_xx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_qdlb_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_zp1_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢入精灵泉水中进行高级祈祷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通精灵硬币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3607,7 +3635,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3668,6 +3696,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3711,7 +3745,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3819,6 +3853,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4098,11 +4144,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q289"/>
+  <dimension ref="A1:Q292"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I253" sqref="I253:I284"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I172" sqref="I172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4995,143 +5041,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+    <row r="31" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="36">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="39">
         <v>29</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="D31" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="36">
+        <v>1</v>
+      </c>
+      <c r="F31" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="G31" s="36">
+        <v>1</v>
+      </c>
+      <c r="H31" s="36">
         <v>17</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+    <row r="32" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="36">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="39">
         <v>30</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="D32" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="36">
+        <v>1</v>
+      </c>
+      <c r="F32" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="G32" s="36">
+        <v>1</v>
+      </c>
+      <c r="H32" s="36">
         <v>18</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    <row r="33" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="36">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="39">
         <v>31</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="D33" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="36">
+        <v>1</v>
+      </c>
+      <c r="F33" s="36" t="s">
         <v>583</v>
       </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="G33" s="36">
+        <v>1</v>
+      </c>
+      <c r="H33" s="36">
         <v>19</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="38" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+    <row r="34" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="36">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="39">
         <v>32</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="D34" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="36">
+        <v>1</v>
+      </c>
+      <c r="F34" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="G34" s="2">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="G34" s="36">
+        <v>1</v>
+      </c>
+      <c r="H34" s="36">
         <v>20</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="38" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6703,7 +6749,7 @@
         <v>426</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="L80" s="5"/>
     </row>
@@ -9456,178 +9502,178 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="11">
+    <row r="162" spans="1:14" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="36">
         <v>161</v>
       </c>
-      <c r="B162" s="11">
+      <c r="B162" s="36">
         <v>161</v>
       </c>
-      <c r="C162" s="22" t="s">
+      <c r="C162" s="37" t="s">
         <v>628</v>
       </c>
-      <c r="D162" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E162" s="11">
-        <v>1</v>
-      </c>
-      <c r="F162" s="12" t="s">
+      <c r="D162" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E162" s="36">
+        <v>1</v>
+      </c>
+      <c r="F162" s="38" t="s">
         <v>574</v>
       </c>
-      <c r="G162" s="11">
-        <v>1</v>
-      </c>
-      <c r="H162" s="11">
+      <c r="G162" s="36">
+        <v>1</v>
+      </c>
+      <c r="H162" s="36">
         <v>34</v>
       </c>
-      <c r="I162" s="12" t="s">
+      <c r="I162" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="J162" s="12" t="s">
+      <c r="J162" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="N162" s="11">
+      <c r="N162" s="36">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="11">
+    <row r="163" spans="1:14" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="36">
         <v>162</v>
       </c>
-      <c r="B163" s="11">
+      <c r="B163" s="36">
         <v>162</v>
       </c>
-      <c r="C163" s="22" t="s">
+      <c r="C163" s="37" t="s">
         <v>554</v>
       </c>
-      <c r="D163" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E163" s="11">
-        <v>1</v>
-      </c>
-      <c r="F163" s="12" t="s">
+      <c r="D163" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E163" s="36">
+        <v>1</v>
+      </c>
+      <c r="F163" s="38" t="s">
         <v>575</v>
       </c>
-      <c r="G163" s="11">
-        <v>1</v>
-      </c>
-      <c r="H163" s="11">
+      <c r="G163" s="36">
+        <v>1</v>
+      </c>
+      <c r="H163" s="36">
         <v>34</v>
       </c>
-      <c r="I163" s="12" t="s">
+      <c r="I163" s="38" t="s">
         <v>565</v>
       </c>
-      <c r="J163" s="12" t="s">
+      <c r="J163" s="38" t="s">
         <v>565</v>
       </c>
-      <c r="N163" s="11">
+      <c r="N163" s="36">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="11">
+    <row r="164" spans="1:14" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="36">
         <v>163</v>
       </c>
-      <c r="B164" s="11">
+      <c r="B164" s="36">
         <v>163</v>
       </c>
-      <c r="C164" s="22" t="s">
+      <c r="C164" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="D164" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E164" s="11">
-        <v>1</v>
-      </c>
-      <c r="F164" s="12" t="s">
+      <c r="D164" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E164" s="36">
+        <v>1</v>
+      </c>
+      <c r="F164" s="38" t="s">
         <v>576</v>
       </c>
-      <c r="G164" s="11">
-        <v>1</v>
-      </c>
-      <c r="H164" s="11">
+      <c r="G164" s="36">
+        <v>1</v>
+      </c>
+      <c r="H164" s="36">
         <v>34</v>
       </c>
-      <c r="I164" s="12" t="s">
+      <c r="I164" s="38" t="s">
         <v>566</v>
       </c>
-      <c r="J164" s="12" t="s">
+      <c r="J164" s="38" t="s">
         <v>566</v>
       </c>
-      <c r="N164" s="11">
+      <c r="N164" s="36">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="11">
+    <row r="165" spans="1:14" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="36">
         <v>164</v>
       </c>
-      <c r="B165" s="11">
+      <c r="B165" s="36">
         <v>164</v>
       </c>
-      <c r="C165" s="22" t="s">
+      <c r="C165" s="37" t="s">
         <v>605</v>
       </c>
-      <c r="D165" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E165" s="11">
-        <v>1</v>
-      </c>
-      <c r="F165" s="12" t="s">
+      <c r="D165" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E165" s="36">
+        <v>1</v>
+      </c>
+      <c r="F165" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="G165" s="11">
-        <v>1</v>
-      </c>
-      <c r="H165" s="11">
+      <c r="G165" s="36">
+        <v>1</v>
+      </c>
+      <c r="H165" s="36">
         <v>34</v>
       </c>
-      <c r="I165" s="12" t="s">
+      <c r="I165" s="38" t="s">
         <v>620</v>
       </c>
-      <c r="J165" s="12" t="s">
+      <c r="J165" s="38" t="s">
         <v>620</v>
       </c>
-      <c r="N165" s="11">
+      <c r="N165" s="36">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="11">
+    <row r="166" spans="1:14" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="36">
         <v>165</v>
       </c>
-      <c r="B166" s="11">
+      <c r="B166" s="36">
         <v>165</v>
       </c>
-      <c r="C166" s="22" t="s">
+      <c r="C166" s="37" t="s">
         <v>606</v>
       </c>
-      <c r="D166" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E166" s="11">
-        <v>1</v>
-      </c>
-      <c r="F166" s="12" t="s">
+      <c r="D166" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="36">
+        <v>1</v>
+      </c>
+      <c r="F166" s="38" t="s">
         <v>612</v>
       </c>
-      <c r="G166" s="11">
-        <v>1</v>
-      </c>
-      <c r="H166" s="11">
+      <c r="G166" s="36">
+        <v>1</v>
+      </c>
+      <c r="H166" s="36">
         <v>34</v>
       </c>
-      <c r="I166" s="12" t="s">
+      <c r="I166" s="38" t="s">
         <v>619</v>
       </c>
-      <c r="J166" s="12" t="s">
+      <c r="J166" s="38" t="s">
         <v>619</v>
       </c>
-      <c r="N166" s="11">
+      <c r="N166" s="36">
         <v>9</v>
       </c>
     </row>
@@ -10263,7 +10309,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D185" s="27">
         <v>-1</v>
@@ -10272,7 +10318,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G185" s="27">
         <v>1</v>
@@ -10307,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G186" s="27">
         <v>1</v>
@@ -10342,7 +10388,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G187" s="27">
         <v>1</v>
@@ -10351,10 +10397,10 @@
         <v>3</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>671</v>
+        <v>933</v>
       </c>
       <c r="J187" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N187" s="27">
         <v>16</v>
@@ -10377,7 +10423,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G188" s="27">
         <v>1</v>
@@ -10386,10 +10432,10 @@
         <v>4</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>674</v>
+        <v>932</v>
       </c>
       <c r="N188" s="27">
         <v>16</v>
@@ -10403,7 +10449,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D189" s="27">
         <v>-1</v>
@@ -10412,7 +10458,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G189" s="27">
         <v>1</v>
@@ -10421,10 +10467,10 @@
         <v>5</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J189" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N189" s="27">
         <v>16</v>
@@ -10438,7 +10484,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D190" s="27">
         <v>-1</v>
@@ -10447,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G190" s="27">
         <v>1</v>
@@ -10456,10 +10502,10 @@
         <v>6</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J190" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N190" s="27">
         <v>16</v>
@@ -10473,7 +10519,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D191" s="27">
         <v>-1</v>
@@ -10482,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G191" s="27">
         <v>1</v>
@@ -10491,10 +10537,10 @@
         <v>7</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N191" s="27">
         <v>16</v>
@@ -10508,7 +10554,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D192" s="27">
         <v>-1</v>
@@ -10517,7 +10563,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G192" s="27">
         <v>1</v>
@@ -10526,10 +10572,10 @@
         <v>8</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N192" s="27">
         <v>16</v>
@@ -10543,7 +10589,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="28" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D193" s="27">
         <v>-1</v>
@@ -10552,7 +10598,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G193" s="27">
         <v>1</v>
@@ -10561,10 +10607,10 @@
         <v>9</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="J193" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N193" s="27">
         <v>16</v>
@@ -10578,7 +10624,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D194" s="27">
         <v>-1</v>
@@ -10587,7 +10633,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G194" s="27">
         <v>1</v>
@@ -10596,10 +10642,10 @@
         <v>10</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N194" s="27">
         <v>16</v>
@@ -10613,7 +10659,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="28" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D195" s="27">
         <v>-1</v>
@@ -10622,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G195" s="27">
         <v>1</v>
@@ -10631,10 +10677,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J195" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N195" s="27">
         <v>16</v>
@@ -10648,7 +10694,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D196" s="27">
         <v>-1</v>
@@ -10657,7 +10703,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G196" s="27">
         <v>1</v>
@@ -10666,10 +10712,10 @@
         <v>12</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N196" s="27">
         <v>16</v>
@@ -10683,7 +10729,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D197" s="27">
         <v>-1</v>
@@ -10692,7 +10738,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G197" s="27">
         <v>1</v>
@@ -10701,10 +10747,10 @@
         <v>13</v>
       </c>
       <c r="I197" s="28" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N197" s="27">
         <v>16</v>
@@ -10718,7 +10764,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D198" s="27">
         <v>-1</v>
@@ -10727,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G198" s="27">
         <v>1</v>
@@ -10736,10 +10782,10 @@
         <v>14</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N198" s="27">
         <v>16</v>
@@ -10753,7 +10799,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D199" s="27">
         <v>-1</v>
@@ -10762,7 +10808,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G199" s="27">
         <v>1</v>
@@ -10771,10 +10817,10 @@
         <v>15</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N199" s="27">
         <v>16</v>
@@ -10788,7 +10834,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D200" s="27">
         <v>-1</v>
@@ -10797,7 +10843,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G200" s="27">
         <v>1</v>
@@ -10806,10 +10852,10 @@
         <v>16</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N200" s="27">
         <v>16</v>
@@ -10823,7 +10869,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D201" s="27">
         <v>-1</v>
@@ -10832,7 +10878,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G201" s="27">
         <v>1</v>
@@ -10841,10 +10887,10 @@
         <v>17</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N201" s="27">
         <v>16</v>
@@ -10858,7 +10904,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D202" s="27">
         <v>-1</v>
@@ -10867,7 +10913,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G202" s="27">
         <v>1</v>
@@ -10876,10 +10922,10 @@
         <v>18</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N202" s="27">
         <v>16</v>
@@ -10893,7 +10939,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D203" s="27">
         <v>-1</v>
@@ -10902,7 +10948,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G203" s="27">
         <v>1</v>
@@ -10911,10 +10957,10 @@
         <v>19</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N203" s="27">
         <v>16</v>
@@ -10928,7 +10974,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D204" s="27">
         <v>-1</v>
@@ -10937,7 +10983,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G204" s="27">
         <v>1</v>
@@ -10946,10 +10992,10 @@
         <v>20</v>
       </c>
       <c r="I204" s="28" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N204" s="27">
         <v>16</v>
@@ -10963,7 +11009,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D205" s="27">
         <v>-1</v>
@@ -10972,7 +11018,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G205" s="27">
         <v>1</v>
@@ -10981,10 +11027,10 @@
         <v>21</v>
       </c>
       <c r="I205" s="28" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="J205" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N205" s="27">
         <v>16</v>
@@ -10998,7 +11044,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D206" s="27">
         <v>-1</v>
@@ -11007,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G206" s="27">
         <v>1</v>
@@ -11016,10 +11062,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="28" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J206" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N206" s="27">
         <v>16</v>
@@ -11033,7 +11079,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D207" s="27">
         <v>-1</v>
@@ -11042,7 +11088,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G207" s="27">
         <v>1</v>
@@ -11051,10 +11097,10 @@
         <v>23</v>
       </c>
       <c r="I207" s="28" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J207" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N207" s="27">
         <v>16</v>
@@ -11068,7 +11114,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D208" s="27">
         <v>-1</v>
@@ -11077,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="27" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G208" s="27">
         <v>1</v>
@@ -11086,10 +11132,10 @@
         <v>24</v>
       </c>
       <c r="I208" s="28" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J208" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N208" s="27">
         <v>16</v>
@@ -11103,7 +11149,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D209" s="27">
         <v>-1</v>
@@ -11112,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G209" s="27">
         <v>1</v>
@@ -11121,10 +11167,10 @@
         <v>25</v>
       </c>
       <c r="I209" s="28" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J209" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N209" s="27">
         <v>16</v>
@@ -11138,7 +11184,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D210" s="27">
         <v>-1</v>
@@ -11147,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G210" s="27">
         <v>1</v>
@@ -11156,10 +11202,10 @@
         <v>26</v>
       </c>
       <c r="I210" s="28" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J210" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N210" s="27">
         <v>16</v>
@@ -11173,7 +11219,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D211" s="27">
         <v>-1</v>
@@ -11182,7 +11228,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G211" s="27">
         <v>1</v>
@@ -11191,10 +11237,10 @@
         <v>27</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N211" s="27">
         <v>16</v>
@@ -11208,7 +11254,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D212" s="27">
         <v>-1</v>
@@ -11217,7 +11263,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G212" s="27">
         <v>1</v>
@@ -11226,10 +11272,10 @@
         <v>28</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N212" s="27">
         <v>16</v>
@@ -11243,7 +11289,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D213" s="27">
         <v>-1</v>
@@ -11252,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G213" s="27">
         <v>1</v>
@@ -11261,10 +11307,10 @@
         <v>29</v>
       </c>
       <c r="I213" s="28" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N213" s="27">
         <v>16</v>
@@ -11278,7 +11324,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="28" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D214" s="27">
         <v>-1</v>
@@ -11287,7 +11333,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G214" s="27">
         <v>1</v>
@@ -11296,10 +11342,10 @@
         <v>30</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N214" s="27">
         <v>16</v>
@@ -11313,7 +11359,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D215" s="27">
         <v>-1</v>
@@ -11322,7 +11368,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G215" s="27">
         <v>1</v>
@@ -11331,10 +11377,10 @@
         <v>31</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="J215" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N215" s="27">
         <v>16</v>
@@ -11348,7 +11394,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="28" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D216" s="27">
         <v>-1</v>
@@ -11357,7 +11403,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G216" s="27">
         <v>1</v>
@@ -11366,10 +11412,10 @@
         <v>32</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J216" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N216" s="27">
         <v>16</v>
@@ -11383,7 +11429,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="28" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D217" s="27">
         <v>-1</v>
@@ -11392,7 +11438,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G217" s="27">
         <v>1</v>
@@ -11401,10 +11447,10 @@
         <v>33</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N217" s="27">
         <v>16</v>
@@ -11418,7 +11464,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="28" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D218" s="27">
         <v>-1</v>
@@ -11427,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G218" s="27">
         <v>1</v>
@@ -11436,10 +11482,10 @@
         <v>34</v>
       </c>
       <c r="I218" s="28" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="J218" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N218" s="27">
         <v>16</v>
@@ -11453,7 +11499,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D219" s="27">
         <v>-1</v>
@@ -11462,7 +11508,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G219" s="27">
         <v>1</v>
@@ -11471,10 +11517,10 @@
         <v>35</v>
       </c>
       <c r="I219" s="28" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="J219" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N219" s="27">
         <v>16</v>
@@ -11488,7 +11534,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D220" s="27">
         <v>-1</v>
@@ -11497,7 +11543,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="28" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G220" s="27">
         <v>1</v>
@@ -11506,10 +11552,10 @@
         <v>36</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N220" s="27">
         <v>16</v>
@@ -11523,7 +11569,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="28" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D221" s="27">
         <v>-1</v>
@@ -11532,7 +11578,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="28" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G221" s="27">
         <v>1</v>
@@ -11541,10 +11587,10 @@
         <v>38</v>
       </c>
       <c r="I221" s="28" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="J221" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N221" s="27">
         <v>16</v>
@@ -11558,7 +11604,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D222" s="27">
         <v>-1</v>
@@ -11567,7 +11613,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G222" s="27">
         <v>1</v>
@@ -11576,10 +11622,10 @@
         <v>39</v>
       </c>
       <c r="I222" s="28" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J222" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N222" s="27">
         <v>16</v>
@@ -11593,7 +11639,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D223" s="27">
         <v>-1</v>
@@ -11602,7 +11648,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G223" s="27">
         <v>1</v>
@@ -11611,10 +11657,10 @@
         <v>40</v>
       </c>
       <c r="I223" s="28" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="J223" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N223" s="27">
         <v>16</v>
@@ -11628,7 +11674,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D224" s="27">
         <v>-1</v>
@@ -11637,7 +11683,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G224" s="27">
         <v>1</v>
@@ -11646,10 +11692,10 @@
         <v>41</v>
       </c>
       <c r="I224" s="28" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="J224" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N224" s="27">
         <v>16</v>
@@ -11663,7 +11709,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D225" s="27">
         <v>-1</v>
@@ -11672,7 +11718,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G225" s="27">
         <v>1</v>
@@ -11681,10 +11727,10 @@
         <v>42</v>
       </c>
       <c r="I225" s="28" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="J225" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N225" s="27">
         <v>16</v>
@@ -11698,7 +11744,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D226" s="27">
         <v>-1</v>
@@ -11707,7 +11753,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G226" s="27">
         <v>1</v>
@@ -11716,10 +11762,10 @@
         <v>43</v>
       </c>
       <c r="I226" s="28" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J226" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N226" s="27">
         <v>16</v>
@@ -11733,7 +11779,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D227" s="27">
         <v>-1</v>
@@ -11742,7 +11788,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G227" s="27">
         <v>1</v>
@@ -11751,10 +11797,10 @@
         <v>44</v>
       </c>
       <c r="I227" s="28" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J227" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N227" s="27">
         <v>16</v>
@@ -11768,7 +11814,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D228" s="27">
         <v>-1</v>
@@ -11777,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G228" s="27">
         <v>1</v>
@@ -11786,10 +11832,10 @@
         <v>45</v>
       </c>
       <c r="I228" s="28" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="J228" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N228" s="27">
         <v>16</v>
@@ -11803,7 +11849,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D229" s="27">
         <v>-1</v>
@@ -11812,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G229" s="27">
         <v>1</v>
@@ -11821,10 +11867,10 @@
         <v>46</v>
       </c>
       <c r="I229" s="28" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J229" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N229" s="27">
         <v>16</v>
@@ -11838,7 +11884,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D230" s="27">
         <v>-1</v>
@@ -11847,7 +11893,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G230" s="27">
         <v>1</v>
@@ -11856,10 +11902,10 @@
         <v>47</v>
       </c>
       <c r="I230" s="28" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="J230" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N230" s="27">
         <v>16</v>
@@ -11873,7 +11919,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D231" s="27">
         <v>-1</v>
@@ -11882,7 +11928,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G231" s="27">
         <v>1</v>
@@ -11891,10 +11937,10 @@
         <v>48</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J231" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N231" s="27">
         <v>16</v>
@@ -11908,7 +11954,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D232" s="27">
         <v>-1</v>
@@ -11917,7 +11963,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G232" s="27">
         <v>1</v>
@@ -11926,10 +11972,10 @@
         <v>49</v>
       </c>
       <c r="I232" s="28" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J232" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N232" s="27">
         <v>16</v>
@@ -11943,7 +11989,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D233" s="27">
         <v>-1</v>
@@ -11952,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G233" s="27">
         <v>1</v>
@@ -11961,10 +12007,10 @@
         <v>50</v>
       </c>
       <c r="I233" s="28" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="J233" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N233" s="27">
         <v>16</v>
@@ -11978,7 +12024,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D234" s="27">
         <v>-1</v>
@@ -11987,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G234" s="27">
         <v>1</v>
@@ -11996,10 +12042,10 @@
         <v>51</v>
       </c>
       <c r="I234" s="28" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J234" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N234" s="27">
         <v>16</v>
@@ -12013,7 +12059,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D235" s="27">
         <v>-1</v>
@@ -12022,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G235" s="27">
         <v>1</v>
@@ -12031,10 +12077,10 @@
         <v>52</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J235" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N235" s="27">
         <v>16</v>
@@ -12048,7 +12094,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D236" s="27">
         <v>-1</v>
@@ -12057,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G236" s="27">
         <v>1</v>
@@ -12066,10 +12112,10 @@
         <v>53</v>
       </c>
       <c r="I236" s="28" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="J236" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N236" s="27">
         <v>16</v>
@@ -12083,7 +12129,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D237" s="27">
         <v>-1</v>
@@ -12092,7 +12138,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G237" s="27">
         <v>1</v>
@@ -12101,10 +12147,10 @@
         <v>54</v>
       </c>
       <c r="I237" s="28" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J237" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N237" s="27">
         <v>16</v>
@@ -12118,7 +12164,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D238" s="27">
         <v>-1</v>
@@ -12127,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G238" s="27">
         <v>1</v>
@@ -12136,10 +12182,10 @@
         <v>55</v>
       </c>
       <c r="I238" s="28" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J238" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N238" s="27">
         <v>16</v>
@@ -12153,7 +12199,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D239" s="27">
         <v>-1</v>
@@ -12162,7 +12208,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G239" s="27">
         <v>1</v>
@@ -12171,10 +12217,10 @@
         <v>56</v>
       </c>
       <c r="I239" s="28" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="J239" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N239" s="27">
         <v>16</v>
@@ -12188,7 +12234,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D240" s="27">
         <v>-1</v>
@@ -12197,7 +12243,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G240" s="27">
         <v>1</v>
@@ -12206,10 +12252,10 @@
         <v>57</v>
       </c>
       <c r="I240" s="28" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="J240" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N240" s="27">
         <v>16</v>
@@ -12223,7 +12269,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D241" s="27">
         <v>-1</v>
@@ -12232,7 +12278,7 @@
         <v>1</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G241" s="27">
         <v>1</v>
@@ -12241,10 +12287,10 @@
         <v>58</v>
       </c>
       <c r="I241" s="28" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="J241" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N241" s="27">
         <v>16</v>
@@ -12258,7 +12304,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D242" s="27">
         <v>-1</v>
@@ -12267,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G242" s="27">
         <v>1</v>
@@ -12276,10 +12322,10 @@
         <v>59</v>
       </c>
       <c r="I242" s="28" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="J242" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N242" s="27">
         <v>16</v>
@@ -12293,7 +12339,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D243" s="27">
         <v>-1</v>
@@ -12302,7 +12348,7 @@
         <v>1</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G243" s="27">
         <v>1</v>
@@ -12311,10 +12357,10 @@
         <v>60</v>
       </c>
       <c r="I243" s="28" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="J243" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N243" s="27">
         <v>16</v>
@@ -12328,7 +12374,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D244" s="27">
         <v>-1</v>
@@ -12337,7 +12383,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G244" s="27">
         <v>1</v>
@@ -12346,10 +12392,10 @@
         <v>61</v>
       </c>
       <c r="I244" s="28" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="J244" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N244" s="27">
         <v>16</v>
@@ -12363,7 +12409,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D245" s="27">
         <v>-1</v>
@@ -12372,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G245" s="27">
         <v>1</v>
@@ -12381,10 +12427,10 @@
         <v>62</v>
       </c>
       <c r="I245" s="28" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="J245" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N245" s="27">
         <v>16</v>
@@ -12398,7 +12444,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D246" s="27">
         <v>-1</v>
@@ -12407,7 +12453,7 @@
         <v>1</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G246" s="27">
         <v>1</v>
@@ -12416,10 +12462,10 @@
         <v>63</v>
       </c>
       <c r="I246" s="28" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J246" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N246" s="27">
         <v>16</v>
@@ -12433,7 +12479,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D247" s="27">
         <v>-1</v>
@@ -12442,7 +12488,7 @@
         <v>1</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G247" s="27">
         <v>1</v>
@@ -12451,10 +12497,10 @@
         <v>64</v>
       </c>
       <c r="I247" s="28" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="J247" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N247" s="27">
         <v>16</v>
@@ -12468,7 +12514,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D248" s="27">
         <v>-1</v>
@@ -12477,7 +12523,7 @@
         <v>1</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G248" s="27">
         <v>1</v>
@@ -12486,10 +12532,10 @@
         <v>65</v>
       </c>
       <c r="I248" s="28" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="J248" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N248" s="27">
         <v>16</v>
@@ -12503,7 +12549,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D249" s="27">
         <v>-1</v>
@@ -12512,7 +12558,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G249" s="27">
         <v>1</v>
@@ -12521,10 +12567,10 @@
         <v>66</v>
       </c>
       <c r="I249" s="28" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="J249" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N249" s="27">
         <v>16</v>
@@ -12538,7 +12584,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D250" s="27">
         <v>-1</v>
@@ -12547,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G250" s="27">
         <v>1</v>
@@ -12556,10 +12602,10 @@
         <v>67</v>
       </c>
       <c r="I250" s="28" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J250" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N250" s="27">
         <v>16</v>
@@ -12573,7 +12619,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D251" s="27">
         <v>-1</v>
@@ -12582,7 +12628,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G251" s="27">
         <v>1</v>
@@ -12591,10 +12637,10 @@
         <v>68</v>
       </c>
       <c r="I251" s="28" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="J251" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N251" s="27">
         <v>16</v>
@@ -12608,7 +12654,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D252" s="27">
         <v>-1</v>
@@ -12617,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="F252" s="28" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G252" s="27">
         <v>1</v>
@@ -12626,10 +12672,10 @@
         <v>68</v>
       </c>
       <c r="I252" s="28" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="J252" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N252" s="27">
         <v>16</v>
@@ -12652,7 +12698,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="28" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G253" s="27">
         <v>1</v>
@@ -12661,10 +12707,10 @@
         <v>69</v>
       </c>
       <c r="I253" s="28" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="J253" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N253" s="27">
         <v>16</v>
@@ -12678,7 +12724,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D254" s="27">
         <v>-1</v>
@@ -12687,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G254" s="27">
         <v>1</v>
@@ -12696,10 +12742,10 @@
         <v>70</v>
       </c>
       <c r="I254" s="28" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="J254" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N254" s="27">
         <v>16</v>
@@ -12713,7 +12759,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D255" s="27">
         <v>-1</v>
@@ -12722,7 +12768,7 @@
         <v>1</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G255" s="27">
         <v>1</v>
@@ -12731,10 +12777,10 @@
         <v>71</v>
       </c>
       <c r="I255" s="28" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="J255" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N255" s="27">
         <v>16</v>
@@ -12748,7 +12794,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D256" s="27">
         <v>-1</v>
@@ -12757,7 +12803,7 @@
         <v>1</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G256" s="27">
         <v>1</v>
@@ -12766,10 +12812,10 @@
         <v>72</v>
       </c>
       <c r="I256" s="28" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="J256" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N256" s="27">
         <v>16</v>
@@ -12783,7 +12829,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D257" s="27">
         <v>-1</v>
@@ -12792,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G257" s="27">
         <v>1</v>
@@ -12801,10 +12847,10 @@
         <v>73</v>
       </c>
       <c r="I257" s="28" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="J257" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N257" s="27">
         <v>16</v>
@@ -12818,7 +12864,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D258" s="27">
         <v>-1</v>
@@ -12827,7 +12873,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G258" s="27">
         <v>1</v>
@@ -12836,10 +12882,10 @@
         <v>74</v>
       </c>
       <c r="I258" s="28" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="J258" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N258" s="27">
         <v>16</v>
@@ -12853,7 +12899,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D259" s="27">
         <v>-1</v>
@@ -12862,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="27" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G259" s="27">
         <v>1</v>
@@ -12871,10 +12917,10 @@
         <v>75</v>
       </c>
       <c r="I259" s="28" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="J259" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N259" s="27">
         <v>16</v>
@@ -12888,7 +12934,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D260" s="27">
         <v>-1</v>
@@ -12897,7 +12943,7 @@
         <v>1</v>
       </c>
       <c r="F260" s="27" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G260" s="27">
         <v>1</v>
@@ -12906,10 +12952,10 @@
         <v>76</v>
       </c>
       <c r="I260" s="28" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="J260" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N260" s="27">
         <v>16</v>
@@ -12923,7 +12969,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D261" s="27">
         <v>-1</v>
@@ -12932,7 +12978,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G261" s="27">
         <v>1</v>
@@ -12941,10 +12987,10 @@
         <v>77</v>
       </c>
       <c r="I261" s="28" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="J261" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N261" s="27">
         <v>16</v>
@@ -12958,7 +13004,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D262" s="27">
         <v>-1</v>
@@ -12967,7 +13013,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="27" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G262" s="27">
         <v>1</v>
@@ -12976,10 +13022,10 @@
         <v>78</v>
       </c>
       <c r="I262" s="28" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="J262" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N262" s="27">
         <v>16</v>
@@ -12993,7 +13039,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D263" s="27">
         <v>-1</v>
@@ -13002,7 +13048,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G263" s="27">
         <v>1</v>
@@ -13011,10 +13057,10 @@
         <v>79</v>
       </c>
       <c r="I263" s="28" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J263" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N263" s="27">
         <v>16</v>
@@ -13028,7 +13074,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D264" s="27">
         <v>-1</v>
@@ -13037,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G264" s="27">
         <v>1</v>
@@ -13046,10 +13092,10 @@
         <v>80</v>
       </c>
       <c r="I264" s="28" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="J264" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N264" s="27">
         <v>16</v>
@@ -13063,7 +13109,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D265" s="27">
         <v>-1</v>
@@ -13072,7 +13118,7 @@
         <v>1</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G265" s="27">
         <v>1</v>
@@ -13081,10 +13127,10 @@
         <v>81</v>
       </c>
       <c r="I265" s="28" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="J265" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N265" s="27">
         <v>16</v>
@@ -13098,7 +13144,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D266" s="27">
         <v>-1</v>
@@ -13107,7 +13153,7 @@
         <v>1</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G266" s="27">
         <v>1</v>
@@ -13116,10 +13162,10 @@
         <v>82</v>
       </c>
       <c r="I266" s="28" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="J266" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N266" s="27">
         <v>16</v>
@@ -13133,7 +13179,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D267" s="27">
         <v>-1</v>
@@ -13142,7 +13188,7 @@
         <v>1</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G267" s="27">
         <v>1</v>
@@ -13151,10 +13197,10 @@
         <v>83</v>
       </c>
       <c r="I267" s="28" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="J267" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N267" s="27">
         <v>16</v>
@@ -13168,7 +13214,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D268" s="27">
         <v>-1</v>
@@ -13177,7 +13223,7 @@
         <v>1</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G268" s="27">
         <v>1</v>
@@ -13186,10 +13232,10 @@
         <v>84</v>
       </c>
       <c r="I268" s="28" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="J268" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N268" s="27">
         <v>16</v>
@@ -13203,7 +13249,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D269" s="27">
         <v>-1</v>
@@ -13212,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G269" s="27">
         <v>1</v>
@@ -13221,10 +13267,10 @@
         <v>85</v>
       </c>
       <c r="I269" s="28" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="J269" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N269" s="27">
         <v>16</v>
@@ -13238,7 +13284,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D270" s="27">
         <v>-1</v>
@@ -13247,7 +13293,7 @@
         <v>1</v>
       </c>
       <c r="F270" s="27" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G270" s="27">
         <v>1</v>
@@ -13256,10 +13302,10 @@
         <v>86</v>
       </c>
       <c r="I270" s="28" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="J270" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N270" s="27">
         <v>16</v>
@@ -13273,7 +13319,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D271" s="27">
         <v>-1</v>
@@ -13282,7 +13328,7 @@
         <v>1</v>
       </c>
       <c r="F271" s="27" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G271" s="27">
         <v>1</v>
@@ -13291,10 +13337,10 @@
         <v>87</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="J271" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N271" s="27">
         <v>16</v>
@@ -13308,7 +13354,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D272" s="27">
         <v>-1</v>
@@ -13317,7 +13363,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G272" s="27">
         <v>1</v>
@@ -13326,10 +13372,10 @@
         <v>88</v>
       </c>
       <c r="I272" s="28" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J272" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N272" s="27">
         <v>16</v>
@@ -13343,7 +13389,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D273" s="27">
         <v>-1</v>
@@ -13352,7 +13398,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G273" s="27">
         <v>1</v>
@@ -13361,10 +13407,10 @@
         <v>89</v>
       </c>
       <c r="I273" s="28" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J273" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N273" s="27">
         <v>16</v>
@@ -13378,7 +13424,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D274" s="27">
         <v>-1</v>
@@ -13387,7 +13433,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G274" s="27">
         <v>1</v>
@@ -13396,10 +13442,10 @@
         <v>90</v>
       </c>
       <c r="I274" s="28" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="J274" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N274" s="27">
         <v>16</v>
@@ -13413,7 +13459,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D275" s="27">
         <v>-1</v>
@@ -13422,7 +13468,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G275" s="27">
         <v>1</v>
@@ -13431,10 +13477,10 @@
         <v>91</v>
       </c>
       <c r="I275" s="28" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="J275" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N275" s="27">
         <v>16</v>
@@ -13448,7 +13494,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D276" s="27">
         <v>-1</v>
@@ -13457,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G276" s="27">
         <v>1</v>
@@ -13466,10 +13512,10 @@
         <v>92</v>
       </c>
       <c r="I276" s="28" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="J276" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N276" s="27">
         <v>16</v>
@@ -13483,7 +13529,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D277" s="27">
         <v>-1</v>
@@ -13492,7 +13538,7 @@
         <v>1</v>
       </c>
       <c r="F277" s="27" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G277" s="27">
         <v>1</v>
@@ -13501,10 +13547,10 @@
         <v>93</v>
       </c>
       <c r="I277" s="28" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="J277" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N277" s="27">
         <v>16</v>
@@ -13518,7 +13564,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D278" s="27">
         <v>-1</v>
@@ -13527,7 +13573,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="27" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G278" s="27">
         <v>1</v>
@@ -13536,10 +13582,10 @@
         <v>94</v>
       </c>
       <c r="I278" s="28" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="J278" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N278" s="27">
         <v>16</v>
@@ -13553,7 +13599,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D279" s="27">
         <v>-1</v>
@@ -13562,7 +13608,7 @@
         <v>1</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G279" s="27">
         <v>1</v>
@@ -13571,10 +13617,10 @@
         <v>95</v>
       </c>
       <c r="I279" s="28" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J279" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N279" s="27">
         <v>16</v>
@@ -13588,7 +13634,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D280" s="27">
         <v>-1</v>
@@ -13597,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G280" s="27">
         <v>1</v>
@@ -13606,10 +13652,10 @@
         <v>96</v>
       </c>
       <c r="I280" s="28" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="J280" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N280" s="27">
         <v>16</v>
@@ -13623,7 +13669,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D281" s="27">
         <v>-1</v>
@@ -13632,7 +13678,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="27" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G281" s="27">
         <v>1</v>
@@ -13641,10 +13687,10 @@
         <v>97</v>
       </c>
       <c r="I281" s="28" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="J281" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N281" s="27">
         <v>16</v>
@@ -13658,7 +13704,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D282" s="27">
         <v>-1</v>
@@ -13667,7 +13713,7 @@
         <v>1</v>
       </c>
       <c r="F282" s="27" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G282" s="27">
         <v>1</v>
@@ -13676,10 +13722,10 @@
         <v>98</v>
       </c>
       <c r="I282" s="28" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="J282" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N282" s="27">
         <v>16</v>
@@ -13693,7 +13739,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D283" s="27">
         <v>-1</v>
@@ -13702,7 +13748,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="27" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G283" s="27">
         <v>1</v>
@@ -13711,10 +13757,10 @@
         <v>99</v>
       </c>
       <c r="I283" s="28" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="J283" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N283" s="27">
         <v>16</v>
@@ -13728,7 +13774,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D284" s="27">
         <v>-1</v>
@@ -13737,7 +13783,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="28" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G284" s="27">
         <v>1</v>
@@ -13746,10 +13792,10 @@
         <v>99</v>
       </c>
       <c r="I284" s="28" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J284" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N284" s="27">
         <v>16</v>
@@ -13763,7 +13809,7 @@
         <v>284</v>
       </c>
       <c r="C285" s="30" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D285" s="29">
         <v>-1</v>
@@ -13772,7 +13818,7 @@
         <v>1</v>
       </c>
       <c r="F285" s="30" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G285" s="29">
         <v>0</v>
@@ -13781,10 +13827,10 @@
         <v>33</v>
       </c>
       <c r="I285" s="30" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J285" s="30" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="286" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -13795,7 +13841,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="30" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D286" s="29">
         <v>-1</v>
@@ -13813,10 +13859,10 @@
         <v>33</v>
       </c>
       <c r="I286" s="29" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J286" s="29" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="287" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -13827,7 +13873,7 @@
         <v>286</v>
       </c>
       <c r="C287" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D287" s="31">
         <v>-1</v>
@@ -13836,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="F287" s="31" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G287" s="31">
         <v>0</v>
@@ -13845,22 +13891,22 @@
         <v>33</v>
       </c>
       <c r="I287" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J287" s="31" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="11">
+        <v>287</v>
+      </c>
+      <c r="B288" s="11">
+        <v>287</v>
+      </c>
+      <c r="C288" s="33" t="s">
         <v>819</v>
       </c>
-      <c r="J287" s="31" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="288" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="13">
-        <v>287</v>
-      </c>
-      <c r="B288" s="13">
-        <v>287</v>
-      </c>
-      <c r="C288" s="33" t="s">
-        <v>821</v>
-      </c>
       <c r="D288" s="13">
         <v>-1</v>
       </c>
@@ -13868,7 +13914,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="33" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G288" s="13">
         <v>0</v>
@@ -13877,30 +13923,30 @@
         <v>33</v>
       </c>
       <c r="I288" s="33" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="J288" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="11">
+        <v>288</v>
+      </c>
+      <c r="B289" s="11">
+        <v>288</v>
+      </c>
+      <c r="C289" s="33" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="27">
-        <v>288</v>
-      </c>
-      <c r="B289" s="27">
-        <v>288</v>
-      </c>
-      <c r="C289" s="33" t="s">
+      <c r="D289" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E289" s="13">
+        <v>1</v>
+      </c>
+      <c r="F289" s="33" t="s">
         <v>825</v>
-      </c>
-      <c r="D289" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E289" s="13">
-        <v>1</v>
-      </c>
-      <c r="F289" s="33" t="s">
-        <v>827</v>
       </c>
       <c r="G289" s="13">
         <v>0</v>
@@ -13909,11 +13955,81 @@
         <v>33</v>
       </c>
       <c r="I289" s="33" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J289" s="33" t="s">
-        <v>829</v>
-      </c>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="11">
+        <v>289</v>
+      </c>
+      <c r="B290" s="11">
+        <v>289</v>
+      </c>
+      <c r="C290" s="33" t="s">
+        <v>927</v>
+      </c>
+      <c r="D290" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E290" s="13">
+        <v>1</v>
+      </c>
+      <c r="F290" s="33" t="s">
+        <v>925</v>
+      </c>
+      <c r="G290" s="13">
+        <v>0</v>
+      </c>
+      <c r="H290" s="13">
+        <v>33</v>
+      </c>
+      <c r="I290" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="J290" s="33" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A291" s="36">
+        <v>290</v>
+      </c>
+      <c r="B291" s="36">
+        <v>290</v>
+      </c>
+      <c r="C291" s="38" t="s">
+        <v>930</v>
+      </c>
+      <c r="D291" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E291" s="36">
+        <v>1</v>
+      </c>
+      <c r="F291" s="38" t="s">
+        <v>931</v>
+      </c>
+      <c r="G291" s="36">
+        <v>0</v>
+      </c>
+      <c r="H291" s="36">
+        <v>33</v>
+      </c>
+      <c r="I291" s="38" t="s">
+        <v>928</v>
+      </c>
+      <c r="J291" s="38" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C292" s="12"/>
+      <c r="F292" s="12"/>
+      <c r="I292" s="12"/>
+      <c r="J292" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
@@ -2541,10 +2541,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_3d_fish_wild</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_3d_fish_doubled</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3656,6 +3652,10 @@
       </rPr>
       <t>,"prop_hqjnh_ssbox"</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_wild</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4248,9 +4248,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L294" sqref="L294"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4308,13 +4308,13 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>294</v>
@@ -6851,7 +6851,7 @@
         <v>425</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L80" s="5"/>
     </row>
@@ -8590,7 +8590,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D131" s="39">
         <v>-1</v>
@@ -8599,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="40" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G131" s="39">
         <v>0</v>
@@ -8608,10 +8608,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="40" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J131" s="40" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -8640,7 +8640,7 @@
         <v>33</v>
       </c>
       <c r="I132" s="12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J132" s="12" t="s">
         <v>468</v>
@@ -9536,7 +9536,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -10163,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G178" s="2">
         <v>1</v>
@@ -10172,10 +10172,10 @@
         <v>32</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
@@ -10191,7 +10191,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>626</v>
+        <v>946</v>
       </c>
       <c r="D179" s="2">
         <v>-1</v>
@@ -10200,7 +10200,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G179" s="2">
         <v>1</v>
@@ -10209,10 +10209,10 @@
         <v>33</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
@@ -10228,7 +10228,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D180" s="2">
         <v>-1</v>
@@ -10237,7 +10237,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
@@ -10246,10 +10246,10 @@
         <v>33</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
@@ -10265,7 +10265,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D181" s="25">
         <v>-1</v>
@@ -10274,7 +10274,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G181" s="25">
         <v>0</v>
@@ -10283,10 +10283,10 @@
         <v>33</v>
       </c>
       <c r="I181" s="25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J181" s="25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="182" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -10297,16 +10297,16 @@
         <v>181</v>
       </c>
       <c r="C182" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="D182" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E182" s="23">
+        <v>1</v>
+      </c>
+      <c r="F182" s="23" t="s">
         <v>648</v>
-      </c>
-      <c r="D182" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E182" s="23">
-        <v>1</v>
-      </c>
-      <c r="F182" s="23" t="s">
-        <v>649</v>
       </c>
       <c r="G182" s="23">
         <v>1</v>
@@ -10315,13 +10315,13 @@
         <v>33</v>
       </c>
       <c r="I182" s="24" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J182" s="23" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L182" s="23" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="O182" s="23">
         <v>57</v>
@@ -10335,7 +10335,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D183" s="23">
         <v>-1</v>
@@ -10344,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="23" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G183" s="23">
         <v>1</v>
@@ -10353,13 +10353,13 @@
         <v>33</v>
       </c>
       <c r="I183" s="24" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J183" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L183" s="24" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="O183" s="23">
         <v>58</v>
@@ -10373,7 +10373,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D184" s="23">
         <v>-1</v>
@@ -10382,7 +10382,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="23" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G184" s="23">
         <v>1</v>
@@ -10391,13 +10391,13 @@
         <v>33</v>
       </c>
       <c r="I184" s="24" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J184" s="24" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L184" s="23" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O184" s="23">
         <v>59</v>
@@ -10411,7 +10411,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D185" s="27">
         <v>-1</v>
@@ -10420,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G185" s="27">
         <v>1</v>
@@ -10429,10 +10429,10 @@
         <v>1</v>
       </c>
       <c r="I185" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="J185" s="28" t="s">
         <v>661</v>
-      </c>
-      <c r="J185" s="28" t="s">
-        <v>662</v>
       </c>
       <c r="N185" s="27">
         <v>16</v>
@@ -10446,7 +10446,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D186" s="27">
         <v>-1</v>
@@ -10455,7 +10455,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G186" s="27">
         <v>1</v>
@@ -10464,10 +10464,10 @@
         <v>2</v>
       </c>
       <c r="I186" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="J186" s="28" t="s">
         <v>663</v>
-      </c>
-      <c r="J186" s="28" t="s">
-        <v>664</v>
       </c>
       <c r="N186" s="27">
         <v>16</v>
@@ -10481,7 +10481,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="27" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D187" s="27">
         <v>-1</v>
@@ -10490,7 +10490,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G187" s="27">
         <v>1</v>
@@ -10499,10 +10499,10 @@
         <v>3</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J187" s="28" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N187" s="27">
         <v>16</v>
@@ -10516,7 +10516,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D188" s="27">
         <v>-1</v>
@@ -10525,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G188" s="27">
         <v>1</v>
@@ -10534,10 +10534,10 @@
         <v>4</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N188" s="27">
         <v>16</v>
@@ -10551,7 +10551,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D189" s="27">
         <v>-1</v>
@@ -10560,7 +10560,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G189" s="27">
         <v>1</v>
@@ -10569,10 +10569,10 @@
         <v>5</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J189" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N189" s="27">
         <v>16</v>
@@ -10586,7 +10586,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D190" s="27">
         <v>-1</v>
@@ -10595,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G190" s="27">
         <v>1</v>
@@ -10604,10 +10604,10 @@
         <v>6</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J190" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N190" s="27">
         <v>16</v>
@@ -10621,7 +10621,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D191" s="27">
         <v>-1</v>
@@ -10630,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G191" s="27">
         <v>1</v>
@@ -10639,10 +10639,10 @@
         <v>7</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N191" s="27">
         <v>16</v>
@@ -10656,7 +10656,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D192" s="27">
         <v>-1</v>
@@ -10665,7 +10665,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G192" s="27">
         <v>1</v>
@@ -10674,10 +10674,10 @@
         <v>8</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N192" s="27">
         <v>16</v>
@@ -10691,7 +10691,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="28" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D193" s="27">
         <v>-1</v>
@@ -10700,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G193" s="27">
         <v>1</v>
@@ -10709,10 +10709,10 @@
         <v>9</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J193" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N193" s="27">
         <v>16</v>
@@ -10726,7 +10726,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D194" s="27">
         <v>-1</v>
@@ -10735,7 +10735,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G194" s="27">
         <v>1</v>
@@ -10744,10 +10744,10 @@
         <v>10</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N194" s="27">
         <v>16</v>
@@ -10761,7 +10761,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="28" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D195" s="27">
         <v>-1</v>
@@ -10770,7 +10770,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G195" s="27">
         <v>1</v>
@@ -10779,10 +10779,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J195" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N195" s="27">
         <v>16</v>
@@ -10796,7 +10796,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D196" s="27">
         <v>-1</v>
@@ -10805,7 +10805,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G196" s="27">
         <v>1</v>
@@ -10814,10 +10814,10 @@
         <v>12</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N196" s="27">
         <v>16</v>
@@ -10831,7 +10831,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D197" s="27">
         <v>-1</v>
@@ -10840,7 +10840,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G197" s="27">
         <v>1</v>
@@ -10849,10 +10849,10 @@
         <v>13</v>
       </c>
       <c r="I197" s="28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N197" s="27">
         <v>16</v>
@@ -10866,7 +10866,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D198" s="27">
         <v>-1</v>
@@ -10875,7 +10875,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G198" s="27">
         <v>1</v>
@@ -10884,10 +10884,10 @@
         <v>14</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N198" s="27">
         <v>16</v>
@@ -10901,7 +10901,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D199" s="27">
         <v>-1</v>
@@ -10910,7 +10910,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G199" s="27">
         <v>1</v>
@@ -10919,10 +10919,10 @@
         <v>15</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N199" s="27">
         <v>16</v>
@@ -10936,7 +10936,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D200" s="27">
         <v>-1</v>
@@ -10945,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G200" s="27">
         <v>1</v>
@@ -10954,10 +10954,10 @@
         <v>16</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N200" s="27">
         <v>16</v>
@@ -10971,7 +10971,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D201" s="27">
         <v>-1</v>
@@ -10980,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G201" s="27">
         <v>1</v>
@@ -10989,10 +10989,10 @@
         <v>17</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N201" s="27">
         <v>16</v>
@@ -11006,7 +11006,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D202" s="27">
         <v>-1</v>
@@ -11015,7 +11015,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G202" s="27">
         <v>1</v>
@@ -11024,10 +11024,10 @@
         <v>18</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N202" s="27">
         <v>16</v>
@@ -11041,7 +11041,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D203" s="27">
         <v>-1</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G203" s="27">
         <v>1</v>
@@ -11059,10 +11059,10 @@
         <v>19</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N203" s="27">
         <v>16</v>
@@ -11076,7 +11076,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D204" s="27">
         <v>-1</v>
@@ -11085,7 +11085,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G204" s="27">
         <v>1</v>
@@ -11094,10 +11094,10 @@
         <v>20</v>
       </c>
       <c r="I204" s="28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N204" s="27">
         <v>16</v>
@@ -11111,7 +11111,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D205" s="27">
         <v>-1</v>
@@ -11120,7 +11120,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G205" s="27">
         <v>1</v>
@@ -11129,10 +11129,10 @@
         <v>21</v>
       </c>
       <c r="I205" s="28" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J205" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N205" s="27">
         <v>16</v>
@@ -11146,7 +11146,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D206" s="27">
         <v>-1</v>
@@ -11155,7 +11155,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G206" s="27">
         <v>1</v>
@@ -11164,10 +11164,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="28" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J206" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N206" s="27">
         <v>16</v>
@@ -11181,7 +11181,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D207" s="27">
         <v>-1</v>
@@ -11190,7 +11190,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G207" s="27">
         <v>1</v>
@@ -11199,10 +11199,10 @@
         <v>23</v>
       </c>
       <c r="I207" s="28" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J207" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N207" s="27">
         <v>16</v>
@@ -11216,7 +11216,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D208" s="27">
         <v>-1</v>
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G208" s="27">
         <v>1</v>
@@ -11234,10 +11234,10 @@
         <v>24</v>
       </c>
       <c r="I208" s="28" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J208" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N208" s="27">
         <v>16</v>
@@ -11251,7 +11251,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D209" s="27">
         <v>-1</v>
@@ -11260,7 +11260,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G209" s="27">
         <v>1</v>
@@ -11269,10 +11269,10 @@
         <v>25</v>
       </c>
       <c r="I209" s="28" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J209" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N209" s="27">
         <v>16</v>
@@ -11286,7 +11286,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D210" s="27">
         <v>-1</v>
@@ -11295,7 +11295,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G210" s="27">
         <v>1</v>
@@ -11304,10 +11304,10 @@
         <v>26</v>
       </c>
       <c r="I210" s="28" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J210" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N210" s="27">
         <v>16</v>
@@ -11321,7 +11321,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D211" s="27">
         <v>-1</v>
@@ -11330,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G211" s="27">
         <v>1</v>
@@ -11339,10 +11339,10 @@
         <v>27</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N211" s="27">
         <v>16</v>
@@ -11356,7 +11356,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D212" s="27">
         <v>-1</v>
@@ -11365,7 +11365,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G212" s="27">
         <v>1</v>
@@ -11374,10 +11374,10 @@
         <v>28</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N212" s="27">
         <v>16</v>
@@ -11391,7 +11391,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D213" s="27">
         <v>-1</v>
@@ -11400,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G213" s="27">
         <v>1</v>
@@ -11409,10 +11409,10 @@
         <v>29</v>
       </c>
       <c r="I213" s="28" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N213" s="27">
         <v>16</v>
@@ -11426,7 +11426,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D214" s="27">
         <v>-1</v>
@@ -11435,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G214" s="27">
         <v>1</v>
@@ -11444,10 +11444,10 @@
         <v>30</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N214" s="27">
         <v>16</v>
@@ -11461,7 +11461,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D215" s="27">
         <v>-1</v>
@@ -11470,7 +11470,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G215" s="27">
         <v>1</v>
@@ -11479,10 +11479,10 @@
         <v>31</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J215" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N215" s="27">
         <v>16</v>
@@ -11496,7 +11496,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="28" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D216" s="27">
         <v>-1</v>
@@ -11505,7 +11505,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G216" s="27">
         <v>1</v>
@@ -11514,10 +11514,10 @@
         <v>32</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J216" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N216" s="27">
         <v>16</v>
@@ -11531,7 +11531,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D217" s="27">
         <v>-1</v>
@@ -11540,7 +11540,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G217" s="27">
         <v>1</v>
@@ -11549,10 +11549,10 @@
         <v>33</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N217" s="27">
         <v>16</v>
@@ -11566,7 +11566,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="28" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D218" s="27">
         <v>-1</v>
@@ -11575,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G218" s="27">
         <v>1</v>
@@ -11584,10 +11584,10 @@
         <v>34</v>
       </c>
       <c r="I218" s="28" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J218" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N218" s="27">
         <v>16</v>
@@ -11601,7 +11601,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D219" s="27">
         <v>-1</v>
@@ -11610,7 +11610,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G219" s="27">
         <v>1</v>
@@ -11619,10 +11619,10 @@
         <v>35</v>
       </c>
       <c r="I219" s="28" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J219" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N219" s="27">
         <v>16</v>
@@ -11636,7 +11636,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D220" s="27">
         <v>-1</v>
@@ -11645,7 +11645,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="28" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G220" s="27">
         <v>1</v>
@@ -11654,10 +11654,10 @@
         <v>36</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N220" s="27">
         <v>16</v>
@@ -11671,7 +11671,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D221" s="27">
         <v>-1</v>
@@ -11680,7 +11680,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="28" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G221" s="27">
         <v>1</v>
@@ -11689,10 +11689,10 @@
         <v>38</v>
       </c>
       <c r="I221" s="28" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J221" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N221" s="27">
         <v>16</v>
@@ -11706,7 +11706,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D222" s="27">
         <v>-1</v>
@@ -11715,7 +11715,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G222" s="27">
         <v>1</v>
@@ -11724,10 +11724,10 @@
         <v>39</v>
       </c>
       <c r="I222" s="28" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J222" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N222" s="27">
         <v>16</v>
@@ -11741,7 +11741,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D223" s="27">
         <v>-1</v>
@@ -11750,7 +11750,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G223" s="27">
         <v>1</v>
@@ -11759,10 +11759,10 @@
         <v>40</v>
       </c>
       <c r="I223" s="28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J223" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N223" s="27">
         <v>16</v>
@@ -11776,7 +11776,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D224" s="27">
         <v>-1</v>
@@ -11785,7 +11785,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G224" s="27">
         <v>1</v>
@@ -11794,10 +11794,10 @@
         <v>41</v>
       </c>
       <c r="I224" s="28" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J224" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N224" s="27">
         <v>16</v>
@@ -11811,7 +11811,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D225" s="27">
         <v>-1</v>
@@ -11820,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G225" s="27">
         <v>1</v>
@@ -11829,10 +11829,10 @@
         <v>42</v>
       </c>
       <c r="I225" s="28" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J225" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N225" s="27">
         <v>16</v>
@@ -11846,7 +11846,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D226" s="27">
         <v>-1</v>
@@ -11855,7 +11855,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G226" s="27">
         <v>1</v>
@@ -11864,10 +11864,10 @@
         <v>43</v>
       </c>
       <c r="I226" s="28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J226" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N226" s="27">
         <v>16</v>
@@ -11881,7 +11881,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D227" s="27">
         <v>-1</v>
@@ -11890,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G227" s="27">
         <v>1</v>
@@ -11899,10 +11899,10 @@
         <v>44</v>
       </c>
       <c r="I227" s="28" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J227" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N227" s="27">
         <v>16</v>
@@ -11916,7 +11916,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D228" s="27">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G228" s="27">
         <v>1</v>
@@ -11934,10 +11934,10 @@
         <v>45</v>
       </c>
       <c r="I228" s="28" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J228" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N228" s="27">
         <v>16</v>
@@ -11951,7 +11951,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D229" s="27">
         <v>-1</v>
@@ -11960,7 +11960,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G229" s="27">
         <v>1</v>
@@ -11969,10 +11969,10 @@
         <v>46</v>
       </c>
       <c r="I229" s="28" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J229" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N229" s="27">
         <v>16</v>
@@ -11986,7 +11986,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D230" s="27">
         <v>-1</v>
@@ -11995,7 +11995,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G230" s="27">
         <v>1</v>
@@ -12004,10 +12004,10 @@
         <v>47</v>
       </c>
       <c r="I230" s="28" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J230" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N230" s="27">
         <v>16</v>
@@ -12021,7 +12021,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D231" s="27">
         <v>-1</v>
@@ -12030,7 +12030,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G231" s="27">
         <v>1</v>
@@ -12039,10 +12039,10 @@
         <v>48</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J231" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N231" s="27">
         <v>16</v>
@@ -12056,7 +12056,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D232" s="27">
         <v>-1</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G232" s="27">
         <v>1</v>
@@ -12074,10 +12074,10 @@
         <v>49</v>
       </c>
       <c r="I232" s="28" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J232" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N232" s="27">
         <v>16</v>
@@ -12091,7 +12091,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D233" s="27">
         <v>-1</v>
@@ -12100,7 +12100,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G233" s="27">
         <v>1</v>
@@ -12109,10 +12109,10 @@
         <v>50</v>
       </c>
       <c r="I233" s="28" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J233" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N233" s="27">
         <v>16</v>
@@ -12126,7 +12126,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D234" s="27">
         <v>-1</v>
@@ -12135,7 +12135,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G234" s="27">
         <v>1</v>
@@ -12144,10 +12144,10 @@
         <v>51</v>
       </c>
       <c r="I234" s="28" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J234" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N234" s="27">
         <v>16</v>
@@ -12161,7 +12161,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D235" s="27">
         <v>-1</v>
@@ -12170,7 +12170,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G235" s="27">
         <v>1</v>
@@ -12179,10 +12179,10 @@
         <v>52</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J235" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N235" s="27">
         <v>16</v>
@@ -12196,7 +12196,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D236" s="27">
         <v>-1</v>
@@ -12205,7 +12205,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G236" s="27">
         <v>1</v>
@@ -12214,10 +12214,10 @@
         <v>53</v>
       </c>
       <c r="I236" s="28" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J236" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N236" s="27">
         <v>16</v>
@@ -12231,7 +12231,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D237" s="27">
         <v>-1</v>
@@ -12240,7 +12240,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G237" s="27">
         <v>1</v>
@@ -12249,10 +12249,10 @@
         <v>54</v>
       </c>
       <c r="I237" s="28" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J237" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N237" s="27">
         <v>16</v>
@@ -12266,7 +12266,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D238" s="27">
         <v>-1</v>
@@ -12275,7 +12275,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G238" s="27">
         <v>1</v>
@@ -12284,10 +12284,10 @@
         <v>55</v>
       </c>
       <c r="I238" s="28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J238" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N238" s="27">
         <v>16</v>
@@ -12301,7 +12301,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D239" s="27">
         <v>-1</v>
@@ -12310,7 +12310,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G239" s="27">
         <v>1</v>
@@ -12319,10 +12319,10 @@
         <v>56</v>
       </c>
       <c r="I239" s="28" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J239" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N239" s="27">
         <v>16</v>
@@ -12336,7 +12336,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D240" s="27">
         <v>-1</v>
@@ -12345,7 +12345,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G240" s="27">
         <v>1</v>
@@ -12354,10 +12354,10 @@
         <v>57</v>
       </c>
       <c r="I240" s="28" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J240" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N240" s="27">
         <v>16</v>
@@ -12371,7 +12371,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D241" s="27">
         <v>-1</v>
@@ -12380,7 +12380,7 @@
         <v>1</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G241" s="27">
         <v>1</v>
@@ -12389,10 +12389,10 @@
         <v>58</v>
       </c>
       <c r="I241" s="28" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J241" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N241" s="27">
         <v>16</v>
@@ -12406,7 +12406,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D242" s="27">
         <v>-1</v>
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G242" s="27">
         <v>1</v>
@@ -12424,10 +12424,10 @@
         <v>59</v>
       </c>
       <c r="I242" s="28" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J242" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N242" s="27">
         <v>16</v>
@@ -12441,7 +12441,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D243" s="27">
         <v>-1</v>
@@ -12450,7 +12450,7 @@
         <v>1</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G243" s="27">
         <v>1</v>
@@ -12459,10 +12459,10 @@
         <v>60</v>
       </c>
       <c r="I243" s="28" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J243" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N243" s="27">
         <v>16</v>
@@ -12476,7 +12476,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D244" s="27">
         <v>-1</v>
@@ -12485,7 +12485,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G244" s="27">
         <v>1</v>
@@ -12494,10 +12494,10 @@
         <v>61</v>
       </c>
       <c r="I244" s="28" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J244" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N244" s="27">
         <v>16</v>
@@ -12511,7 +12511,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D245" s="27">
         <v>-1</v>
@@ -12520,7 +12520,7 @@
         <v>1</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G245" s="27">
         <v>1</v>
@@ -12529,10 +12529,10 @@
         <v>62</v>
       </c>
       <c r="I245" s="28" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J245" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N245" s="27">
         <v>16</v>
@@ -12546,7 +12546,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D246" s="27">
         <v>-1</v>
@@ -12555,7 +12555,7 @@
         <v>1</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G246" s="27">
         <v>1</v>
@@ -12564,10 +12564,10 @@
         <v>63</v>
       </c>
       <c r="I246" s="28" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J246" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N246" s="27">
         <v>16</v>
@@ -12581,7 +12581,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D247" s="27">
         <v>-1</v>
@@ -12590,7 +12590,7 @@
         <v>1</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G247" s="27">
         <v>1</v>
@@ -12599,10 +12599,10 @@
         <v>64</v>
       </c>
       <c r="I247" s="28" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J247" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N247" s="27">
         <v>16</v>
@@ -12616,7 +12616,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D248" s="27">
         <v>-1</v>
@@ -12625,7 +12625,7 @@
         <v>1</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G248" s="27">
         <v>1</v>
@@ -12634,10 +12634,10 @@
         <v>65</v>
       </c>
       <c r="I248" s="28" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J248" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N248" s="27">
         <v>16</v>
@@ -12651,7 +12651,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D249" s="27">
         <v>-1</v>
@@ -12660,7 +12660,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G249" s="27">
         <v>1</v>
@@ -12669,10 +12669,10 @@
         <v>66</v>
       </c>
       <c r="I249" s="28" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J249" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N249" s="27">
         <v>16</v>
@@ -12686,7 +12686,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D250" s="27">
         <v>-1</v>
@@ -12695,7 +12695,7 @@
         <v>1</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G250" s="27">
         <v>1</v>
@@ -12704,10 +12704,10 @@
         <v>67</v>
       </c>
       <c r="I250" s="28" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J250" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N250" s="27">
         <v>16</v>
@@ -12721,7 +12721,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D251" s="27">
         <v>-1</v>
@@ -12730,7 +12730,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G251" s="27">
         <v>1</v>
@@ -12739,10 +12739,10 @@
         <v>68</v>
       </c>
       <c r="I251" s="28" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J251" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N251" s="27">
         <v>16</v>
@@ -12756,7 +12756,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D252" s="27">
         <v>-1</v>
@@ -12765,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="F252" s="28" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G252" s="27">
         <v>1</v>
@@ -12774,10 +12774,10 @@
         <v>68</v>
       </c>
       <c r="I252" s="28" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J252" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N252" s="27">
         <v>16</v>
@@ -12791,7 +12791,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D253" s="27">
         <v>-1</v>
@@ -12800,7 +12800,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="28" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G253" s="27">
         <v>1</v>
@@ -12809,10 +12809,10 @@
         <v>69</v>
       </c>
       <c r="I253" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J253" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N253" s="27">
         <v>16</v>
@@ -12826,7 +12826,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D254" s="27">
         <v>-1</v>
@@ -12835,7 +12835,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G254" s="27">
         <v>1</v>
@@ -12844,10 +12844,10 @@
         <v>70</v>
       </c>
       <c r="I254" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J254" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N254" s="27">
         <v>16</v>
@@ -12861,7 +12861,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D255" s="27">
         <v>-1</v>
@@ -12870,7 +12870,7 @@
         <v>1</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G255" s="27">
         <v>1</v>
@@ -12879,10 +12879,10 @@
         <v>71</v>
       </c>
       <c r="I255" s="28" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J255" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N255" s="27">
         <v>16</v>
@@ -12896,7 +12896,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D256" s="27">
         <v>-1</v>
@@ -12905,7 +12905,7 @@
         <v>1</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G256" s="27">
         <v>1</v>
@@ -12914,10 +12914,10 @@
         <v>72</v>
       </c>
       <c r="I256" s="28" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J256" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N256" s="27">
         <v>16</v>
@@ -12931,7 +12931,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D257" s="27">
         <v>-1</v>
@@ -12940,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G257" s="27">
         <v>1</v>
@@ -12949,10 +12949,10 @@
         <v>73</v>
       </c>
       <c r="I257" s="28" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J257" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N257" s="27">
         <v>16</v>
@@ -12966,7 +12966,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D258" s="27">
         <v>-1</v>
@@ -12975,7 +12975,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G258" s="27">
         <v>1</v>
@@ -12984,10 +12984,10 @@
         <v>74</v>
       </c>
       <c r="I258" s="28" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J258" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N258" s="27">
         <v>16</v>
@@ -13001,7 +13001,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D259" s="27">
         <v>-1</v>
@@ -13010,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G259" s="27">
         <v>1</v>
@@ -13019,10 +13019,10 @@
         <v>75</v>
       </c>
       <c r="I259" s="28" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J259" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N259" s="27">
         <v>16</v>
@@ -13036,7 +13036,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D260" s="27">
         <v>-1</v>
@@ -13045,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="F260" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G260" s="27">
         <v>1</v>
@@ -13054,10 +13054,10 @@
         <v>76</v>
       </c>
       <c r="I260" s="28" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J260" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N260" s="27">
         <v>16</v>
@@ -13071,7 +13071,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D261" s="27">
         <v>-1</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G261" s="27">
         <v>1</v>
@@ -13089,10 +13089,10 @@
         <v>77</v>
       </c>
       <c r="I261" s="28" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J261" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N261" s="27">
         <v>16</v>
@@ -13106,7 +13106,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D262" s="27">
         <v>-1</v>
@@ -13115,7 +13115,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G262" s="27">
         <v>1</v>
@@ -13124,10 +13124,10 @@
         <v>78</v>
       </c>
       <c r="I262" s="28" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J262" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N262" s="27">
         <v>16</v>
@@ -13141,7 +13141,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D263" s="27">
         <v>-1</v>
@@ -13150,7 +13150,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G263" s="27">
         <v>1</v>
@@ -13159,10 +13159,10 @@
         <v>79</v>
       </c>
       <c r="I263" s="28" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J263" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N263" s="27">
         <v>16</v>
@@ -13176,7 +13176,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D264" s="27">
         <v>-1</v>
@@ -13185,7 +13185,7 @@
         <v>1</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G264" s="27">
         <v>1</v>
@@ -13194,10 +13194,10 @@
         <v>80</v>
       </c>
       <c r="I264" s="28" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J264" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N264" s="27">
         <v>16</v>
@@ -13211,7 +13211,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D265" s="27">
         <v>-1</v>
@@ -13220,7 +13220,7 @@
         <v>1</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G265" s="27">
         <v>1</v>
@@ -13229,10 +13229,10 @@
         <v>81</v>
       </c>
       <c r="I265" s="28" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J265" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N265" s="27">
         <v>16</v>
@@ -13246,7 +13246,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D266" s="27">
         <v>-1</v>
@@ -13255,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G266" s="27">
         <v>1</v>
@@ -13264,10 +13264,10 @@
         <v>82</v>
       </c>
       <c r="I266" s="28" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J266" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N266" s="27">
         <v>16</v>
@@ -13281,7 +13281,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D267" s="27">
         <v>-1</v>
@@ -13290,7 +13290,7 @@
         <v>1</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G267" s="27">
         <v>1</v>
@@ -13299,10 +13299,10 @@
         <v>83</v>
       </c>
       <c r="I267" s="28" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J267" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N267" s="27">
         <v>16</v>
@@ -13316,7 +13316,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D268" s="27">
         <v>-1</v>
@@ -13325,7 +13325,7 @@
         <v>1</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G268" s="27">
         <v>1</v>
@@ -13334,10 +13334,10 @@
         <v>84</v>
       </c>
       <c r="I268" s="28" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J268" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N268" s="27">
         <v>16</v>
@@ -13351,7 +13351,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D269" s="27">
         <v>-1</v>
@@ -13360,7 +13360,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G269" s="27">
         <v>1</v>
@@ -13369,10 +13369,10 @@
         <v>85</v>
       </c>
       <c r="I269" s="28" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J269" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N269" s="27">
         <v>16</v>
@@ -13386,7 +13386,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D270" s="27">
         <v>-1</v>
@@ -13395,7 +13395,7 @@
         <v>1</v>
       </c>
       <c r="F270" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G270" s="27">
         <v>1</v>
@@ -13404,10 +13404,10 @@
         <v>86</v>
       </c>
       <c r="I270" s="28" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J270" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N270" s="27">
         <v>16</v>
@@ -13421,7 +13421,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D271" s="27">
         <v>-1</v>
@@ -13430,7 +13430,7 @@
         <v>1</v>
       </c>
       <c r="F271" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G271" s="27">
         <v>1</v>
@@ -13439,10 +13439,10 @@
         <v>87</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J271" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N271" s="27">
         <v>16</v>
@@ -13456,7 +13456,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D272" s="27">
         <v>-1</v>
@@ -13465,7 +13465,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G272" s="27">
         <v>1</v>
@@ -13474,10 +13474,10 @@
         <v>88</v>
       </c>
       <c r="I272" s="28" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J272" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N272" s="27">
         <v>16</v>
@@ -13491,7 +13491,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D273" s="27">
         <v>-1</v>
@@ -13500,7 +13500,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G273" s="27">
         <v>1</v>
@@ -13509,10 +13509,10 @@
         <v>89</v>
       </c>
       <c r="I273" s="28" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J273" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N273" s="27">
         <v>16</v>
@@ -13526,7 +13526,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D274" s="27">
         <v>-1</v>
@@ -13535,7 +13535,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G274" s="27">
         <v>1</v>
@@ -13544,10 +13544,10 @@
         <v>90</v>
       </c>
       <c r="I274" s="28" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J274" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N274" s="27">
         <v>16</v>
@@ -13561,7 +13561,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D275" s="27">
         <v>-1</v>
@@ -13570,7 +13570,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G275" s="27">
         <v>1</v>
@@ -13579,10 +13579,10 @@
         <v>91</v>
       </c>
       <c r="I275" s="28" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J275" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N275" s="27">
         <v>16</v>
@@ -13596,7 +13596,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D276" s="27">
         <v>-1</v>
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G276" s="27">
         <v>1</v>
@@ -13614,10 +13614,10 @@
         <v>92</v>
       </c>
       <c r="I276" s="28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J276" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N276" s="27">
         <v>16</v>
@@ -13631,7 +13631,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D277" s="27">
         <v>-1</v>
@@ -13640,7 +13640,7 @@
         <v>1</v>
       </c>
       <c r="F277" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G277" s="27">
         <v>1</v>
@@ -13649,10 +13649,10 @@
         <v>93</v>
       </c>
       <c r="I277" s="28" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J277" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N277" s="27">
         <v>16</v>
@@ -13666,7 +13666,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D278" s="27">
         <v>-1</v>
@@ -13675,7 +13675,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G278" s="27">
         <v>1</v>
@@ -13684,10 +13684,10 @@
         <v>94</v>
       </c>
       <c r="I278" s="28" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J278" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N278" s="27">
         <v>16</v>
@@ -13701,7 +13701,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D279" s="27">
         <v>-1</v>
@@ -13710,7 +13710,7 @@
         <v>1</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G279" s="27">
         <v>1</v>
@@ -13719,10 +13719,10 @@
         <v>95</v>
       </c>
       <c r="I279" s="28" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J279" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N279" s="27">
         <v>16</v>
@@ -13736,7 +13736,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D280" s="27">
         <v>-1</v>
@@ -13745,7 +13745,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G280" s="27">
         <v>1</v>
@@ -13754,10 +13754,10 @@
         <v>96</v>
       </c>
       <c r="I280" s="28" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J280" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N280" s="27">
         <v>16</v>
@@ -13771,7 +13771,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D281" s="27">
         <v>-1</v>
@@ -13780,7 +13780,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G281" s="27">
         <v>1</v>
@@ -13789,10 +13789,10 @@
         <v>97</v>
       </c>
       <c r="I281" s="28" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J281" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N281" s="27">
         <v>16</v>
@@ -13806,7 +13806,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D282" s="27">
         <v>-1</v>
@@ -13815,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="F282" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G282" s="27">
         <v>1</v>
@@ -13824,10 +13824,10 @@
         <v>98</v>
       </c>
       <c r="I282" s="28" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J282" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N282" s="27">
         <v>16</v>
@@ -13841,7 +13841,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D283" s="27">
         <v>-1</v>
@@ -13850,7 +13850,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G283" s="27">
         <v>1</v>
@@ -13859,10 +13859,10 @@
         <v>99</v>
       </c>
       <c r="I283" s="28" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J283" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N283" s="27">
         <v>16</v>
@@ -13876,7 +13876,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D284" s="27">
         <v>-1</v>
@@ -13885,7 +13885,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="28" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G284" s="27">
         <v>1</v>
@@ -13894,10 +13894,10 @@
         <v>99</v>
       </c>
       <c r="I284" s="28" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J284" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N284" s="27">
         <v>16</v>
@@ -13911,16 +13911,16 @@
         <v>284</v>
       </c>
       <c r="C285" s="30" t="s">
+        <v>762</v>
+      </c>
+      <c r="D285" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="30" t="s">
         <v>763</v>
-      </c>
-      <c r="D285" s="29">
-        <v>-1</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="30" t="s">
-        <v>764</v>
       </c>
       <c r="G285" s="29">
         <v>0</v>
@@ -13929,10 +13929,10 @@
         <v>33</v>
       </c>
       <c r="I285" s="30" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J285" s="30" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="286" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -13943,7 +13943,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="30" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D286" s="29">
         <v>-1</v>
@@ -13961,10 +13961,10 @@
         <v>33</v>
       </c>
       <c r="I286" s="29" t="s">
+        <v>765</v>
+      </c>
+      <c r="J286" s="29" t="s">
         <v>766</v>
-      </c>
-      <c r="J286" s="29" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="287" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -13975,16 +13975,16 @@
         <v>286</v>
       </c>
       <c r="C287" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="D287" s="31">
+        <v>-1</v>
+      </c>
+      <c r="E287" s="31">
+        <v>1</v>
+      </c>
+      <c r="F287" s="31" t="s">
         <v>809</v>
-      </c>
-      <c r="D287" s="31">
-        <v>-1</v>
-      </c>
-      <c r="E287" s="31">
-        <v>1</v>
-      </c>
-      <c r="F287" s="31" t="s">
-        <v>810</v>
       </c>
       <c r="G287" s="31">
         <v>0</v>
@@ -13993,10 +13993,10 @@
         <v>33</v>
       </c>
       <c r="I287" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="J287" s="31" t="s">
         <v>811</v>
-      </c>
-      <c r="J287" s="31" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="288" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -14007,7 +14007,7 @@
         <v>287</v>
       </c>
       <c r="C288" s="33" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D288" s="13">
         <v>-1</v>
@@ -14016,7 +14016,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G288" s="13">
         <v>0</v>
@@ -14025,10 +14025,10 @@
         <v>33</v>
       </c>
       <c r="I288" s="33" t="s">
+        <v>813</v>
+      </c>
+      <c r="J288" s="33" t="s">
         <v>814</v>
-      </c>
-      <c r="J288" s="33" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="289" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -14039,7 +14039,7 @@
         <v>288</v>
       </c>
       <c r="C289" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D289" s="13">
         <v>-1</v>
@@ -14048,7 +14048,7 @@
         <v>1</v>
       </c>
       <c r="F289" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G289" s="13">
         <v>0</v>
@@ -14057,10 +14057,10 @@
         <v>33</v>
       </c>
       <c r="I289" s="33" t="s">
+        <v>819</v>
+      </c>
+      <c r="J289" s="33" t="s">
         <v>820</v>
-      </c>
-      <c r="J289" s="33" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="290" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -14071,7 +14071,7 @@
         <v>289</v>
       </c>
       <c r="C290" s="33" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D290" s="13">
         <v>-1</v>
@@ -14080,7 +14080,7 @@
         <v>1</v>
       </c>
       <c r="F290" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G290" s="13">
         <v>0</v>
@@ -14092,7 +14092,7 @@
         <v>546</v>
       </c>
       <c r="J290" s="33" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.2">
@@ -14103,16 +14103,16 @@
         <v>290</v>
       </c>
       <c r="C291" s="36" t="s">
+        <v>923</v>
+      </c>
+      <c r="D291" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E291" s="34">
+        <v>1</v>
+      </c>
+      <c r="F291" s="36" t="s">
         <v>924</v>
-      </c>
-      <c r="D291" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E291" s="34">
-        <v>1</v>
-      </c>
-      <c r="F291" s="36" t="s">
-        <v>925</v>
       </c>
       <c r="G291" s="34">
         <v>0</v>
@@ -14121,10 +14121,10 @@
         <v>33</v>
       </c>
       <c r="I291" s="36" t="s">
+        <v>921</v>
+      </c>
+      <c r="J291" s="36" t="s">
         <v>922</v>
-      </c>
-      <c r="J291" s="36" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="292" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14135,7 +14135,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D292" s="11">
         <v>-1</v>
@@ -14144,7 +14144,7 @@
         <v>1</v>
       </c>
       <c r="F292" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G292" s="11">
         <v>1</v>
@@ -14153,13 +14153,13 @@
         <v>33</v>
       </c>
       <c r="I292" s="12" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J292" s="12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L292" s="12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="O292" s="11">
         <v>72</v>
@@ -14173,7 +14173,7 @@
         <v>292</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D293" s="2">
         <v>-1</v>
@@ -14182,7 +14182,7 @@
         <v>1</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G293" s="2">
         <v>1</v>
@@ -14191,13 +14191,13 @@
         <v>33</v>
       </c>
       <c r="I293" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J293" s="12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L293" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="O293" s="2">
         <v>71</v>
@@ -14211,7 +14211,7 @@
         <v>293</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D294" s="2">
         <v>-1</v>
@@ -14220,7 +14220,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G294" s="2">
         <v>1</v>
@@ -14229,13 +14229,13 @@
         <v>33</v>
       </c>
       <c r="I294" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="J294" s="12" t="s">
         <v>936</v>
       </c>
-      <c r="J294" s="12" t="s">
-        <v>937</v>
-      </c>
       <c r="L294" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="O294" s="2">
         <v>70</v>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="956">
   <si>
     <t>id|行号</t>
   </si>
@@ -2541,6 +2541,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>prop_3d_fish_wild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>prop_3d_fish_doubled</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3573,6 +3577,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>ty_lb1_icon_box2_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>ty_lb1_icon_4</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3581,19 +3589,16 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>节日特惠抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢庆嘉年华活动掉落道具</t>
-  </si>
-  <si>
-    <t>礼盒</t>
+    <t>掉落物</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落物活动通用道具</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>"act_ty_lb1</t>
+      <t>prop</t>
     </r>
     <r>
       <rPr>
@@ -3604,58 +3609,54 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"</t>
+      <t>_fclb_gong</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"prop_hqjnh_csbox"</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_lb1_icon_bx2_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"act_ty_lb1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"prop_hqjnh_xybox"</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"act_ty_lb1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"prop_hqjnh_ssbox"</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_wild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fclb_cai</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>财字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买恭喜发财对应礼包获得</t>
+  </si>
+  <si>
+    <t>prop_fclb_xi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fclb_fa</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_words_1</t>
+  </si>
+  <si>
+    <t>collect_words_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_words_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_words_4</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4246,11 +4247,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q294"/>
+  <dimension ref="A1:Q298"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G303" sqref="G303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4308,13 +4309,13 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>294</v>
@@ -6851,7 +6852,7 @@
         <v>425</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="L80" s="5"/>
     </row>
@@ -8590,7 +8591,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D131" s="39">
         <v>-1</v>
@@ -8599,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="40" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G131" s="39">
         <v>0</v>
@@ -8611,7 +8612,7 @@
         <v>941</v>
       </c>
       <c r="J131" s="40" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -8640,7 +8641,7 @@
         <v>33</v>
       </c>
       <c r="I132" s="12" t="s">
-        <v>939</v>
+        <v>467</v>
       </c>
       <c r="J132" s="12" t="s">
         <v>468</v>
@@ -9536,7 +9537,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -10163,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G178" s="2">
         <v>1</v>
@@ -10172,10 +10173,10 @@
         <v>32</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
@@ -10191,7 +10192,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>946</v>
+        <v>626</v>
       </c>
       <c r="D179" s="2">
         <v>-1</v>
@@ -10200,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G179" s="2">
         <v>1</v>
@@ -10209,10 +10210,10 @@
         <v>33</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
@@ -10228,7 +10229,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D180" s="2">
         <v>-1</v>
@@ -10237,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
@@ -10246,10 +10247,10 @@
         <v>33</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
@@ -10265,7 +10266,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D181" s="25">
         <v>-1</v>
@@ -10274,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="25" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G181" s="25">
         <v>0</v>
@@ -10283,10 +10284,10 @@
         <v>33</v>
       </c>
       <c r="I181" s="25" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J181" s="25" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="182" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -10297,7 +10298,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="24" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D182" s="23">
         <v>-1</v>
@@ -10306,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="23" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G182" s="23">
         <v>1</v>
@@ -10315,13 +10316,13 @@
         <v>33</v>
       </c>
       <c r="I182" s="24" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J182" s="23" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L182" s="23" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="O182" s="23">
         <v>57</v>
@@ -10335,7 +10336,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D183" s="23">
         <v>-1</v>
@@ -10344,7 +10345,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="23" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G183" s="23">
         <v>1</v>
@@ -10353,13 +10354,13 @@
         <v>33</v>
       </c>
       <c r="I183" s="24" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J183" s="24" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L183" s="24" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="O183" s="23">
         <v>58</v>
@@ -10373,7 +10374,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D184" s="23">
         <v>-1</v>
@@ -10382,7 +10383,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="23" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G184" s="23">
         <v>1</v>
@@ -10391,13 +10392,13 @@
         <v>33</v>
       </c>
       <c r="I184" s="24" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J184" s="24" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L184" s="23" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O184" s="23">
         <v>59</v>
@@ -10411,7 +10412,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D185" s="27">
         <v>-1</v>
@@ -10420,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G185" s="27">
         <v>1</v>
@@ -10429,10 +10430,10 @@
         <v>1</v>
       </c>
       <c r="I185" s="28" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J185" s="28" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N185" s="27">
         <v>16</v>
@@ -10446,7 +10447,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D186" s="27">
         <v>-1</v>
@@ -10455,7 +10456,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G186" s="27">
         <v>1</v>
@@ -10464,10 +10465,10 @@
         <v>2</v>
       </c>
       <c r="I186" s="28" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="J186" s="28" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N186" s="27">
         <v>16</v>
@@ -10481,7 +10482,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="27" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D187" s="27">
         <v>-1</v>
@@ -10490,7 +10491,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G187" s="27">
         <v>1</v>
@@ -10499,10 +10500,10 @@
         <v>3</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="J187" s="28" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N187" s="27">
         <v>16</v>
@@ -10516,7 +10517,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="27" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D188" s="27">
         <v>-1</v>
@@ -10525,7 +10526,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G188" s="27">
         <v>1</v>
@@ -10534,10 +10535,10 @@
         <v>4</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="N188" s="27">
         <v>16</v>
@@ -10551,7 +10552,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D189" s="27">
         <v>-1</v>
@@ -10560,7 +10561,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G189" s="27">
         <v>1</v>
@@ -10569,10 +10570,10 @@
         <v>5</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="J189" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N189" s="27">
         <v>16</v>
@@ -10586,7 +10587,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D190" s="27">
         <v>-1</v>
@@ -10595,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G190" s="27">
         <v>1</v>
@@ -10604,10 +10605,10 @@
         <v>6</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="J190" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N190" s="27">
         <v>16</v>
@@ -10621,7 +10622,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D191" s="27">
         <v>-1</v>
@@ -10630,7 +10631,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G191" s="27">
         <v>1</v>
@@ -10639,10 +10640,10 @@
         <v>7</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N191" s="27">
         <v>16</v>
@@ -10656,7 +10657,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D192" s="27">
         <v>-1</v>
@@ -10665,7 +10666,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G192" s="27">
         <v>1</v>
@@ -10674,10 +10675,10 @@
         <v>8</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N192" s="27">
         <v>16</v>
@@ -10691,7 +10692,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="28" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D193" s="27">
         <v>-1</v>
@@ -10700,7 +10701,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G193" s="27">
         <v>1</v>
@@ -10709,10 +10710,10 @@
         <v>9</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="J193" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N193" s="27">
         <v>16</v>
@@ -10726,7 +10727,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D194" s="27">
         <v>-1</v>
@@ -10735,7 +10736,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G194" s="27">
         <v>1</v>
@@ -10744,10 +10745,10 @@
         <v>10</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N194" s="27">
         <v>16</v>
@@ -10761,7 +10762,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="28" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D195" s="27">
         <v>-1</v>
@@ -10770,7 +10771,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G195" s="27">
         <v>1</v>
@@ -10779,10 +10780,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="J195" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N195" s="27">
         <v>16</v>
@@ -10796,7 +10797,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D196" s="27">
         <v>-1</v>
@@ -10805,7 +10806,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G196" s="27">
         <v>1</v>
@@ -10814,10 +10815,10 @@
         <v>12</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N196" s="27">
         <v>16</v>
@@ -10831,7 +10832,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D197" s="27">
         <v>-1</v>
@@ -10840,7 +10841,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G197" s="27">
         <v>1</v>
@@ -10849,10 +10850,10 @@
         <v>13</v>
       </c>
       <c r="I197" s="28" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N197" s="27">
         <v>16</v>
@@ -10866,7 +10867,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D198" s="27">
         <v>-1</v>
@@ -10875,7 +10876,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G198" s="27">
         <v>1</v>
@@ -10884,10 +10885,10 @@
         <v>14</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N198" s="27">
         <v>16</v>
@@ -10901,7 +10902,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D199" s="27">
         <v>-1</v>
@@ -10910,7 +10911,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G199" s="27">
         <v>1</v>
@@ -10919,10 +10920,10 @@
         <v>15</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N199" s="27">
         <v>16</v>
@@ -10936,7 +10937,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D200" s="27">
         <v>-1</v>
@@ -10945,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="27" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G200" s="27">
         <v>1</v>
@@ -10954,10 +10955,10 @@
         <v>16</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N200" s="27">
         <v>16</v>
@@ -10971,7 +10972,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D201" s="27">
         <v>-1</v>
@@ -10980,7 +10981,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G201" s="27">
         <v>1</v>
@@ -10989,10 +10990,10 @@
         <v>17</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N201" s="27">
         <v>16</v>
@@ -11006,7 +11007,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D202" s="27">
         <v>-1</v>
@@ -11015,7 +11016,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G202" s="27">
         <v>1</v>
@@ -11024,10 +11025,10 @@
         <v>18</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N202" s="27">
         <v>16</v>
@@ -11041,7 +11042,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D203" s="27">
         <v>-1</v>
@@ -11050,7 +11051,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G203" s="27">
         <v>1</v>
@@ -11059,10 +11060,10 @@
         <v>19</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N203" s="27">
         <v>16</v>
@@ -11076,7 +11077,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D204" s="27">
         <v>-1</v>
@@ -11085,7 +11086,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G204" s="27">
         <v>1</v>
@@ -11094,10 +11095,10 @@
         <v>20</v>
       </c>
       <c r="I204" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N204" s="27">
         <v>16</v>
@@ -11111,7 +11112,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D205" s="27">
         <v>-1</v>
@@ -11120,7 +11121,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G205" s="27">
         <v>1</v>
@@ -11129,10 +11130,10 @@
         <v>21</v>
       </c>
       <c r="I205" s="28" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="J205" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N205" s="27">
         <v>16</v>
@@ -11146,7 +11147,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D206" s="27">
         <v>-1</v>
@@ -11155,7 +11156,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G206" s="27">
         <v>1</v>
@@ -11164,10 +11165,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="28" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="J206" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N206" s="27">
         <v>16</v>
@@ -11181,7 +11182,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D207" s="27">
         <v>-1</v>
@@ -11190,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G207" s="27">
         <v>1</v>
@@ -11199,10 +11200,10 @@
         <v>23</v>
       </c>
       <c r="I207" s="28" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="J207" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N207" s="27">
         <v>16</v>
@@ -11216,7 +11217,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D208" s="27">
         <v>-1</v>
@@ -11225,7 +11226,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="27" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G208" s="27">
         <v>1</v>
@@ -11234,10 +11235,10 @@
         <v>24</v>
       </c>
       <c r="I208" s="28" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J208" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N208" s="27">
         <v>16</v>
@@ -11251,7 +11252,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D209" s="27">
         <v>-1</v>
@@ -11260,7 +11261,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G209" s="27">
         <v>1</v>
@@ -11269,10 +11270,10 @@
         <v>25</v>
       </c>
       <c r="I209" s="28" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="J209" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N209" s="27">
         <v>16</v>
@@ -11286,7 +11287,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D210" s="27">
         <v>-1</v>
@@ -11295,7 +11296,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G210" s="27">
         <v>1</v>
@@ -11304,10 +11305,10 @@
         <v>26</v>
       </c>
       <c r="I210" s="28" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="J210" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N210" s="27">
         <v>16</v>
@@ -11321,7 +11322,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D211" s="27">
         <v>-1</v>
@@ -11330,7 +11331,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G211" s="27">
         <v>1</v>
@@ -11339,10 +11340,10 @@
         <v>27</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N211" s="27">
         <v>16</v>
@@ -11356,7 +11357,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D212" s="27">
         <v>-1</v>
@@ -11365,7 +11366,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G212" s="27">
         <v>1</v>
@@ -11374,10 +11375,10 @@
         <v>28</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N212" s="27">
         <v>16</v>
@@ -11391,7 +11392,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D213" s="27">
         <v>-1</v>
@@ -11400,7 +11401,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G213" s="27">
         <v>1</v>
@@ -11409,10 +11410,10 @@
         <v>29</v>
       </c>
       <c r="I213" s="28" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N213" s="27">
         <v>16</v>
@@ -11426,7 +11427,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="28" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D214" s="27">
         <v>-1</v>
@@ -11435,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G214" s="27">
         <v>1</v>
@@ -11444,10 +11445,10 @@
         <v>30</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N214" s="27">
         <v>16</v>
@@ -11461,7 +11462,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D215" s="27">
         <v>-1</v>
@@ -11470,7 +11471,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G215" s="27">
         <v>1</v>
@@ -11479,10 +11480,10 @@
         <v>31</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="J215" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N215" s="27">
         <v>16</v>
@@ -11496,7 +11497,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="28" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D216" s="27">
         <v>-1</v>
@@ -11505,7 +11506,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G216" s="27">
         <v>1</v>
@@ -11514,10 +11515,10 @@
         <v>32</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J216" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N216" s="27">
         <v>16</v>
@@ -11531,7 +11532,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="28" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D217" s="27">
         <v>-1</v>
@@ -11540,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G217" s="27">
         <v>1</v>
@@ -11549,10 +11550,10 @@
         <v>33</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N217" s="27">
         <v>16</v>
@@ -11566,7 +11567,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="28" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D218" s="27">
         <v>-1</v>
@@ -11575,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G218" s="27">
         <v>1</v>
@@ -11584,10 +11585,10 @@
         <v>34</v>
       </c>
       <c r="I218" s="28" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J218" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N218" s="27">
         <v>16</v>
@@ -11601,16 +11602,16 @@
         <v>218</v>
       </c>
       <c r="C219" s="28" t="s">
+        <v>804</v>
+      </c>
+      <c r="D219" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E219" s="27">
+        <v>1</v>
+      </c>
+      <c r="F219" s="27" t="s">
         <v>803</v>
-      </c>
-      <c r="D219" s="27">
-        <v>-1</v>
-      </c>
-      <c r="E219" s="27">
-        <v>1</v>
-      </c>
-      <c r="F219" s="27" t="s">
-        <v>802</v>
       </c>
       <c r="G219" s="27">
         <v>1</v>
@@ -11619,10 +11620,10 @@
         <v>35</v>
       </c>
       <c r="I219" s="28" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="J219" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N219" s="27">
         <v>16</v>
@@ -11636,7 +11637,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D220" s="27">
         <v>-1</v>
@@ -11645,7 +11646,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="28" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G220" s="27">
         <v>1</v>
@@ -11654,10 +11655,10 @@
         <v>36</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N220" s="27">
         <v>16</v>
@@ -11671,7 +11672,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="28" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D221" s="27">
         <v>-1</v>
@@ -11680,7 +11681,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="28" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G221" s="27">
         <v>1</v>
@@ -11689,10 +11690,10 @@
         <v>38</v>
       </c>
       <c r="I221" s="28" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="J221" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N221" s="27">
         <v>16</v>
@@ -11706,7 +11707,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D222" s="27">
         <v>-1</v>
@@ -11715,7 +11716,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G222" s="27">
         <v>1</v>
@@ -11724,10 +11725,10 @@
         <v>39</v>
       </c>
       <c r="I222" s="28" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="J222" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N222" s="27">
         <v>16</v>
@@ -11741,7 +11742,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D223" s="27">
         <v>-1</v>
@@ -11750,7 +11751,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G223" s="27">
         <v>1</v>
@@ -11759,10 +11760,10 @@
         <v>40</v>
       </c>
       <c r="I223" s="28" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="J223" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N223" s="27">
         <v>16</v>
@@ -11776,7 +11777,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D224" s="27">
         <v>-1</v>
@@ -11785,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G224" s="27">
         <v>1</v>
@@ -11794,10 +11795,10 @@
         <v>41</v>
       </c>
       <c r="I224" s="28" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="J224" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N224" s="27">
         <v>16</v>
@@ -11811,7 +11812,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D225" s="27">
         <v>-1</v>
@@ -11820,7 +11821,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G225" s="27">
         <v>1</v>
@@ -11829,10 +11830,10 @@
         <v>42</v>
       </c>
       <c r="I225" s="28" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="J225" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N225" s="27">
         <v>16</v>
@@ -11846,7 +11847,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D226" s="27">
         <v>-1</v>
@@ -11855,7 +11856,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G226" s="27">
         <v>1</v>
@@ -11864,10 +11865,10 @@
         <v>43</v>
       </c>
       <c r="I226" s="28" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J226" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N226" s="27">
         <v>16</v>
@@ -11881,7 +11882,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D227" s="27">
         <v>-1</v>
@@ -11890,7 +11891,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G227" s="27">
         <v>1</v>
@@ -11899,10 +11900,10 @@
         <v>44</v>
       </c>
       <c r="I227" s="28" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="J227" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N227" s="27">
         <v>16</v>
@@ -11916,7 +11917,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D228" s="27">
         <v>-1</v>
@@ -11925,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G228" s="27">
         <v>1</v>
@@ -11934,10 +11935,10 @@
         <v>45</v>
       </c>
       <c r="I228" s="28" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="J228" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N228" s="27">
         <v>16</v>
@@ -11951,7 +11952,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D229" s="27">
         <v>-1</v>
@@ -11960,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G229" s="27">
         <v>1</v>
@@ -11969,10 +11970,10 @@
         <v>46</v>
       </c>
       <c r="I229" s="28" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J229" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N229" s="27">
         <v>16</v>
@@ -11986,7 +11987,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D230" s="27">
         <v>-1</v>
@@ -11995,7 +11996,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G230" s="27">
         <v>1</v>
@@ -12004,10 +12005,10 @@
         <v>47</v>
       </c>
       <c r="I230" s="28" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J230" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N230" s="27">
         <v>16</v>
@@ -12021,7 +12022,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D231" s="27">
         <v>-1</v>
@@ -12030,7 +12031,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G231" s="27">
         <v>1</v>
@@ -12039,10 +12040,10 @@
         <v>48</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J231" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N231" s="27">
         <v>16</v>
@@ -12056,7 +12057,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D232" s="27">
         <v>-1</v>
@@ -12065,7 +12066,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G232" s="27">
         <v>1</v>
@@ -12074,10 +12075,10 @@
         <v>49</v>
       </c>
       <c r="I232" s="28" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="J232" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N232" s="27">
         <v>16</v>
@@ -12091,7 +12092,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D233" s="27">
         <v>-1</v>
@@ -12100,7 +12101,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G233" s="27">
         <v>1</v>
@@ -12109,10 +12110,10 @@
         <v>50</v>
       </c>
       <c r="I233" s="28" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="J233" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N233" s="27">
         <v>16</v>
@@ -12126,7 +12127,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D234" s="27">
         <v>-1</v>
@@ -12135,7 +12136,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G234" s="27">
         <v>1</v>
@@ -12144,10 +12145,10 @@
         <v>51</v>
       </c>
       <c r="I234" s="28" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J234" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N234" s="27">
         <v>16</v>
@@ -12161,7 +12162,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D235" s="27">
         <v>-1</v>
@@ -12170,7 +12171,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G235" s="27">
         <v>1</v>
@@ -12179,10 +12180,10 @@
         <v>52</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="J235" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N235" s="27">
         <v>16</v>
@@ -12196,7 +12197,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D236" s="27">
         <v>-1</v>
@@ -12205,7 +12206,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G236" s="27">
         <v>1</v>
@@ -12214,10 +12215,10 @@
         <v>53</v>
       </c>
       <c r="I236" s="28" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="J236" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N236" s="27">
         <v>16</v>
@@ -12231,7 +12232,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D237" s="27">
         <v>-1</v>
@@ -12240,7 +12241,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G237" s="27">
         <v>1</v>
@@ -12249,10 +12250,10 @@
         <v>54</v>
       </c>
       <c r="I237" s="28" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="J237" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N237" s="27">
         <v>16</v>
@@ -12266,7 +12267,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D238" s="27">
         <v>-1</v>
@@ -12275,7 +12276,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G238" s="27">
         <v>1</v>
@@ -12284,10 +12285,10 @@
         <v>55</v>
       </c>
       <c r="I238" s="28" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="J238" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N238" s="27">
         <v>16</v>
@@ -12301,7 +12302,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D239" s="27">
         <v>-1</v>
@@ -12310,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G239" s="27">
         <v>1</v>
@@ -12319,10 +12320,10 @@
         <v>56</v>
       </c>
       <c r="I239" s="28" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="J239" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N239" s="27">
         <v>16</v>
@@ -12336,7 +12337,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D240" s="27">
         <v>-1</v>
@@ -12345,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G240" s="27">
         <v>1</v>
@@ -12354,10 +12355,10 @@
         <v>57</v>
       </c>
       <c r="I240" s="28" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="J240" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N240" s="27">
         <v>16</v>
@@ -12371,7 +12372,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D241" s="27">
         <v>-1</v>
@@ -12380,7 +12381,7 @@
         <v>1</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G241" s="27">
         <v>1</v>
@@ -12389,10 +12390,10 @@
         <v>58</v>
       </c>
       <c r="I241" s="28" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="J241" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N241" s="27">
         <v>16</v>
@@ -12406,7 +12407,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D242" s="27">
         <v>-1</v>
@@ -12415,7 +12416,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G242" s="27">
         <v>1</v>
@@ -12424,10 +12425,10 @@
         <v>59</v>
       </c>
       <c r="I242" s="28" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="J242" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N242" s="27">
         <v>16</v>
@@ -12441,7 +12442,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D243" s="27">
         <v>-1</v>
@@ -12450,7 +12451,7 @@
         <v>1</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G243" s="27">
         <v>1</v>
@@ -12459,10 +12460,10 @@
         <v>60</v>
       </c>
       <c r="I243" s="28" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J243" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N243" s="27">
         <v>16</v>
@@ -12476,7 +12477,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D244" s="27">
         <v>-1</v>
@@ -12485,7 +12486,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G244" s="27">
         <v>1</v>
@@ -12494,10 +12495,10 @@
         <v>61</v>
       </c>
       <c r="I244" s="28" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="J244" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N244" s="27">
         <v>16</v>
@@ -12511,7 +12512,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D245" s="27">
         <v>-1</v>
@@ -12520,7 +12521,7 @@
         <v>1</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G245" s="27">
         <v>1</v>
@@ -12529,10 +12530,10 @@
         <v>62</v>
       </c>
       <c r="I245" s="28" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J245" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N245" s="27">
         <v>16</v>
@@ -12546,7 +12547,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D246" s="27">
         <v>-1</v>
@@ -12555,7 +12556,7 @@
         <v>1</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G246" s="27">
         <v>1</v>
@@ -12564,10 +12565,10 @@
         <v>63</v>
       </c>
       <c r="I246" s="28" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J246" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N246" s="27">
         <v>16</v>
@@ -12581,7 +12582,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D247" s="27">
         <v>-1</v>
@@ -12590,7 +12591,7 @@
         <v>1</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G247" s="27">
         <v>1</v>
@@ -12599,10 +12600,10 @@
         <v>64</v>
       </c>
       <c r="I247" s="28" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="J247" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N247" s="27">
         <v>16</v>
@@ -12616,7 +12617,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D248" s="27">
         <v>-1</v>
@@ -12625,7 +12626,7 @@
         <v>1</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G248" s="27">
         <v>1</v>
@@ -12634,10 +12635,10 @@
         <v>65</v>
       </c>
       <c r="I248" s="28" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="J248" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N248" s="27">
         <v>16</v>
@@ -12651,7 +12652,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D249" s="27">
         <v>-1</v>
@@ -12660,7 +12661,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G249" s="27">
         <v>1</v>
@@ -12669,10 +12670,10 @@
         <v>66</v>
       </c>
       <c r="I249" s="28" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="J249" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N249" s="27">
         <v>16</v>
@@ -12686,7 +12687,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D250" s="27">
         <v>-1</v>
@@ -12695,7 +12696,7 @@
         <v>1</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G250" s="27">
         <v>1</v>
@@ -12704,10 +12705,10 @@
         <v>67</v>
       </c>
       <c r="I250" s="28" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J250" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N250" s="27">
         <v>16</v>
@@ -12721,7 +12722,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D251" s="27">
         <v>-1</v>
@@ -12730,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G251" s="27">
         <v>1</v>
@@ -12739,10 +12740,10 @@
         <v>68</v>
       </c>
       <c r="I251" s="28" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="J251" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N251" s="27">
         <v>16</v>
@@ -12756,16 +12757,16 @@
         <v>251</v>
       </c>
       <c r="C252" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="D252" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E252" s="27">
+        <v>1</v>
+      </c>
+      <c r="F252" s="28" t="s">
         <v>806</v>
-      </c>
-      <c r="D252" s="27">
-        <v>-1</v>
-      </c>
-      <c r="E252" s="27">
-        <v>1</v>
-      </c>
-      <c r="F252" s="28" t="s">
-        <v>805</v>
       </c>
       <c r="G252" s="27">
         <v>1</v>
@@ -12774,10 +12775,10 @@
         <v>68</v>
       </c>
       <c r="I252" s="28" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="J252" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N252" s="27">
         <v>16</v>
@@ -12791,7 +12792,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D253" s="27">
         <v>-1</v>
@@ -12800,7 +12801,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="28" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G253" s="27">
         <v>1</v>
@@ -12809,10 +12810,10 @@
         <v>69</v>
       </c>
       <c r="I253" s="28" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="J253" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N253" s="27">
         <v>16</v>
@@ -12826,7 +12827,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D254" s="27">
         <v>-1</v>
@@ -12835,7 +12836,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G254" s="27">
         <v>1</v>
@@ -12844,10 +12845,10 @@
         <v>70</v>
       </c>
       <c r="I254" s="28" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="J254" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N254" s="27">
         <v>16</v>
@@ -12861,7 +12862,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D255" s="27">
         <v>-1</v>
@@ -12870,7 +12871,7 @@
         <v>1</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G255" s="27">
         <v>1</v>
@@ -12879,10 +12880,10 @@
         <v>71</v>
       </c>
       <c r="I255" s="28" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="J255" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N255" s="27">
         <v>16</v>
@@ -12896,7 +12897,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D256" s="27">
         <v>-1</v>
@@ -12905,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G256" s="27">
         <v>1</v>
@@ -12914,10 +12915,10 @@
         <v>72</v>
       </c>
       <c r="I256" s="28" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="J256" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N256" s="27">
         <v>16</v>
@@ -12931,7 +12932,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D257" s="27">
         <v>-1</v>
@@ -12940,7 +12941,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G257" s="27">
         <v>1</v>
@@ -12949,10 +12950,10 @@
         <v>73</v>
       </c>
       <c r="I257" s="28" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="J257" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N257" s="27">
         <v>16</v>
@@ -12966,7 +12967,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D258" s="27">
         <v>-1</v>
@@ -12975,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G258" s="27">
         <v>1</v>
@@ -12984,10 +12985,10 @@
         <v>74</v>
       </c>
       <c r="I258" s="28" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="J258" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N258" s="27">
         <v>16</v>
@@ -13001,7 +13002,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D259" s="27">
         <v>-1</v>
@@ -13010,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="27" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G259" s="27">
         <v>1</v>
@@ -13019,10 +13020,10 @@
         <v>75</v>
       </c>
       <c r="I259" s="28" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="J259" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N259" s="27">
         <v>16</v>
@@ -13036,7 +13037,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D260" s="27">
         <v>-1</v>
@@ -13045,7 +13046,7 @@
         <v>1</v>
       </c>
       <c r="F260" s="27" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G260" s="27">
         <v>1</v>
@@ -13054,10 +13055,10 @@
         <v>76</v>
       </c>
       <c r="I260" s="28" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="J260" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N260" s="27">
         <v>16</v>
@@ -13071,7 +13072,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D261" s="27">
         <v>-1</v>
@@ -13080,7 +13081,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G261" s="27">
         <v>1</v>
@@ -13089,10 +13090,10 @@
         <v>77</v>
       </c>
       <c r="I261" s="28" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="J261" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N261" s="27">
         <v>16</v>
@@ -13106,7 +13107,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D262" s="27">
         <v>-1</v>
@@ -13115,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="27" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G262" s="27">
         <v>1</v>
@@ -13124,10 +13125,10 @@
         <v>78</v>
       </c>
       <c r="I262" s="28" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="J262" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N262" s="27">
         <v>16</v>
@@ -13141,7 +13142,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D263" s="27">
         <v>-1</v>
@@ -13150,7 +13151,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G263" s="27">
         <v>1</v>
@@ -13159,10 +13160,10 @@
         <v>79</v>
       </c>
       <c r="I263" s="28" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="J263" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N263" s="27">
         <v>16</v>
@@ -13176,7 +13177,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D264" s="27">
         <v>-1</v>
@@ -13185,7 +13186,7 @@
         <v>1</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G264" s="27">
         <v>1</v>
@@ -13194,10 +13195,10 @@
         <v>80</v>
       </c>
       <c r="I264" s="28" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="J264" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N264" s="27">
         <v>16</v>
@@ -13211,7 +13212,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D265" s="27">
         <v>-1</v>
@@ -13220,7 +13221,7 @@
         <v>1</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G265" s="27">
         <v>1</v>
@@ -13229,10 +13230,10 @@
         <v>81</v>
       </c>
       <c r="I265" s="28" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J265" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N265" s="27">
         <v>16</v>
@@ -13246,7 +13247,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D266" s="27">
         <v>-1</v>
@@ -13255,7 +13256,7 @@
         <v>1</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G266" s="27">
         <v>1</v>
@@ -13264,10 +13265,10 @@
         <v>82</v>
       </c>
       <c r="I266" s="28" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="J266" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N266" s="27">
         <v>16</v>
@@ -13281,7 +13282,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D267" s="27">
         <v>-1</v>
@@ -13290,7 +13291,7 @@
         <v>1</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G267" s="27">
         <v>1</v>
@@ -13299,10 +13300,10 @@
         <v>83</v>
       </c>
       <c r="I267" s="28" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="J267" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N267" s="27">
         <v>16</v>
@@ -13316,7 +13317,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D268" s="27">
         <v>-1</v>
@@ -13325,7 +13326,7 @@
         <v>1</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G268" s="27">
         <v>1</v>
@@ -13334,10 +13335,10 @@
         <v>84</v>
       </c>
       <c r="I268" s="28" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="J268" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N268" s="27">
         <v>16</v>
@@ -13351,7 +13352,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D269" s="27">
         <v>-1</v>
@@ -13360,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G269" s="27">
         <v>1</v>
@@ -13369,10 +13370,10 @@
         <v>85</v>
       </c>
       <c r="I269" s="28" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J269" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N269" s="27">
         <v>16</v>
@@ -13386,7 +13387,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D270" s="27">
         <v>-1</v>
@@ -13395,7 +13396,7 @@
         <v>1</v>
       </c>
       <c r="F270" s="27" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G270" s="27">
         <v>1</v>
@@ -13404,10 +13405,10 @@
         <v>86</v>
       </c>
       <c r="I270" s="28" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J270" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N270" s="27">
         <v>16</v>
@@ -13421,7 +13422,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D271" s="27">
         <v>-1</v>
@@ -13430,7 +13431,7 @@
         <v>1</v>
       </c>
       <c r="F271" s="27" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G271" s="27">
         <v>1</v>
@@ -13439,10 +13440,10 @@
         <v>87</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="J271" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N271" s="27">
         <v>16</v>
@@ -13456,7 +13457,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D272" s="27">
         <v>-1</v>
@@ -13465,7 +13466,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G272" s="27">
         <v>1</v>
@@ -13474,10 +13475,10 @@
         <v>88</v>
       </c>
       <c r="I272" s="28" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J272" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N272" s="27">
         <v>16</v>
@@ -13491,7 +13492,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D273" s="27">
         <v>-1</v>
@@ -13500,7 +13501,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="27" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G273" s="27">
         <v>1</v>
@@ -13509,10 +13510,10 @@
         <v>89</v>
       </c>
       <c r="I273" s="28" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="J273" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N273" s="27">
         <v>16</v>
@@ -13526,7 +13527,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D274" s="27">
         <v>-1</v>
@@ -13535,7 +13536,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G274" s="27">
         <v>1</v>
@@ -13544,10 +13545,10 @@
         <v>90</v>
       </c>
       <c r="I274" s="28" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="J274" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N274" s="27">
         <v>16</v>
@@ -13561,7 +13562,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D275" s="27">
         <v>-1</v>
@@ -13570,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G275" s="27">
         <v>1</v>
@@ -13579,10 +13580,10 @@
         <v>91</v>
       </c>
       <c r="I275" s="28" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="J275" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N275" s="27">
         <v>16</v>
@@ -13596,7 +13597,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D276" s="27">
         <v>-1</v>
@@ -13605,7 +13606,7 @@
         <v>1</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G276" s="27">
         <v>1</v>
@@ -13614,10 +13615,10 @@
         <v>92</v>
       </c>
       <c r="I276" s="28" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="J276" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N276" s="27">
         <v>16</v>
@@ -13631,7 +13632,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D277" s="27">
         <v>-1</v>
@@ -13640,7 +13641,7 @@
         <v>1</v>
       </c>
       <c r="F277" s="27" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G277" s="27">
         <v>1</v>
@@ -13649,10 +13650,10 @@
         <v>93</v>
       </c>
       <c r="I277" s="28" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="J277" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N277" s="27">
         <v>16</v>
@@ -13666,7 +13667,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D278" s="27">
         <v>-1</v>
@@ -13675,7 +13676,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="27" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G278" s="27">
         <v>1</v>
@@ -13684,10 +13685,10 @@
         <v>94</v>
       </c>
       <c r="I278" s="28" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="J278" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N278" s="27">
         <v>16</v>
@@ -13701,7 +13702,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D279" s="27">
         <v>-1</v>
@@ -13710,7 +13711,7 @@
         <v>1</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G279" s="27">
         <v>1</v>
@@ -13719,10 +13720,10 @@
         <v>95</v>
       </c>
       <c r="I279" s="28" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="J279" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N279" s="27">
         <v>16</v>
@@ -13736,7 +13737,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D280" s="27">
         <v>-1</v>
@@ -13745,7 +13746,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G280" s="27">
         <v>1</v>
@@ -13754,10 +13755,10 @@
         <v>96</v>
       </c>
       <c r="I280" s="28" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="J280" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N280" s="27">
         <v>16</v>
@@ -13771,7 +13772,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D281" s="27">
         <v>-1</v>
@@ -13780,7 +13781,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="27" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G281" s="27">
         <v>1</v>
@@ -13789,10 +13790,10 @@
         <v>97</v>
       </c>
       <c r="I281" s="28" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="J281" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N281" s="27">
         <v>16</v>
@@ -13806,7 +13807,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D282" s="27">
         <v>-1</v>
@@ -13815,7 +13816,7 @@
         <v>1</v>
       </c>
       <c r="F282" s="27" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G282" s="27">
         <v>1</v>
@@ -13824,10 +13825,10 @@
         <v>98</v>
       </c>
       <c r="I282" s="28" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="J282" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N282" s="27">
         <v>16</v>
@@ -13841,7 +13842,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D283" s="27">
         <v>-1</v>
@@ -13850,7 +13851,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="27" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G283" s="27">
         <v>1</v>
@@ -13859,10 +13860,10 @@
         <v>99</v>
       </c>
       <c r="I283" s="28" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="J283" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N283" s="27">
         <v>16</v>
@@ -13876,7 +13877,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D284" s="27">
         <v>-1</v>
@@ -13885,7 +13886,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="28" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G284" s="27">
         <v>1</v>
@@ -13894,10 +13895,10 @@
         <v>99</v>
       </c>
       <c r="I284" s="28" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="J284" s="28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N284" s="27">
         <v>16</v>
@@ -13911,7 +13912,7 @@
         <v>284</v>
       </c>
       <c r="C285" s="30" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D285" s="29">
         <v>-1</v>
@@ -13920,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="F285" s="30" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G285" s="29">
         <v>0</v>
@@ -13929,10 +13930,10 @@
         <v>33</v>
       </c>
       <c r="I285" s="30" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="J285" s="30" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="286" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -13943,7 +13944,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="30" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D286" s="29">
         <v>-1</v>
@@ -13961,10 +13962,10 @@
         <v>33</v>
       </c>
       <c r="I286" s="29" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="J286" s="29" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="287" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -13975,7 +13976,7 @@
         <v>286</v>
       </c>
       <c r="C287" s="32" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D287" s="31">
         <v>-1</v>
@@ -13984,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="F287" s="31" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G287" s="31">
         <v>0</v>
@@ -13993,10 +13994,10 @@
         <v>33</v>
       </c>
       <c r="I287" s="31" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="J287" s="31" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="288" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -14007,7 +14008,7 @@
         <v>287</v>
       </c>
       <c r="C288" s="33" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D288" s="13">
         <v>-1</v>
@@ -14016,7 +14017,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="33" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G288" s="13">
         <v>0</v>
@@ -14025,13 +14026,13 @@
         <v>33</v>
       </c>
       <c r="I288" s="33" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J288" s="33" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="289" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="11">
         <v>288</v>
       </c>
@@ -14039,7 +14040,7 @@
         <v>288</v>
       </c>
       <c r="C289" s="33" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D289" s="13">
         <v>-1</v>
@@ -14048,7 +14049,7 @@
         <v>1</v>
       </c>
       <c r="F289" s="33" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G289" s="13">
         <v>0</v>
@@ -14057,13 +14058,13 @@
         <v>33</v>
       </c>
       <c r="I289" s="33" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J289" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="290" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="11">
         <v>289</v>
       </c>
@@ -14071,7 +14072,7 @@
         <v>289</v>
       </c>
       <c r="C290" s="33" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D290" s="13">
         <v>-1</v>
@@ -14080,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="F290" s="33" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G290" s="13">
         <v>0</v>
@@ -14092,10 +14093,10 @@
         <v>546</v>
       </c>
       <c r="J290" s="33" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="34">
         <v>290</v>
       </c>
@@ -14103,7 +14104,7 @@
         <v>290</v>
       </c>
       <c r="C291" s="36" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D291" s="34">
         <v>-1</v>
@@ -14112,7 +14113,7 @@
         <v>1</v>
       </c>
       <c r="F291" s="36" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="G291" s="34">
         <v>0</v>
@@ -14121,13 +14122,13 @@
         <v>33</v>
       </c>
       <c r="I291" s="36" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="J291" s="36" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="292" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="11">
         <v>291</v>
       </c>
@@ -14135,7 +14136,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D292" s="11">
         <v>-1</v>
@@ -14144,7 +14145,7 @@
         <v>1</v>
       </c>
       <c r="F292" s="12" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="G292" s="11">
         <v>1</v>
@@ -14153,19 +14154,13 @@
         <v>33</v>
       </c>
       <c r="I292" s="12" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="J292" s="12" t="s">
-        <v>936</v>
-      </c>
-      <c r="L292" s="12" t="s">
-        <v>942</v>
-      </c>
-      <c r="O292" s="11">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -14173,7 +14168,7 @@
         <v>292</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D293" s="2">
         <v>-1</v>
@@ -14182,7 +14177,7 @@
         <v>1</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="G293" s="2">
         <v>1</v>
@@ -14191,19 +14186,13 @@
         <v>33</v>
       </c>
       <c r="I293" s="5" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="J293" s="12" t="s">
-        <v>936</v>
-      </c>
-      <c r="L293" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="O293" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -14211,7 +14200,7 @@
         <v>293</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D294" s="2">
         <v>-1</v>
@@ -14220,7 +14209,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G294" s="2">
         <v>1</v>
@@ -14229,16 +14218,138 @@
         <v>33</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="J294" s="12" t="s">
-        <v>936</v>
-      </c>
-      <c r="L294" s="5" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A295" s="2">
+        <v>294</v>
+      </c>
+      <c r="B295" s="2">
+        <v>294</v>
+      </c>
+      <c r="C295" s="33" t="s">
+        <v>943</v>
+      </c>
+      <c r="D295" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E295" s="13">
+        <v>1</v>
+      </c>
+      <c r="F295" s="13" t="s">
+        <v>952</v>
+      </c>
+      <c r="G295" s="13">
+        <v>1</v>
+      </c>
+      <c r="H295" s="13">
+        <v>33</v>
+      </c>
+      <c r="I295" s="33" t="s">
+        <v>945</v>
+      </c>
+      <c r="J295" s="33" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A296" s="2">
+        <v>295</v>
+      </c>
+      <c r="B296" s="2">
+        <v>295</v>
+      </c>
+      <c r="C296" s="33" t="s">
+        <v>950</v>
+      </c>
+      <c r="D296" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E296" s="13">
+        <v>1</v>
+      </c>
+      <c r="F296" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="G296" s="13">
+        <v>1</v>
+      </c>
+      <c r="H296" s="13">
+        <v>33</v>
+      </c>
+      <c r="I296" s="33" t="s">
+        <v>946</v>
+      </c>
+      <c r="J296" s="33" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A297" s="2">
+        <v>296</v>
+      </c>
+      <c r="B297" s="2">
+        <v>296</v>
+      </c>
+      <c r="C297" s="33" t="s">
+        <v>951</v>
+      </c>
+      <c r="D297" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E297" s="13">
+        <v>1</v>
+      </c>
+      <c r="F297" s="13" t="s">
+        <v>954</v>
+      </c>
+      <c r="G297" s="13">
+        <v>1</v>
+      </c>
+      <c r="H297" s="13">
+        <v>33</v>
+      </c>
+      <c r="I297" s="33" t="s">
+        <v>947</v>
+      </c>
+      <c r="J297" s="33" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A298" s="2">
+        <v>297</v>
+      </c>
+      <c r="B298" s="2">
+        <v>297</v>
+      </c>
+      <c r="C298" s="33" t="s">
         <v>944</v>
       </c>
-      <c r="O294" s="2">
-        <v>70</v>
+      <c r="D298" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E298" s="13">
+        <v>1</v>
+      </c>
+      <c r="F298" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="G298" s="13">
+        <v>1</v>
+      </c>
+      <c r="H298" s="13">
+        <v>33</v>
+      </c>
+      <c r="I298" s="33" t="s">
+        <v>948</v>
+      </c>
+      <c r="J298" s="33" t="s">
+        <v>949</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -3641,23 +3641,21 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>collect_words_1</t>
-  </si>
-  <si>
-    <t>collect_words_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>collect_words_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>collect_words_4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>灵珠</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_words_1_1</t>
+  </si>
+  <si>
+    <t>collect_words_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_words_3_1</t>
+  </si>
+  <si>
+    <t>collect_words_4_1</t>
   </si>
 </sst>
 </file>
@@ -4250,8 +4248,8 @@
   <dimension ref="A1:Q298"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F303" sqref="F303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8609,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="40" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="J131" s="40" t="s">
         <v>941</v>
@@ -14241,7 +14239,7 @@
         <v>1</v>
       </c>
       <c r="F295" s="13" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G295" s="13">
         <v>1</v>
@@ -14273,7 +14271,7 @@
         <v>1</v>
       </c>
       <c r="F296" s="13" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="G296" s="13">
         <v>1</v>
@@ -14305,7 +14303,7 @@
         <v>1</v>
       </c>
       <c r="F297" s="13" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G297" s="13">
         <v>1</v>
@@ -14337,7 +14335,7 @@
         <v>1</v>
       </c>
       <c r="F298" s="13" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="G298" s="13">
         <v>1</v>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -3645,17 +3645,72 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>collect_words_1_1</t>
-  </si>
-  <si>
-    <t>collect_words_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>collect_words_3_1</t>
-  </si>
-  <si>
-    <t>collect_words_4_1</t>
+    <r>
+      <t>collect_words_1_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>collect_words_2_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>collect_words_3_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>collect_words_4_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4249,7 +4304,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F303" sqref="F303"/>
+      <selection pane="bottomLeft" activeCell="F296" sqref="F296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14238,7 +14293,7 @@
       <c r="E295" s="13">
         <v>1</v>
       </c>
-      <c r="F295" s="13" t="s">
+      <c r="F295" s="33" t="s">
         <v>952</v>
       </c>
       <c r="G295" s="13">
@@ -14270,7 +14325,7 @@
       <c r="E296" s="13">
         <v>1</v>
       </c>
-      <c r="F296" s="13" t="s">
+      <c r="F296" s="33" t="s">
         <v>953</v>
       </c>
       <c r="G296" s="13">
@@ -14302,7 +14357,7 @@
       <c r="E297" s="13">
         <v>1</v>
       </c>
-      <c r="F297" s="13" t="s">
+      <c r="F297" s="33" t="s">
         <v>954</v>
       </c>
       <c r="G297" s="13">
@@ -14334,7 +14389,7 @@
       <c r="E298" s="13">
         <v>1</v>
       </c>
-      <c r="F298" s="13" t="s">
+      <c r="F298" s="33" t="s">
         <v>955</v>
       </c>
       <c r="G298" s="13">

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="955">
   <si>
     <t>id|行号</t>
   </si>
@@ -3641,75 +3641,18 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>灵珠</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>collect_words_1_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>collect_words_2_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>collect_words_3_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>collect_words_4_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1</t>
-    </r>
+    <t>collect_words_1</t>
+  </si>
+  <si>
+    <t>collect_words_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_words_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_words_4</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4303,8 +4246,8 @@
   <dimension ref="A1:Q298"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F296" sqref="F296"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8662,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="40" t="s">
-        <v>951</v>
+        <v>437</v>
       </c>
       <c r="J131" s="40" t="s">
         <v>941</v>
@@ -14293,8 +14236,8 @@
       <c r="E295" s="13">
         <v>1</v>
       </c>
-      <c r="F295" s="33" t="s">
-        <v>952</v>
+      <c r="F295" s="13" t="s">
+        <v>951</v>
       </c>
       <c r="G295" s="13">
         <v>1</v>
@@ -14325,8 +14268,8 @@
       <c r="E296" s="13">
         <v>1</v>
       </c>
-      <c r="F296" s="33" t="s">
-        <v>953</v>
+      <c r="F296" s="13" t="s">
+        <v>952</v>
       </c>
       <c r="G296" s="13">
         <v>1</v>
@@ -14357,8 +14300,8 @@
       <c r="E297" s="13">
         <v>1</v>
       </c>
-      <c r="F297" s="33" t="s">
-        <v>954</v>
+      <c r="F297" s="13" t="s">
+        <v>953</v>
       </c>
       <c r="G297" s="13">
         <v>1</v>
@@ -14389,8 +14332,8 @@
       <c r="E298" s="13">
         <v>1</v>
       </c>
-      <c r="F298" s="33" t="s">
-        <v>955</v>
+      <c r="F298" s="13" t="s">
+        <v>954</v>
       </c>
       <c r="G298" s="13">
         <v>1</v>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="956">
   <si>
     <t>id|行号</t>
   </si>
@@ -3653,6 +3653,10 @@
   </si>
   <si>
     <t>collect_words_4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4247,7 +4251,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I124" sqref="I124"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8605,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="40" t="s">
-        <v>437</v>
+        <v>955</v>
       </c>
       <c r="J131" s="40" t="s">
         <v>941</v>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3589,10 +3589,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>掉落物</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落物活动通用道具</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3657,6 +3653,10 @@
   </si>
   <si>
     <t>collect_words_4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵珠</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4250,8 +4250,8 @@
   <dimension ref="A1:Q298"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G303" sqref="G303"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8609,10 +8609,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="40" t="s">
+        <v>955</v>
+      </c>
+      <c r="J131" s="40" t="s">
         <v>941</v>
-      </c>
-      <c r="J131" s="40" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -14232,7 +14232,7 @@
         <v>294</v>
       </c>
       <c r="C295" s="33" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D295" s="13">
         <v>-1</v>
@@ -14241,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="F295" s="13" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G295" s="13">
         <v>1</v>
@@ -14250,10 +14250,10 @@
         <v>33</v>
       </c>
       <c r="I295" s="33" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J295" s="33" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
@@ -14264,7 +14264,7 @@
         <v>295</v>
       </c>
       <c r="C296" s="33" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D296" s="13">
         <v>-1</v>
@@ -14273,7 +14273,7 @@
         <v>1</v>
       </c>
       <c r="F296" s="13" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G296" s="13">
         <v>1</v>
@@ -14282,10 +14282,10 @@
         <v>33</v>
       </c>
       <c r="I296" s="33" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J296" s="33" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
@@ -14296,7 +14296,7 @@
         <v>296</v>
       </c>
       <c r="C297" s="33" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D297" s="13">
         <v>-1</v>
@@ -14305,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="F297" s="13" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G297" s="13">
         <v>1</v>
@@ -14314,10 +14314,10 @@
         <v>33</v>
       </c>
       <c r="I297" s="33" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J297" s="33" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
@@ -14328,7 +14328,7 @@
         <v>297</v>
       </c>
       <c r="C298" s="33" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D298" s="13">
         <v>-1</v>
@@ -14337,7 +14337,7 @@
         <v>1</v>
       </c>
       <c r="F298" s="13" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G298" s="13">
         <v>1</v>
@@ -14346,10 +14346,10 @@
         <v>33</v>
       </c>
       <c r="I298" s="33" t="s">
+        <v>947</v>
+      </c>
+      <c r="J298" s="33" t="s">
         <v>948</v>
-      </c>
-      <c r="J298" s="33" t="s">
-        <v>949</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_config.xlsx
+++ b/config_debug/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="986">
   <si>
     <t>id|行号</t>
   </si>
@@ -1574,10 +1574,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>小游戏币</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3656,7 +3652,124 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>爆竹</t>
+    <t>福袋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_n</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_k</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_l</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>快</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--新字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--年字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--快字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--乐字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--万能字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_wn</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_lb1_wnz</t>
+  </si>
+  <si>
+    <t>prop_xnsmt_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台抽奖券--2.9</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xnsmt_mtsp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xnhl_icon_x</t>
+  </si>
+  <si>
+    <t>xnhl_icon_n</t>
+  </si>
+  <si>
+    <t>xnhl_icon_k</t>
+  </si>
+  <si>
+    <t>xnhl_icon_l</t>
+  </si>
+  <si>
+    <t>activity_icon_mtsp</t>
+  </si>
+  <si>
+    <t>xnsmt_img_cjq</t>
+  </si>
+  <si>
+    <t>act_ty_by_drop_7_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_7_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汤圆</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3735,7 +3848,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3775,18 +3888,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3845,7 +3946,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3936,7 +4037,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3945,28 +4055,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4247,11 +4336,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q298"/>
+  <dimension ref="A1:Q307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I314" sqref="I314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4309,13 +4398,13 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>294</v>
@@ -4403,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>19</v>
@@ -4429,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>365</v>
@@ -4481,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>366</v>
@@ -4507,13 +4596,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>367</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -5144,143 +5233,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34">
+    <row r="31" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="29">
         <v>30</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="32">
         <v>29</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E31" s="34">
-        <v>1</v>
-      </c>
-      <c r="F31" s="36" t="s">
+      <c r="D31" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="29">
+        <v>1</v>
+      </c>
+      <c r="F31" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="34">
-        <v>1</v>
-      </c>
-      <c r="H31" s="34">
+      <c r="G31" s="29">
+        <v>1</v>
+      </c>
+      <c r="H31" s="29">
         <v>17</v>
       </c>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J31" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="L31" s="34" t="s">
+      <c r="L31" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
+    <row r="32" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="29">
         <v>31</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="32">
         <v>30</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E32" s="34">
-        <v>1</v>
-      </c>
-      <c r="F32" s="34" t="s">
+      <c r="D32" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="29">
+        <v>1</v>
+      </c>
+      <c r="F32" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="G32" s="34">
-        <v>1</v>
-      </c>
-      <c r="H32" s="34">
+      <c r="G32" s="29">
+        <v>1</v>
+      </c>
+      <c r="H32" s="29">
         <v>18</v>
       </c>
-      <c r="I32" s="34" t="s">
+      <c r="I32" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="J32" s="34" t="s">
+      <c r="J32" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="L32" s="31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34">
+    <row r="33" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="29">
         <v>32</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="32">
         <v>31</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E33" s="34">
-        <v>1</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>578</v>
-      </c>
-      <c r="G33" s="34">
-        <v>1</v>
-      </c>
-      <c r="H33" s="34">
+      <c r="D33" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="29">
+        <v>1</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="G33" s="29">
+        <v>1</v>
+      </c>
+      <c r="H33" s="29">
         <v>19</v>
       </c>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J33" s="34" t="s">
+      <c r="J33" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="L33" s="36" t="s">
+      <c r="L33" s="31" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34">
+    <row r="34" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="29">
         <v>33</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="32">
         <v>32</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="34" t="s">
+      <c r="D34" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="29">
+        <v>1</v>
+      </c>
+      <c r="F34" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G34" s="34">
-        <v>1</v>
-      </c>
-      <c r="H34" s="34">
+      <c r="G34" s="29">
+        <v>1</v>
+      </c>
+      <c r="H34" s="29">
         <v>20</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="L34" s="36" t="s">
+      <c r="L34" s="31" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5554,7 +5643,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D43" s="2">
         <v>-1</v>
@@ -5731,7 +5820,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D48" s="2">
         <v>-1</v>
@@ -5765,7 +5854,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D49" s="2">
         <v>-1</v>
@@ -5937,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -5975,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -6013,7 +6102,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -6558,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -6590,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -6628,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -6752,7 +6841,7 @@
         <v>276</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>329</v>
@@ -6840,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -6849,10 +6938,10 @@
         <v>23</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L80" s="5"/>
     </row>
@@ -6885,7 +6974,7 @@
         <v>287</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>295</v>
@@ -6923,7 +7012,7 @@
         <v>290</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>296</v>
@@ -7313,7 +7402,7 @@
         <v>326</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>330</v>
@@ -7400,7 +7489,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D97" s="2">
         <v>-1</v>
@@ -7444,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
@@ -7453,7 +7542,7 @@
         <v>36</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>355</v>
@@ -7479,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
@@ -7488,7 +7577,7 @@
         <v>37</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J99" s="5" t="s">
         <v>356</v>
@@ -7514,7 +7603,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G100" s="2">
         <v>1</v>
@@ -7523,7 +7612,7 @@
         <v>38</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>357</v>
@@ -7549,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G101" s="2">
         <v>1</v>
@@ -7558,7 +7647,7 @@
         <v>39</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>358</v>
@@ -7584,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
@@ -7593,7 +7682,7 @@
         <v>40</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>359</v>
@@ -7610,7 +7699,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D103" s="2">
         <v>-1</v>
@@ -7619,7 +7708,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G103" s="2">
         <v>1</v>
@@ -7628,7 +7717,7 @@
         <v>41</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>360</v>
@@ -7645,7 +7734,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D104" s="2">
         <v>-1</v>
@@ -7654,7 +7743,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
@@ -7663,10 +7752,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N104" s="2">
         <v>9</v>
@@ -7689,7 +7778,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
@@ -7698,7 +7787,7 @@
         <v>43</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J105" s="5" t="s">
         <v>362</v>
@@ -7724,7 +7813,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G106" s="2">
         <v>1</v>
@@ -7733,7 +7822,7 @@
         <v>44</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J106" s="5" t="s">
         <v>361</v>
@@ -7750,7 +7839,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D107" s="2">
         <v>-1</v>
@@ -7768,7 +7857,7 @@
         <v>32</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>172</v>
@@ -7787,7 +7876,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D108" s="2">
         <v>-1</v>
@@ -7805,7 +7894,7 @@
         <v>33</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>176</v>
@@ -7856,7 +7945,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>372</v>
+        <v>982</v>
       </c>
       <c r="D110" s="2">
         <v>-1</v>
@@ -7865,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
@@ -7874,10 +7963,10 @@
         <v>34</v>
       </c>
       <c r="I110" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="J110" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>374</v>
       </c>
       <c r="L110" s="5"/>
     </row>
@@ -7889,28 +7978,28 @@
         <v>110</v>
       </c>
       <c r="C111" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="D111" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D111" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="G111" s="2">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2">
-        <v>1</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>396</v>
-      </c>
       <c r="J111" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>173</v>
@@ -7927,28 +8016,28 @@
         <v>111</v>
       </c>
       <c r="C112" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="D112" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D112" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112" s="5" t="s">
+      <c r="G112" s="2">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1</v>
+      </c>
+      <c r="I112" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="G112" s="2">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2">
-        <v>1</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>399</v>
-      </c>
       <c r="J112" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>173</v>
@@ -7965,28 +8054,28 @@
         <v>112</v>
       </c>
       <c r="C113" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="D113" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1</v>
+      </c>
+      <c r="I113" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D113" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G113" s="2">
-        <v>1</v>
-      </c>
-      <c r="H113" s="2">
-        <v>1</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>401</v>
-      </c>
       <c r="J113" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>173</v>
@@ -8003,28 +8092,28 @@
         <v>113</v>
       </c>
       <c r="C114" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="D114" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1</v>
+      </c>
+      <c r="I114" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D114" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="G114" s="2">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2">
-        <v>1</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="J114" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>173</v>
@@ -8041,28 +8130,28 @@
         <v>114</v>
       </c>
       <c r="C115" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D115" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="I115" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D115" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G115" s="2">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2">
-        <v>1</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="J115" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>173</v>
@@ -8079,28 +8168,28 @@
         <v>115</v>
       </c>
       <c r="C116" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D116" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G116" s="2">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="I116" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D116" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E116" s="2">
-        <v>1</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="G116" s="2">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2">
-        <v>1</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="J116" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L116" s="5" t="s">
         <v>173</v>
@@ -8117,16 +8206,16 @@
         <v>116</v>
       </c>
       <c r="C117" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D117" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="D117" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="G117" s="2">
         <v>0</v>
@@ -8135,10 +8224,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -8151,16 +8240,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="D118" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="D118" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E118" s="2">
-        <v>1</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="G118" s="2">
         <v>0</v>
@@ -8169,10 +8258,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -8183,16 +8272,16 @@
         <v>118</v>
       </c>
       <c r="C119" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="D119" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="D119" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
@@ -8201,10 +8290,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -8215,16 +8304,16 @@
         <v>119</v>
       </c>
       <c r="C120" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D120" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="D120" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
@@ -8233,10 +8322,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -8247,16 +8336,16 @@
         <v>120</v>
       </c>
       <c r="C121" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="D121" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="D121" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E121" s="2">
-        <v>1</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -8265,10 +8354,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -8279,16 +8368,16 @@
         <v>121</v>
       </c>
       <c r="C122" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D122" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="D122" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
@@ -8297,10 +8386,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -8311,7 +8400,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D123" s="2">
         <v>-1</v>
@@ -8320,7 +8409,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
@@ -8329,10 +8418,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N123" s="2">
         <v>1</v>
@@ -8346,7 +8435,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D124" s="2">
         <v>-1</v>
@@ -8355,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
@@ -8364,10 +8453,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N124" s="2">
         <v>1</v>
@@ -8381,7 +8470,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D125" s="2">
         <v>-1</v>
@@ -8390,7 +8479,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
@@ -8399,10 +8488,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N125" s="2">
         <v>1</v>
@@ -8416,7 +8505,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D126" s="2">
         <v>-1</v>
@@ -8425,7 +8514,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -8434,10 +8523,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N126" s="2">
         <v>1</v>
@@ -8451,7 +8540,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D127" s="2">
         <v>-1</v>
@@ -8460,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -8469,10 +8558,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N127" s="2">
         <v>1</v>
@@ -8486,7 +8575,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D128" s="2">
         <v>-1</v>
@@ -8495,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
@@ -8504,10 +8593,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N128" s="2">
         <v>1</v>
@@ -8521,7 +8610,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D129" s="2">
         <v>-1</v>
@@ -8530,7 +8619,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
@@ -8539,10 +8628,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N129" s="2">
         <v>1</v>
@@ -8556,7 +8645,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D130" s="2">
         <v>-1</v>
@@ -8565,7 +8654,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
@@ -8574,10 +8663,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N130" s="2">
         <v>1</v>
@@ -8590,29 +8679,29 @@
       <c r="B131" s="2">
         <v>130</v>
       </c>
-      <c r="C131" s="38" t="s">
-        <v>928</v>
-      </c>
-      <c r="D131" s="39">
-        <v>-1</v>
-      </c>
-      <c r="E131" s="39">
-        <v>1</v>
-      </c>
-      <c r="F131" s="40" t="s">
-        <v>919</v>
-      </c>
-      <c r="G131" s="39">
+      <c r="C131" s="33" t="s">
+        <v>927</v>
+      </c>
+      <c r="D131" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E131" s="34">
+        <v>1</v>
+      </c>
+      <c r="F131" s="35" t="s">
+        <v>918</v>
+      </c>
+      <c r="G131" s="34">
         <v>0</v>
       </c>
-      <c r="H131" s="39">
-        <v>1</v>
-      </c>
-      <c r="I131" s="40" t="s">
-        <v>955</v>
-      </c>
-      <c r="J131" s="40" t="s">
-        <v>941</v>
+      <c r="H131" s="34">
+        <v>1</v>
+      </c>
+      <c r="I131" s="35" t="s">
+        <v>954</v>
+      </c>
+      <c r="J131" s="35" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -8623,7 +8712,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D132" s="11">
         <v>-1</v>
@@ -8632,7 +8721,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G132" s="11">
         <v>0</v>
@@ -8641,10 +8730,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="J132" s="12" t="s">
         <v>467</v>
-      </c>
-      <c r="J132" s="12" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -8655,7 +8744,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D133" s="11">
         <v>-1</v>
@@ -8664,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G133" s="11">
         <v>0</v>
@@ -8673,10 +8762,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -8687,7 +8776,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D134" s="11">
         <v>-1</v>
@@ -8696,7 +8785,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G134" s="11">
         <v>0</v>
@@ -8705,10 +8794,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J134" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -8719,7 +8808,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D135" s="11">
         <v>-1</v>
@@ -8728,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G135" s="11">
         <v>0</v>
@@ -8737,10 +8826,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J135" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -8751,7 +8840,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D136" s="11">
         <v>-1</v>
@@ -8760,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G136" s="11">
         <v>0</v>
@@ -8769,10 +8858,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J136" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -8783,7 +8872,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D137" s="11">
         <v>-1</v>
@@ -8792,7 +8881,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G137" s="11">
         <v>0</v>
@@ -8801,10 +8890,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J137" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -8815,7 +8904,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D138" s="2">
         <v>-1</v>
@@ -8824,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -8833,10 +8922,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -8847,7 +8936,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D139" s="2">
         <v>-1</v>
@@ -8856,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -8865,10 +8954,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -8879,7 +8968,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D140" s="2">
         <v>-1</v>
@@ -8897,10 +8986,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -8911,7 +9000,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D141" s="2">
         <v>-1</v>
@@ -8920,7 +9009,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -8929,10 +9018,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -8943,7 +9032,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D142" s="2">
         <v>-1</v>
@@ -8952,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -8961,10 +9050,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -8975,7 +9064,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D143" s="2">
         <v>-1</v>
@@ -8984,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -8993,10 +9082,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -9007,16 +9096,16 @@
         <v>143</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D144" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="D144" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E144" s="2">
-        <v>1</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -9025,10 +9114,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="J144" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="J144" s="5" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
@@ -9039,7 +9128,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D145" s="2">
         <v>-1</v>
@@ -9048,7 +9137,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -9057,10 +9146,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="J145" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="J145" s="5" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="146" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9071,7 +9160,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D146" s="11">
         <v>-1</v>
@@ -9080,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G146" s="11">
         <v>0</v>
@@ -9089,10 +9178,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="J146" s="21" t="s">
         <v>514</v>
-      </c>
-      <c r="J146" s="21" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="147" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9103,7 +9192,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D147" s="11">
         <v>-1</v>
@@ -9112,7 +9201,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G147" s="11">
         <v>0</v>
@@ -9121,10 +9210,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="J147" s="21" t="s">
         <v>517</v>
-      </c>
-      <c r="J147" s="21" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="148" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9135,7 +9224,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D148" s="11">
         <v>-1</v>
@@ -9144,7 +9233,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G148" s="11">
         <v>0</v>
@@ -9153,10 +9242,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="J148" s="21" t="s">
         <v>520</v>
-      </c>
-      <c r="J148" s="21" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="149" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9167,7 +9256,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D149" s="11">
         <v>-1</v>
@@ -9176,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G149" s="11">
         <v>0</v>
@@ -9185,10 +9274,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="J149" s="21" t="s">
         <v>523</v>
-      </c>
-      <c r="J149" s="21" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="150" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9199,7 +9288,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D150" s="11">
         <v>-1</v>
@@ -9208,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G150" s="11">
         <v>0</v>
@@ -9217,10 +9306,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="J150" s="21" t="s">
         <v>526</v>
-      </c>
-      <c r="J150" s="21" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="151" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9231,16 +9320,16 @@
         <v>150</v>
       </c>
       <c r="C151" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D151" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="11">
+        <v>1</v>
+      </c>
+      <c r="F151" s="12" t="s">
         <v>528</v>
-      </c>
-      <c r="D151" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E151" s="11">
-        <v>1</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>529</v>
       </c>
       <c r="G151" s="11">
         <v>0</v>
@@ -9249,10 +9338,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="J151" s="21" t="s">
         <v>530</v>
-      </c>
-      <c r="J151" s="21" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="152" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9263,7 +9352,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D152" s="11">
         <v>-1</v>
@@ -9272,7 +9361,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G152" s="11">
         <v>0</v>
@@ -9281,10 +9370,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J152" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="153" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9295,7 +9384,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D153" s="11">
         <v>-1</v>
@@ -9304,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G153" s="11">
         <v>0</v>
@@ -9313,10 +9402,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J153" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="154" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9327,7 +9416,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D154" s="11">
         <v>-1</v>
@@ -9336,7 +9425,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G154" s="11">
         <v>0</v>
@@ -9345,10 +9434,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J154" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="155" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -9359,16 +9448,16 @@
         <v>154</v>
       </c>
       <c r="C155" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="D155" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="11">
+        <v>1</v>
+      </c>
+      <c r="F155" s="12" t="s">
         <v>543</v>
-      </c>
-      <c r="D155" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E155" s="11">
-        <v>1</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>544</v>
       </c>
       <c r="G155" s="11">
         <v>0</v>
@@ -9377,10 +9466,10 @@
         <v>33</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="156" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9391,7 +9480,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D156" s="11">
         <v>-1</v>
@@ -9400,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G156" s="11">
         <v>0</v>
@@ -9409,10 +9498,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="J156" s="21" t="s">
         <v>546</v>
-      </c>
-      <c r="J156" s="21" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="157" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9423,7 +9512,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D157" s="11">
         <v>-1</v>
@@ -9432,7 +9521,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G157" s="11">
         <v>1</v>
@@ -9441,13 +9530,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N157" s="11">
         <v>9</v>
@@ -9461,7 +9550,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D158" s="11">
         <v>-1</v>
@@ -9470,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G158" s="11">
         <v>1</v>
@@ -9479,13 +9568,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N158" s="11">
         <v>9</v>
@@ -9499,7 +9588,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D159" s="11">
         <v>-1</v>
@@ -9508,7 +9597,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G159" s="11">
         <v>1</v>
@@ -9517,13 +9606,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N159" s="11">
         <v>9</v>
@@ -9537,7 +9626,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -9546,7 +9635,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -9555,13 +9644,13 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N160" s="11">
         <v>9</v>
@@ -9575,7 +9664,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -9584,7 +9673,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -9593,190 +9682,190 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N161" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:14" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="34">
+    <row r="162" spans="1:14" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="29">
         <v>161</v>
       </c>
-      <c r="B162" s="34">
+      <c r="B162" s="29">
         <v>161</v>
       </c>
-      <c r="C162" s="35" t="s">
-        <v>623</v>
-      </c>
-      <c r="D162" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E162" s="34">
-        <v>1</v>
-      </c>
-      <c r="F162" s="36" t="s">
+      <c r="C162" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="D162" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E162" s="29">
+        <v>1</v>
+      </c>
+      <c r="F162" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="G162" s="29">
+        <v>1</v>
+      </c>
+      <c r="H162" s="29">
+        <v>34</v>
+      </c>
+      <c r="I162" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="J162" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="N162" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="29">
+        <v>162</v>
+      </c>
+      <c r="B163" s="29">
+        <v>162</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="D163" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E163" s="29">
+        <v>1</v>
+      </c>
+      <c r="F163" s="31" t="s">
         <v>569</v>
       </c>
-      <c r="G162" s="34">
-        <v>1</v>
-      </c>
-      <c r="H162" s="34">
+      <c r="G163" s="29">
+        <v>1</v>
+      </c>
+      <c r="H163" s="29">
         <v>34</v>
       </c>
-      <c r="I162" s="36" t="s">
-        <v>556</v>
-      </c>
-      <c r="J162" s="36" t="s">
-        <v>556</v>
-      </c>
-      <c r="N162" s="34">
+      <c r="I163" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="J163" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="N163" s="29">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:14" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="34">
-        <v>162</v>
-      </c>
-      <c r="B163" s="34">
-        <v>162</v>
-      </c>
-      <c r="C163" s="35" t="s">
+    <row r="164" spans="1:14" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="29">
+        <v>163</v>
+      </c>
+      <c r="B164" s="29">
+        <v>163</v>
+      </c>
+      <c r="C164" s="30" t="s">
         <v>549</v>
       </c>
-      <c r="D163" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E163" s="34">
-        <v>1</v>
-      </c>
-      <c r="F163" s="36" t="s">
+      <c r="D164" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E164" s="29">
+        <v>1</v>
+      </c>
+      <c r="F164" s="31" t="s">
         <v>570</v>
       </c>
-      <c r="G163" s="34">
-        <v>1</v>
-      </c>
-      <c r="H163" s="34">
+      <c r="G164" s="29">
+        <v>1</v>
+      </c>
+      <c r="H164" s="29">
         <v>34</v>
       </c>
-      <c r="I163" s="36" t="s">
+      <c r="I164" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="J163" s="36" t="s">
+      <c r="J164" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="N163" s="34">
+      <c r="N164" s="29">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:14" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="34">
-        <v>163</v>
-      </c>
-      <c r="B164" s="34">
-        <v>163</v>
-      </c>
-      <c r="C164" s="35" t="s">
-        <v>550</v>
-      </c>
-      <c r="D164" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E164" s="34">
-        <v>1</v>
-      </c>
-      <c r="F164" s="36" t="s">
-        <v>571</v>
-      </c>
-      <c r="G164" s="34">
-        <v>1</v>
-      </c>
-      <c r="H164" s="34">
+    <row r="165" spans="1:14" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="29">
+        <v>164</v>
+      </c>
+      <c r="B165" s="29">
+        <v>164</v>
+      </c>
+      <c r="C165" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="D165" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E165" s="29">
+        <v>1</v>
+      </c>
+      <c r="F165" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="G165" s="29">
+        <v>1</v>
+      </c>
+      <c r="H165" s="29">
         <v>34</v>
       </c>
-      <c r="I164" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="J164" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="N164" s="34">
+      <c r="I165" s="31" t="s">
+        <v>614</v>
+      </c>
+      <c r="J165" s="31" t="s">
+        <v>614</v>
+      </c>
+      <c r="N165" s="29">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:14" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="34">
-        <v>164</v>
-      </c>
-      <c r="B165" s="34">
-        <v>164</v>
-      </c>
-      <c r="C165" s="35" t="s">
+    <row r="166" spans="1:14" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="29">
+        <v>165</v>
+      </c>
+      <c r="B166" s="29">
+        <v>165</v>
+      </c>
+      <c r="C166" s="30" t="s">
         <v>600</v>
       </c>
-      <c r="D165" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E165" s="34">
-        <v>1</v>
-      </c>
-      <c r="F165" s="36" t="s">
+      <c r="D166" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="29">
+        <v>1</v>
+      </c>
+      <c r="F166" s="31" t="s">
         <v>606</v>
       </c>
-      <c r="G165" s="34">
-        <v>1</v>
-      </c>
-      <c r="H165" s="34">
+      <c r="G166" s="29">
+        <v>1</v>
+      </c>
+      <c r="H166" s="29">
         <v>34</v>
       </c>
-      <c r="I165" s="36" t="s">
-        <v>615</v>
-      </c>
-      <c r="J165" s="36" t="s">
-        <v>615</v>
-      </c>
-      <c r="N165" s="34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="34">
-        <v>165</v>
-      </c>
-      <c r="B166" s="34">
-        <v>165</v>
-      </c>
-      <c r="C166" s="35" t="s">
-        <v>601</v>
-      </c>
-      <c r="D166" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E166" s="34">
-        <v>1</v>
-      </c>
-      <c r="F166" s="36" t="s">
-        <v>607</v>
-      </c>
-      <c r="G166" s="34">
-        <v>1</v>
-      </c>
-      <c r="H166" s="34">
-        <v>34</v>
-      </c>
-      <c r="I166" s="36" t="s">
-        <v>614</v>
-      </c>
-      <c r="J166" s="36" t="s">
-        <v>614</v>
-      </c>
-      <c r="N166" s="34">
+      <c r="I166" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="J166" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="N166" s="29">
         <v>9</v>
       </c>
     </row>
@@ -9788,7 +9877,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D167" s="11">
         <v>-1</v>
@@ -9797,7 +9886,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G167" s="11">
         <v>1</v>
@@ -9806,10 +9895,10 @@
         <v>34</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N167" s="11">
         <v>9</v>
@@ -9823,7 +9912,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D168" s="11">
         <v>-1</v>
@@ -9832,7 +9921,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G168" s="11">
         <v>1</v>
@@ -9841,10 +9930,10 @@
         <v>34</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N168" s="11">
         <v>9</v>
@@ -9858,7 +9947,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D169" s="11">
         <v>-1</v>
@@ -9867,7 +9956,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G169" s="11">
         <v>1</v>
@@ -9876,10 +9965,10 @@
         <v>34</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N169" s="11">
         <v>9</v>
@@ -9893,7 +9982,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D170" s="11">
         <v>-1</v>
@@ -9902,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G170" s="11">
         <v>1</v>
@@ -9911,10 +10000,10 @@
         <v>34</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N170" s="11">
         <v>9</v>
@@ -9928,7 +10017,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D171" s="11">
         <v>-1</v>
@@ -9937,7 +10026,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G171" s="11">
         <v>1</v>
@@ -9946,10 +10035,10 @@
         <v>34</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N171" s="11">
         <v>9</v>
@@ -9963,7 +10052,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D172" s="11">
         <v>-1</v>
@@ -9972,7 +10061,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G172" s="11">
         <v>0</v>
@@ -9981,10 +10070,10 @@
         <v>33</v>
       </c>
       <c r="I172" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="J172" s="12" t="s">
         <v>575</v>
-      </c>
-      <c r="J172" s="12" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="173" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9995,16 +10084,16 @@
         <v>172</v>
       </c>
       <c r="C173" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="D173" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E173" s="13">
+        <v>1</v>
+      </c>
+      <c r="F173" s="13" t="s">
         <v>582</v>
-      </c>
-      <c r="D173" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E173" s="13">
-        <v>1</v>
-      </c>
-      <c r="F173" s="13" t="s">
-        <v>583</v>
       </c>
       <c r="G173" s="13">
         <v>1</v>
@@ -10013,10 +10102,10 @@
         <v>33</v>
       </c>
       <c r="I173" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="J173" s="13" t="s">
         <v>584</v>
-      </c>
-      <c r="J173" s="13" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="174" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10027,16 +10116,16 @@
         <v>173</v>
       </c>
       <c r="C174" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="D174" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E174" s="13">
+        <v>1</v>
+      </c>
+      <c r="F174" s="13" t="s">
         <v>586</v>
-      </c>
-      <c r="D174" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E174" s="13">
-        <v>1</v>
-      </c>
-      <c r="F174" s="13" t="s">
-        <v>587</v>
       </c>
       <c r="G174" s="13">
         <v>1</v>
@@ -10045,10 +10134,10 @@
         <v>33</v>
       </c>
       <c r="I174" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="J174" s="13" t="s">
         <v>588</v>
-      </c>
-      <c r="J174" s="13" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="175" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10059,16 +10148,16 @@
         <v>174</v>
       </c>
       <c r="C175" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="D175" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E175" s="13">
+        <v>1</v>
+      </c>
+      <c r="F175" s="13" t="s">
         <v>590</v>
-      </c>
-      <c r="D175" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E175" s="13">
-        <v>1</v>
-      </c>
-      <c r="F175" s="13" t="s">
-        <v>591</v>
       </c>
       <c r="G175" s="13">
         <v>1</v>
@@ -10077,10 +10166,10 @@
         <v>33</v>
       </c>
       <c r="I175" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="J175" s="13" t="s">
         <v>592</v>
-      </c>
-      <c r="J175" s="13" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="176" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -10091,16 +10180,16 @@
         <v>175</v>
       </c>
       <c r="C176" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="D176" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="23">
+        <v>1</v>
+      </c>
+      <c r="F176" s="23" t="s">
         <v>594</v>
-      </c>
-      <c r="D176" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E176" s="23">
-        <v>1</v>
-      </c>
-      <c r="F176" s="23" t="s">
-        <v>595</v>
       </c>
       <c r="G176" s="23">
         <v>0</v>
@@ -10109,10 +10198,10 @@
         <v>33</v>
       </c>
       <c r="I176" s="23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J176" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="177" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -10123,16 +10212,16 @@
         <v>176</v>
       </c>
       <c r="C177" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="D177" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E177" s="25">
+        <v>1</v>
+      </c>
+      <c r="F177" s="25" t="s">
         <v>619</v>
-      </c>
-      <c r="D177" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E177" s="25">
-        <v>1</v>
-      </c>
-      <c r="F177" s="25" t="s">
-        <v>620</v>
       </c>
       <c r="G177" s="25">
         <v>0</v>
@@ -10141,10 +10230,10 @@
         <v>33</v>
       </c>
       <c r="I177" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="J177" s="25" t="s">
         <v>621</v>
-      </c>
-      <c r="J177" s="25" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="178" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -10155,7 +10244,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D178" s="2">
         <v>-1</v>
@@ -10164,7 +10253,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G178" s="2">
         <v>1</v>
@@ -10173,10 +10262,10 @@
         <v>32</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
@@ -10192,7 +10281,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D179" s="2">
         <v>-1</v>
@@ -10201,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G179" s="2">
         <v>1</v>
@@ -10210,10 +10299,10 @@
         <v>33</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
@@ -10229,7 +10318,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D180" s="2">
         <v>-1</v>
@@ -10238,7 +10327,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
@@ -10247,10 +10336,10 @@
         <v>33</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
@@ -10266,7 +10355,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D181" s="25">
         <v>-1</v>
@@ -10275,7 +10364,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G181" s="25">
         <v>0</v>
@@ -10284,10 +10373,10 @@
         <v>33</v>
       </c>
       <c r="I181" s="25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J181" s="25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="182" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -10298,16 +10387,16 @@
         <v>181</v>
       </c>
       <c r="C182" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="D182" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E182" s="23">
+        <v>1</v>
+      </c>
+      <c r="F182" s="23" t="s">
         <v>648</v>
-      </c>
-      <c r="D182" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E182" s="23">
-        <v>1</v>
-      </c>
-      <c r="F182" s="23" t="s">
-        <v>649</v>
       </c>
       <c r="G182" s="23">
         <v>1</v>
@@ -10316,13 +10405,13 @@
         <v>33</v>
       </c>
       <c r="I182" s="24" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J182" s="23" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L182" s="23" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="O182" s="23">
         <v>57</v>
@@ -10336,7 +10425,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D183" s="23">
         <v>-1</v>
@@ -10345,7 +10434,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="23" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G183" s="23">
         <v>1</v>
@@ -10354,13 +10443,13 @@
         <v>33</v>
       </c>
       <c r="I183" s="24" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J183" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L183" s="24" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="O183" s="23">
         <v>58</v>
@@ -10374,7 +10463,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D184" s="23">
         <v>-1</v>
@@ -10383,7 +10472,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="23" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G184" s="23">
         <v>1</v>
@@ -10392,13 +10481,13 @@
         <v>33</v>
       </c>
       <c r="I184" s="24" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J184" s="24" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L184" s="23" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O184" s="23">
         <v>59</v>
@@ -10412,7 +10501,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D185" s="27">
         <v>-1</v>
@@ -10421,7 +10510,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G185" s="27">
         <v>1</v>
@@ -10430,10 +10519,10 @@
         <v>1</v>
       </c>
       <c r="I185" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="J185" s="28" t="s">
         <v>661</v>
-      </c>
-      <c r="J185" s="28" t="s">
-        <v>662</v>
       </c>
       <c r="N185" s="27">
         <v>16</v>
@@ -10447,7 +10536,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D186" s="27">
         <v>-1</v>
@@ -10456,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G186" s="27">
         <v>1</v>
@@ -10465,10 +10554,10 @@
         <v>2</v>
       </c>
       <c r="I186" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="J186" s="28" t="s">
         <v>663</v>
-      </c>
-      <c r="J186" s="28" t="s">
-        <v>664</v>
       </c>
       <c r="N186" s="27">
         <v>16</v>
@@ -10482,7 +10571,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="27" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D187" s="27">
         <v>-1</v>
@@ -10491,7 +10580,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G187" s="27">
         <v>1</v>
@@ -10500,10 +10589,10 @@
         <v>3</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J187" s="28" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N187" s="27">
         <v>16</v>
@@ -10517,7 +10606,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D188" s="27">
         <v>-1</v>
@@ -10526,7 +10615,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G188" s="27">
         <v>1</v>
@@ -10535,10 +10624,10 @@
         <v>4</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N188" s="27">
         <v>16</v>
@@ -10552,7 +10641,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D189" s="27">
         <v>-1</v>
@@ -10561,7 +10650,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G189" s="27">
         <v>1</v>
@@ -10570,10 +10659,10 @@
         <v>5</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J189" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N189" s="27">
         <v>16</v>
@@ -10587,7 +10676,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D190" s="27">
         <v>-1</v>
@@ -10596,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G190" s="27">
         <v>1</v>
@@ -10605,10 +10694,10 @@
         <v>6</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J190" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N190" s="27">
         <v>16</v>
@@ -10622,7 +10711,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D191" s="27">
         <v>-1</v>
@@ -10631,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G191" s="27">
         <v>1</v>
@@ -10640,10 +10729,10 @@
         <v>7</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N191" s="27">
         <v>16</v>
@@ -10657,7 +10746,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D192" s="27">
         <v>-1</v>
@@ -10666,7 +10755,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G192" s="27">
         <v>1</v>
@@ -10675,10 +10764,10 @@
         <v>8</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N192" s="27">
         <v>16</v>
@@ -10692,7 +10781,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="28" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D193" s="27">
         <v>-1</v>
@@ -10701,7 +10790,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G193" s="27">
         <v>1</v>
@@ -10710,10 +10799,10 @@
         <v>9</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J193" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N193" s="27">
         <v>16</v>
@@ -10727,7 +10816,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D194" s="27">
         <v>-1</v>
@@ -10736,7 +10825,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G194" s="27">
         <v>1</v>
@@ -10745,10 +10834,10 @@
         <v>10</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N194" s="27">
         <v>16</v>
@@ -10762,7 +10851,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="28" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D195" s="27">
         <v>-1</v>
@@ -10771,7 +10860,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G195" s="27">
         <v>1</v>
@@ -10780,10 +10869,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J195" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N195" s="27">
         <v>16</v>
@@ -10797,7 +10886,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D196" s="27">
         <v>-1</v>
@@ -10806,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G196" s="27">
         <v>1</v>
@@ -10815,10 +10904,10 @@
         <v>12</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N196" s="27">
         <v>16</v>
@@ -10832,7 +10921,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D197" s="27">
         <v>-1</v>
@@ -10841,7 +10930,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G197" s="27">
         <v>1</v>
@@ -10850,10 +10939,10 @@
         <v>13</v>
       </c>
       <c r="I197" s="28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N197" s="27">
         <v>16</v>
@@ -10867,7 +10956,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D198" s="27">
         <v>-1</v>
@@ -10876,7 +10965,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G198" s="27">
         <v>1</v>
@@ -10885,10 +10974,10 @@
         <v>14</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N198" s="27">
         <v>16</v>
@@ -10902,7 +10991,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D199" s="27">
         <v>-1</v>
@@ -10911,7 +11000,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G199" s="27">
         <v>1</v>
@@ -10920,10 +11009,10 @@
         <v>15</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N199" s="27">
         <v>16</v>
@@ -10937,7 +11026,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D200" s="27">
         <v>-1</v>
@@ -10946,7 +11035,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G200" s="27">
         <v>1</v>
@@ -10955,10 +11044,10 @@
         <v>16</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N200" s="27">
         <v>16</v>
@@ -10972,7 +11061,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D201" s="27">
         <v>-1</v>
@@ -10981,7 +11070,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G201" s="27">
         <v>1</v>
@@ -10990,10 +11079,10 @@
         <v>17</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N201" s="27">
         <v>16</v>
@@ -11007,7 +11096,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D202" s="27">
         <v>-1</v>
@@ -11016,7 +11105,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G202" s="27">
         <v>1</v>
@@ -11025,10 +11114,10 @@
         <v>18</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N202" s="27">
         <v>16</v>
@@ -11042,7 +11131,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D203" s="27">
         <v>-1</v>
@@ -11051,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G203" s="27">
         <v>1</v>
@@ -11060,10 +11149,10 @@
         <v>19</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N203" s="27">
         <v>16</v>
@@ -11077,7 +11166,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D204" s="27">
         <v>-1</v>
@@ -11086,7 +11175,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G204" s="27">
         <v>1</v>
@@ -11095,10 +11184,10 @@
         <v>20</v>
       </c>
       <c r="I204" s="28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N204" s="27">
         <v>16</v>
@@ -11112,7 +11201,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D205" s="27">
         <v>-1</v>
@@ -11121,7 +11210,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G205" s="27">
         <v>1</v>
@@ -11130,10 +11219,10 @@
         <v>21</v>
       </c>
       <c r="I205" s="28" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J205" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N205" s="27">
         <v>16</v>
@@ -11147,7 +11236,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D206" s="27">
         <v>-1</v>
@@ -11156,7 +11245,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G206" s="27">
         <v>1</v>
@@ -11165,10 +11254,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="28" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J206" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N206" s="27">
         <v>16</v>
@@ -11182,7 +11271,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D207" s="27">
         <v>-1</v>
@@ -11191,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G207" s="27">
         <v>1</v>
@@ -11200,10 +11289,10 @@
         <v>23</v>
       </c>
       <c r="I207" s="28" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J207" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N207" s="27">
         <v>16</v>
@@ -11217,7 +11306,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D208" s="27">
         <v>-1</v>
@@ -11226,7 +11315,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G208" s="27">
         <v>1</v>
@@ -11235,10 +11324,10 @@
         <v>24</v>
       </c>
       <c r="I208" s="28" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J208" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N208" s="27">
         <v>16</v>
@@ -11252,7 +11341,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D209" s="27">
         <v>-1</v>
@@ -11261,7 +11350,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G209" s="27">
         <v>1</v>
@@ -11270,10 +11359,10 @@
         <v>25</v>
       </c>
       <c r="I209" s="28" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J209" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N209" s="27">
         <v>16</v>
@@ -11287,7 +11376,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D210" s="27">
         <v>-1</v>
@@ -11296,7 +11385,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G210" s="27">
         <v>1</v>
@@ -11305,10 +11394,10 @@
         <v>26</v>
       </c>
       <c r="I210" s="28" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J210" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N210" s="27">
         <v>16</v>
@@ -11322,7 +11411,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D211" s="27">
         <v>-1</v>
@@ -11331,7 +11420,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G211" s="27">
         <v>1</v>
@@ -11340,10 +11429,10 @@
         <v>27</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N211" s="27">
         <v>16</v>
@@ -11357,7 +11446,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D212" s="27">
         <v>-1</v>
@@ -11366,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G212" s="27">
         <v>1</v>
@@ -11375,10 +11464,10 @@
         <v>28</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N212" s="27">
         <v>16</v>
@@ -11392,7 +11481,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D213" s="27">
         <v>-1</v>
@@ -11401,7 +11490,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G213" s="27">
         <v>1</v>
@@ -11410,10 +11499,10 @@
         <v>29</v>
       </c>
       <c r="I213" s="28" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N213" s="27">
         <v>16</v>
@@ -11427,7 +11516,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D214" s="27">
         <v>-1</v>
@@ -11436,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G214" s="27">
         <v>1</v>
@@ -11445,10 +11534,10 @@
         <v>30</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N214" s="27">
         <v>16</v>
@@ -11462,7 +11551,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D215" s="27">
         <v>-1</v>
@@ -11471,7 +11560,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G215" s="27">
         <v>1</v>
@@ -11480,10 +11569,10 @@
         <v>31</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J215" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N215" s="27">
         <v>16</v>
@@ -11497,7 +11586,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="28" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D216" s="27">
         <v>-1</v>
@@ -11506,7 +11595,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G216" s="27">
         <v>1</v>
@@ -11515,10 +11604,10 @@
         <v>32</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J216" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N216" s="27">
         <v>16</v>
@@ -11532,7 +11621,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D217" s="27">
         <v>-1</v>
@@ -11541,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G217" s="27">
         <v>1</v>
@@ -11550,10 +11639,10 @@
         <v>33</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N217" s="27">
         <v>16</v>
@@ -11567,7 +11656,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="28" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D218" s="27">
         <v>-1</v>
@@ -11576,7 +11665,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G218" s="27">
         <v>1</v>
@@ -11585,10 +11674,10 @@
         <v>34</v>
       </c>
       <c r="I218" s="28" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J218" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N218" s="27">
         <v>16</v>
@@ -11602,7 +11691,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D219" s="27">
         <v>-1</v>
@@ -11611,7 +11700,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G219" s="27">
         <v>1</v>
@@ -11620,10 +11709,10 @@
         <v>35</v>
       </c>
       <c r="I219" s="28" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J219" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N219" s="27">
         <v>16</v>
@@ -11637,7 +11726,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D220" s="27">
         <v>-1</v>
@@ -11646,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="28" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G220" s="27">
         <v>1</v>
@@ -11655,10 +11744,10 @@
         <v>36</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N220" s="27">
         <v>16</v>
@@ -11672,7 +11761,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D221" s="27">
         <v>-1</v>
@@ -11681,7 +11770,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="28" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G221" s="27">
         <v>1</v>
@@ -11690,10 +11779,10 @@
         <v>38</v>
       </c>
       <c r="I221" s="28" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J221" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N221" s="27">
         <v>16</v>
@@ -11707,7 +11796,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D222" s="27">
         <v>-1</v>
@@ -11716,7 +11805,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G222" s="27">
         <v>1</v>
@@ -11725,10 +11814,10 @@
         <v>39</v>
       </c>
       <c r="I222" s="28" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J222" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N222" s="27">
         <v>16</v>
@@ -11742,7 +11831,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D223" s="27">
         <v>-1</v>
@@ -11751,7 +11840,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G223" s="27">
         <v>1</v>
@@ -11760,10 +11849,10 @@
         <v>40</v>
       </c>
       <c r="I223" s="28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J223" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N223" s="27">
         <v>16</v>
@@ -11777,7 +11866,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D224" s="27">
         <v>-1</v>
@@ -11786,7 +11875,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G224" s="27">
         <v>1</v>
@@ -11795,10 +11884,10 @@
         <v>41</v>
       </c>
       <c r="I224" s="28" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J224" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N224" s="27">
         <v>16</v>
@@ -11812,7 +11901,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D225" s="27">
         <v>-1</v>
@@ -11821,7 +11910,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G225" s="27">
         <v>1</v>
@@ -11830,10 +11919,10 @@
         <v>42</v>
       </c>
       <c r="I225" s="28" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J225" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N225" s="27">
         <v>16</v>
@@ -11847,7 +11936,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D226" s="27">
         <v>-1</v>
@@ -11856,7 +11945,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G226" s="27">
         <v>1</v>
@@ -11865,10 +11954,10 @@
         <v>43</v>
       </c>
       <c r="I226" s="28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J226" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N226" s="27">
         <v>16</v>
@@ -11882,7 +11971,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D227" s="27">
         <v>-1</v>
@@ -11891,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G227" s="27">
         <v>1</v>
@@ -11900,10 +11989,10 @@
         <v>44</v>
       </c>
       <c r="I227" s="28" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J227" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N227" s="27">
         <v>16</v>
@@ -11917,7 +12006,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D228" s="27">
         <v>-1</v>
@@ -11926,7 +12015,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G228" s="27">
         <v>1</v>
@@ -11935,10 +12024,10 @@
         <v>45</v>
       </c>
       <c r="I228" s="28" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J228" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N228" s="27">
         <v>16</v>
@@ -11952,7 +12041,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D229" s="27">
         <v>-1</v>
@@ -11961,7 +12050,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G229" s="27">
         <v>1</v>
@@ -11970,10 +12059,10 @@
         <v>46</v>
       </c>
       <c r="I229" s="28" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J229" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N229" s="27">
         <v>16</v>
@@ -11987,7 +12076,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D230" s="27">
         <v>-1</v>
@@ -11996,